--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1417700</v>
+        <v>1121100</v>
       </c>
       <c r="E8" s="3">
-        <v>1638600</v>
+        <v>1182200</v>
       </c>
       <c r="F8" s="3">
-        <v>1380900</v>
+        <v>1123300</v>
       </c>
       <c r="G8" s="3">
-        <v>1346300</v>
+        <v>1298300</v>
       </c>
       <c r="H8" s="3">
-        <v>1460000</v>
+        <v>1094100</v>
       </c>
       <c r="I8" s="3">
+        <v>1066800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1156900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1309200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1152500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1681300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1316700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1334500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1233900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1159200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1376300</v>
+        <v>837600</v>
       </c>
       <c r="E9" s="3">
-        <v>1031700</v>
+        <v>938400</v>
       </c>
       <c r="F9" s="3">
-        <v>984300</v>
+        <v>1090500</v>
       </c>
       <c r="G9" s="3">
-        <v>1012800</v>
+        <v>817500</v>
       </c>
       <c r="H9" s="3">
-        <v>1196100</v>
+        <v>779900</v>
       </c>
       <c r="I9" s="3">
+        <v>802500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>947700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1048200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>870900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1306100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1203200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1093200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>880800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>925600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>41300</v>
+        <v>283500</v>
       </c>
       <c r="E10" s="3">
-        <v>606900</v>
+        <v>243800</v>
       </c>
       <c r="F10" s="3">
-        <v>396500</v>
+        <v>32700</v>
       </c>
       <c r="G10" s="3">
-        <v>333500</v>
+        <v>480800</v>
       </c>
       <c r="H10" s="3">
-        <v>263900</v>
+        <v>314200</v>
       </c>
       <c r="I10" s="3">
+        <v>264300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K10" s="3">
         <v>261100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>281600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>375200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>113500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>241200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>353200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>233600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,31 +1002,37 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>112700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1501200</v>
+        <v>1016500</v>
       </c>
       <c r="E17" s="3">
-        <v>1273500</v>
+        <v>1057600</v>
       </c>
       <c r="F17" s="3">
-        <v>1093500</v>
+        <v>1189500</v>
       </c>
       <c r="G17" s="3">
-        <v>1194200</v>
+        <v>1009000</v>
       </c>
       <c r="H17" s="3">
-        <v>1301200</v>
+        <v>866500</v>
       </c>
       <c r="I17" s="3">
+        <v>946300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1154200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>967100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1343200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1343700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1198500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1003500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1185500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-83600</v>
+        <v>104600</v>
       </c>
       <c r="E18" s="3">
-        <v>365100</v>
+        <v>124600</v>
       </c>
       <c r="F18" s="3">
-        <v>287300</v>
+        <v>-66200</v>
       </c>
       <c r="G18" s="3">
-        <v>152100</v>
+        <v>289300</v>
       </c>
       <c r="H18" s="3">
-        <v>158900</v>
+        <v>227600</v>
       </c>
       <c r="I18" s="3">
+        <v>120500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>125900</v>
+      </c>
+      <c r="K18" s="3">
         <v>155000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>185400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>338100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>135900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>230400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-26400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>19900</v>
+        <v>-76800</v>
       </c>
       <c r="E20" s="3">
-        <v>516300</v>
+        <v>16500</v>
       </c>
       <c r="F20" s="3">
-        <v>47100</v>
+        <v>15800</v>
       </c>
       <c r="G20" s="3">
-        <v>238700</v>
+        <v>409100</v>
       </c>
       <c r="H20" s="3">
-        <v>2000</v>
+        <v>37300</v>
       </c>
       <c r="I20" s="3">
+        <v>189100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-89000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>32400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>91500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>17600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>26000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-6700</v>
+        <v>72700</v>
       </c>
       <c r="E21" s="3">
-        <v>939400</v>
+        <v>184600</v>
       </c>
       <c r="F21" s="3">
-        <v>388400</v>
+        <v>-5300</v>
       </c>
       <c r="G21" s="3">
-        <v>444400</v>
+        <v>744400</v>
       </c>
       <c r="H21" s="3">
-        <v>209400</v>
+        <v>307700</v>
       </c>
       <c r="I21" s="3">
+        <v>352200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>165900</v>
+      </c>
+      <c r="K21" s="3">
         <v>112300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>267500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>412400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>117200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>203700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>299700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>57500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74500</v>
+        <v>57700</v>
       </c>
       <c r="E22" s="3">
-        <v>70600</v>
+        <v>55900</v>
       </c>
       <c r="F22" s="3">
-        <v>70900</v>
+        <v>59000</v>
       </c>
       <c r="G22" s="3">
-        <v>82600</v>
+        <v>56000</v>
       </c>
       <c r="H22" s="3">
-        <v>79700</v>
+        <v>56100</v>
       </c>
       <c r="I22" s="3">
+        <v>65500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>63200</v>
+      </c>
+      <c r="K22" s="3">
         <v>73700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>69200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>85000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>88300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>101600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>118300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>123000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-138200</v>
+        <v>-29800</v>
       </c>
       <c r="E23" s="3">
-        <v>810800</v>
+        <v>85200</v>
       </c>
       <c r="F23" s="3">
-        <v>263600</v>
+        <v>-109500</v>
       </c>
       <c r="G23" s="3">
-        <v>308100</v>
+        <v>642400</v>
       </c>
       <c r="H23" s="3">
-        <v>81200</v>
+        <v>208800</v>
       </c>
       <c r="I23" s="3">
+        <v>244100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>64300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>148600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>267700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-23800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>48400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>129800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-123400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-20000</v>
+        <v>-19300</v>
       </c>
       <c r="E24" s="3">
-        <v>316900</v>
+        <v>-6900</v>
       </c>
       <c r="F24" s="3">
-        <v>77400</v>
+        <v>-15900</v>
       </c>
       <c r="G24" s="3">
-        <v>94600</v>
+        <v>251100</v>
       </c>
       <c r="H24" s="3">
-        <v>27400</v>
+        <v>61300</v>
       </c>
       <c r="I24" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>40100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>112700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>13000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>41900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-47400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-118100</v>
+        <v>-10500</v>
       </c>
       <c r="E26" s="3">
-        <v>493900</v>
+        <v>92100</v>
       </c>
       <c r="F26" s="3">
-        <v>186200</v>
+        <v>-93600</v>
       </c>
       <c r="G26" s="3">
-        <v>213500</v>
+        <v>391300</v>
       </c>
       <c r="H26" s="3">
-        <v>53800</v>
+        <v>147500</v>
       </c>
       <c r="I26" s="3">
+        <v>169100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>108500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>155000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-21500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>87900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-75900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-118200</v>
+        <v>-10600</v>
       </c>
       <c r="E27" s="3">
-        <v>493800</v>
+        <v>92100</v>
       </c>
       <c r="F27" s="3">
-        <v>186100</v>
+        <v>-93600</v>
       </c>
       <c r="G27" s="3">
-        <v>203900</v>
+        <v>391300</v>
       </c>
       <c r="H27" s="3">
-        <v>53700</v>
+        <v>147500</v>
       </c>
       <c r="I27" s="3">
+        <v>161500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>42600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>108500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>154900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-21500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>35400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>87800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-76000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,34 +1689,40 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>52300</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>76500</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3300</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>60600</v>
+      </c>
+      <c r="J29" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K29" s="3">
         <v>5000</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-19900</v>
+        <v>76800</v>
       </c>
       <c r="E32" s="3">
-        <v>-516300</v>
+        <v>-16500</v>
       </c>
       <c r="F32" s="3">
-        <v>-47100</v>
+        <v>-15800</v>
       </c>
       <c r="G32" s="3">
-        <v>-238700</v>
+        <v>-409100</v>
       </c>
       <c r="H32" s="3">
-        <v>-2000</v>
+        <v>-37300</v>
       </c>
       <c r="I32" s="3">
+        <v>-189100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
         <v>89000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-32400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-91500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-17600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-26000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-65800</v>
+        <v>-10600</v>
       </c>
       <c r="E33" s="3">
-        <v>493800</v>
+        <v>92100</v>
       </c>
       <c r="F33" s="3">
-        <v>186100</v>
+        <v>-52200</v>
       </c>
       <c r="G33" s="3">
-        <v>280400</v>
+        <v>391300</v>
       </c>
       <c r="H33" s="3">
-        <v>57100</v>
+        <v>147500</v>
       </c>
       <c r="I33" s="3">
+        <v>222200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>108500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>154900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-21500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>35400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>87800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-76000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-65800</v>
+        <v>-10600</v>
       </c>
       <c r="E35" s="3">
-        <v>493800</v>
+        <v>92100</v>
       </c>
       <c r="F35" s="3">
-        <v>186100</v>
+        <v>-52200</v>
       </c>
       <c r="G35" s="3">
-        <v>280400</v>
+        <v>391300</v>
       </c>
       <c r="H35" s="3">
-        <v>57100</v>
+        <v>147500</v>
       </c>
       <c r="I35" s="3">
+        <v>222200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>108500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>154900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-21500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>35400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>87800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-76000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162300</v>
+        <v>147200</v>
       </c>
       <c r="E41" s="3">
-        <v>174800</v>
+        <v>99100</v>
       </c>
       <c r="F41" s="3">
-        <v>186000</v>
+        <v>128600</v>
       </c>
       <c r="G41" s="3">
-        <v>208000</v>
+        <v>138500</v>
       </c>
       <c r="H41" s="3">
-        <v>348700</v>
+        <v>147400</v>
       </c>
       <c r="I41" s="3">
+        <v>164800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K41" s="3">
         <v>219700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>98600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>264100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>149300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>242600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>215900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>246900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>205300</v>
+        <v>283900</v>
       </c>
       <c r="E42" s="3">
-        <v>179000</v>
+        <v>139300</v>
       </c>
       <c r="F42" s="3">
-        <v>138800</v>
+        <v>162700</v>
       </c>
       <c r="G42" s="3">
-        <v>185500</v>
+        <v>141900</v>
       </c>
       <c r="H42" s="3">
-        <v>159900</v>
+        <v>110000</v>
       </c>
       <c r="I42" s="3">
+        <v>147000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>126700</v>
+      </c>
+      <c r="K42" s="3">
         <v>93200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>127700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>298600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>291600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>381900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>312700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>342800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1385100</v>
+        <v>1051500</v>
       </c>
       <c r="E43" s="3">
-        <v>1210300</v>
+        <v>1123200</v>
       </c>
       <c r="F43" s="3">
-        <v>1270100</v>
+        <v>1097500</v>
       </c>
       <c r="G43" s="3">
-        <v>1251900</v>
+        <v>959000</v>
       </c>
       <c r="H43" s="3">
-        <v>1396600</v>
+        <v>1006400</v>
       </c>
       <c r="I43" s="3">
+        <v>992000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1106600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1123800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1085700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1315800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1334900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1255000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1318800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1221900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>8800</v>
+        <v>6700</v>
       </c>
       <c r="E44" s="3">
-        <v>7800</v>
+        <v>7300</v>
       </c>
       <c r="F44" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="G44" s="3">
-        <v>8300</v>
+        <v>6200</v>
       </c>
       <c r="H44" s="3">
-        <v>7200</v>
+        <v>5900</v>
       </c>
       <c r="I44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>8200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>12500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>12300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>12300</v>
       </c>
       <c r="O44" s="3">
         <v>12300</v>
       </c>
       <c r="P44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="R44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>643100</v>
+        <v>449500</v>
       </c>
       <c r="E45" s="3">
-        <v>4877200</v>
+        <v>506800</v>
       </c>
       <c r="F45" s="3">
-        <v>4879900</v>
+        <v>509600</v>
       </c>
       <c r="G45" s="3">
-        <v>4837100</v>
+        <v>3864500</v>
       </c>
       <c r="H45" s="3">
-        <v>306300</v>
+        <v>3866600</v>
       </c>
       <c r="I45" s="3">
+        <v>3832700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>242700</v>
+      </c>
+      <c r="K45" s="3">
         <v>247800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>294200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>300500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>225700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>127200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>166100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>231600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2404700</v>
+        <v>1938900</v>
       </c>
       <c r="E46" s="3">
-        <v>6449200</v>
+        <v>1875700</v>
       </c>
       <c r="F46" s="3">
-        <v>6482200</v>
+        <v>1905400</v>
       </c>
       <c r="G46" s="3">
-        <v>6490900</v>
+        <v>5110000</v>
       </c>
       <c r="H46" s="3">
-        <v>2218700</v>
+        <v>5136200</v>
       </c>
       <c r="I46" s="3">
+        <v>5143100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1692500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1614300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2188800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2014000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2018900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2025900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2055500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5054800</v>
+        <v>3762000</v>
       </c>
       <c r="E47" s="3">
-        <v>4932700</v>
+        <v>3987800</v>
       </c>
       <c r="F47" s="3">
-        <v>3672200</v>
+        <v>4005200</v>
       </c>
       <c r="G47" s="3">
-        <v>3652700</v>
+        <v>3908400</v>
       </c>
       <c r="H47" s="3">
-        <v>4155700</v>
+        <v>2909700</v>
       </c>
       <c r="I47" s="3">
+        <v>2894200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3292800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4357200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4151900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4588500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4512800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4377600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4366800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4249400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>667400</v>
+        <v>497500</v>
       </c>
       <c r="E48" s="3">
-        <v>679300</v>
+        <v>504600</v>
       </c>
       <c r="F48" s="3">
-        <v>689200</v>
+        <v>528800</v>
       </c>
       <c r="G48" s="3">
-        <v>621500</v>
+        <v>538300</v>
       </c>
       <c r="H48" s="3">
-        <v>562700</v>
+        <v>546100</v>
       </c>
       <c r="I48" s="3">
+        <v>492500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>445800</v>
+      </c>
+      <c r="K48" s="3">
         <v>565300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>636500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>708200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>717100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>723800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>733000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>936500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2717900</v>
+        <v>2168000</v>
       </c>
       <c r="E49" s="3">
-        <v>2503000</v>
+        <v>2150900</v>
       </c>
       <c r="F49" s="3">
-        <v>2508200</v>
+        <v>2153500</v>
       </c>
       <c r="G49" s="3">
-        <v>2516700</v>
+        <v>1983300</v>
       </c>
       <c r="H49" s="3">
-        <v>2615000</v>
+        <v>1987400</v>
       </c>
       <c r="I49" s="3">
+        <v>1994100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2072000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2611900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2607900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2860200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2835000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2804500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2780500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2684100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>845900</v>
+        <v>955700</v>
       </c>
       <c r="E52" s="3">
-        <v>744400</v>
+        <v>719000</v>
       </c>
       <c r="F52" s="3">
-        <v>709300</v>
+        <v>670200</v>
       </c>
       <c r="G52" s="3">
-        <v>695400</v>
+        <v>589900</v>
       </c>
       <c r="H52" s="3">
-        <v>530700</v>
+        <v>562000</v>
       </c>
       <c r="I52" s="3">
+        <v>551000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>420500</v>
+      </c>
+      <c r="K52" s="3">
         <v>506300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>478900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>483700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>645900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>821600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>801200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>502700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11690600</v>
+        <v>9322100</v>
       </c>
       <c r="E54" s="3">
-        <v>15308600</v>
+        <v>9238000</v>
       </c>
       <c r="F54" s="3">
-        <v>14061100</v>
+        <v>9263100</v>
       </c>
       <c r="G54" s="3">
-        <v>13977300</v>
+        <v>12129800</v>
       </c>
       <c r="H54" s="3">
-        <v>10082800</v>
+        <v>11141300</v>
       </c>
       <c r="I54" s="3">
+        <v>11074900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7989100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9733200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9489500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10829400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10724900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10746400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10707500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10428300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>480800</v>
+        <v>318800</v>
       </c>
       <c r="E57" s="3">
-        <v>429900</v>
+        <v>384800</v>
       </c>
       <c r="F57" s="3">
-        <v>469900</v>
+        <v>380900</v>
       </c>
       <c r="G57" s="3">
-        <v>420600</v>
+        <v>340600</v>
       </c>
       <c r="H57" s="3">
-        <v>570900</v>
+        <v>372300</v>
       </c>
       <c r="I57" s="3">
+        <v>333300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>452300</v>
+      </c>
+      <c r="K57" s="3">
         <v>502700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>379100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>560600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>491200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>414000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>481200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>668600</v>
+        <v>582700</v>
       </c>
       <c r="E58" s="3">
-        <v>710100</v>
+        <v>523900</v>
       </c>
       <c r="F58" s="3">
-        <v>640500</v>
+        <v>529700</v>
       </c>
       <c r="G58" s="3">
-        <v>513200</v>
+        <v>562600</v>
       </c>
       <c r="H58" s="3">
-        <v>558600</v>
+        <v>507500</v>
       </c>
       <c r="I58" s="3">
+        <v>406600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>442600</v>
+      </c>
+      <c r="K58" s="3">
         <v>640000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>604400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>607800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1333000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1331300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1273400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1199900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>666100</v>
+        <v>533500</v>
       </c>
       <c r="E59" s="3">
-        <v>4545800</v>
+        <v>555300</v>
       </c>
       <c r="F59" s="3">
-        <v>4438100</v>
+        <v>527800</v>
       </c>
       <c r="G59" s="3">
-        <v>4529100</v>
+        <v>3601800</v>
       </c>
       <c r="H59" s="3">
-        <v>755200</v>
+        <v>3516500</v>
       </c>
       <c r="I59" s="3">
+        <v>3588600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>598400</v>
+      </c>
+      <c r="K59" s="3">
         <v>692500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>779200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1012400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1272700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1197100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1230500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1158800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1815400</v>
+        <v>1434900</v>
       </c>
       <c r="E60" s="3">
-        <v>5685700</v>
+        <v>1464000</v>
       </c>
       <c r="F60" s="3">
-        <v>5548500</v>
+        <v>1438400</v>
       </c>
       <c r="G60" s="3">
-        <v>5462900</v>
+        <v>4505100</v>
       </c>
       <c r="H60" s="3">
-        <v>1884700</v>
+        <v>4396300</v>
       </c>
       <c r="I60" s="3">
+        <v>4328500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1493400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1835200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1762700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2220800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3166300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3019600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2917900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2839900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2948800</v>
+        <v>2384200</v>
       </c>
       <c r="E61" s="3">
-        <v>2603000</v>
+        <v>2263400</v>
       </c>
       <c r="F61" s="3">
-        <v>2737200</v>
+        <v>2336400</v>
       </c>
       <c r="G61" s="3">
-        <v>2936300</v>
+        <v>2062500</v>
       </c>
       <c r="H61" s="3">
-        <v>3036200</v>
+        <v>2168800</v>
       </c>
       <c r="I61" s="3">
+        <v>2326600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2405700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2770300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2594600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3083500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2270500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2413600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2502500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2565700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2907200</v>
+        <v>2573400</v>
       </c>
       <c r="E62" s="3">
-        <v>2615700</v>
+        <v>2570300</v>
       </c>
       <c r="F62" s="3">
-        <v>1867300</v>
+        <v>2303500</v>
       </c>
       <c r="G62" s="3">
-        <v>1855900</v>
+        <v>2072500</v>
       </c>
       <c r="H62" s="3">
-        <v>1711800</v>
+        <v>1479600</v>
       </c>
       <c r="I62" s="3">
+        <v>1470500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1699900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1690400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1851100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1881500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1885300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1879000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1813900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7672400</v>
+        <v>6393300</v>
       </c>
       <c r="E66" s="3">
-        <v>11224500</v>
+        <v>6298500</v>
       </c>
       <c r="F66" s="3">
-        <v>10470700</v>
+        <v>6079200</v>
       </c>
       <c r="G66" s="3">
-        <v>10572800</v>
+        <v>8893700</v>
       </c>
       <c r="H66" s="3">
-        <v>6633700</v>
+        <v>8296500</v>
       </c>
       <c r="I66" s="3">
+        <v>8377400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5256200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6306400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6048600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7156500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7319400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7319400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7300500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7220500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2628900</v>
+        <v>2025300</v>
       </c>
       <c r="E72" s="3">
-        <v>2693600</v>
+        <v>2035300</v>
       </c>
       <c r="F72" s="3">
-        <v>2198400</v>
+        <v>2083000</v>
       </c>
       <c r="G72" s="3">
-        <v>1485700</v>
+        <v>2134300</v>
       </c>
       <c r="H72" s="3">
-        <v>1497700</v>
+        <v>1741900</v>
       </c>
       <c r="I72" s="3">
+        <v>1177200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1186700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1469500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1405400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1468700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1446100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1456500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1423600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1290000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4018200</v>
+        <v>2928800</v>
       </c>
       <c r="E76" s="3">
-        <v>4084200</v>
+        <v>2939500</v>
       </c>
       <c r="F76" s="3">
-        <v>3590400</v>
+        <v>3183900</v>
       </c>
       <c r="G76" s="3">
-        <v>3404400</v>
+        <v>3236100</v>
       </c>
       <c r="H76" s="3">
-        <v>3449100</v>
+        <v>2844800</v>
       </c>
       <c r="I76" s="3">
+        <v>2697500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2732900</v>
+      </c>
+      <c r="K76" s="3">
         <v>3426800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3441000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3672900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3405500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3427000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3407000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3207700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-65800</v>
+        <v>-10600</v>
       </c>
       <c r="E81" s="3">
-        <v>493800</v>
+        <v>92100</v>
       </c>
       <c r="F81" s="3">
-        <v>186100</v>
+        <v>-52200</v>
       </c>
       <c r="G81" s="3">
-        <v>280400</v>
+        <v>391300</v>
       </c>
       <c r="H81" s="3">
-        <v>57100</v>
+        <v>147500</v>
       </c>
       <c r="I81" s="3">
+        <v>222200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>108500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>154900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-21500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>35400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>87800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-76000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57000</v>
+        <v>44900</v>
       </c>
       <c r="E83" s="3">
-        <v>58000</v>
+        <v>43500</v>
       </c>
       <c r="F83" s="3">
-        <v>53900</v>
+        <v>45200</v>
       </c>
       <c r="G83" s="3">
+        <v>46000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>42700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>42600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>38400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>46300</v>
+      </c>
+      <c r="L83" s="3">
+        <v>49700</v>
+      </c>
+      <c r="M83" s="3">
+        <v>59700</v>
+      </c>
+      <c r="N83" s="3">
+        <v>52800</v>
+      </c>
+      <c r="O83" s="3">
         <v>53700</v>
       </c>
-      <c r="H83" s="3">
-        <v>48500</v>
-      </c>
-      <c r="I83" s="3">
-        <v>46300</v>
-      </c>
-      <c r="J83" s="3">
-        <v>49700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>59700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>52800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>53700</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>51600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>57800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15400</v>
+        <v>458000</v>
       </c>
       <c r="E89" s="3">
-        <v>109100</v>
+        <v>164300</v>
       </c>
       <c r="F89" s="3">
-        <v>143800</v>
+        <v>12200</v>
       </c>
       <c r="G89" s="3">
-        <v>54100</v>
+        <v>86500</v>
       </c>
       <c r="H89" s="3">
-        <v>183300</v>
+        <v>114000</v>
       </c>
       <c r="I89" s="3">
+        <v>42800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>145200</v>
+      </c>
+      <c r="K89" s="3">
         <v>85100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-87100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-400800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>56400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>357600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>135400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>244300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2500</v>
+        <v>-4700</v>
       </c>
       <c r="E91" s="3">
-        <v>-6600</v>
+        <v>-4700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1400</v>
+        <v>-2000</v>
       </c>
       <c r="G91" s="3">
-        <v>-6200</v>
+        <v>-5200</v>
       </c>
       <c r="H91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-4800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-3200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-74400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-158400</v>
+        <v>-225800</v>
       </c>
       <c r="E94" s="3">
-        <v>-76200</v>
+        <v>-45300</v>
       </c>
       <c r="F94" s="3">
-        <v>14100</v>
+        <v>-125500</v>
       </c>
       <c r="G94" s="3">
-        <v>35200</v>
+        <v>-60400</v>
       </c>
       <c r="H94" s="3">
-        <v>-128500</v>
+        <v>11200</v>
       </c>
       <c r="I94" s="3">
+        <v>27900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-101800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-44200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>88300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>116500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>16900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-190400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-127100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-115100</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-94100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-118700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-69500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-69400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-139700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>130500</v>
+        <v>-184100</v>
       </c>
       <c r="E100" s="3">
-        <v>-44100</v>
+        <v>-148400</v>
       </c>
       <c r="F100" s="3">
-        <v>-180000</v>
+        <v>103400</v>
       </c>
       <c r="G100" s="3">
-        <v>-229900</v>
+        <v>-35000</v>
       </c>
       <c r="H100" s="3">
-        <v>74300</v>
+        <v>-142600</v>
       </c>
       <c r="I100" s="3">
+        <v>-182200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>58900</v>
+      </c>
+      <c r="K100" s="3">
         <v>80200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-143200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>399100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-166500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-140600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-132600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-290300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12500</v>
+        <v>48100</v>
       </c>
       <c r="E102" s="3">
-        <v>-11200</v>
+        <v>-29500</v>
       </c>
       <c r="F102" s="3">
-        <v>-22000</v>
+        <v>-9900</v>
       </c>
       <c r="G102" s="3">
-        <v>-140700</v>
+        <v>-8900</v>
       </c>
       <c r="H102" s="3">
-        <v>129000</v>
+        <v>-17500</v>
       </c>
       <c r="I102" s="3">
+        <v>-111500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>102200</v>
+      </c>
+      <c r="K102" s="3">
         <v>121100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-142000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>114800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-93300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>26600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-39200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-173100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1121100</v>
+        <v>1058700</v>
       </c>
       <c r="E8" s="3">
-        <v>1182200</v>
+        <v>1081000</v>
       </c>
       <c r="F8" s="3">
-        <v>1123300</v>
+        <v>1139900</v>
       </c>
       <c r="G8" s="3">
-        <v>1298300</v>
+        <v>1083000</v>
       </c>
       <c r="H8" s="3">
-        <v>1094100</v>
+        <v>1251800</v>
       </c>
       <c r="I8" s="3">
-        <v>1066800</v>
+        <v>1054900</v>
       </c>
       <c r="J8" s="3">
+        <v>1028500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1156900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1309200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1152500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1681300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1316700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1334500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1233900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1159200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>837600</v>
+        <v>805700</v>
       </c>
       <c r="E9" s="3">
-        <v>938400</v>
+        <v>807600</v>
       </c>
       <c r="F9" s="3">
-        <v>1090500</v>
+        <v>904800</v>
       </c>
       <c r="G9" s="3">
-        <v>817500</v>
+        <v>1051500</v>
       </c>
       <c r="H9" s="3">
-        <v>779900</v>
+        <v>788200</v>
       </c>
       <c r="I9" s="3">
-        <v>802500</v>
+        <v>752000</v>
       </c>
       <c r="J9" s="3">
+        <v>773700</v>
+      </c>
+      <c r="K9" s="3">
         <v>947700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1048200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>870900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1306100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1203200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1093200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>880800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>925600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>283500</v>
+        <v>253000</v>
       </c>
       <c r="E10" s="3">
-        <v>243800</v>
+        <v>273400</v>
       </c>
       <c r="F10" s="3">
-        <v>32700</v>
+        <v>235100</v>
       </c>
       <c r="G10" s="3">
-        <v>480800</v>
+        <v>31600</v>
       </c>
       <c r="H10" s="3">
-        <v>314200</v>
+        <v>463600</v>
       </c>
       <c r="I10" s="3">
-        <v>264300</v>
+        <v>302900</v>
       </c>
       <c r="J10" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K10" s="3">
         <v>209100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>281600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>375200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>113500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>241200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>353200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,16 +1025,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>112700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
+        <v>-84800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>108700</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1016500</v>
+        <v>779800</v>
       </c>
       <c r="E17" s="3">
-        <v>1057600</v>
+        <v>980100</v>
       </c>
       <c r="F17" s="3">
-        <v>1189500</v>
+        <v>1019700</v>
       </c>
       <c r="G17" s="3">
-        <v>1009000</v>
+        <v>1146900</v>
       </c>
       <c r="H17" s="3">
-        <v>866500</v>
+        <v>972900</v>
       </c>
       <c r="I17" s="3">
-        <v>946300</v>
+        <v>835400</v>
       </c>
       <c r="J17" s="3">
+        <v>912400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1031000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1154200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>967100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1343200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1343700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1198500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1003500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1185500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>104600</v>
+        <v>278900</v>
       </c>
       <c r="E18" s="3">
-        <v>124600</v>
+        <v>100900</v>
       </c>
       <c r="F18" s="3">
-        <v>-66200</v>
+        <v>120100</v>
       </c>
       <c r="G18" s="3">
-        <v>289300</v>
+        <v>-63800</v>
       </c>
       <c r="H18" s="3">
-        <v>227600</v>
+        <v>278900</v>
       </c>
       <c r="I18" s="3">
-        <v>120500</v>
+        <v>219500</v>
       </c>
       <c r="J18" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K18" s="3">
         <v>125900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>155000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>185400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>338100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>135900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>230400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-26400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76800</v>
+        <v>42200</v>
       </c>
       <c r="E20" s="3">
-        <v>16500</v>
+        <v>-74100</v>
       </c>
       <c r="F20" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="G20" s="3">
-        <v>409100</v>
+        <v>15200</v>
       </c>
       <c r="H20" s="3">
-        <v>37300</v>
+        <v>394500</v>
       </c>
       <c r="I20" s="3">
-        <v>189100</v>
+        <v>36000</v>
       </c>
       <c r="J20" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-89000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>91500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>26000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72700</v>
+        <v>364900</v>
       </c>
       <c r="E21" s="3">
-        <v>184600</v>
+        <v>70100</v>
       </c>
       <c r="F21" s="3">
-        <v>-5300</v>
+        <v>177900</v>
       </c>
       <c r="G21" s="3">
-        <v>744400</v>
+        <v>-5100</v>
       </c>
       <c r="H21" s="3">
-        <v>307700</v>
+        <v>717700</v>
       </c>
       <c r="I21" s="3">
-        <v>352200</v>
+        <v>296700</v>
       </c>
       <c r="J21" s="3">
+        <v>339500</v>
+      </c>
+      <c r="K21" s="3">
         <v>165900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>112300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>267500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>412400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>203700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>299700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>57700</v>
+        <v>48500</v>
       </c>
       <c r="E22" s="3">
-        <v>55900</v>
+        <v>55600</v>
       </c>
       <c r="F22" s="3">
-        <v>59000</v>
+        <v>53900</v>
       </c>
       <c r="G22" s="3">
-        <v>56000</v>
+        <v>56900</v>
       </c>
       <c r="H22" s="3">
-        <v>56100</v>
+        <v>54000</v>
       </c>
       <c r="I22" s="3">
-        <v>65500</v>
+        <v>54100</v>
       </c>
       <c r="J22" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K22" s="3">
         <v>63200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>69200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>85000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>88300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>101600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>118300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>123000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-29800</v>
+        <v>272600</v>
       </c>
       <c r="E23" s="3">
-        <v>85200</v>
+        <v>-28800</v>
       </c>
       <c r="F23" s="3">
-        <v>-109500</v>
+        <v>82200</v>
       </c>
       <c r="G23" s="3">
-        <v>642400</v>
+        <v>-105500</v>
       </c>
       <c r="H23" s="3">
-        <v>208800</v>
+        <v>619400</v>
       </c>
       <c r="I23" s="3">
-        <v>244100</v>
+        <v>201400</v>
       </c>
       <c r="J23" s="3">
+        <v>235400</v>
+      </c>
+      <c r="K23" s="3">
         <v>64300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>148600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>267700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-23800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>48400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>129800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-123400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-19300</v>
+        <v>86300</v>
       </c>
       <c r="E24" s="3">
-        <v>-6900</v>
+        <v>-18600</v>
       </c>
       <c r="F24" s="3">
-        <v>-15900</v>
+        <v>-6600</v>
       </c>
       <c r="G24" s="3">
-        <v>251100</v>
+        <v>-15300</v>
       </c>
       <c r="H24" s="3">
-        <v>61300</v>
+        <v>242100</v>
       </c>
       <c r="I24" s="3">
-        <v>75000</v>
+        <v>59100</v>
       </c>
       <c r="J24" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K24" s="3">
         <v>21700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>112700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-47400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10500</v>
+        <v>186200</v>
       </c>
       <c r="E26" s="3">
-        <v>92100</v>
+        <v>-10100</v>
       </c>
       <c r="F26" s="3">
-        <v>-93600</v>
+        <v>88800</v>
       </c>
       <c r="G26" s="3">
-        <v>391300</v>
+        <v>-90300</v>
       </c>
       <c r="H26" s="3">
-        <v>147500</v>
+        <v>377300</v>
       </c>
       <c r="I26" s="3">
-        <v>169100</v>
+        <v>142200</v>
       </c>
       <c r="J26" s="3">
+        <v>163100</v>
+      </c>
+      <c r="K26" s="3">
         <v>42600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>108500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>155000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-21500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>35400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-75900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10600</v>
+        <v>186200</v>
       </c>
       <c r="E27" s="3">
-        <v>92100</v>
+        <v>-10200</v>
       </c>
       <c r="F27" s="3">
-        <v>-93600</v>
+        <v>88800</v>
       </c>
       <c r="G27" s="3">
-        <v>391300</v>
+        <v>-90300</v>
       </c>
       <c r="H27" s="3">
-        <v>147500</v>
+        <v>377300</v>
       </c>
       <c r="I27" s="3">
-        <v>161500</v>
+        <v>142200</v>
       </c>
       <c r="J27" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K27" s="3">
         <v>42600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>108500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>154900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-21500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>35400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>87800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-76000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,37 +1753,40 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>41500</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>40000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>60600</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K29" s="3">
         <v>2600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76800</v>
+        <v>-42200</v>
       </c>
       <c r="E32" s="3">
-        <v>-16500</v>
+        <v>74100</v>
       </c>
       <c r="F32" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="G32" s="3">
-        <v>-409100</v>
+        <v>-15200</v>
       </c>
       <c r="H32" s="3">
-        <v>-37300</v>
+        <v>-394500</v>
       </c>
       <c r="I32" s="3">
-        <v>-189100</v>
+        <v>-36000</v>
       </c>
       <c r="J32" s="3">
+        <v>-182300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>89000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-91500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-26000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10600</v>
+        <v>186200</v>
       </c>
       <c r="E33" s="3">
-        <v>92100</v>
+        <v>-10200</v>
       </c>
       <c r="F33" s="3">
-        <v>-52200</v>
+        <v>88800</v>
       </c>
       <c r="G33" s="3">
-        <v>391300</v>
+        <v>-50300</v>
       </c>
       <c r="H33" s="3">
-        <v>147500</v>
+        <v>377300</v>
       </c>
       <c r="I33" s="3">
-        <v>222200</v>
+        <v>142200</v>
       </c>
       <c r="J33" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K33" s="3">
         <v>45200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>108500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-21500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>35400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>87800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-76000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10600</v>
+        <v>186200</v>
       </c>
       <c r="E35" s="3">
-        <v>92100</v>
+        <v>-10200</v>
       </c>
       <c r="F35" s="3">
-        <v>-52200</v>
+        <v>88800</v>
       </c>
       <c r="G35" s="3">
-        <v>391300</v>
+        <v>-50300</v>
       </c>
       <c r="H35" s="3">
-        <v>147500</v>
+        <v>377300</v>
       </c>
       <c r="I35" s="3">
-        <v>222200</v>
+        <v>142200</v>
       </c>
       <c r="J35" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K35" s="3">
         <v>45200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>108500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-21500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>35400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>87800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-76000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,196 +2226,206 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147200</v>
+        <v>173300</v>
       </c>
       <c r="E41" s="3">
-        <v>99100</v>
+        <v>142000</v>
       </c>
       <c r="F41" s="3">
-        <v>128600</v>
+        <v>95600</v>
       </c>
       <c r="G41" s="3">
-        <v>138500</v>
+        <v>124000</v>
       </c>
       <c r="H41" s="3">
-        <v>147400</v>
+        <v>133500</v>
       </c>
       <c r="I41" s="3">
-        <v>164800</v>
+        <v>142100</v>
       </c>
       <c r="J41" s="3">
+        <v>158900</v>
+      </c>
+      <c r="K41" s="3">
         <v>276300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>219700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>264100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>149300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>242600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>215900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>246900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>283900</v>
+        <v>451200</v>
       </c>
       <c r="E42" s="3">
-        <v>139300</v>
+        <v>273700</v>
       </c>
       <c r="F42" s="3">
-        <v>162700</v>
+        <v>134300</v>
       </c>
       <c r="G42" s="3">
-        <v>141900</v>
+        <v>156900</v>
       </c>
       <c r="H42" s="3">
-        <v>110000</v>
+        <v>136800</v>
       </c>
       <c r="I42" s="3">
-        <v>147000</v>
+        <v>106000</v>
       </c>
       <c r="J42" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K42" s="3">
         <v>126700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>93200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>127700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>298600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>291600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>381900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>312700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>342800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1051500</v>
+        <v>1291100</v>
       </c>
       <c r="E43" s="3">
-        <v>1123200</v>
+        <v>1013900</v>
       </c>
       <c r="F43" s="3">
-        <v>1097500</v>
+        <v>1083000</v>
       </c>
       <c r="G43" s="3">
-        <v>959000</v>
+        <v>1058200</v>
       </c>
       <c r="H43" s="3">
-        <v>1006400</v>
+        <v>924600</v>
       </c>
       <c r="I43" s="3">
-        <v>992000</v>
+        <v>970300</v>
       </c>
       <c r="J43" s="3">
+        <v>956400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1106600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1123800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1085700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1315800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1334900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1255000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1318800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1221900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>6700</v>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>7300</v>
+        <v>6400</v>
       </c>
       <c r="F44" s="3">
         <v>7000</v>
       </c>
       <c r="G44" s="3">
-        <v>6200</v>
+        <v>6800</v>
       </c>
       <c r="H44" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I44" s="3">
-        <v>6600</v>
+        <v>5700</v>
       </c>
       <c r="J44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>9800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>12500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>12300</v>
       </c>
       <c r="P44" s="3">
         <v>12300</v>
@@ -2338,260 +2434,278 @@
         <v>12300</v>
       </c>
       <c r="R44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>449500</v>
+        <v>610800</v>
       </c>
       <c r="E45" s="3">
-        <v>506800</v>
+        <v>433400</v>
       </c>
       <c r="F45" s="3">
-        <v>509600</v>
+        <v>488600</v>
       </c>
       <c r="G45" s="3">
-        <v>3864500</v>
+        <v>491300</v>
       </c>
       <c r="H45" s="3">
-        <v>3866600</v>
+        <v>3726000</v>
       </c>
       <c r="I45" s="3">
-        <v>3832700</v>
+        <v>3728000</v>
       </c>
       <c r="J45" s="3">
+        <v>3695400</v>
+      </c>
+      <c r="K45" s="3">
         <v>242700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>247800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>294200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>225700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>127200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>166100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>231600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1938900</v>
+        <v>2526400</v>
       </c>
       <c r="E46" s="3">
-        <v>1875700</v>
+        <v>1869400</v>
       </c>
       <c r="F46" s="3">
-        <v>1905400</v>
+        <v>1808500</v>
       </c>
       <c r="G46" s="3">
-        <v>5110000</v>
+        <v>1837100</v>
       </c>
       <c r="H46" s="3">
-        <v>5136200</v>
+        <v>4926900</v>
       </c>
       <c r="I46" s="3">
-        <v>5143100</v>
+        <v>4952100</v>
       </c>
       <c r="J46" s="3">
+        <v>4958800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1758000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1692500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1614300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2188800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2014000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2018900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2025900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2055500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3762000</v>
+        <v>3342700</v>
       </c>
       <c r="E47" s="3">
-        <v>3987800</v>
+        <v>3627200</v>
       </c>
       <c r="F47" s="3">
-        <v>4005200</v>
+        <v>3844900</v>
       </c>
       <c r="G47" s="3">
-        <v>3908400</v>
+        <v>3861700</v>
       </c>
       <c r="H47" s="3">
-        <v>2909700</v>
+        <v>3768400</v>
       </c>
       <c r="I47" s="3">
-        <v>2894200</v>
+        <v>2805400</v>
       </c>
       <c r="J47" s="3">
+        <v>2790500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3292800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4357200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4151900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4588500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4512800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4377600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4366800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4249400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>497500</v>
+        <v>475400</v>
       </c>
       <c r="E48" s="3">
-        <v>504600</v>
+        <v>479700</v>
       </c>
       <c r="F48" s="3">
-        <v>528800</v>
+        <v>486500</v>
       </c>
       <c r="G48" s="3">
-        <v>538300</v>
+        <v>509800</v>
       </c>
       <c r="H48" s="3">
-        <v>546100</v>
+        <v>519000</v>
       </c>
       <c r="I48" s="3">
-        <v>492500</v>
+        <v>526500</v>
       </c>
       <c r="J48" s="3">
+        <v>474800</v>
+      </c>
+      <c r="K48" s="3">
         <v>445800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>565300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>636500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>708200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>717100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>723800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>733000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>936500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2168000</v>
+        <v>2094700</v>
       </c>
       <c r="E49" s="3">
-        <v>2150900</v>
+        <v>2090300</v>
       </c>
       <c r="F49" s="3">
-        <v>2153500</v>
+        <v>2073800</v>
       </c>
       <c r="G49" s="3">
-        <v>1983300</v>
+        <v>2076400</v>
       </c>
       <c r="H49" s="3">
-        <v>1987400</v>
+        <v>1912200</v>
       </c>
       <c r="I49" s="3">
-        <v>1994100</v>
+        <v>1916200</v>
       </c>
       <c r="J49" s="3">
+        <v>1922700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2072000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2611900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2607900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2860200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2835000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2804500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2780500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2684100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>955700</v>
+        <v>933000</v>
       </c>
       <c r="E52" s="3">
-        <v>719000</v>
+        <v>921500</v>
       </c>
       <c r="F52" s="3">
-        <v>670200</v>
+        <v>693300</v>
       </c>
       <c r="G52" s="3">
-        <v>589900</v>
+        <v>646200</v>
       </c>
       <c r="H52" s="3">
-        <v>562000</v>
+        <v>568700</v>
       </c>
       <c r="I52" s="3">
-        <v>551000</v>
+        <v>541900</v>
       </c>
       <c r="J52" s="3">
+        <v>531200</v>
+      </c>
+      <c r="K52" s="3">
         <v>420500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>506300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>478900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>483700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>645900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>821600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>801200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>502700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9322100</v>
+        <v>9372300</v>
       </c>
       <c r="E54" s="3">
-        <v>9238000</v>
+        <v>8988100</v>
       </c>
       <c r="F54" s="3">
-        <v>9263100</v>
+        <v>8907000</v>
       </c>
       <c r="G54" s="3">
-        <v>12129800</v>
+        <v>8931200</v>
       </c>
       <c r="H54" s="3">
-        <v>11141300</v>
+        <v>11695200</v>
       </c>
       <c r="I54" s="3">
-        <v>11074900</v>
+        <v>10742100</v>
       </c>
       <c r="J54" s="3">
+        <v>10678100</v>
+      </c>
+      <c r="K54" s="3">
         <v>7989100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9733200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9489500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10829400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10724900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10746400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10707500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10428300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>318800</v>
+        <v>347100</v>
       </c>
       <c r="E57" s="3">
-        <v>384800</v>
+        <v>307300</v>
       </c>
       <c r="F57" s="3">
-        <v>380900</v>
+        <v>371100</v>
       </c>
       <c r="G57" s="3">
-        <v>340600</v>
+        <v>367300</v>
       </c>
       <c r="H57" s="3">
-        <v>372300</v>
+        <v>328400</v>
       </c>
       <c r="I57" s="3">
-        <v>333300</v>
+        <v>359000</v>
       </c>
       <c r="J57" s="3">
+        <v>321300</v>
+      </c>
+      <c r="K57" s="3">
         <v>452300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>502700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>379100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>600600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>560600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>491200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>414000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>481200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>582700</v>
+        <v>549100</v>
       </c>
       <c r="E58" s="3">
-        <v>523900</v>
+        <v>561800</v>
       </c>
       <c r="F58" s="3">
-        <v>529700</v>
+        <v>505100</v>
       </c>
       <c r="G58" s="3">
-        <v>562600</v>
+        <v>510800</v>
       </c>
       <c r="H58" s="3">
-        <v>507500</v>
+        <v>542500</v>
       </c>
       <c r="I58" s="3">
-        <v>406600</v>
+        <v>489300</v>
       </c>
       <c r="J58" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K58" s="3">
         <v>442600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>640000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>604400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>607800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1333000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1331300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1273400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1199900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>533500</v>
+        <v>718900</v>
       </c>
       <c r="E59" s="3">
-        <v>555300</v>
+        <v>514400</v>
       </c>
       <c r="F59" s="3">
-        <v>527800</v>
+        <v>535400</v>
       </c>
       <c r="G59" s="3">
-        <v>3601800</v>
+        <v>508900</v>
       </c>
       <c r="H59" s="3">
-        <v>3516500</v>
+        <v>3472800</v>
       </c>
       <c r="I59" s="3">
-        <v>3588600</v>
+        <v>3390500</v>
       </c>
       <c r="J59" s="3">
+        <v>3460000</v>
+      </c>
+      <c r="K59" s="3">
         <v>598400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>692500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>779200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1012400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1272700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1197100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1230500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1158800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1434900</v>
+        <v>1615100</v>
       </c>
       <c r="E60" s="3">
-        <v>1464000</v>
+        <v>1383500</v>
       </c>
       <c r="F60" s="3">
-        <v>1438400</v>
+        <v>1411600</v>
       </c>
       <c r="G60" s="3">
-        <v>4505100</v>
+        <v>1386900</v>
       </c>
       <c r="H60" s="3">
-        <v>4396300</v>
+        <v>4343600</v>
       </c>
       <c r="I60" s="3">
-        <v>4328500</v>
+        <v>4238800</v>
       </c>
       <c r="J60" s="3">
+        <v>4173400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1493400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1835200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1762700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2220800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3166300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3019600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2917900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2839900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2384200</v>
+        <v>2326500</v>
       </c>
       <c r="E61" s="3">
-        <v>2263400</v>
+        <v>2298700</v>
       </c>
       <c r="F61" s="3">
-        <v>2336400</v>
+        <v>2182300</v>
       </c>
       <c r="G61" s="3">
-        <v>2062500</v>
+        <v>2252700</v>
       </c>
       <c r="H61" s="3">
-        <v>2168800</v>
+        <v>1988600</v>
       </c>
       <c r="I61" s="3">
-        <v>2326600</v>
+        <v>2091100</v>
       </c>
       <c r="J61" s="3">
+        <v>2243200</v>
+      </c>
+      <c r="K61" s="3">
         <v>2405700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2770300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2594600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3083500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2270500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2413600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2502500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2565700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2573400</v>
+        <v>2419800</v>
       </c>
       <c r="E62" s="3">
-        <v>2570300</v>
+        <v>2481100</v>
       </c>
       <c r="F62" s="3">
-        <v>2303500</v>
+        <v>2478200</v>
       </c>
       <c r="G62" s="3">
-        <v>2072500</v>
+        <v>2221000</v>
       </c>
       <c r="H62" s="3">
-        <v>1479600</v>
+        <v>1998300</v>
       </c>
       <c r="I62" s="3">
-        <v>1470500</v>
+        <v>1426600</v>
       </c>
       <c r="J62" s="3">
+        <v>1417800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1356300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1699900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1690400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1851100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1881500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1885300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1879000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1813900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6393300</v>
+        <v>6362200</v>
       </c>
       <c r="E66" s="3">
-        <v>6298500</v>
+        <v>6164200</v>
       </c>
       <c r="F66" s="3">
-        <v>6079200</v>
+        <v>6072800</v>
       </c>
       <c r="G66" s="3">
-        <v>8893700</v>
+        <v>5861400</v>
       </c>
       <c r="H66" s="3">
-        <v>8296500</v>
+        <v>8575100</v>
       </c>
       <c r="I66" s="3">
-        <v>8377400</v>
+        <v>7999200</v>
       </c>
       <c r="J66" s="3">
+        <v>8077200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5256200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6306400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6048600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>7319400</v>
       </c>
       <c r="O66" s="3">
         <v>7319400</v>
       </c>
       <c r="P66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>7300500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7220500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2025300</v>
+        <v>2139700</v>
       </c>
       <c r="E72" s="3">
-        <v>2035300</v>
+        <v>1952700</v>
       </c>
       <c r="F72" s="3">
-        <v>2083000</v>
+        <v>1962400</v>
       </c>
       <c r="G72" s="3">
-        <v>2134300</v>
+        <v>2008300</v>
       </c>
       <c r="H72" s="3">
-        <v>1741900</v>
+        <v>2057800</v>
       </c>
       <c r="I72" s="3">
-        <v>1177200</v>
+        <v>1679500</v>
       </c>
       <c r="J72" s="3">
+        <v>1135000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1186700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1469500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1405400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1468700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1446100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1456500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1423600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1290000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2928800</v>
+        <v>3010100</v>
       </c>
       <c r="E76" s="3">
-        <v>2939500</v>
+        <v>2823900</v>
       </c>
       <c r="F76" s="3">
-        <v>3183900</v>
+        <v>2834200</v>
       </c>
       <c r="G76" s="3">
-        <v>3236100</v>
+        <v>3069800</v>
       </c>
       <c r="H76" s="3">
-        <v>2844800</v>
+        <v>3120100</v>
       </c>
       <c r="I76" s="3">
-        <v>2697500</v>
+        <v>2742900</v>
       </c>
       <c r="J76" s="3">
+        <v>2600800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2732900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3426800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3441000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3672900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3405500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3427000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3407000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3207700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10600</v>
+        <v>186200</v>
       </c>
       <c r="E81" s="3">
-        <v>92100</v>
+        <v>-10200</v>
       </c>
       <c r="F81" s="3">
-        <v>-52200</v>
+        <v>88800</v>
       </c>
       <c r="G81" s="3">
-        <v>391300</v>
+        <v>-50300</v>
       </c>
       <c r="H81" s="3">
-        <v>147500</v>
+        <v>377300</v>
       </c>
       <c r="I81" s="3">
-        <v>222200</v>
+        <v>142200</v>
       </c>
       <c r="J81" s="3">
+        <v>214200</v>
+      </c>
+      <c r="K81" s="3">
         <v>45200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>108500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-21500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>35400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>87800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-76000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44900</v>
+        <v>43800</v>
       </c>
       <c r="E83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>41900</v>
+      </c>
+      <c r="G83" s="3">
         <v>43500</v>
       </c>
-      <c r="F83" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>46000</v>
-      </c>
       <c r="H83" s="3">
-        <v>42700</v>
+        <v>44300</v>
       </c>
       <c r="I83" s="3">
-        <v>42600</v>
+        <v>41200</v>
       </c>
       <c r="J83" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K83" s="3">
         <v>38400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>49700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>59700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>52800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>53700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>51600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>57800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>458000</v>
+        <v>308900</v>
       </c>
       <c r="E89" s="3">
-        <v>164300</v>
+        <v>441600</v>
       </c>
       <c r="F89" s="3">
-        <v>12200</v>
+        <v>158400</v>
       </c>
       <c r="G89" s="3">
-        <v>86500</v>
+        <v>11800</v>
       </c>
       <c r="H89" s="3">
-        <v>114000</v>
+        <v>83400</v>
       </c>
       <c r="I89" s="3">
-        <v>42800</v>
+        <v>109900</v>
       </c>
       <c r="J89" s="3">
+        <v>41300</v>
+      </c>
+      <c r="K89" s="3">
         <v>145200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>85100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-87100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>56400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>357600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>135400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>244300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-4700</v>
       </c>
-      <c r="E91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-5200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-74400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-225800</v>
+        <v>-261200</v>
       </c>
       <c r="E94" s="3">
-        <v>-45300</v>
+        <v>-217700</v>
       </c>
       <c r="F94" s="3">
-        <v>-125500</v>
+        <v>-43700</v>
       </c>
       <c r="G94" s="3">
-        <v>-60400</v>
+        <v>-121000</v>
       </c>
       <c r="H94" s="3">
-        <v>11200</v>
+        <v>-58200</v>
       </c>
       <c r="I94" s="3">
-        <v>27900</v>
+        <v>10800</v>
       </c>
       <c r="J94" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-101800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>88300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>116500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-190400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-127100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,49 +4858,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-115100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-111000</v>
       </c>
       <c r="G96" s="3">
-        <v>-14200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-400</v>
       </c>
-      <c r="I96" s="3">
-        <v>-94100</v>
-      </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-90700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-69500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-69400</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-139700</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-184100</v>
+        <v>-16400</v>
       </c>
       <c r="E100" s="3">
-        <v>-148400</v>
+        <v>-177500</v>
       </c>
       <c r="F100" s="3">
-        <v>103400</v>
+        <v>-143100</v>
       </c>
       <c r="G100" s="3">
-        <v>-35000</v>
+        <v>99700</v>
       </c>
       <c r="H100" s="3">
-        <v>-142600</v>
+        <v>-33700</v>
       </c>
       <c r="I100" s="3">
-        <v>-182200</v>
+        <v>-137500</v>
       </c>
       <c r="J100" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="K100" s="3">
         <v>58900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>80200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-143200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>399100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-166500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-140600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-290300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>48100</v>
+        <v>31300</v>
       </c>
       <c r="E102" s="3">
-        <v>-29500</v>
+        <v>46400</v>
       </c>
       <c r="F102" s="3">
-        <v>-9900</v>
+        <v>-28400</v>
       </c>
       <c r="G102" s="3">
-        <v>-8900</v>
+        <v>-9600</v>
       </c>
       <c r="H102" s="3">
-        <v>-17500</v>
+        <v>-8500</v>
       </c>
       <c r="I102" s="3">
-        <v>-111500</v>
+        <v>-16800</v>
       </c>
       <c r="J102" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="K102" s="3">
         <v>102200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>121100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-142000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>114800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-173100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1058700</v>
+        <v>1191900</v>
       </c>
       <c r="E8" s="3">
-        <v>1081000</v>
+        <v>1110500</v>
       </c>
       <c r="F8" s="3">
-        <v>1139900</v>
+        <v>1133900</v>
       </c>
       <c r="G8" s="3">
-        <v>1083000</v>
+        <v>1195700</v>
       </c>
       <c r="H8" s="3">
-        <v>1251800</v>
+        <v>1136000</v>
       </c>
       <c r="I8" s="3">
-        <v>1054900</v>
+        <v>1313100</v>
       </c>
       <c r="J8" s="3">
+        <v>1106500</v>
+      </c>
+      <c r="K8" s="3">
         <v>1028500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1156900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1309200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1152500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1681300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1316700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1334500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1233900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1159200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>805700</v>
+        <v>920200</v>
       </c>
       <c r="E9" s="3">
-        <v>807600</v>
+        <v>845100</v>
       </c>
       <c r="F9" s="3">
-        <v>904800</v>
+        <v>847100</v>
       </c>
       <c r="G9" s="3">
-        <v>1051500</v>
+        <v>949100</v>
       </c>
       <c r="H9" s="3">
-        <v>788200</v>
+        <v>1102900</v>
       </c>
       <c r="I9" s="3">
-        <v>752000</v>
+        <v>826700</v>
       </c>
       <c r="J9" s="3">
+        <v>788800</v>
+      </c>
+      <c r="K9" s="3">
         <v>773700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>947700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1048200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>870900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1306100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1203200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1093200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>880800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>925600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>253000</v>
+        <v>271700</v>
       </c>
       <c r="E10" s="3">
-        <v>273400</v>
+        <v>265400</v>
       </c>
       <c r="F10" s="3">
-        <v>235100</v>
+        <v>286700</v>
       </c>
       <c r="G10" s="3">
-        <v>31600</v>
+        <v>246600</v>
       </c>
       <c r="H10" s="3">
-        <v>463600</v>
+        <v>33100</v>
       </c>
       <c r="I10" s="3">
-        <v>302900</v>
+        <v>486300</v>
       </c>
       <c r="J10" s="3">
+        <v>317800</v>
+      </c>
+      <c r="K10" s="3">
         <v>254800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>209100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>261100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>281600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>375200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>113500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>241200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>353200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>233600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-84800</v>
+        <v>25500</v>
       </c>
       <c r="E14" s="3">
-        <v>108700</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>-88900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>114000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>779800</v>
+        <v>971400</v>
       </c>
       <c r="E17" s="3">
-        <v>980100</v>
+        <v>818000</v>
       </c>
       <c r="F17" s="3">
-        <v>1019700</v>
+        <v>1028000</v>
       </c>
       <c r="G17" s="3">
-        <v>1146900</v>
+        <v>1069600</v>
       </c>
       <c r="H17" s="3">
-        <v>972900</v>
+        <v>1203000</v>
       </c>
       <c r="I17" s="3">
-        <v>835400</v>
+        <v>1020500</v>
       </c>
       <c r="J17" s="3">
+        <v>876300</v>
+      </c>
+      <c r="K17" s="3">
         <v>912400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1031000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1154200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>967100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1343200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1343700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1198500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1003500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1185500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>278900</v>
+        <v>220500</v>
       </c>
       <c r="E18" s="3">
-        <v>100900</v>
+        <v>292500</v>
       </c>
       <c r="F18" s="3">
-        <v>120100</v>
+        <v>105800</v>
       </c>
       <c r="G18" s="3">
-        <v>-63800</v>
+        <v>126000</v>
       </c>
       <c r="H18" s="3">
-        <v>278900</v>
+        <v>-67000</v>
       </c>
       <c r="I18" s="3">
-        <v>219500</v>
+        <v>292600</v>
       </c>
       <c r="J18" s="3">
+        <v>230200</v>
+      </c>
+      <c r="K18" s="3">
         <v>116200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>125900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>155000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>185400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>338100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>135900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>230400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-26400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42200</v>
+        <v>-34400</v>
       </c>
       <c r="E20" s="3">
-        <v>-74100</v>
+        <v>44300</v>
       </c>
       <c r="F20" s="3">
+        <v>-77700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="H20" s="3">
         <v>15900</v>
       </c>
-      <c r="G20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>394500</v>
-      </c>
       <c r="I20" s="3">
-        <v>36000</v>
+        <v>413800</v>
       </c>
       <c r="J20" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K20" s="3">
         <v>182300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-89000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>91500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>26000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>364900</v>
+        <v>232000</v>
       </c>
       <c r="E21" s="3">
-        <v>70100</v>
+        <v>382800</v>
       </c>
       <c r="F21" s="3">
-        <v>177900</v>
+        <v>73600</v>
       </c>
       <c r="G21" s="3">
-        <v>-5100</v>
+        <v>186600</v>
       </c>
       <c r="H21" s="3">
-        <v>717700</v>
+        <v>-5300</v>
       </c>
       <c r="I21" s="3">
-        <v>296700</v>
+        <v>752800</v>
       </c>
       <c r="J21" s="3">
+        <v>311200</v>
+      </c>
+      <c r="K21" s="3">
         <v>339500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>165900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>112300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>267500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>412400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>203700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>299700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48500</v>
+        <v>58500</v>
       </c>
       <c r="E22" s="3">
-        <v>55600</v>
+        <v>50900</v>
       </c>
       <c r="F22" s="3">
-        <v>53900</v>
+        <v>58300</v>
       </c>
       <c r="G22" s="3">
-        <v>56900</v>
+        <v>56500</v>
       </c>
       <c r="H22" s="3">
-        <v>54000</v>
+        <v>59700</v>
       </c>
       <c r="I22" s="3">
-        <v>54100</v>
+        <v>56600</v>
       </c>
       <c r="J22" s="3">
+        <v>56800</v>
+      </c>
+      <c r="K22" s="3">
         <v>63100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>73700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>69200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>85000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>88300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>101600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>118300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>123000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>272600</v>
+        <v>127600</v>
       </c>
       <c r="E23" s="3">
-        <v>-28800</v>
+        <v>285900</v>
       </c>
       <c r="F23" s="3">
-        <v>82200</v>
+        <v>-30200</v>
       </c>
       <c r="G23" s="3">
-        <v>-105500</v>
+        <v>86200</v>
       </c>
       <c r="H23" s="3">
-        <v>619400</v>
+        <v>-110700</v>
       </c>
       <c r="I23" s="3">
-        <v>201400</v>
+        <v>649700</v>
       </c>
       <c r="J23" s="3">
+        <v>211200</v>
+      </c>
+      <c r="K23" s="3">
         <v>235400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>64300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>148600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>267700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-23800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>48400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>129800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-123400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86300</v>
+        <v>25500</v>
       </c>
       <c r="E24" s="3">
-        <v>-18600</v>
+        <v>90600</v>
       </c>
       <c r="F24" s="3">
-        <v>-6600</v>
+        <v>-19500</v>
       </c>
       <c r="G24" s="3">
-        <v>-15300</v>
+        <v>-6900</v>
       </c>
       <c r="H24" s="3">
-        <v>242100</v>
+        <v>-16000</v>
       </c>
       <c r="I24" s="3">
-        <v>59100</v>
+        <v>253900</v>
       </c>
       <c r="J24" s="3">
+        <v>62000</v>
+      </c>
+      <c r="K24" s="3">
         <v>72300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>112700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-47400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>186200</v>
+        <v>102100</v>
       </c>
       <c r="E26" s="3">
-        <v>-10100</v>
+        <v>195400</v>
       </c>
       <c r="F26" s="3">
-        <v>88800</v>
+        <v>-10600</v>
       </c>
       <c r="G26" s="3">
-        <v>-90300</v>
+        <v>93100</v>
       </c>
       <c r="H26" s="3">
-        <v>377300</v>
+        <v>-94700</v>
       </c>
       <c r="I26" s="3">
-        <v>142200</v>
+        <v>395800</v>
       </c>
       <c r="J26" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K26" s="3">
         <v>163100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>108500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>155000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-21500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>35400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-75900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>186200</v>
+        <v>102000</v>
       </c>
       <c r="E27" s="3">
-        <v>-10200</v>
+        <v>195300</v>
       </c>
       <c r="F27" s="3">
-        <v>88800</v>
+        <v>-10700</v>
       </c>
       <c r="G27" s="3">
-        <v>-90300</v>
+        <v>93100</v>
       </c>
       <c r="H27" s="3">
-        <v>377300</v>
+        <v>-94700</v>
       </c>
       <c r="I27" s="3">
-        <v>142200</v>
+        <v>395700</v>
       </c>
       <c r="J27" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K27" s="3">
         <v>155800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>108500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>154900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-21500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>35400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>87800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-76000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,29 +1828,29 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>40000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>41900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>58500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42200</v>
+        <v>34400</v>
       </c>
       <c r="E32" s="3">
-        <v>74100</v>
+        <v>-44300</v>
       </c>
       <c r="F32" s="3">
+        <v>77700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-15900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-394500</v>
-      </c>
       <c r="I32" s="3">
-        <v>-36000</v>
+        <v>-413800</v>
       </c>
       <c r="J32" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-182300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>89000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-91500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-26000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>186200</v>
+        <v>102000</v>
       </c>
       <c r="E33" s="3">
-        <v>-10200</v>
+        <v>195300</v>
       </c>
       <c r="F33" s="3">
-        <v>88800</v>
+        <v>-10700</v>
       </c>
       <c r="G33" s="3">
-        <v>-50300</v>
+        <v>93100</v>
       </c>
       <c r="H33" s="3">
-        <v>377300</v>
+        <v>-52800</v>
       </c>
       <c r="I33" s="3">
-        <v>142200</v>
+        <v>395700</v>
       </c>
       <c r="J33" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K33" s="3">
         <v>214200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>45200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>108500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-21500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>35400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>87800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-76000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>186200</v>
+        <v>102000</v>
       </c>
       <c r="E35" s="3">
-        <v>-10200</v>
+        <v>195300</v>
       </c>
       <c r="F35" s="3">
-        <v>88800</v>
+        <v>-10700</v>
       </c>
       <c r="G35" s="3">
-        <v>-50300</v>
+        <v>93100</v>
       </c>
       <c r="H35" s="3">
-        <v>377300</v>
+        <v>-52800</v>
       </c>
       <c r="I35" s="3">
-        <v>142200</v>
+        <v>395700</v>
       </c>
       <c r="J35" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K35" s="3">
         <v>214200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>45200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>108500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-21500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>35400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>87800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-76000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,208 +2313,218 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173300</v>
+        <v>265900</v>
       </c>
       <c r="E41" s="3">
-        <v>142000</v>
+        <v>181800</v>
       </c>
       <c r="F41" s="3">
-        <v>95600</v>
+        <v>148900</v>
       </c>
       <c r="G41" s="3">
-        <v>124000</v>
+        <v>100300</v>
       </c>
       <c r="H41" s="3">
-        <v>133500</v>
+        <v>130100</v>
       </c>
       <c r="I41" s="3">
-        <v>142100</v>
+        <v>140100</v>
       </c>
       <c r="J41" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K41" s="3">
         <v>158900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>219700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>264100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>149300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>242600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>215900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>246900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>451200</v>
+        <v>690400</v>
       </c>
       <c r="E42" s="3">
-        <v>273700</v>
+        <v>473300</v>
       </c>
       <c r="F42" s="3">
-        <v>134300</v>
+        <v>287100</v>
       </c>
       <c r="G42" s="3">
-        <v>156900</v>
+        <v>140800</v>
       </c>
       <c r="H42" s="3">
-        <v>136800</v>
+        <v>164500</v>
       </c>
       <c r="I42" s="3">
-        <v>106000</v>
+        <v>143500</v>
       </c>
       <c r="J42" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K42" s="3">
         <v>141700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>126700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>93200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>127700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>298600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>291600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>381900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>312700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>342800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1291100</v>
+        <v>1439800</v>
       </c>
       <c r="E43" s="3">
-        <v>1013900</v>
+        <v>1354300</v>
       </c>
       <c r="F43" s="3">
-        <v>1083000</v>
+        <v>1063500</v>
       </c>
       <c r="G43" s="3">
-        <v>1058200</v>
+        <v>1136000</v>
       </c>
       <c r="H43" s="3">
-        <v>924600</v>
+        <v>1109900</v>
       </c>
       <c r="I43" s="3">
-        <v>970300</v>
+        <v>969800</v>
       </c>
       <c r="J43" s="3">
+        <v>1017800</v>
+      </c>
+      <c r="K43" s="3">
         <v>956400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1106600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1123800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1085700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1315800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1334900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1255000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1318800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1221900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="F44" s="3">
-        <v>7000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>6800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>5700</v>
       </c>
-      <c r="J44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>8200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>9800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>12500</v>
-      </c>
-      <c r="P44" s="3">
-        <v>12300</v>
       </c>
       <c r="Q44" s="3">
         <v>12300</v>
@@ -2437,275 +2533,293 @@
         <v>12300</v>
       </c>
       <c r="S44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="T44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>610800</v>
+        <v>495300</v>
       </c>
       <c r="E45" s="3">
-        <v>433400</v>
+        <v>640700</v>
       </c>
       <c r="F45" s="3">
-        <v>488600</v>
+        <v>454600</v>
       </c>
       <c r="G45" s="3">
-        <v>491300</v>
+        <v>512600</v>
       </c>
       <c r="H45" s="3">
-        <v>3726000</v>
+        <v>515400</v>
       </c>
       <c r="I45" s="3">
-        <v>3728000</v>
+        <v>3908300</v>
       </c>
       <c r="J45" s="3">
+        <v>3910400</v>
+      </c>
+      <c r="K45" s="3">
         <v>3695400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>242700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>247800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>294200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>225700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>127200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>166100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>231600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2526400</v>
+        <v>2891400</v>
       </c>
       <c r="E46" s="3">
-        <v>1869400</v>
+        <v>2650100</v>
       </c>
       <c r="F46" s="3">
-        <v>1808500</v>
+        <v>1960900</v>
       </c>
       <c r="G46" s="3">
-        <v>1837100</v>
+        <v>1897000</v>
       </c>
       <c r="H46" s="3">
-        <v>4926900</v>
+        <v>1927000</v>
       </c>
       <c r="I46" s="3">
-        <v>4952100</v>
+        <v>5168000</v>
       </c>
       <c r="J46" s="3">
+        <v>5194500</v>
+      </c>
+      <c r="K46" s="3">
         <v>4958800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1758000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1692500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1614300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2188800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2014000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2018900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2025900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2055500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3342700</v>
+        <v>3420900</v>
       </c>
       <c r="E47" s="3">
-        <v>3627200</v>
+        <v>3506300</v>
       </c>
       <c r="F47" s="3">
-        <v>3844900</v>
+        <v>3804700</v>
       </c>
       <c r="G47" s="3">
-        <v>3861700</v>
+        <v>4033100</v>
       </c>
       <c r="H47" s="3">
-        <v>3768400</v>
+        <v>4050600</v>
       </c>
       <c r="I47" s="3">
-        <v>2805400</v>
+        <v>3952800</v>
       </c>
       <c r="J47" s="3">
+        <v>2942700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2790500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3292800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4357200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4151900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4588500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4512800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4377600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4366800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4249400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>475400</v>
+        <v>493000</v>
       </c>
       <c r="E48" s="3">
-        <v>479700</v>
+        <v>498600</v>
       </c>
       <c r="F48" s="3">
-        <v>486500</v>
+        <v>503200</v>
       </c>
       <c r="G48" s="3">
-        <v>509800</v>
+        <v>510300</v>
       </c>
       <c r="H48" s="3">
-        <v>519000</v>
+        <v>534800</v>
       </c>
       <c r="I48" s="3">
-        <v>526500</v>
+        <v>544400</v>
       </c>
       <c r="J48" s="3">
+        <v>552300</v>
+      </c>
+      <c r="K48" s="3">
         <v>474800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>445800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>565300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>636500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>708200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>717100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>723800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>733000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>936500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2094700</v>
+        <v>2206100</v>
       </c>
       <c r="E49" s="3">
-        <v>2090300</v>
+        <v>2197300</v>
       </c>
       <c r="F49" s="3">
-        <v>2073800</v>
+        <v>2192600</v>
       </c>
       <c r="G49" s="3">
-        <v>2076400</v>
+        <v>2175300</v>
       </c>
       <c r="H49" s="3">
-        <v>1912200</v>
+        <v>2178000</v>
       </c>
       <c r="I49" s="3">
-        <v>1916200</v>
+        <v>2005800</v>
       </c>
       <c r="J49" s="3">
+        <v>2010000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1922700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2072000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2611900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2607900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2860200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2835000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2804500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2780500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2684100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>933000</v>
+        <v>967500</v>
       </c>
       <c r="E52" s="3">
-        <v>921500</v>
+        <v>978600</v>
       </c>
       <c r="F52" s="3">
-        <v>693300</v>
+        <v>966500</v>
       </c>
       <c r="G52" s="3">
-        <v>646200</v>
+        <v>727200</v>
       </c>
       <c r="H52" s="3">
-        <v>568700</v>
+        <v>677800</v>
       </c>
       <c r="I52" s="3">
-        <v>541900</v>
+        <v>596600</v>
       </c>
       <c r="J52" s="3">
+        <v>568400</v>
+      </c>
+      <c r="K52" s="3">
         <v>531200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>420500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>506300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>478900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>483700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>645900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>821600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>801200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>502700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9372300</v>
+        <v>9978900</v>
       </c>
       <c r="E54" s="3">
-        <v>8988100</v>
+        <v>9830900</v>
       </c>
       <c r="F54" s="3">
-        <v>8907000</v>
+        <v>9427900</v>
       </c>
       <c r="G54" s="3">
-        <v>8931200</v>
+        <v>9342800</v>
       </c>
       <c r="H54" s="3">
-        <v>11695200</v>
+        <v>9368200</v>
       </c>
       <c r="I54" s="3">
-        <v>10742100</v>
+        <v>12267500</v>
       </c>
       <c r="J54" s="3">
+        <v>11267800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10678100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7989100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9733200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9489500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10829400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10724900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10746400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10707500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10428300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>347100</v>
+        <v>372600</v>
       </c>
       <c r="E57" s="3">
-        <v>307300</v>
+        <v>364100</v>
       </c>
       <c r="F57" s="3">
-        <v>371100</v>
+        <v>322400</v>
       </c>
       <c r="G57" s="3">
-        <v>367300</v>
+        <v>389200</v>
       </c>
       <c r="H57" s="3">
-        <v>328400</v>
+        <v>385300</v>
       </c>
       <c r="I57" s="3">
-        <v>359000</v>
+        <v>344500</v>
       </c>
       <c r="J57" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K57" s="3">
         <v>321300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>452300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>502700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>379100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>560600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>491200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>414000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>481200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>549100</v>
+        <v>457300</v>
       </c>
       <c r="E58" s="3">
-        <v>561800</v>
+        <v>576000</v>
       </c>
       <c r="F58" s="3">
-        <v>505100</v>
+        <v>589300</v>
       </c>
       <c r="G58" s="3">
-        <v>510800</v>
+        <v>529800</v>
       </c>
       <c r="H58" s="3">
-        <v>542500</v>
+        <v>535800</v>
       </c>
       <c r="I58" s="3">
-        <v>489300</v>
+        <v>569000</v>
       </c>
       <c r="J58" s="3">
+        <v>513300</v>
+      </c>
+      <c r="K58" s="3">
         <v>392000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>442600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>640000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>604400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>607800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1333000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1331300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1273400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1199900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>718900</v>
+        <v>869100</v>
       </c>
       <c r="E59" s="3">
-        <v>514400</v>
+        <v>754100</v>
       </c>
       <c r="F59" s="3">
-        <v>535400</v>
+        <v>539600</v>
       </c>
       <c r="G59" s="3">
-        <v>508900</v>
+        <v>561600</v>
       </c>
       <c r="H59" s="3">
-        <v>3472800</v>
+        <v>533800</v>
       </c>
       <c r="I59" s="3">
-        <v>3390500</v>
+        <v>3642700</v>
       </c>
       <c r="J59" s="3">
+        <v>3556400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3460000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>598400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>692500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>779200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1012400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1272700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1197100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1230500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1158800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1615100</v>
+        <v>1698900</v>
       </c>
       <c r="E60" s="3">
-        <v>1383500</v>
+        <v>1694100</v>
       </c>
       <c r="F60" s="3">
-        <v>1411600</v>
+        <v>1451200</v>
       </c>
       <c r="G60" s="3">
-        <v>1386900</v>
+        <v>1480700</v>
       </c>
       <c r="H60" s="3">
-        <v>4343600</v>
+        <v>1454800</v>
       </c>
       <c r="I60" s="3">
-        <v>4238800</v>
+        <v>4556200</v>
       </c>
       <c r="J60" s="3">
+        <v>4446200</v>
+      </c>
+      <c r="K60" s="3">
         <v>4173400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1493400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1835200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1762700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2220800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3166300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3019600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2917900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2839900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2326500</v>
+        <v>2602700</v>
       </c>
       <c r="E61" s="3">
-        <v>2298700</v>
+        <v>2440300</v>
       </c>
       <c r="F61" s="3">
-        <v>2182300</v>
+        <v>2411200</v>
       </c>
       <c r="G61" s="3">
-        <v>2252700</v>
+        <v>2289100</v>
       </c>
       <c r="H61" s="3">
-        <v>1988600</v>
+        <v>2363000</v>
       </c>
       <c r="I61" s="3">
-        <v>2091100</v>
+        <v>2085900</v>
       </c>
       <c r="J61" s="3">
+        <v>2193400</v>
+      </c>
+      <c r="K61" s="3">
         <v>2243200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2405700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2770300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2594600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3083500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2270500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2413600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2502500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2565700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2419800</v>
+        <v>2439600</v>
       </c>
       <c r="E62" s="3">
-        <v>2481100</v>
+        <v>2538300</v>
       </c>
       <c r="F62" s="3">
-        <v>2478200</v>
+        <v>2602600</v>
       </c>
       <c r="G62" s="3">
-        <v>2221000</v>
+        <v>2599500</v>
       </c>
       <c r="H62" s="3">
-        <v>1998300</v>
+        <v>2329700</v>
       </c>
       <c r="I62" s="3">
-        <v>1426600</v>
+        <v>2096100</v>
       </c>
       <c r="J62" s="3">
+        <v>1496400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1417800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1356300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1699900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1690400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1851100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1881500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1885300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1879000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1813900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6362200</v>
+        <v>6742000</v>
       </c>
       <c r="E66" s="3">
-        <v>6164200</v>
+        <v>6673500</v>
       </c>
       <c r="F66" s="3">
-        <v>6072800</v>
+        <v>6465800</v>
       </c>
       <c r="G66" s="3">
-        <v>5861400</v>
+        <v>6370000</v>
       </c>
       <c r="H66" s="3">
-        <v>8575100</v>
+        <v>6148200</v>
       </c>
       <c r="I66" s="3">
-        <v>7999200</v>
+        <v>8994700</v>
       </c>
       <c r="J66" s="3">
+        <v>8390700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8077200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5256200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6306400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6048600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>7319400</v>
       </c>
       <c r="P66" s="3">
         <v>7319400</v>
       </c>
       <c r="Q66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="R66" s="3">
         <v>7300500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7220500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2139700</v>
+        <v>1847800</v>
       </c>
       <c r="E72" s="3">
-        <v>1952700</v>
+        <v>2244500</v>
       </c>
       <c r="F72" s="3">
-        <v>1962400</v>
+        <v>2048300</v>
       </c>
       <c r="G72" s="3">
-        <v>2008300</v>
+        <v>2058400</v>
       </c>
       <c r="H72" s="3">
-        <v>2057800</v>
+        <v>2106600</v>
       </c>
       <c r="I72" s="3">
-        <v>1679500</v>
+        <v>2158500</v>
       </c>
       <c r="J72" s="3">
+        <v>1761700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1135000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1186700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1469500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1405400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1468700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1446100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1456500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1423600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1290000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3010100</v>
+        <v>3236900</v>
       </c>
       <c r="E76" s="3">
-        <v>2823900</v>
+        <v>3157400</v>
       </c>
       <c r="F76" s="3">
-        <v>2834200</v>
+        <v>2962000</v>
       </c>
       <c r="G76" s="3">
-        <v>3069800</v>
+        <v>2972900</v>
       </c>
       <c r="H76" s="3">
-        <v>3120100</v>
+        <v>3220000</v>
       </c>
       <c r="I76" s="3">
-        <v>2742900</v>
+        <v>3272800</v>
       </c>
       <c r="J76" s="3">
+        <v>2877100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2600800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2732900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3426800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3441000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3672900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3405500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3427000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3407000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3207700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>186200</v>
+        <v>102000</v>
       </c>
       <c r="E81" s="3">
-        <v>-10200</v>
+        <v>195300</v>
       </c>
       <c r="F81" s="3">
-        <v>88800</v>
+        <v>-10700</v>
       </c>
       <c r="G81" s="3">
-        <v>-50300</v>
+        <v>93100</v>
       </c>
       <c r="H81" s="3">
-        <v>377300</v>
+        <v>-52800</v>
       </c>
       <c r="I81" s="3">
-        <v>142200</v>
+        <v>395700</v>
       </c>
       <c r="J81" s="3">
+        <v>149200</v>
+      </c>
+      <c r="K81" s="3">
         <v>214200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>45200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>108500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-21500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>35400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>87800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-76000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43800</v>
+        <v>45900</v>
       </c>
       <c r="E83" s="3">
-        <v>43300</v>
+        <v>46000</v>
       </c>
       <c r="F83" s="3">
-        <v>41900</v>
+        <v>45400</v>
       </c>
       <c r="G83" s="3">
-        <v>43500</v>
+        <v>44000</v>
       </c>
       <c r="H83" s="3">
-        <v>44300</v>
+        <v>45700</v>
       </c>
       <c r="I83" s="3">
-        <v>41200</v>
+        <v>46500</v>
       </c>
       <c r="J83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="K83" s="3">
         <v>41000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>49700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>59700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>52800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>53700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>51600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>57800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>308900</v>
+        <v>491400</v>
       </c>
       <c r="E89" s="3">
-        <v>441600</v>
+        <v>324100</v>
       </c>
       <c r="F89" s="3">
-        <v>158400</v>
+        <v>463200</v>
       </c>
       <c r="G89" s="3">
-        <v>11800</v>
+        <v>166100</v>
       </c>
       <c r="H89" s="3">
-        <v>83400</v>
+        <v>12300</v>
       </c>
       <c r="I89" s="3">
-        <v>109900</v>
+        <v>87400</v>
       </c>
       <c r="J89" s="3">
+        <v>115300</v>
+      </c>
+      <c r="K89" s="3">
         <v>41300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>145200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>85100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-87100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>56400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>357600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>135400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>244300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-5900</v>
       </c>
       <c r="E91" s="3">
-        <v>-4500</v>
+        <v>-7100</v>
       </c>
       <c r="F91" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1900</v>
+        <v>-4700</v>
       </c>
       <c r="H91" s="3">
-        <v>-5000</v>
+        <v>-2000</v>
       </c>
       <c r="I91" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-74400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-261200</v>
+        <v>-343900</v>
       </c>
       <c r="E94" s="3">
-        <v>-217700</v>
+        <v>-274000</v>
       </c>
       <c r="F94" s="3">
-        <v>-43700</v>
+        <v>-228300</v>
       </c>
       <c r="G94" s="3">
-        <v>-121000</v>
+        <v>-45800</v>
       </c>
       <c r="H94" s="3">
-        <v>-58200</v>
+        <v>-126900</v>
       </c>
       <c r="I94" s="3">
-        <v>10800</v>
+        <v>-61000</v>
       </c>
       <c r="J94" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K94" s="3">
         <v>26900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>88300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>116500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-190400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,49 +5095,52 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-111000</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-116400</v>
       </c>
       <c r="H96" s="3">
-        <v>-13700</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-90700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-69500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-69400</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-139700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-16400</v>
+        <v>-63500</v>
       </c>
       <c r="E100" s="3">
-        <v>-177500</v>
+        <v>-17200</v>
       </c>
       <c r="F100" s="3">
-        <v>-143100</v>
+        <v>-186200</v>
       </c>
       <c r="G100" s="3">
-        <v>99700</v>
+        <v>-150100</v>
       </c>
       <c r="H100" s="3">
-        <v>-33700</v>
+        <v>104600</v>
       </c>
       <c r="I100" s="3">
-        <v>-137500</v>
+        <v>-35400</v>
       </c>
       <c r="J100" s="3">
+        <v>-144200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-175700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>58900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>80200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-143200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>399100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-166500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-140600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-132600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-290300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>31300</v>
+        <v>84100</v>
       </c>
       <c r="E102" s="3">
-        <v>46400</v>
+        <v>32900</v>
       </c>
       <c r="F102" s="3">
-        <v>-28400</v>
+        <v>48600</v>
       </c>
       <c r="G102" s="3">
-        <v>-9600</v>
+        <v>-29800</v>
       </c>
       <c r="H102" s="3">
-        <v>-8500</v>
+        <v>-10000</v>
       </c>
       <c r="I102" s="3">
-        <v>-16800</v>
+        <v>-9000</v>
       </c>
       <c r="J102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-107500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>102200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>121100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-142000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>114800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-173100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1191900</v>
+        <v>1127800</v>
       </c>
       <c r="E8" s="3">
-        <v>1110500</v>
+        <v>1050800</v>
       </c>
       <c r="F8" s="3">
-        <v>1133900</v>
+        <v>1072900</v>
       </c>
       <c r="G8" s="3">
-        <v>1195700</v>
+        <v>1131400</v>
       </c>
       <c r="H8" s="3">
-        <v>1136000</v>
+        <v>1075000</v>
       </c>
       <c r="I8" s="3">
-        <v>1313100</v>
+        <v>1242500</v>
       </c>
       <c r="J8" s="3">
-        <v>1106500</v>
+        <v>1047100</v>
       </c>
       <c r="K8" s="3">
         <v>1028500</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>920200</v>
+        <v>870800</v>
       </c>
       <c r="E9" s="3">
-        <v>845100</v>
+        <v>799700</v>
       </c>
       <c r="F9" s="3">
-        <v>847100</v>
+        <v>801600</v>
       </c>
       <c r="G9" s="3">
-        <v>949100</v>
+        <v>898000</v>
       </c>
       <c r="H9" s="3">
-        <v>1102900</v>
+        <v>1043600</v>
       </c>
       <c r="I9" s="3">
-        <v>826700</v>
+        <v>782300</v>
       </c>
       <c r="J9" s="3">
-        <v>788800</v>
+        <v>746400</v>
       </c>
       <c r="K9" s="3">
         <v>773700</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>271700</v>
+        <v>257100</v>
       </c>
       <c r="E10" s="3">
-        <v>265400</v>
+        <v>251100</v>
       </c>
       <c r="F10" s="3">
-        <v>286700</v>
+        <v>271300</v>
       </c>
       <c r="G10" s="3">
-        <v>246600</v>
+        <v>233400</v>
       </c>
       <c r="H10" s="3">
-        <v>33100</v>
+        <v>31300</v>
       </c>
       <c r="I10" s="3">
-        <v>486300</v>
+        <v>460200</v>
       </c>
       <c r="J10" s="3">
-        <v>317800</v>
+        <v>300700</v>
       </c>
       <c r="K10" s="3">
         <v>254800</v>
@@ -1054,13 +1054,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>25500</v>
+        <v>24100</v>
       </c>
       <c r="E14" s="3">
-        <v>-88900</v>
+        <v>-84100</v>
       </c>
       <c r="F14" s="3">
-        <v>114000</v>
+        <v>107900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>971400</v>
+        <v>919200</v>
       </c>
       <c r="E17" s="3">
-        <v>818000</v>
+        <v>774000</v>
       </c>
       <c r="F17" s="3">
-        <v>1028000</v>
+        <v>972800</v>
       </c>
       <c r="G17" s="3">
-        <v>1069600</v>
+        <v>1012100</v>
       </c>
       <c r="H17" s="3">
-        <v>1203000</v>
+        <v>1138300</v>
       </c>
       <c r="I17" s="3">
-        <v>1020500</v>
+        <v>965600</v>
       </c>
       <c r="J17" s="3">
-        <v>876300</v>
+        <v>829200</v>
       </c>
       <c r="K17" s="3">
         <v>912400</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>220500</v>
+        <v>208700</v>
       </c>
       <c r="E18" s="3">
-        <v>292500</v>
+        <v>276800</v>
       </c>
       <c r="F18" s="3">
-        <v>105800</v>
+        <v>100100</v>
       </c>
       <c r="G18" s="3">
-        <v>126000</v>
+        <v>119300</v>
       </c>
       <c r="H18" s="3">
-        <v>-67000</v>
+        <v>-63400</v>
       </c>
       <c r="I18" s="3">
-        <v>292600</v>
+        <v>276800</v>
       </c>
       <c r="J18" s="3">
-        <v>230200</v>
+        <v>217900</v>
       </c>
       <c r="K18" s="3">
         <v>116200</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34400</v>
+        <v>-32600</v>
       </c>
       <c r="E20" s="3">
-        <v>44300</v>
+        <v>41900</v>
       </c>
       <c r="F20" s="3">
-        <v>-77700</v>
+        <v>-73500</v>
       </c>
       <c r="G20" s="3">
-        <v>16700</v>
+        <v>15800</v>
       </c>
       <c r="H20" s="3">
-        <v>15900</v>
+        <v>15100</v>
       </c>
       <c r="I20" s="3">
-        <v>413800</v>
+        <v>391500</v>
       </c>
       <c r="J20" s="3">
-        <v>37800</v>
+        <v>35700</v>
       </c>
       <c r="K20" s="3">
         <v>182300</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>232000</v>
+        <v>219500</v>
       </c>
       <c r="E21" s="3">
-        <v>382800</v>
+        <v>362200</v>
       </c>
       <c r="F21" s="3">
-        <v>73600</v>
+        <v>69600</v>
       </c>
       <c r="G21" s="3">
-        <v>186600</v>
+        <v>176600</v>
       </c>
       <c r="H21" s="3">
-        <v>-5300</v>
+        <v>-5100</v>
       </c>
       <c r="I21" s="3">
-        <v>752800</v>
+        <v>712300</v>
       </c>
       <c r="J21" s="3">
-        <v>311200</v>
+        <v>294500</v>
       </c>
       <c r="K21" s="3">
         <v>339500</v>
@@ -1431,25 +1431,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58500</v>
+        <v>55400</v>
       </c>
       <c r="E22" s="3">
-        <v>50900</v>
+        <v>48100</v>
       </c>
       <c r="F22" s="3">
-        <v>58300</v>
+        <v>55200</v>
       </c>
       <c r="G22" s="3">
+        <v>53500</v>
+      </c>
+      <c r="H22" s="3">
         <v>56500</v>
       </c>
-      <c r="H22" s="3">
-        <v>59700</v>
-      </c>
       <c r="I22" s="3">
-        <v>56600</v>
+        <v>53600</v>
       </c>
       <c r="J22" s="3">
-        <v>56800</v>
+        <v>53700</v>
       </c>
       <c r="K22" s="3">
         <v>63100</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>127600</v>
+        <v>120700</v>
       </c>
       <c r="E23" s="3">
-        <v>285900</v>
+        <v>270600</v>
       </c>
       <c r="F23" s="3">
-        <v>-30200</v>
+        <v>-28600</v>
       </c>
       <c r="G23" s="3">
-        <v>86200</v>
+        <v>81600</v>
       </c>
       <c r="H23" s="3">
-        <v>-110700</v>
+        <v>-104800</v>
       </c>
       <c r="I23" s="3">
-        <v>649700</v>
+        <v>614800</v>
       </c>
       <c r="J23" s="3">
-        <v>211200</v>
+        <v>199900</v>
       </c>
       <c r="K23" s="3">
         <v>235400</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>25500</v>
+        <v>24200</v>
       </c>
       <c r="E24" s="3">
-        <v>90600</v>
+        <v>85700</v>
       </c>
       <c r="F24" s="3">
-        <v>-19500</v>
+        <v>-18500</v>
       </c>
       <c r="G24" s="3">
-        <v>-6900</v>
+        <v>-6600</v>
       </c>
       <c r="H24" s="3">
-        <v>-16000</v>
+        <v>-15200</v>
       </c>
       <c r="I24" s="3">
-        <v>253900</v>
+        <v>240300</v>
       </c>
       <c r="J24" s="3">
-        <v>62000</v>
+        <v>58700</v>
       </c>
       <c r="K24" s="3">
         <v>72300</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>102100</v>
+        <v>96600</v>
       </c>
       <c r="E26" s="3">
-        <v>195400</v>
+        <v>184900</v>
       </c>
       <c r="F26" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="G26" s="3">
-        <v>93100</v>
+        <v>88100</v>
       </c>
       <c r="H26" s="3">
-        <v>-94700</v>
+        <v>-89600</v>
       </c>
       <c r="I26" s="3">
-        <v>395800</v>
+        <v>374500</v>
       </c>
       <c r="J26" s="3">
-        <v>149200</v>
+        <v>141200</v>
       </c>
       <c r="K26" s="3">
         <v>163100</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>102000</v>
+        <v>96500</v>
       </c>
       <c r="E27" s="3">
-        <v>195300</v>
+        <v>184800</v>
       </c>
       <c r="F27" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="G27" s="3">
-        <v>93100</v>
+        <v>88100</v>
       </c>
       <c r="H27" s="3">
-        <v>-94700</v>
+        <v>-89600</v>
       </c>
       <c r="I27" s="3">
-        <v>395700</v>
+        <v>374500</v>
       </c>
       <c r="J27" s="3">
-        <v>149200</v>
+        <v>141100</v>
       </c>
       <c r="K27" s="3">
         <v>155800</v>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>41900</v>
+        <v>39700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34400</v>
+        <v>32600</v>
       </c>
       <c r="E32" s="3">
-        <v>-44300</v>
+        <v>-41900</v>
       </c>
       <c r="F32" s="3">
-        <v>77700</v>
+        <v>73500</v>
       </c>
       <c r="G32" s="3">
-        <v>-16700</v>
+        <v>-15800</v>
       </c>
       <c r="H32" s="3">
-        <v>-15900</v>
+        <v>-15100</v>
       </c>
       <c r="I32" s="3">
-        <v>-413800</v>
+        <v>-391500</v>
       </c>
       <c r="J32" s="3">
-        <v>-37800</v>
+        <v>-35700</v>
       </c>
       <c r="K32" s="3">
         <v>-182300</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>102000</v>
+        <v>96500</v>
       </c>
       <c r="E33" s="3">
-        <v>195300</v>
+        <v>184800</v>
       </c>
       <c r="F33" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="G33" s="3">
-        <v>93100</v>
+        <v>88100</v>
       </c>
       <c r="H33" s="3">
-        <v>-52800</v>
+        <v>-49900</v>
       </c>
       <c r="I33" s="3">
-        <v>395700</v>
+        <v>374500</v>
       </c>
       <c r="J33" s="3">
-        <v>149200</v>
+        <v>141100</v>
       </c>
       <c r="K33" s="3">
         <v>214200</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>102000</v>
+        <v>96500</v>
       </c>
       <c r="E35" s="3">
-        <v>195300</v>
+        <v>184800</v>
       </c>
       <c r="F35" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="G35" s="3">
-        <v>93100</v>
+        <v>88100</v>
       </c>
       <c r="H35" s="3">
-        <v>-52800</v>
+        <v>-49900</v>
       </c>
       <c r="I35" s="3">
-        <v>395700</v>
+        <v>374500</v>
       </c>
       <c r="J35" s="3">
-        <v>149200</v>
+        <v>141100</v>
       </c>
       <c r="K35" s="3">
         <v>214200</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>265900</v>
+        <v>251600</v>
       </c>
       <c r="E41" s="3">
-        <v>181800</v>
+        <v>172000</v>
       </c>
       <c r="F41" s="3">
-        <v>148900</v>
+        <v>140900</v>
       </c>
       <c r="G41" s="3">
-        <v>100300</v>
+        <v>94900</v>
       </c>
       <c r="H41" s="3">
-        <v>130100</v>
+        <v>123100</v>
       </c>
       <c r="I41" s="3">
-        <v>140100</v>
+        <v>132500</v>
       </c>
       <c r="J41" s="3">
-        <v>149000</v>
+        <v>141000</v>
       </c>
       <c r="K41" s="3">
         <v>158900</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>690400</v>
+        <v>653300</v>
       </c>
       <c r="E42" s="3">
-        <v>473300</v>
+        <v>447900</v>
       </c>
       <c r="F42" s="3">
-        <v>287100</v>
+        <v>271700</v>
       </c>
       <c r="G42" s="3">
-        <v>140800</v>
+        <v>133300</v>
       </c>
       <c r="H42" s="3">
-        <v>164500</v>
+        <v>155700</v>
       </c>
       <c r="I42" s="3">
-        <v>143500</v>
+        <v>135800</v>
       </c>
       <c r="J42" s="3">
-        <v>111200</v>
+        <v>105200</v>
       </c>
       <c r="K42" s="3">
         <v>141700</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1439800</v>
+        <v>1362400</v>
       </c>
       <c r="E43" s="3">
-        <v>1354300</v>
+        <v>1281500</v>
       </c>
       <c r="F43" s="3">
-        <v>1063500</v>
+        <v>1006300</v>
       </c>
       <c r="G43" s="3">
-        <v>1136000</v>
+        <v>1074900</v>
       </c>
       <c r="H43" s="3">
-        <v>1109900</v>
+        <v>1050300</v>
       </c>
       <c r="I43" s="3">
-        <v>969800</v>
+        <v>917700</v>
       </c>
       <c r="J43" s="3">
-        <v>1017800</v>
+        <v>963100</v>
       </c>
       <c r="K43" s="3">
         <v>956400</v>
@@ -2494,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="F44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H44" s="3">
         <v>6700</v>
       </c>
-      <c r="G44" s="3">
-        <v>7400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>7100</v>
-      </c>
       <c r="I44" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="J44" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K44" s="3">
         <v>6400</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>495300</v>
+        <v>468700</v>
       </c>
       <c r="E45" s="3">
-        <v>640700</v>
+        <v>606300</v>
       </c>
       <c r="F45" s="3">
-        <v>454600</v>
+        <v>430200</v>
       </c>
       <c r="G45" s="3">
-        <v>512600</v>
+        <v>485000</v>
       </c>
       <c r="H45" s="3">
-        <v>515400</v>
+        <v>487700</v>
       </c>
       <c r="I45" s="3">
-        <v>3908300</v>
+        <v>3698200</v>
       </c>
       <c r="J45" s="3">
-        <v>3910400</v>
+        <v>3700200</v>
       </c>
       <c r="K45" s="3">
         <v>3695400</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2891400</v>
+        <v>2736000</v>
       </c>
       <c r="E46" s="3">
-        <v>2650100</v>
+        <v>2507600</v>
       </c>
       <c r="F46" s="3">
-        <v>1960900</v>
+        <v>1855500</v>
       </c>
       <c r="G46" s="3">
-        <v>1897000</v>
+        <v>1795000</v>
       </c>
       <c r="H46" s="3">
-        <v>1927000</v>
+        <v>1823400</v>
       </c>
       <c r="I46" s="3">
-        <v>5168000</v>
+        <v>4890200</v>
       </c>
       <c r="J46" s="3">
-        <v>5194500</v>
+        <v>4915200</v>
       </c>
       <c r="K46" s="3">
         <v>4958800</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3420900</v>
+        <v>3237000</v>
       </c>
       <c r="E47" s="3">
-        <v>3506300</v>
+        <v>3317800</v>
       </c>
       <c r="F47" s="3">
-        <v>3804700</v>
+        <v>3600200</v>
       </c>
       <c r="G47" s="3">
-        <v>4033100</v>
+        <v>3816300</v>
       </c>
       <c r="H47" s="3">
-        <v>4050600</v>
+        <v>3832900</v>
       </c>
       <c r="I47" s="3">
-        <v>3952800</v>
+        <v>3740300</v>
       </c>
       <c r="J47" s="3">
-        <v>2942700</v>
+        <v>2784500</v>
       </c>
       <c r="K47" s="3">
         <v>2790500</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>493000</v>
+        <v>466500</v>
       </c>
       <c r="E48" s="3">
-        <v>498600</v>
+        <v>471800</v>
       </c>
       <c r="F48" s="3">
-        <v>503200</v>
+        <v>476100</v>
       </c>
       <c r="G48" s="3">
-        <v>510300</v>
+        <v>482900</v>
       </c>
       <c r="H48" s="3">
-        <v>534800</v>
+        <v>506000</v>
       </c>
       <c r="I48" s="3">
-        <v>544400</v>
+        <v>515100</v>
       </c>
       <c r="J48" s="3">
-        <v>552300</v>
+        <v>522600</v>
       </c>
       <c r="K48" s="3">
         <v>474800</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2206100</v>
+        <v>2087500</v>
       </c>
       <c r="E49" s="3">
-        <v>2197300</v>
+        <v>2079100</v>
       </c>
       <c r="F49" s="3">
-        <v>2192600</v>
+        <v>2074700</v>
       </c>
       <c r="G49" s="3">
-        <v>2175300</v>
+        <v>2058300</v>
       </c>
       <c r="H49" s="3">
-        <v>2178000</v>
+        <v>2060900</v>
       </c>
       <c r="I49" s="3">
-        <v>2005800</v>
+        <v>1897900</v>
       </c>
       <c r="J49" s="3">
-        <v>2010000</v>
+        <v>1901900</v>
       </c>
       <c r="K49" s="3">
         <v>1922700</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>967500</v>
+        <v>915500</v>
       </c>
       <c r="E52" s="3">
-        <v>978600</v>
+        <v>926000</v>
       </c>
       <c r="F52" s="3">
-        <v>966500</v>
+        <v>914600</v>
       </c>
       <c r="G52" s="3">
-        <v>727200</v>
+        <v>688100</v>
       </c>
       <c r="H52" s="3">
-        <v>677800</v>
+        <v>641400</v>
       </c>
       <c r="I52" s="3">
-        <v>596600</v>
+        <v>564500</v>
       </c>
       <c r="J52" s="3">
-        <v>568400</v>
+        <v>537800</v>
       </c>
       <c r="K52" s="3">
         <v>531200</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9978900</v>
+        <v>9442500</v>
       </c>
       <c r="E54" s="3">
-        <v>9830900</v>
+        <v>9302400</v>
       </c>
       <c r="F54" s="3">
-        <v>9427900</v>
+        <v>8921000</v>
       </c>
       <c r="G54" s="3">
-        <v>9342800</v>
+        <v>8840600</v>
       </c>
       <c r="H54" s="3">
-        <v>9368200</v>
+        <v>8864600</v>
       </c>
       <c r="I54" s="3">
-        <v>12267500</v>
+        <v>11608000</v>
       </c>
       <c r="J54" s="3">
-        <v>11267800</v>
+        <v>10662000</v>
       </c>
       <c r="K54" s="3">
         <v>10678100</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>372600</v>
+        <v>352600</v>
       </c>
       <c r="E57" s="3">
-        <v>364100</v>
+        <v>344500</v>
       </c>
       <c r="F57" s="3">
-        <v>322400</v>
+        <v>305100</v>
       </c>
       <c r="G57" s="3">
-        <v>389200</v>
+        <v>368300</v>
       </c>
       <c r="H57" s="3">
-        <v>385300</v>
+        <v>364500</v>
       </c>
       <c r="I57" s="3">
-        <v>344500</v>
+        <v>325900</v>
       </c>
       <c r="J57" s="3">
-        <v>376600</v>
+        <v>356300</v>
       </c>
       <c r="K57" s="3">
         <v>321300</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>457300</v>
+        <v>432700</v>
       </c>
       <c r="E58" s="3">
-        <v>576000</v>
+        <v>545000</v>
       </c>
       <c r="F58" s="3">
-        <v>589300</v>
+        <v>557600</v>
       </c>
       <c r="G58" s="3">
-        <v>529800</v>
+        <v>501300</v>
       </c>
       <c r="H58" s="3">
-        <v>535800</v>
+        <v>507000</v>
       </c>
       <c r="I58" s="3">
-        <v>569000</v>
+        <v>538400</v>
       </c>
       <c r="J58" s="3">
-        <v>513300</v>
+        <v>485700</v>
       </c>
       <c r="K58" s="3">
         <v>392000</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>869100</v>
+        <v>822300</v>
       </c>
       <c r="E59" s="3">
-        <v>754100</v>
+        <v>713500</v>
       </c>
       <c r="F59" s="3">
-        <v>539600</v>
+        <v>510500</v>
       </c>
       <c r="G59" s="3">
-        <v>561600</v>
+        <v>531400</v>
       </c>
       <c r="H59" s="3">
-        <v>533800</v>
+        <v>505100</v>
       </c>
       <c r="I59" s="3">
-        <v>3642700</v>
+        <v>3446900</v>
       </c>
       <c r="J59" s="3">
-        <v>3556400</v>
+        <v>3365200</v>
       </c>
       <c r="K59" s="3">
         <v>3460000</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1698900</v>
+        <v>1607600</v>
       </c>
       <c r="E60" s="3">
-        <v>1694100</v>
+        <v>1603000</v>
       </c>
       <c r="F60" s="3">
-        <v>1451200</v>
+        <v>1373200</v>
       </c>
       <c r="G60" s="3">
-        <v>1480700</v>
+        <v>1401100</v>
       </c>
       <c r="H60" s="3">
-        <v>1454800</v>
+        <v>1376600</v>
       </c>
       <c r="I60" s="3">
-        <v>4556200</v>
+        <v>4311200</v>
       </c>
       <c r="J60" s="3">
-        <v>4446200</v>
+        <v>4207200</v>
       </c>
       <c r="K60" s="3">
         <v>4173400</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2602700</v>
+        <v>2462700</v>
       </c>
       <c r="E61" s="3">
-        <v>2440300</v>
+        <v>2309100</v>
       </c>
       <c r="F61" s="3">
-        <v>2411200</v>
+        <v>2281600</v>
       </c>
       <c r="G61" s="3">
-        <v>2289100</v>
+        <v>2166000</v>
       </c>
       <c r="H61" s="3">
-        <v>2363000</v>
+        <v>2235900</v>
       </c>
       <c r="I61" s="3">
-        <v>2085900</v>
+        <v>1973800</v>
       </c>
       <c r="J61" s="3">
-        <v>2193400</v>
+        <v>2075500</v>
       </c>
       <c r="K61" s="3">
         <v>2243200</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2439600</v>
+        <v>2308400</v>
       </c>
       <c r="E62" s="3">
-        <v>2538300</v>
+        <v>2401800</v>
       </c>
       <c r="F62" s="3">
-        <v>2602600</v>
+        <v>2462700</v>
       </c>
       <c r="G62" s="3">
-        <v>2599500</v>
+        <v>2459700</v>
       </c>
       <c r="H62" s="3">
-        <v>2329700</v>
+        <v>2204400</v>
       </c>
       <c r="I62" s="3">
-        <v>2096100</v>
+        <v>1983400</v>
       </c>
       <c r="J62" s="3">
-        <v>1496400</v>
+        <v>1415900</v>
       </c>
       <c r="K62" s="3">
         <v>1417800</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6742000</v>
+        <v>6379600</v>
       </c>
       <c r="E66" s="3">
-        <v>6673500</v>
+        <v>6314800</v>
       </c>
       <c r="F66" s="3">
-        <v>6465800</v>
+        <v>6118200</v>
       </c>
       <c r="G66" s="3">
-        <v>6370000</v>
+        <v>6027500</v>
       </c>
       <c r="H66" s="3">
-        <v>6148200</v>
+        <v>5817700</v>
       </c>
       <c r="I66" s="3">
-        <v>8994700</v>
+        <v>8511100</v>
       </c>
       <c r="J66" s="3">
-        <v>8390700</v>
+        <v>7939600</v>
       </c>
       <c r="K66" s="3">
         <v>8077200</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1847800</v>
+        <v>1748500</v>
       </c>
       <c r="E72" s="3">
-        <v>2244500</v>
+        <v>2123800</v>
       </c>
       <c r="F72" s="3">
-        <v>2048300</v>
+        <v>1938200</v>
       </c>
       <c r="G72" s="3">
-        <v>2058400</v>
+        <v>1947700</v>
       </c>
       <c r="H72" s="3">
-        <v>2106600</v>
+        <v>1993400</v>
       </c>
       <c r="I72" s="3">
-        <v>2158500</v>
+        <v>2042500</v>
       </c>
       <c r="J72" s="3">
-        <v>1761700</v>
+        <v>1667000</v>
       </c>
       <c r="K72" s="3">
         <v>1135000</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3236900</v>
+        <v>3062900</v>
       </c>
       <c r="E76" s="3">
-        <v>3157400</v>
+        <v>2987600</v>
       </c>
       <c r="F76" s="3">
-        <v>2962000</v>
+        <v>2802800</v>
       </c>
       <c r="G76" s="3">
-        <v>2972900</v>
+        <v>2813000</v>
       </c>
       <c r="H76" s="3">
-        <v>3220000</v>
+        <v>3046900</v>
       </c>
       <c r="I76" s="3">
-        <v>3272800</v>
+        <v>3096900</v>
       </c>
       <c r="J76" s="3">
-        <v>2877100</v>
+        <v>2722400</v>
       </c>
       <c r="K76" s="3">
         <v>2600800</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>102000</v>
+        <v>96500</v>
       </c>
       <c r="E81" s="3">
-        <v>195300</v>
+        <v>184800</v>
       </c>
       <c r="F81" s="3">
-        <v>-10700</v>
+        <v>-10100</v>
       </c>
       <c r="G81" s="3">
-        <v>93100</v>
+        <v>88100</v>
       </c>
       <c r="H81" s="3">
-        <v>-52800</v>
+        <v>-49900</v>
       </c>
       <c r="I81" s="3">
-        <v>395700</v>
+        <v>374500</v>
       </c>
       <c r="J81" s="3">
-        <v>149200</v>
+        <v>141100</v>
       </c>
       <c r="K81" s="3">
         <v>214200</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>45900</v>
+        <v>43400</v>
       </c>
       <c r="E83" s="3">
-        <v>46000</v>
+        <v>43500</v>
       </c>
       <c r="F83" s="3">
-        <v>45400</v>
+        <v>43000</v>
       </c>
       <c r="G83" s="3">
+        <v>41600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="I83" s="3">
         <v>44000</v>
       </c>
-      <c r="H83" s="3">
-        <v>45700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>46500</v>
-      </c>
       <c r="J83" s="3">
-        <v>43200</v>
+        <v>40900</v>
       </c>
       <c r="K83" s="3">
         <v>41000</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>491400</v>
+        <v>465000</v>
       </c>
       <c r="E89" s="3">
-        <v>324100</v>
+        <v>306600</v>
       </c>
       <c r="F89" s="3">
-        <v>463200</v>
+        <v>438300</v>
       </c>
       <c r="G89" s="3">
-        <v>166100</v>
+        <v>157200</v>
       </c>
       <c r="H89" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="I89" s="3">
-        <v>87400</v>
+        <v>82700</v>
       </c>
       <c r="J89" s="3">
-        <v>115300</v>
+        <v>109100</v>
       </c>
       <c r="K89" s="3">
         <v>41300</v>
@@ -4843,22 +4843,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5900</v>
+        <v>-5600</v>
       </c>
       <c r="E91" s="3">
-        <v>-7100</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="I91" s="3">
-        <v>-5300</v>
+        <v>-5000</v>
       </c>
       <c r="J91" s="3">
         <v>-1100</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-343900</v>
+        <v>-325400</v>
       </c>
       <c r="E94" s="3">
-        <v>-274000</v>
+        <v>-259300</v>
       </c>
       <c r="F94" s="3">
-        <v>-228300</v>
+        <v>-216000</v>
       </c>
       <c r="G94" s="3">
-        <v>-45800</v>
+        <v>-43300</v>
       </c>
       <c r="H94" s="3">
-        <v>-126900</v>
+        <v>-120100</v>
       </c>
       <c r="I94" s="3">
-        <v>-61000</v>
+        <v>-57800</v>
       </c>
       <c r="J94" s="3">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="K94" s="3">
         <v>26900</v>
@@ -5098,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-116400</v>
+        <v>-110200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-14300</v>
+        <v>-13600</v>
       </c>
       <c r="J96" s="3">
         <v>-400</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63500</v>
+        <v>-60100</v>
       </c>
       <c r="E100" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="F100" s="3">
-        <v>-186200</v>
+        <v>-176200</v>
       </c>
       <c r="G100" s="3">
-        <v>-150100</v>
+        <v>-142100</v>
       </c>
       <c r="H100" s="3">
-        <v>104600</v>
+        <v>98900</v>
       </c>
       <c r="I100" s="3">
-        <v>-35400</v>
+        <v>-33500</v>
       </c>
       <c r="J100" s="3">
-        <v>-144200</v>
+        <v>-136500</v>
       </c>
       <c r="K100" s="3">
         <v>-175700</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>84100</v>
+        <v>79600</v>
       </c>
       <c r="E102" s="3">
-        <v>32900</v>
+        <v>31100</v>
       </c>
       <c r="F102" s="3">
-        <v>48600</v>
+        <v>46000</v>
       </c>
       <c r="G102" s="3">
-        <v>-29800</v>
+        <v>-28200</v>
       </c>
       <c r="H102" s="3">
-        <v>-10000</v>
+        <v>-9500</v>
       </c>
       <c r="I102" s="3">
-        <v>-9000</v>
+        <v>-8500</v>
       </c>
       <c r="J102" s="3">
-        <v>-17700</v>
+        <v>-16700</v>
       </c>
       <c r="K102" s="3">
         <v>-107500</v>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1127800</v>
+        <v>1333800</v>
       </c>
       <c r="E8" s="3">
-        <v>1050800</v>
+        <v>1287700</v>
       </c>
       <c r="F8" s="3">
-        <v>1072900</v>
+        <v>1194800</v>
       </c>
       <c r="G8" s="3">
-        <v>1131400</v>
+        <v>1113200</v>
       </c>
       <c r="H8" s="3">
-        <v>1075000</v>
+        <v>1136600</v>
       </c>
       <c r="I8" s="3">
+        <v>1216700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1138800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1242500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1047100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1028500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1156900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1309200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1152500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1681300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1316700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1334500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1233900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1159200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>870800</v>
+        <v>999400</v>
       </c>
       <c r="E9" s="3">
-        <v>799700</v>
+        <v>1103700</v>
       </c>
       <c r="F9" s="3">
-        <v>801600</v>
+        <v>922400</v>
       </c>
       <c r="G9" s="3">
-        <v>898000</v>
+        <v>847200</v>
       </c>
       <c r="H9" s="3">
-        <v>1043600</v>
+        <v>849200</v>
       </c>
       <c r="I9" s="3">
+        <v>951300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1105600</v>
+      </c>
+      <c r="K9" s="3">
         <v>782300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>746400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>773700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>947700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1048200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>870900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1306100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1203200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1093200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>880800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>925600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>257100</v>
+        <v>334400</v>
       </c>
       <c r="E10" s="3">
-        <v>251100</v>
+        <v>183900</v>
       </c>
       <c r="F10" s="3">
-        <v>271300</v>
+        <v>272300</v>
       </c>
       <c r="G10" s="3">
-        <v>233400</v>
+        <v>266000</v>
       </c>
       <c r="H10" s="3">
-        <v>31300</v>
+        <v>287400</v>
       </c>
       <c r="I10" s="3">
+        <v>265300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K10" s="3">
         <v>460200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>300700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>254800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>209100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>261100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>281600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>375200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>113500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>241200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>353200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>233600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,25 +1081,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>24100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-84100</v>
+        <v>-50700</v>
       </c>
       <c r="F14" s="3">
-        <v>107900</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>25600</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-89100</v>
+      </c>
+      <c r="H14" s="3">
+        <v>114300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1080,11 +1119,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>919200</v>
+        <v>1033500</v>
       </c>
       <c r="E17" s="3">
-        <v>774000</v>
+        <v>1025200</v>
       </c>
       <c r="F17" s="3">
-        <v>972800</v>
+        <v>973700</v>
       </c>
       <c r="G17" s="3">
-        <v>1012100</v>
+        <v>819900</v>
       </c>
       <c r="H17" s="3">
-        <v>1138300</v>
+        <v>1030500</v>
       </c>
       <c r="I17" s="3">
+        <v>1071500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1205900</v>
+      </c>
+      <c r="K17" s="3">
         <v>965600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>829200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>912400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1031000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1154200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>967100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1343200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1343700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1198500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1003500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1185500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>208700</v>
+        <v>300300</v>
       </c>
       <c r="E18" s="3">
+        <v>262400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>221000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>293200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>106100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>145200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-67100</v>
+      </c>
+      <c r="K18" s="3">
         <v>276800</v>
       </c>
-      <c r="F18" s="3">
-        <v>100100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>119300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-63400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>276800</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>217900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>116200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>125900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>155000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>185400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>338100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>135900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>230400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-26400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1378,320 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32600</v>
+        <v>-175100</v>
       </c>
       <c r="E20" s="3">
-        <v>41900</v>
+        <v>119200</v>
       </c>
       <c r="F20" s="3">
-        <v>-73500</v>
+        <v>-34500</v>
       </c>
       <c r="G20" s="3">
-        <v>15800</v>
+        <v>44400</v>
       </c>
       <c r="H20" s="3">
-        <v>15100</v>
+        <v>-77900</v>
       </c>
       <c r="I20" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="K20" s="3">
         <v>391500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>35700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>182300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-89000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>32400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>91500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>17600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>26000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>219500</v>
+        <v>170000</v>
       </c>
       <c r="E21" s="3">
-        <v>362200</v>
+        <v>429500</v>
       </c>
       <c r="F21" s="3">
-        <v>69600</v>
+        <v>232500</v>
       </c>
       <c r="G21" s="3">
-        <v>176600</v>
+        <v>383700</v>
       </c>
       <c r="H21" s="3">
-        <v>-5100</v>
+        <v>73700</v>
       </c>
       <c r="I21" s="3">
+        <v>205900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K21" s="3">
         <v>712300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>294500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>339500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>165900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>112300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>267500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>412400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>117200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>203700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>299700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>57500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>55400</v>
+        <v>61200</v>
       </c>
       <c r="E22" s="3">
-        <v>48100</v>
+        <v>52900</v>
       </c>
       <c r="F22" s="3">
-        <v>55200</v>
+        <v>58600</v>
       </c>
       <c r="G22" s="3">
-        <v>53500</v>
+        <v>51000</v>
       </c>
       <c r="H22" s="3">
-        <v>56500</v>
+        <v>58500</v>
       </c>
       <c r="I22" s="3">
+        <v>56600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K22" s="3">
         <v>53600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>53700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>63100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>63200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>73700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>69200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>85000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>88300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>101600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>118300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>123000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>120700</v>
+        <v>64100</v>
       </c>
       <c r="E23" s="3">
-        <v>270600</v>
+        <v>328700</v>
       </c>
       <c r="F23" s="3">
-        <v>-28600</v>
+        <v>127900</v>
       </c>
       <c r="G23" s="3">
-        <v>81600</v>
+        <v>286600</v>
       </c>
       <c r="H23" s="3">
-        <v>-104800</v>
+        <v>-30300</v>
       </c>
       <c r="I23" s="3">
+        <v>105200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="K23" s="3">
         <v>614800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>199900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>235400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>64300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>148600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>267700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>48400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>129800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-123400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24200</v>
+        <v>-15100</v>
       </c>
       <c r="E24" s="3">
-        <v>85700</v>
+        <v>78700</v>
       </c>
       <c r="F24" s="3">
-        <v>-18500</v>
+        <v>25600</v>
       </c>
       <c r="G24" s="3">
-        <v>-6600</v>
+        <v>90800</v>
       </c>
       <c r="H24" s="3">
-        <v>-15200</v>
+        <v>-19600</v>
       </c>
       <c r="I24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="K24" s="3">
         <v>240300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>58700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>72300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>21700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>40100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>112700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>13000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>41900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-47400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>96600</v>
+        <v>79200</v>
       </c>
       <c r="E26" s="3">
-        <v>184900</v>
+        <v>250000</v>
       </c>
       <c r="F26" s="3">
-        <v>-10100</v>
+        <v>102300</v>
       </c>
       <c r="G26" s="3">
-        <v>88100</v>
+        <v>195800</v>
       </c>
       <c r="H26" s="3">
-        <v>-89600</v>
+        <v>-10700</v>
       </c>
       <c r="I26" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="K26" s="3">
         <v>374500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>141200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>163100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>42600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>108500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>155000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>35400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>87900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-75900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>96500</v>
+        <v>79200</v>
       </c>
       <c r="E27" s="3">
-        <v>184800</v>
+        <v>249900</v>
       </c>
       <c r="F27" s="3">
-        <v>-10100</v>
+        <v>102200</v>
       </c>
       <c r="G27" s="3">
-        <v>88100</v>
+        <v>195800</v>
       </c>
       <c r="H27" s="3">
-        <v>-89600</v>
+        <v>-10700</v>
       </c>
       <c r="I27" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-94900</v>
+      </c>
+      <c r="K27" s="3">
         <v>374500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>141100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>155800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>42600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>108500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>154900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>35400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>87800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-76000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,46 +1932,52 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>39700</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>58500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>2600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>5000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32600</v>
+        <v>175100</v>
       </c>
       <c r="E32" s="3">
-        <v>-41900</v>
+        <v>-119200</v>
       </c>
       <c r="F32" s="3">
-        <v>73500</v>
+        <v>34500</v>
       </c>
       <c r="G32" s="3">
-        <v>-15800</v>
+        <v>-44400</v>
       </c>
       <c r="H32" s="3">
-        <v>-15100</v>
+        <v>77900</v>
       </c>
       <c r="I32" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-391500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-35700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-182300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>89000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-32400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-91500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-17600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-26000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>96500</v>
+        <v>79200</v>
       </c>
       <c r="E33" s="3">
-        <v>184800</v>
+        <v>249900</v>
       </c>
       <c r="F33" s="3">
-        <v>-10100</v>
+        <v>102200</v>
       </c>
       <c r="G33" s="3">
-        <v>88100</v>
+        <v>195800</v>
       </c>
       <c r="H33" s="3">
-        <v>-49900</v>
+        <v>-10700</v>
       </c>
       <c r="I33" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K33" s="3">
         <v>374500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>141100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>214200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>45200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>108500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>154900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>35400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>87800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-76000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>96500</v>
+        <v>79200</v>
       </c>
       <c r="E35" s="3">
-        <v>184800</v>
+        <v>249900</v>
       </c>
       <c r="F35" s="3">
-        <v>-10100</v>
+        <v>102200</v>
       </c>
       <c r="G35" s="3">
-        <v>88100</v>
+        <v>195800</v>
       </c>
       <c r="H35" s="3">
-        <v>-49900</v>
+        <v>-10700</v>
       </c>
       <c r="I35" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K35" s="3">
         <v>374500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>141100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>214200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>45200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>108500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>154900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>35400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>87800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-76000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2485,196 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>251600</v>
+        <v>625100</v>
       </c>
       <c r="E41" s="3">
-        <v>172000</v>
+        <v>315200</v>
       </c>
       <c r="F41" s="3">
-        <v>140900</v>
+        <v>266500</v>
       </c>
       <c r="G41" s="3">
-        <v>94900</v>
+        <v>182200</v>
       </c>
       <c r="H41" s="3">
-        <v>123100</v>
+        <v>149300</v>
       </c>
       <c r="I41" s="3">
+        <v>100500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K41" s="3">
         <v>132500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>141000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>158900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>276300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>219700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>98600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>264100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>149300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>242600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>215900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>246900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>653300</v>
+        <v>420300</v>
       </c>
       <c r="E42" s="3">
-        <v>447900</v>
+        <v>630300</v>
       </c>
       <c r="F42" s="3">
-        <v>271700</v>
+        <v>692100</v>
       </c>
       <c r="G42" s="3">
-        <v>133300</v>
+        <v>474500</v>
       </c>
       <c r="H42" s="3">
-        <v>155700</v>
+        <v>287800</v>
       </c>
       <c r="I42" s="3">
+        <v>141200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>164900</v>
+      </c>
+      <c r="K42" s="3">
         <v>135800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>105200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>141700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>126700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>93200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>127700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>298600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>291600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>381900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>312700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>342800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1362400</v>
+        <v>1464000</v>
       </c>
       <c r="E43" s="3">
-        <v>1281500</v>
+        <v>1486700</v>
       </c>
       <c r="F43" s="3">
-        <v>1006300</v>
+        <v>1443300</v>
       </c>
       <c r="G43" s="3">
-        <v>1074900</v>
+        <v>1357500</v>
       </c>
       <c r="H43" s="3">
-        <v>1050300</v>
+        <v>1066000</v>
       </c>
       <c r="I43" s="3">
+        <v>1214600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1112600</v>
+      </c>
+      <c r="K43" s="3">
         <v>917700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>963100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>956400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1106600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1123800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1085700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1315800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1334900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1255000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1318800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1221900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2493,333 +2684,369 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>7000</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
         <v>6700</v>
       </c>
       <c r="I44" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>6400</v>
       </c>
       <c r="L44" s="3">
         <v>5700</v>
       </c>
       <c r="M44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>8200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>9800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>12500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>12300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>12300</v>
       </c>
       <c r="S44" s="3">
         <v>12300</v>
       </c>
       <c r="T44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="U44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="V44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>468700</v>
+        <v>241700</v>
       </c>
       <c r="E45" s="3">
-        <v>606300</v>
+        <v>467100</v>
       </c>
       <c r="F45" s="3">
-        <v>430200</v>
+        <v>496500</v>
       </c>
       <c r="G45" s="3">
-        <v>485000</v>
+        <v>642300</v>
       </c>
       <c r="H45" s="3">
-        <v>487700</v>
+        <v>455700</v>
       </c>
       <c r="I45" s="3">
+        <v>558100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>516600</v>
+      </c>
+      <c r="K45" s="3">
         <v>3698200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3700200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3695400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>242700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>247800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>294200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>300500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>225700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>127200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>166100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>231600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2736000</v>
+        <v>2751100</v>
       </c>
       <c r="E46" s="3">
-        <v>2507600</v>
+        <v>2899300</v>
       </c>
       <c r="F46" s="3">
-        <v>1855500</v>
+        <v>2898400</v>
       </c>
       <c r="G46" s="3">
-        <v>1795000</v>
+        <v>2656400</v>
       </c>
       <c r="H46" s="3">
-        <v>1823400</v>
+        <v>1965600</v>
       </c>
       <c r="I46" s="3">
+        <v>1942000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1931600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4890200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4915200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4958800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1758000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1692500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1614300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2188800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2014000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2018900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2025900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2055500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3237000</v>
+        <v>3596800</v>
       </c>
       <c r="E47" s="3">
-        <v>3317800</v>
+        <v>3623800</v>
       </c>
       <c r="F47" s="3">
-        <v>3600200</v>
+        <v>3429100</v>
       </c>
       <c r="G47" s="3">
-        <v>3816300</v>
+        <v>3514800</v>
       </c>
       <c r="H47" s="3">
-        <v>3832900</v>
+        <v>3813800</v>
       </c>
       <c r="I47" s="3">
+        <v>4114700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4060400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3740300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2784500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2790500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3292800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4357200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4151900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4588500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4512800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>4377600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4366800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4249400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>466500</v>
+        <v>486500</v>
       </c>
       <c r="E48" s="3">
-        <v>471800</v>
+        <v>491300</v>
       </c>
       <c r="F48" s="3">
-        <v>476100</v>
+        <v>494200</v>
       </c>
       <c r="G48" s="3">
-        <v>482900</v>
+        <v>499800</v>
       </c>
       <c r="H48" s="3">
-        <v>506000</v>
+        <v>504400</v>
       </c>
       <c r="I48" s="3">
+        <v>511500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K48" s="3">
         <v>515100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>522600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>474800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>445800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>565300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>636500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>708200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>717100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>723800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>733000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>936500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2087500</v>
+        <v>2210100</v>
       </c>
       <c r="E49" s="3">
-        <v>2079100</v>
+        <v>2215300</v>
       </c>
       <c r="F49" s="3">
-        <v>2074700</v>
+        <v>2211400</v>
       </c>
       <c r="G49" s="3">
-        <v>2058300</v>
+        <v>2202500</v>
       </c>
       <c r="H49" s="3">
-        <v>2060900</v>
+        <v>2197900</v>
       </c>
       <c r="I49" s="3">
+        <v>2180500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2183200</v>
+      </c>
+      <c r="K49" s="3">
         <v>1897900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1901900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1922700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2072000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2611900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2607900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2860200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2835000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2804500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2780500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2684100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>915500</v>
+        <v>899300</v>
       </c>
       <c r="E52" s="3">
-        <v>926000</v>
+        <v>915200</v>
       </c>
       <c r="F52" s="3">
-        <v>914600</v>
+        <v>969800</v>
       </c>
       <c r="G52" s="3">
-        <v>688100</v>
+        <v>981000</v>
       </c>
       <c r="H52" s="3">
-        <v>641400</v>
+        <v>968900</v>
       </c>
       <c r="I52" s="3">
+        <v>728900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>679500</v>
+      </c>
+      <c r="K52" s="3">
         <v>564500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>537800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>531200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>420500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>506300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>478900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>483700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>645900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>821600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>801200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>502700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9442500</v>
+        <v>9943800</v>
       </c>
       <c r="E54" s="3">
-        <v>9302400</v>
+        <v>10144900</v>
       </c>
       <c r="F54" s="3">
-        <v>8921000</v>
+        <v>10002900</v>
       </c>
       <c r="G54" s="3">
-        <v>8840600</v>
+        <v>9854500</v>
       </c>
       <c r="H54" s="3">
-        <v>8864600</v>
+        <v>9450600</v>
       </c>
       <c r="I54" s="3">
+        <v>9477600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>9390800</v>
+      </c>
+      <c r="K54" s="3">
         <v>11608000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10662000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10678100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7989100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9733200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9489500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10829400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10724900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10746400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10707500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10428300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>352600</v>
+        <v>367100</v>
       </c>
       <c r="E57" s="3">
-        <v>344500</v>
+        <v>442400</v>
       </c>
       <c r="F57" s="3">
-        <v>305100</v>
+        <v>373500</v>
       </c>
       <c r="G57" s="3">
-        <v>368300</v>
+        <v>364900</v>
       </c>
       <c r="H57" s="3">
-        <v>364500</v>
+        <v>323200</v>
       </c>
       <c r="I57" s="3">
+        <v>390100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>386200</v>
+      </c>
+      <c r="K57" s="3">
         <v>325900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>356300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>321300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>452300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>502700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>379100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>600600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>560600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>491200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>414000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>481200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>432700</v>
+        <v>313800</v>
       </c>
       <c r="E58" s="3">
-        <v>545000</v>
+        <v>395300</v>
       </c>
       <c r="F58" s="3">
-        <v>557600</v>
+        <v>458400</v>
       </c>
       <c r="G58" s="3">
-        <v>501300</v>
+        <v>577400</v>
       </c>
       <c r="H58" s="3">
-        <v>507000</v>
+        <v>590700</v>
       </c>
       <c r="I58" s="3">
+        <v>531100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>537000</v>
+      </c>
+      <c r="K58" s="3">
         <v>538400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>485700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>392000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>442600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>640000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>604400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>607800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1333000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1331300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1273400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1199900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>822300</v>
+        <v>1018200</v>
       </c>
       <c r="E59" s="3">
-        <v>713500</v>
+        <v>980100</v>
       </c>
       <c r="F59" s="3">
-        <v>510500</v>
+        <v>871200</v>
       </c>
       <c r="G59" s="3">
-        <v>531400</v>
+        <v>755900</v>
       </c>
       <c r="H59" s="3">
-        <v>505100</v>
+        <v>540800</v>
       </c>
       <c r="I59" s="3">
+        <v>574300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>535000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3446900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3365200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3460000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>598400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>692500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>779200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1012400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1272700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1197100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1230500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1158800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1607600</v>
+        <v>1699100</v>
       </c>
       <c r="E60" s="3">
-        <v>1603000</v>
+        <v>1817700</v>
       </c>
       <c r="F60" s="3">
-        <v>1373200</v>
+        <v>1703000</v>
       </c>
       <c r="G60" s="3">
-        <v>1401100</v>
+        <v>1698200</v>
       </c>
       <c r="H60" s="3">
-        <v>1376600</v>
+        <v>1454700</v>
       </c>
       <c r="I60" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1458300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4311200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4207200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4173400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1493400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1835200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1762700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2220800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3166300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3019600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2917900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2839900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2462700</v>
+        <v>2478000</v>
       </c>
       <c r="E61" s="3">
-        <v>2309100</v>
+        <v>2464800</v>
       </c>
       <c r="F61" s="3">
-        <v>2281600</v>
+        <v>2608900</v>
       </c>
       <c r="G61" s="3">
-        <v>2166000</v>
+        <v>2446200</v>
       </c>
       <c r="H61" s="3">
-        <v>2235900</v>
+        <v>2417000</v>
       </c>
       <c r="I61" s="3">
+        <v>2294600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2368600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1973800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2075500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2243200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2405700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2770300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2594600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3083500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2270500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2413600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2502500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2565700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2308400</v>
+        <v>2409000</v>
       </c>
       <c r="E62" s="3">
-        <v>2401800</v>
+        <v>2584000</v>
       </c>
       <c r="F62" s="3">
-        <v>2462700</v>
+        <v>2445500</v>
       </c>
       <c r="G62" s="3">
-        <v>2459700</v>
+        <v>2544400</v>
       </c>
       <c r="H62" s="3">
-        <v>2204400</v>
+        <v>2608800</v>
       </c>
       <c r="I62" s="3">
+        <v>2792500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2335300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1983400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1415900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1417800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1356300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1699900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1690400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1851100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1881500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1885300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1879000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1813900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6379600</v>
+        <v>6587100</v>
       </c>
       <c r="E66" s="3">
-        <v>6314800</v>
+        <v>6867400</v>
       </c>
       <c r="F66" s="3">
-        <v>6118200</v>
+        <v>6758200</v>
       </c>
       <c r="G66" s="3">
-        <v>6027500</v>
+        <v>6689600</v>
       </c>
       <c r="H66" s="3">
-        <v>5817700</v>
+        <v>6481400</v>
       </c>
       <c r="I66" s="3">
+        <v>6457900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6163000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8511100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7939600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8077200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5256200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6306400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6048600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7156500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7319400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7319400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7300500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7220500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1748500</v>
+        <v>1967100</v>
       </c>
       <c r="E72" s="3">
-        <v>2123800</v>
+        <v>1887200</v>
       </c>
       <c r="F72" s="3">
-        <v>1938200</v>
+        <v>1852200</v>
       </c>
       <c r="G72" s="3">
-        <v>1947700</v>
+        <v>2249900</v>
       </c>
       <c r="H72" s="3">
-        <v>1993400</v>
+        <v>2053200</v>
       </c>
       <c r="I72" s="3">
+        <v>2103000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2111700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2042500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1667000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1135000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1186700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1469500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1405400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1468700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1446100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1456500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1423600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1290000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3062900</v>
+        <v>3356700</v>
       </c>
       <c r="E76" s="3">
-        <v>2987600</v>
+        <v>3277500</v>
       </c>
       <c r="F76" s="3">
-        <v>2802800</v>
+        <v>3244700</v>
       </c>
       <c r="G76" s="3">
-        <v>2813000</v>
+        <v>3165000</v>
       </c>
       <c r="H76" s="3">
-        <v>3046900</v>
+        <v>2969200</v>
       </c>
       <c r="I76" s="3">
+        <v>3019700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3227700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3096900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2722400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2600800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2732900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3426800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3441000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3672900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3405500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3427000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3407000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3207700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>96500</v>
+        <v>79200</v>
       </c>
       <c r="E81" s="3">
-        <v>184800</v>
+        <v>249900</v>
       </c>
       <c r="F81" s="3">
-        <v>-10100</v>
+        <v>102200</v>
       </c>
       <c r="G81" s="3">
-        <v>88100</v>
+        <v>195800</v>
       </c>
       <c r="H81" s="3">
-        <v>-49900</v>
+        <v>-10700</v>
       </c>
       <c r="I81" s="3">
+        <v>105800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K81" s="3">
         <v>374500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>141100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>214200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>45200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>108500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>154900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-21500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>35400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>87800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-76000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>43400</v>
+        <v>44700</v>
       </c>
       <c r="E83" s="3">
-        <v>43500</v>
+        <v>47900</v>
       </c>
       <c r="F83" s="3">
-        <v>43000</v>
+        <v>46000</v>
       </c>
       <c r="G83" s="3">
-        <v>41600</v>
+        <v>46100</v>
       </c>
       <c r="H83" s="3">
-        <v>43200</v>
+        <v>45500</v>
       </c>
       <c r="I83" s="3">
+        <v>44100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>45800</v>
+      </c>
+      <c r="K83" s="3">
         <v>44000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>40900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>41000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>38400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>46300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>49700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>59700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>52800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>53700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>51600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>57800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>465000</v>
+        <v>143500</v>
       </c>
       <c r="E89" s="3">
-        <v>306600</v>
+        <v>333200</v>
       </c>
       <c r="F89" s="3">
-        <v>438300</v>
+        <v>492600</v>
       </c>
       <c r="G89" s="3">
-        <v>157200</v>
+        <v>324800</v>
       </c>
       <c r="H89" s="3">
-        <v>11700</v>
+        <v>464300</v>
       </c>
       <c r="I89" s="3">
+        <v>166500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K89" s="3">
         <v>82700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>109100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>41300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>145200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>85100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-87100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>56400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>357600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>135400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>244300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5600</v>
+        <v>-5200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-7200</v>
       </c>
       <c r="F91" s="3">
-        <v>-4500</v>
+        <v>-5900</v>
       </c>
       <c r="G91" s="3">
-        <v>-4500</v>
+        <v>-7100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1900</v>
+        <v>-4700</v>
       </c>
       <c r="I91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-4700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-5900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-4800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-74400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-325400</v>
+        <v>427000</v>
       </c>
       <c r="E94" s="3">
-        <v>-259300</v>
+        <v>-104100</v>
       </c>
       <c r="F94" s="3">
-        <v>-216000</v>
+        <v>-344700</v>
       </c>
       <c r="G94" s="3">
-        <v>-43300</v>
+        <v>-274700</v>
       </c>
       <c r="H94" s="3">
-        <v>-120100</v>
+        <v>-228900</v>
       </c>
       <c r="I94" s="3">
+        <v>-45900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-127200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>26900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-101800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-44200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>88300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>116500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>16900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-190400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-42000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-127100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5092,55 +5559,61 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-112200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-110200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-13600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-90700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-69500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-69400</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-139700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5792,76 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60100</v>
+        <v>-260600</v>
       </c>
       <c r="E100" s="3">
-        <v>-16300</v>
+        <v>-180300</v>
       </c>
       <c r="F100" s="3">
-        <v>-176200</v>
+        <v>-63600</v>
       </c>
       <c r="G100" s="3">
-        <v>-142100</v>
+        <v>-17300</v>
       </c>
       <c r="H100" s="3">
-        <v>98900</v>
+        <v>-186600</v>
       </c>
       <c r="I100" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>104800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-136500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-175700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>58900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>80200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-143200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>399100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-166500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-140600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-132600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-290300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>79600</v>
+        <v>309900</v>
       </c>
       <c r="E102" s="3">
-        <v>31100</v>
+        <v>48700</v>
       </c>
       <c r="F102" s="3">
-        <v>46000</v>
+        <v>84300</v>
       </c>
       <c r="G102" s="3">
-        <v>-28200</v>
+        <v>32900</v>
       </c>
       <c r="H102" s="3">
-        <v>-9500</v>
+        <v>48800</v>
       </c>
       <c r="I102" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-107500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>102200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>121100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-142000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>114800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-93300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>26600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-39200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-173100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1333800</v>
+        <v>1358300</v>
       </c>
       <c r="E8" s="3">
-        <v>1287700</v>
+        <v>1313300</v>
       </c>
       <c r="F8" s="3">
-        <v>1194800</v>
+        <v>1267900</v>
       </c>
       <c r="G8" s="3">
-        <v>1113200</v>
+        <v>1176400</v>
       </c>
       <c r="H8" s="3">
-        <v>1136600</v>
+        <v>1015900</v>
       </c>
       <c r="I8" s="3">
-        <v>1216700</v>
+        <v>1119100</v>
       </c>
       <c r="J8" s="3">
+        <v>1198000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1138800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1242500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1047100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1028500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1156900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1309200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1152500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1681300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1316700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1334500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1233900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1159200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>999400</v>
+        <v>1089200</v>
       </c>
       <c r="E9" s="3">
-        <v>1103700</v>
+        <v>984100</v>
       </c>
       <c r="F9" s="3">
-        <v>922400</v>
+        <v>1086800</v>
       </c>
       <c r="G9" s="3">
-        <v>847200</v>
+        <v>908300</v>
       </c>
       <c r="H9" s="3">
-        <v>849200</v>
+        <v>834200</v>
       </c>
       <c r="I9" s="3">
-        <v>951300</v>
+        <v>836100</v>
       </c>
       <c r="J9" s="3">
+        <v>936700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1105600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>782300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>746400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>773700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>947700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1048200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>870900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1306100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1203200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1093200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>880800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>925600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>334400</v>
+        <v>269100</v>
       </c>
       <c r="E10" s="3">
-        <v>183900</v>
+        <v>329300</v>
       </c>
       <c r="F10" s="3">
-        <v>272300</v>
+        <v>181100</v>
       </c>
       <c r="G10" s="3">
-        <v>266000</v>
+        <v>268200</v>
       </c>
       <c r="H10" s="3">
-        <v>287400</v>
+        <v>181700</v>
       </c>
       <c r="I10" s="3">
-        <v>265300</v>
+        <v>283000</v>
       </c>
       <c r="J10" s="3">
+        <v>261300</v>
+      </c>
+      <c r="K10" s="3">
         <v>33200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>460200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>254800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>209100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>261100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>281600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>375200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>113500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>241200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>353200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>233600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-50700</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>25600</v>
+        <v>-49900</v>
       </c>
       <c r="G14" s="3">
-        <v>-89100</v>
+        <v>25200</v>
       </c>
       <c r="H14" s="3">
-        <v>114300</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+        <v>-87800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>112500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1033500</v>
+        <v>963500</v>
       </c>
       <c r="E17" s="3">
-        <v>1025200</v>
+        <v>1017600</v>
       </c>
       <c r="F17" s="3">
-        <v>973700</v>
+        <v>1009500</v>
       </c>
       <c r="G17" s="3">
-        <v>819900</v>
+        <v>958800</v>
       </c>
       <c r="H17" s="3">
-        <v>1030500</v>
+        <v>805200</v>
       </c>
       <c r="I17" s="3">
-        <v>1071500</v>
+        <v>1014700</v>
       </c>
       <c r="J17" s="3">
+        <v>1055100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1205900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>965600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>829200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>912400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1031000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1154200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>967100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1343200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1343700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1198500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1003500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1185500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>300300</v>
+        <v>394700</v>
       </c>
       <c r="E18" s="3">
-        <v>262400</v>
+        <v>295700</v>
       </c>
       <c r="F18" s="3">
-        <v>221000</v>
+        <v>258400</v>
       </c>
       <c r="G18" s="3">
-        <v>293200</v>
+        <v>217700</v>
       </c>
       <c r="H18" s="3">
-        <v>106100</v>
+        <v>210700</v>
       </c>
       <c r="I18" s="3">
-        <v>145200</v>
+        <v>104400</v>
       </c>
       <c r="J18" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-67100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>276800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>116200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>125900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>155000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>185400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>338100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-27000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>135900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>230400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-26400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-175100</v>
+        <v>176000</v>
       </c>
       <c r="E20" s="3">
-        <v>119200</v>
+        <v>-172400</v>
       </c>
       <c r="F20" s="3">
-        <v>-34500</v>
+        <v>117300</v>
       </c>
       <c r="G20" s="3">
-        <v>44400</v>
+        <v>-34000</v>
       </c>
       <c r="H20" s="3">
-        <v>-77900</v>
+        <v>132300</v>
       </c>
       <c r="I20" s="3">
-        <v>16700</v>
+        <v>-76700</v>
       </c>
       <c r="J20" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>391500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>182300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-89000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>91500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>26000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>170000</v>
+        <v>615400</v>
       </c>
       <c r="E21" s="3">
-        <v>429500</v>
+        <v>167400</v>
       </c>
       <c r="F21" s="3">
-        <v>232500</v>
+        <v>422900</v>
       </c>
       <c r="G21" s="3">
-        <v>383700</v>
+        <v>228900</v>
       </c>
       <c r="H21" s="3">
-        <v>73700</v>
+        <v>388300</v>
       </c>
       <c r="I21" s="3">
-        <v>205900</v>
+        <v>72600</v>
       </c>
       <c r="J21" s="3">
+        <v>202800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>712300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>294500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>339500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>165900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>112300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>267500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>412400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>117200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>203700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>299700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>57500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>61200</v>
+        <v>48600</v>
       </c>
       <c r="E22" s="3">
-        <v>52900</v>
+        <v>60200</v>
       </c>
       <c r="F22" s="3">
-        <v>58600</v>
+        <v>52100</v>
       </c>
       <c r="G22" s="3">
-        <v>51000</v>
+        <v>57700</v>
       </c>
       <c r="H22" s="3">
-        <v>58500</v>
+        <v>50200</v>
       </c>
       <c r="I22" s="3">
-        <v>56600</v>
+        <v>57600</v>
       </c>
       <c r="J22" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K22" s="3">
         <v>59800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>85000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>88300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>101600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>118300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>123000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>64100</v>
+        <v>522100</v>
       </c>
       <c r="E23" s="3">
-        <v>328700</v>
+        <v>63100</v>
       </c>
       <c r="F23" s="3">
-        <v>127900</v>
+        <v>323700</v>
       </c>
       <c r="G23" s="3">
-        <v>286600</v>
+        <v>125900</v>
       </c>
       <c r="H23" s="3">
-        <v>-30300</v>
+        <v>292800</v>
       </c>
       <c r="I23" s="3">
-        <v>105200</v>
+        <v>-29800</v>
       </c>
       <c r="J23" s="3">
+        <v>103600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-111000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>614800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>235400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>64300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>148600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>267700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-23800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>48400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>129800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-123400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-15100</v>
+        <v>162600</v>
       </c>
       <c r="E24" s="3">
-        <v>78700</v>
+        <v>-14900</v>
       </c>
       <c r="F24" s="3">
-        <v>25600</v>
+        <v>77500</v>
       </c>
       <c r="G24" s="3">
-        <v>90800</v>
+        <v>25200</v>
       </c>
       <c r="H24" s="3">
-        <v>-19600</v>
+        <v>93000</v>
       </c>
       <c r="I24" s="3">
-        <v>-600</v>
+        <v>-19300</v>
       </c>
       <c r="J24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-16100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>240300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>72300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>112700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-47400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>79200</v>
+        <v>359500</v>
       </c>
       <c r="E26" s="3">
-        <v>250000</v>
+        <v>78000</v>
       </c>
       <c r="F26" s="3">
-        <v>102300</v>
+        <v>246100</v>
       </c>
       <c r="G26" s="3">
-        <v>195800</v>
+        <v>100700</v>
       </c>
       <c r="H26" s="3">
-        <v>-10700</v>
+        <v>199800</v>
       </c>
       <c r="I26" s="3">
-        <v>105800</v>
+        <v>-10500</v>
       </c>
       <c r="J26" s="3">
+        <v>104200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-94900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>374500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>141200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>108500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>155000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-21500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>35400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-75900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>79200</v>
+        <v>359500</v>
       </c>
       <c r="E27" s="3">
-        <v>249900</v>
+        <v>77900</v>
       </c>
       <c r="F27" s="3">
-        <v>102200</v>
+        <v>246100</v>
       </c>
       <c r="G27" s="3">
-        <v>195800</v>
+        <v>100700</v>
       </c>
       <c r="H27" s="3">
-        <v>-10700</v>
+        <v>199700</v>
       </c>
       <c r="I27" s="3">
-        <v>105800</v>
+        <v>-10500</v>
       </c>
       <c r="J27" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-94900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>374500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>141100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>155800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>42600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>108500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>154900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-21500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>35400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>87800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-76000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,19 +1996,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1958,29 +2019,29 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>42000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>58500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>5000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>175100</v>
+        <v>-176000</v>
       </c>
       <c r="E32" s="3">
-        <v>-119200</v>
+        <v>172400</v>
       </c>
       <c r="F32" s="3">
-        <v>34500</v>
+        <v>-117300</v>
       </c>
       <c r="G32" s="3">
-        <v>-44400</v>
+        <v>34000</v>
       </c>
       <c r="H32" s="3">
-        <v>77900</v>
+        <v>-132300</v>
       </c>
       <c r="I32" s="3">
-        <v>-16700</v>
+        <v>76700</v>
       </c>
       <c r="J32" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-391500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-182300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>89000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-91500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-26000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>79200</v>
+        <v>359500</v>
       </c>
       <c r="E33" s="3">
-        <v>249900</v>
+        <v>77900</v>
       </c>
       <c r="F33" s="3">
-        <v>102200</v>
+        <v>246100</v>
       </c>
       <c r="G33" s="3">
-        <v>195800</v>
+        <v>100700</v>
       </c>
       <c r="H33" s="3">
-        <v>-10700</v>
+        <v>199700</v>
       </c>
       <c r="I33" s="3">
-        <v>105800</v>
+        <v>-10500</v>
       </c>
       <c r="J33" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-52900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>374500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>141100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>214200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>45200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>108500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>154900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-21500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>35400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>87800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-76000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>79200</v>
+        <v>359500</v>
       </c>
       <c r="E35" s="3">
-        <v>249900</v>
+        <v>77900</v>
       </c>
       <c r="F35" s="3">
-        <v>102200</v>
+        <v>246100</v>
       </c>
       <c r="G35" s="3">
-        <v>195800</v>
+        <v>100700</v>
       </c>
       <c r="H35" s="3">
-        <v>-10700</v>
+        <v>199700</v>
       </c>
       <c r="I35" s="3">
-        <v>105800</v>
+        <v>-10500</v>
       </c>
       <c r="J35" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-52900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>374500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>141100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>214200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>45200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>108500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>154900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-21500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>35400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>87800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-76000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>625100</v>
+        <v>491600</v>
       </c>
       <c r="E41" s="3">
-        <v>315200</v>
+        <v>615500</v>
       </c>
       <c r="F41" s="3">
-        <v>266500</v>
+        <v>310400</v>
       </c>
       <c r="G41" s="3">
-        <v>182200</v>
+        <v>262400</v>
       </c>
       <c r="H41" s="3">
+        <v>179400</v>
+      </c>
+      <c r="I41" s="3">
+        <v>147000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>130400</v>
+      </c>
+      <c r="L41" s="3">
+        <v>132500</v>
+      </c>
+      <c r="M41" s="3">
+        <v>141000</v>
+      </c>
+      <c r="N41" s="3">
+        <v>158900</v>
+      </c>
+      <c r="O41" s="3">
+        <v>276300</v>
+      </c>
+      <c r="P41" s="3">
+        <v>219700</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>98600</v>
+      </c>
+      <c r="R41" s="3">
+        <v>264100</v>
+      </c>
+      <c r="S41" s="3">
         <v>149300</v>
       </c>
-      <c r="I41" s="3">
-        <v>100500</v>
-      </c>
-      <c r="J41" s="3">
-        <v>130400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>132500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>141000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>158900</v>
-      </c>
-      <c r="N41" s="3">
-        <v>276300</v>
-      </c>
-      <c r="O41" s="3">
-        <v>219700</v>
-      </c>
-      <c r="P41" s="3">
-        <v>98600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>264100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>149300</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>242600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>215900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>246900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>420300</v>
+        <v>640600</v>
       </c>
       <c r="E42" s="3">
-        <v>630300</v>
+        <v>413800</v>
       </c>
       <c r="F42" s="3">
-        <v>692100</v>
+        <v>620600</v>
       </c>
       <c r="G42" s="3">
-        <v>474500</v>
+        <v>681400</v>
       </c>
       <c r="H42" s="3">
-        <v>287800</v>
+        <v>467200</v>
       </c>
       <c r="I42" s="3">
-        <v>141200</v>
+        <v>283400</v>
       </c>
       <c r="J42" s="3">
+        <v>139000</v>
+      </c>
+      <c r="K42" s="3">
         <v>164900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>135800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>105200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>141700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>126700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>93200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>127700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>298600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>291600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>381900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>312700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>342800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1464000</v>
+        <v>1390100</v>
       </c>
       <c r="E43" s="3">
-        <v>1486700</v>
+        <v>1441500</v>
       </c>
       <c r="F43" s="3">
-        <v>1443300</v>
+        <v>1463900</v>
       </c>
       <c r="G43" s="3">
-        <v>1357500</v>
+        <v>1421100</v>
       </c>
       <c r="H43" s="3">
-        <v>1066000</v>
+        <v>1336700</v>
       </c>
       <c r="I43" s="3">
-        <v>1214600</v>
+        <v>1049700</v>
       </c>
       <c r="J43" s="3">
+        <v>1195900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1112600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>917700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>963100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>956400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1106600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1123800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1085700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1315800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1334900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1255000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1318800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1221900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2690,41 +2786,41 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>6700</v>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I44" s="3">
-        <v>7400</v>
+        <v>6600</v>
       </c>
       <c r="J44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>8200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>12500</v>
-      </c>
-      <c r="S44" s="3">
-        <v>12300</v>
       </c>
       <c r="T44" s="3">
         <v>12300</v>
@@ -2733,320 +2829,338 @@
         <v>12300</v>
       </c>
       <c r="V44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="W44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>241700</v>
+        <v>228500</v>
       </c>
       <c r="E45" s="3">
-        <v>467100</v>
+        <v>238000</v>
       </c>
       <c r="F45" s="3">
-        <v>496500</v>
+        <v>459900</v>
       </c>
       <c r="G45" s="3">
-        <v>642300</v>
+        <v>488900</v>
       </c>
       <c r="H45" s="3">
-        <v>455700</v>
+        <v>632400</v>
       </c>
       <c r="I45" s="3">
-        <v>558100</v>
+        <v>448700</v>
       </c>
       <c r="J45" s="3">
+        <v>549600</v>
+      </c>
+      <c r="K45" s="3">
         <v>516600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3698200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3700200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3695400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>242700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>247800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>294200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>225700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>127200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>166100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>231600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2751100</v>
+        <v>2750900</v>
       </c>
       <c r="E46" s="3">
-        <v>2899300</v>
+        <v>2708800</v>
       </c>
       <c r="F46" s="3">
-        <v>2898400</v>
+        <v>2854800</v>
       </c>
       <c r="G46" s="3">
-        <v>2656400</v>
+        <v>2853900</v>
       </c>
       <c r="H46" s="3">
-        <v>1965600</v>
+        <v>2615700</v>
       </c>
       <c r="I46" s="3">
-        <v>1942000</v>
+        <v>1935400</v>
       </c>
       <c r="J46" s="3">
+        <v>1912100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1931600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4890200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4915200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4958800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1758000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1692500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1614300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2188800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2014000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2018900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2025900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2055500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3596800</v>
+        <v>3690600</v>
       </c>
       <c r="E47" s="3">
-        <v>3623800</v>
+        <v>3541600</v>
       </c>
       <c r="F47" s="3">
-        <v>3429100</v>
+        <v>3568100</v>
       </c>
       <c r="G47" s="3">
-        <v>3514800</v>
+        <v>3376400</v>
       </c>
       <c r="H47" s="3">
-        <v>3813800</v>
+        <v>3460800</v>
       </c>
       <c r="I47" s="3">
-        <v>4114700</v>
+        <v>3755300</v>
       </c>
       <c r="J47" s="3">
+        <v>4051500</v>
+      </c>
+      <c r="K47" s="3">
         <v>4060400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3740300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2784500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2790500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3292800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4357200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4151900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4588500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4512800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4377600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4366800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4249400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>486500</v>
+        <v>476800</v>
       </c>
       <c r="E48" s="3">
-        <v>491300</v>
+        <v>479100</v>
       </c>
       <c r="F48" s="3">
-        <v>494200</v>
+        <v>483800</v>
       </c>
       <c r="G48" s="3">
-        <v>499800</v>
+        <v>486600</v>
       </c>
       <c r="H48" s="3">
-        <v>504400</v>
+        <v>492100</v>
       </c>
       <c r="I48" s="3">
-        <v>511500</v>
+        <v>496600</v>
       </c>
       <c r="J48" s="3">
+        <v>503700</v>
+      </c>
+      <c r="K48" s="3">
         <v>536100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>515100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>522600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>474800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>445800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>565300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>636500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>708200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>717100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>723800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>733000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>936500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2210100</v>
+        <v>2351000</v>
       </c>
       <c r="E49" s="3">
-        <v>2215300</v>
+        <v>2176200</v>
       </c>
       <c r="F49" s="3">
-        <v>2211400</v>
+        <v>2181300</v>
       </c>
       <c r="G49" s="3">
-        <v>2202500</v>
+        <v>2177500</v>
       </c>
       <c r="H49" s="3">
-        <v>2197900</v>
+        <v>2168700</v>
       </c>
       <c r="I49" s="3">
-        <v>2180500</v>
+        <v>2164100</v>
       </c>
       <c r="J49" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2183200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1897900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1901900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1922700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2072000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2611900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2607900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2860200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2835000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2804500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2780500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2684100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>899300</v>
+        <v>674800</v>
       </c>
       <c r="E52" s="3">
-        <v>915200</v>
+        <v>885500</v>
       </c>
       <c r="F52" s="3">
-        <v>969800</v>
+        <v>901200</v>
       </c>
       <c r="G52" s="3">
-        <v>981000</v>
+        <v>954900</v>
       </c>
       <c r="H52" s="3">
-        <v>968900</v>
+        <v>965900</v>
       </c>
       <c r="I52" s="3">
-        <v>728900</v>
+        <v>954000</v>
       </c>
       <c r="J52" s="3">
+        <v>717700</v>
+      </c>
+      <c r="K52" s="3">
         <v>679500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>564500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>537800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>531200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>420500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>506300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>478900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>483700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>645900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>821600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>801200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>502700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9943800</v>
+        <v>9944100</v>
       </c>
       <c r="E54" s="3">
-        <v>10144900</v>
+        <v>9791100</v>
       </c>
       <c r="F54" s="3">
-        <v>10002900</v>
+        <v>9989100</v>
       </c>
       <c r="G54" s="3">
-        <v>9854500</v>
+        <v>9849300</v>
       </c>
       <c r="H54" s="3">
-        <v>9450600</v>
+        <v>9703200</v>
       </c>
       <c r="I54" s="3">
-        <v>9477600</v>
+        <v>9305500</v>
       </c>
       <c r="J54" s="3">
+        <v>9332100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9390800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11608000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10662000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10678100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7989100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9733200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9489500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10829400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10724900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10746400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10707500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10428300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>367100</v>
+        <v>439900</v>
       </c>
       <c r="E57" s="3">
-        <v>442400</v>
+        <v>361400</v>
       </c>
       <c r="F57" s="3">
-        <v>373500</v>
+        <v>435600</v>
       </c>
       <c r="G57" s="3">
-        <v>364900</v>
+        <v>367700</v>
       </c>
       <c r="H57" s="3">
-        <v>323200</v>
+        <v>359300</v>
       </c>
       <c r="I57" s="3">
-        <v>390100</v>
+        <v>318200</v>
       </c>
       <c r="J57" s="3">
+        <v>384200</v>
+      </c>
+      <c r="K57" s="3">
         <v>386200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>325900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>356300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>321300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>452300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>502700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>379100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>560600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>491200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>414000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>481200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>313800</v>
+        <v>266900</v>
       </c>
       <c r="E58" s="3">
-        <v>395300</v>
+        <v>309000</v>
       </c>
       <c r="F58" s="3">
-        <v>458400</v>
+        <v>389200</v>
       </c>
       <c r="G58" s="3">
-        <v>577400</v>
+        <v>451300</v>
       </c>
       <c r="H58" s="3">
-        <v>590700</v>
+        <v>568500</v>
       </c>
       <c r="I58" s="3">
-        <v>531100</v>
+        <v>581600</v>
       </c>
       <c r="J58" s="3">
+        <v>522900</v>
+      </c>
+      <c r="K58" s="3">
         <v>537000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>538400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>485700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>392000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>442600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>640000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>604400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>607800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1333000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1331300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1273400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1199900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1018200</v>
+        <v>1056600</v>
       </c>
       <c r="E59" s="3">
-        <v>980100</v>
+        <v>1002600</v>
       </c>
       <c r="F59" s="3">
-        <v>871200</v>
+        <v>965000</v>
       </c>
       <c r="G59" s="3">
-        <v>755900</v>
+        <v>857800</v>
       </c>
       <c r="H59" s="3">
-        <v>540800</v>
+        <v>744300</v>
       </c>
       <c r="I59" s="3">
-        <v>574300</v>
+        <v>532500</v>
       </c>
       <c r="J59" s="3">
+        <v>565500</v>
+      </c>
+      <c r="K59" s="3">
         <v>535000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3446900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3365200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3460000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>598400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>692500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>779200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1012400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1272700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1197100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1230500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1158800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1699100</v>
+        <v>1763400</v>
       </c>
       <c r="E60" s="3">
-        <v>1817700</v>
+        <v>1673000</v>
       </c>
       <c r="F60" s="3">
-        <v>1703000</v>
+        <v>1789800</v>
       </c>
       <c r="G60" s="3">
-        <v>1698200</v>
+        <v>1676800</v>
       </c>
       <c r="H60" s="3">
-        <v>1454700</v>
+        <v>1672100</v>
       </c>
       <c r="I60" s="3">
-        <v>1494000</v>
+        <v>1432400</v>
       </c>
       <c r="J60" s="3">
+        <v>1471100</v>
+      </c>
+      <c r="K60" s="3">
         <v>1458300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4311200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4207200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4173400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1493400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1835200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1762700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2220800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3166300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3019600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2917900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2839900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2478000</v>
+        <v>2230900</v>
       </c>
       <c r="E61" s="3">
-        <v>2464800</v>
+        <v>2440000</v>
       </c>
       <c r="F61" s="3">
-        <v>2608900</v>
+        <v>2426900</v>
       </c>
       <c r="G61" s="3">
-        <v>2446200</v>
+        <v>2568900</v>
       </c>
       <c r="H61" s="3">
-        <v>2417000</v>
+        <v>2408600</v>
       </c>
       <c r="I61" s="3">
-        <v>2294600</v>
+        <v>2379900</v>
       </c>
       <c r="J61" s="3">
+        <v>2259300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2368600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1973800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2075500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2243200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2405700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2770300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2594600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3083500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2270500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2413600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2502500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2565700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2409000</v>
+        <v>2284200</v>
       </c>
       <c r="E62" s="3">
-        <v>2584000</v>
+        <v>2372000</v>
       </c>
       <c r="F62" s="3">
-        <v>2445500</v>
+        <v>2544300</v>
       </c>
       <c r="G62" s="3">
-        <v>2544400</v>
+        <v>2407900</v>
       </c>
       <c r="H62" s="3">
-        <v>2608800</v>
+        <v>2505300</v>
       </c>
       <c r="I62" s="3">
-        <v>2792500</v>
+        <v>2568800</v>
       </c>
       <c r="J62" s="3">
+        <v>2749700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2335300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1983400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1415900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1417800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1356300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1699900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1690400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1851100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1881500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1885300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1879000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1813900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6587100</v>
+        <v>6279500</v>
       </c>
       <c r="E66" s="3">
-        <v>6867400</v>
+        <v>6486000</v>
       </c>
       <c r="F66" s="3">
-        <v>6758200</v>
+        <v>6761900</v>
       </c>
       <c r="G66" s="3">
-        <v>6689600</v>
+        <v>6654500</v>
       </c>
       <c r="H66" s="3">
-        <v>6481400</v>
+        <v>6586900</v>
       </c>
       <c r="I66" s="3">
-        <v>6457900</v>
+        <v>6381900</v>
       </c>
       <c r="J66" s="3">
+        <v>6358800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6163000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8511100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7939600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8077200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5256200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6306400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6048600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="R66" s="3">
-        <v>7319400</v>
       </c>
       <c r="S66" s="3">
         <v>7319400</v>
       </c>
       <c r="T66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="U66" s="3">
         <v>7300500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7220500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1967100</v>
+        <v>2135700</v>
       </c>
       <c r="E72" s="3">
-        <v>1887200</v>
+        <v>1936900</v>
       </c>
       <c r="F72" s="3">
-        <v>1852200</v>
+        <v>1858200</v>
       </c>
       <c r="G72" s="3">
-        <v>2249900</v>
+        <v>1823800</v>
       </c>
       <c r="H72" s="3">
-        <v>2053200</v>
+        <v>2215300</v>
       </c>
       <c r="I72" s="3">
-        <v>2103000</v>
+        <v>2021700</v>
       </c>
       <c r="J72" s="3">
+        <v>2070700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2111700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2042500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1667000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1135000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1186700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1469500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1405400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1468700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1446100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1456500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1423600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1290000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3356700</v>
+        <v>3664700</v>
       </c>
       <c r="E76" s="3">
-        <v>3277500</v>
+        <v>3305200</v>
       </c>
       <c r="F76" s="3">
-        <v>3244700</v>
+        <v>3227200</v>
       </c>
       <c r="G76" s="3">
-        <v>3165000</v>
+        <v>3194900</v>
       </c>
       <c r="H76" s="3">
-        <v>2969200</v>
+        <v>3116400</v>
       </c>
       <c r="I76" s="3">
-        <v>3019700</v>
+        <v>2923600</v>
       </c>
       <c r="J76" s="3">
+        <v>2973300</v>
+      </c>
+      <c r="K76" s="3">
         <v>3227700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3096900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2722400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2600800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2732900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3426800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3441000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3672900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3405500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3427000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3407000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3207700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>79200</v>
+        <v>359500</v>
       </c>
       <c r="E81" s="3">
-        <v>249900</v>
+        <v>77900</v>
       </c>
       <c r="F81" s="3">
-        <v>102200</v>
+        <v>246100</v>
       </c>
       <c r="G81" s="3">
-        <v>195800</v>
+        <v>100700</v>
       </c>
       <c r="H81" s="3">
-        <v>-10700</v>
+        <v>199700</v>
       </c>
       <c r="I81" s="3">
-        <v>105800</v>
+        <v>-10500</v>
       </c>
       <c r="J81" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-52900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>374500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>141100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>214200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>45200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>108500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>154900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-21500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>35400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>87800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-76000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44700</v>
+        <v>44600</v>
       </c>
       <c r="E83" s="3">
-        <v>47900</v>
+        <v>44000</v>
       </c>
       <c r="F83" s="3">
-        <v>46000</v>
+        <v>47200</v>
       </c>
       <c r="G83" s="3">
-        <v>46100</v>
+        <v>45300</v>
       </c>
       <c r="H83" s="3">
-        <v>45500</v>
+        <v>45400</v>
       </c>
       <c r="I83" s="3">
-        <v>44100</v>
+        <v>44800</v>
       </c>
       <c r="J83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="K83" s="3">
         <v>45800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>44000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>40900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>41000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>38400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>46300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>49700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>59700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>52800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>53700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>51600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>57800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>143500</v>
+        <v>398600</v>
       </c>
       <c r="E89" s="3">
-        <v>333200</v>
+        <v>141300</v>
       </c>
       <c r="F89" s="3">
-        <v>492600</v>
+        <v>328000</v>
       </c>
       <c r="G89" s="3">
-        <v>324800</v>
+        <v>485100</v>
       </c>
       <c r="H89" s="3">
-        <v>464300</v>
+        <v>319900</v>
       </c>
       <c r="I89" s="3">
-        <v>166500</v>
+        <v>457100</v>
       </c>
       <c r="J89" s="3">
+        <v>164000</v>
+      </c>
+      <c r="K89" s="3">
         <v>12400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>82700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>109100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>145200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>85100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-87100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>56400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>357600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>135400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>244300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5200</v>
+        <v>-8200</v>
       </c>
       <c r="E91" s="3">
-        <v>-7200</v>
+        <v>-5100</v>
       </c>
       <c r="F91" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5900</v>
       </c>
-      <c r="G91" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-74400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>427000</v>
+        <v>-360200</v>
       </c>
       <c r="E94" s="3">
-        <v>-104100</v>
+        <v>420400</v>
       </c>
       <c r="F94" s="3">
-        <v>-344700</v>
+        <v>-102500</v>
       </c>
       <c r="G94" s="3">
-        <v>-274700</v>
+        <v>-339400</v>
       </c>
       <c r="H94" s="3">
-        <v>-228900</v>
+        <v>-270400</v>
       </c>
       <c r="I94" s="3">
-        <v>-45900</v>
+        <v>-225400</v>
       </c>
       <c r="J94" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-127200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>26900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>88300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>116500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-190400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-127100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,19 +5783,20 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-129500</v>
       </c>
       <c r="E96" s="3">
-        <v>-112200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-110400</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5571,49 +5805,52 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-116700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-114900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-13600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-90700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-69500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-69400</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-139700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-260600</v>
+        <v>-162300</v>
       </c>
       <c r="E100" s="3">
-        <v>-180300</v>
+        <v>-256600</v>
       </c>
       <c r="F100" s="3">
-        <v>-63600</v>
+        <v>-177500</v>
       </c>
       <c r="G100" s="3">
-        <v>-17300</v>
+        <v>-62700</v>
       </c>
       <c r="H100" s="3">
-        <v>-186600</v>
+        <v>-17000</v>
       </c>
       <c r="I100" s="3">
-        <v>-150500</v>
+        <v>-183800</v>
       </c>
       <c r="J100" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="K100" s="3">
         <v>104800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-136500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-175700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>58900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>80200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-143200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>399100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-166500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-140600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-132600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-290300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309900</v>
+        <v>-123900</v>
       </c>
       <c r="E102" s="3">
-        <v>48700</v>
+        <v>305100</v>
       </c>
       <c r="F102" s="3">
-        <v>84300</v>
+        <v>48000</v>
       </c>
       <c r="G102" s="3">
-        <v>32900</v>
+        <v>83000</v>
       </c>
       <c r="H102" s="3">
-        <v>48800</v>
+        <v>32400</v>
       </c>
       <c r="I102" s="3">
-        <v>-29900</v>
+        <v>48000</v>
       </c>
       <c r="J102" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-10000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-107500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>102200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>121100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-142000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>114800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-173100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1358300</v>
+        <v>1700300</v>
       </c>
       <c r="E8" s="3">
-        <v>1313300</v>
+        <v>1312800</v>
       </c>
       <c r="F8" s="3">
-        <v>1267900</v>
+        <v>1269400</v>
       </c>
       <c r="G8" s="3">
-        <v>1176400</v>
+        <v>1225500</v>
       </c>
       <c r="H8" s="3">
-        <v>1015900</v>
+        <v>1146300</v>
       </c>
       <c r="I8" s="3">
-        <v>1119100</v>
+        <v>981900</v>
       </c>
       <c r="J8" s="3">
+        <v>1081700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1198000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1138800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1242500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1047100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1028500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1156900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1309200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1152500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1681300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1316700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1334500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1233900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1159200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1089200</v>
+        <v>1402600</v>
       </c>
       <c r="E9" s="3">
-        <v>984100</v>
+        <v>1052800</v>
       </c>
       <c r="F9" s="3">
-        <v>1086800</v>
+        <v>951100</v>
       </c>
       <c r="G9" s="3">
-        <v>908300</v>
+        <v>1050400</v>
       </c>
       <c r="H9" s="3">
-        <v>834200</v>
+        <v>877900</v>
       </c>
       <c r="I9" s="3">
-        <v>836100</v>
+        <v>806300</v>
       </c>
       <c r="J9" s="3">
+        <v>808100</v>
+      </c>
+      <c r="K9" s="3">
         <v>936700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1105600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>782300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>746400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>773700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>947700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1048200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>870900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1306100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1203200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1093200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>880800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>925600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>269100</v>
+        <v>297700</v>
       </c>
       <c r="E10" s="3">
-        <v>329300</v>
+        <v>260100</v>
       </c>
       <c r="F10" s="3">
-        <v>181100</v>
+        <v>318300</v>
       </c>
       <c r="G10" s="3">
-        <v>268200</v>
+        <v>175100</v>
       </c>
       <c r="H10" s="3">
-        <v>181700</v>
+        <v>268400</v>
       </c>
       <c r="I10" s="3">
-        <v>283000</v>
+        <v>175600</v>
       </c>
       <c r="J10" s="3">
+        <v>273500</v>
+      </c>
+      <c r="K10" s="3">
         <v>261300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>33200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>460200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>300700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>254800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>209100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>261100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>281600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>375200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>113500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>241200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>353200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>233600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1119,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-49900</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>25200</v>
+        <v>-48200</v>
       </c>
       <c r="H14" s="3">
-        <v>-87800</v>
+        <v>24300</v>
       </c>
       <c r="I14" s="3">
-        <v>112500</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+        <v>-84800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>108700</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>963500</v>
+        <v>1409900</v>
       </c>
       <c r="E17" s="3">
-        <v>1017600</v>
+        <v>931300</v>
       </c>
       <c r="F17" s="3">
-        <v>1009500</v>
+        <v>983600</v>
       </c>
       <c r="G17" s="3">
-        <v>958800</v>
+        <v>975700</v>
       </c>
       <c r="H17" s="3">
-        <v>805200</v>
+        <v>926800</v>
       </c>
       <c r="I17" s="3">
-        <v>1014700</v>
+        <v>778300</v>
       </c>
       <c r="J17" s="3">
+        <v>980700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1055100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1205900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>965600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>829200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>912400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1031000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1154200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>967100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1343200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1343700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1198500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1003500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1185500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>394700</v>
+        <v>290400</v>
       </c>
       <c r="E18" s="3">
-        <v>295700</v>
+        <v>381500</v>
       </c>
       <c r="F18" s="3">
-        <v>258400</v>
+        <v>285800</v>
       </c>
       <c r="G18" s="3">
-        <v>217700</v>
+        <v>249800</v>
       </c>
       <c r="H18" s="3">
-        <v>210700</v>
+        <v>219600</v>
       </c>
       <c r="I18" s="3">
-        <v>104400</v>
+        <v>203600</v>
       </c>
       <c r="J18" s="3">
+        <v>100900</v>
+      </c>
+      <c r="K18" s="3">
         <v>142900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-67100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>276800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>116200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>125900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>155000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>185400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>338100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-27000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>135900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>230400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-26400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>176000</v>
+        <v>-153800</v>
       </c>
       <c r="E20" s="3">
-        <v>-172400</v>
+        <v>170100</v>
       </c>
       <c r="F20" s="3">
-        <v>117300</v>
+        <v>-166600</v>
       </c>
       <c r="G20" s="3">
-        <v>-34000</v>
+        <v>113400</v>
       </c>
       <c r="H20" s="3">
-        <v>132300</v>
+        <v>-32900</v>
       </c>
       <c r="I20" s="3">
-        <v>-76700</v>
+        <v>127900</v>
       </c>
       <c r="J20" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="K20" s="3">
         <v>16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>391500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>35700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>182300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-89000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>91500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>26000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>615400</v>
+        <v>187200</v>
       </c>
       <c r="E21" s="3">
-        <v>167400</v>
+        <v>594800</v>
       </c>
       <c r="F21" s="3">
-        <v>422900</v>
+        <v>161800</v>
       </c>
       <c r="G21" s="3">
-        <v>228900</v>
+        <v>408800</v>
       </c>
       <c r="H21" s="3">
-        <v>388300</v>
+        <v>230500</v>
       </c>
       <c r="I21" s="3">
-        <v>72600</v>
+        <v>375300</v>
       </c>
       <c r="J21" s="3">
+        <v>70200</v>
+      </c>
+      <c r="K21" s="3">
         <v>202800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>712300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>294500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>339500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>165900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>112300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>267500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>412400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>117200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>203700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>299700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>57500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48600</v>
+        <v>52500</v>
       </c>
       <c r="E22" s="3">
-        <v>60200</v>
+        <v>47000</v>
       </c>
       <c r="F22" s="3">
-        <v>52100</v>
+        <v>58200</v>
       </c>
       <c r="G22" s="3">
-        <v>57700</v>
+        <v>50400</v>
       </c>
       <c r="H22" s="3">
-        <v>50200</v>
+        <v>55800</v>
       </c>
       <c r="I22" s="3">
-        <v>57600</v>
+        <v>48500</v>
       </c>
       <c r="J22" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K22" s="3">
         <v>55800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>73700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>69200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>85000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>88300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>101600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>118300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>123000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>522100</v>
+        <v>84100</v>
       </c>
       <c r="E23" s="3">
-        <v>63100</v>
+        <v>504700</v>
       </c>
       <c r="F23" s="3">
-        <v>323700</v>
+        <v>61000</v>
       </c>
       <c r="G23" s="3">
-        <v>125900</v>
+        <v>312800</v>
       </c>
       <c r="H23" s="3">
-        <v>292800</v>
+        <v>130900</v>
       </c>
       <c r="I23" s="3">
-        <v>-29800</v>
+        <v>283000</v>
       </c>
       <c r="J23" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="K23" s="3">
         <v>103600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-111000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>614800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>235400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>64300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>148600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>267700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-23800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>48400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>129800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-123400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>162600</v>
+        <v>8900</v>
       </c>
       <c r="E24" s="3">
-        <v>-14900</v>
+        <v>157200</v>
       </c>
       <c r="F24" s="3">
-        <v>77500</v>
+        <v>-14400</v>
       </c>
       <c r="G24" s="3">
-        <v>25200</v>
+        <v>74900</v>
       </c>
       <c r="H24" s="3">
-        <v>93000</v>
+        <v>27500</v>
       </c>
       <c r="I24" s="3">
-        <v>-19300</v>
+        <v>89900</v>
       </c>
       <c r="J24" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-16100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>240300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>72300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>21700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>112700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-47400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>359500</v>
+        <v>75200</v>
       </c>
       <c r="E26" s="3">
-        <v>78000</v>
+        <v>347500</v>
       </c>
       <c r="F26" s="3">
-        <v>246100</v>
+        <v>75400</v>
       </c>
       <c r="G26" s="3">
-        <v>100700</v>
+        <v>237900</v>
       </c>
       <c r="H26" s="3">
-        <v>199800</v>
+        <v>103400</v>
       </c>
       <c r="I26" s="3">
-        <v>-10500</v>
+        <v>193100</v>
       </c>
       <c r="J26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="K26" s="3">
         <v>104200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-94900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>374500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>141200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>163100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>108500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>155000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-21500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>35400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-75900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>359500</v>
+        <v>75200</v>
       </c>
       <c r="E27" s="3">
-        <v>77900</v>
+        <v>347400</v>
       </c>
       <c r="F27" s="3">
-        <v>246100</v>
+        <v>75300</v>
       </c>
       <c r="G27" s="3">
-        <v>100700</v>
+        <v>237900</v>
       </c>
       <c r="H27" s="3">
-        <v>199700</v>
+        <v>103400</v>
       </c>
       <c r="I27" s="3">
-        <v>-10500</v>
+        <v>193100</v>
       </c>
       <c r="J27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K27" s="3">
         <v>104100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-94900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>374500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>155800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>42600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>108500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>154900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-21500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>35400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>87800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-76000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2010,11 +2071,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2022,29 +2083,29 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>42000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>58500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-176000</v>
+        <v>153800</v>
       </c>
       <c r="E32" s="3">
-        <v>172400</v>
+        <v>-170100</v>
       </c>
       <c r="F32" s="3">
-        <v>-117300</v>
+        <v>166600</v>
       </c>
       <c r="G32" s="3">
-        <v>34000</v>
+        <v>-113400</v>
       </c>
       <c r="H32" s="3">
-        <v>-132300</v>
+        <v>32900</v>
       </c>
       <c r="I32" s="3">
-        <v>76700</v>
+        <v>-127900</v>
       </c>
       <c r="J32" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-391500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-35700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-182300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>89000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-91500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-26000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>359500</v>
+        <v>75200</v>
       </c>
       <c r="E33" s="3">
-        <v>77900</v>
+        <v>347400</v>
       </c>
       <c r="F33" s="3">
-        <v>246100</v>
+        <v>75300</v>
       </c>
       <c r="G33" s="3">
-        <v>100700</v>
+        <v>237900</v>
       </c>
       <c r="H33" s="3">
-        <v>199700</v>
+        <v>103400</v>
       </c>
       <c r="I33" s="3">
-        <v>-10500</v>
+        <v>193100</v>
       </c>
       <c r="J33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K33" s="3">
         <v>104100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-52900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>374500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>141100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>45200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>108500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>154900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-21500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>35400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>87800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-76000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>359500</v>
+        <v>75200</v>
       </c>
       <c r="E35" s="3">
-        <v>77900</v>
+        <v>347400</v>
       </c>
       <c r="F35" s="3">
-        <v>246100</v>
+        <v>75300</v>
       </c>
       <c r="G35" s="3">
-        <v>100700</v>
+        <v>237900</v>
       </c>
       <c r="H35" s="3">
-        <v>199700</v>
+        <v>103400</v>
       </c>
       <c r="I35" s="3">
-        <v>-10500</v>
+        <v>193100</v>
       </c>
       <c r="J35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K35" s="3">
         <v>104100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-52900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>374500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>141100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>45200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>108500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>154900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-21500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>35400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>87800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-76000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>491600</v>
+        <v>147800</v>
       </c>
       <c r="E41" s="3">
-        <v>615500</v>
+        <v>475100</v>
       </c>
       <c r="F41" s="3">
-        <v>310400</v>
+        <v>594900</v>
       </c>
       <c r="G41" s="3">
-        <v>262400</v>
+        <v>300000</v>
       </c>
       <c r="H41" s="3">
-        <v>179400</v>
+        <v>253600</v>
       </c>
       <c r="I41" s="3">
-        <v>147000</v>
+        <v>173400</v>
       </c>
       <c r="J41" s="3">
+        <v>142100</v>
+      </c>
+      <c r="K41" s="3">
         <v>99000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>141000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>158900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>276300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>219700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>98600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>264100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>149300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>242600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>215900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>246900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>640600</v>
+        <v>417500</v>
       </c>
       <c r="E42" s="3">
-        <v>413800</v>
+        <v>619200</v>
       </c>
       <c r="F42" s="3">
-        <v>620600</v>
+        <v>400000</v>
       </c>
       <c r="G42" s="3">
-        <v>681400</v>
+        <v>599900</v>
       </c>
       <c r="H42" s="3">
-        <v>467200</v>
+        <v>658600</v>
       </c>
       <c r="I42" s="3">
-        <v>283400</v>
+        <v>451500</v>
       </c>
       <c r="J42" s="3">
+        <v>273900</v>
+      </c>
+      <c r="K42" s="3">
         <v>139000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>164900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>135800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>105200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>141700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>126700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>93200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>127700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>298600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>291600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>381900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>312700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>342800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1390100</v>
+        <v>1521400</v>
       </c>
       <c r="E43" s="3">
-        <v>1441500</v>
+        <v>1343600</v>
       </c>
       <c r="F43" s="3">
-        <v>1463900</v>
+        <v>1393300</v>
       </c>
       <c r="G43" s="3">
-        <v>1421100</v>
+        <v>1414900</v>
       </c>
       <c r="H43" s="3">
-        <v>1336700</v>
+        <v>1373600</v>
       </c>
       <c r="I43" s="3">
-        <v>1049700</v>
+        <v>1292000</v>
       </c>
       <c r="J43" s="3">
+        <v>1014500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1195900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1112600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>917700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>963100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>956400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1106600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1123800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1085700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1315800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1334900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1255000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1318800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1221900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2789,41 +2885,41 @@
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="3">
-        <v>6600</v>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K44" s="3">
         <v>7300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>5900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>6400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>7900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>8200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>12500</v>
-      </c>
-      <c r="T44" s="3">
-        <v>12300</v>
       </c>
       <c r="U44" s="3">
         <v>12300</v>
@@ -2832,335 +2928,353 @@
         <v>12300</v>
       </c>
       <c r="W44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="X44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>228500</v>
+        <v>280000</v>
       </c>
       <c r="E45" s="3">
-        <v>238000</v>
+        <v>220900</v>
       </c>
       <c r="F45" s="3">
-        <v>459900</v>
+        <v>230000</v>
       </c>
       <c r="G45" s="3">
-        <v>488900</v>
+        <v>444500</v>
       </c>
       <c r="H45" s="3">
-        <v>632400</v>
+        <v>472500</v>
       </c>
       <c r="I45" s="3">
-        <v>448700</v>
+        <v>611200</v>
       </c>
       <c r="J45" s="3">
+        <v>433700</v>
+      </c>
+      <c r="K45" s="3">
         <v>549600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>516600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3698200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3695400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>242700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>247800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>294200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>225700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>127200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>166100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>231600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2750900</v>
+        <v>2366600</v>
       </c>
       <c r="E46" s="3">
-        <v>2708800</v>
+        <v>2658800</v>
       </c>
       <c r="F46" s="3">
-        <v>2854800</v>
+        <v>2618200</v>
       </c>
       <c r="G46" s="3">
-        <v>2853900</v>
+        <v>2759200</v>
       </c>
       <c r="H46" s="3">
-        <v>2615700</v>
+        <v>2758400</v>
       </c>
       <c r="I46" s="3">
-        <v>1935400</v>
+        <v>2528100</v>
       </c>
       <c r="J46" s="3">
+        <v>1870700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1912100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1931600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4890200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4915200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4958800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1758000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1692500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1614300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2188800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2014000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2018900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2025900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2055500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3690600</v>
+        <v>3695300</v>
       </c>
       <c r="E47" s="3">
-        <v>3541600</v>
+        <v>3567200</v>
       </c>
       <c r="F47" s="3">
-        <v>3568100</v>
+        <v>3423100</v>
       </c>
       <c r="G47" s="3">
-        <v>3376400</v>
+        <v>3448700</v>
       </c>
       <c r="H47" s="3">
-        <v>3460800</v>
+        <v>3263500</v>
       </c>
       <c r="I47" s="3">
-        <v>3755300</v>
+        <v>3345000</v>
       </c>
       <c r="J47" s="3">
+        <v>3629600</v>
+      </c>
+      <c r="K47" s="3">
         <v>4051500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4060400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3740300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2784500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2790500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3292800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4357200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4151900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4588500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4512800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4377600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4366800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4249400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>476800</v>
+        <v>469100</v>
       </c>
       <c r="E48" s="3">
-        <v>479100</v>
+        <v>460800</v>
       </c>
       <c r="F48" s="3">
-        <v>483800</v>
+        <v>463000</v>
       </c>
       <c r="G48" s="3">
-        <v>486600</v>
+        <v>467600</v>
       </c>
       <c r="H48" s="3">
-        <v>492100</v>
+        <v>470400</v>
       </c>
       <c r="I48" s="3">
-        <v>496600</v>
+        <v>475700</v>
       </c>
       <c r="J48" s="3">
+        <v>480000</v>
+      </c>
+      <c r="K48" s="3">
         <v>503700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>536100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>515100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>522600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>474800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>445800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>565300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>636500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>708200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>717100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>723800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>733000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>936500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2351000</v>
+        <v>2311300</v>
       </c>
       <c r="E49" s="3">
-        <v>2176200</v>
+        <v>2272300</v>
       </c>
       <c r="F49" s="3">
-        <v>2181300</v>
+        <v>2103400</v>
       </c>
       <c r="G49" s="3">
-        <v>2177500</v>
+        <v>2108300</v>
       </c>
       <c r="H49" s="3">
-        <v>2168700</v>
+        <v>2104600</v>
       </c>
       <c r="I49" s="3">
-        <v>2164100</v>
+        <v>2096200</v>
       </c>
       <c r="J49" s="3">
+        <v>2091700</v>
+      </c>
+      <c r="K49" s="3">
         <v>2147000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2183200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1897900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1901900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1922700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2072000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2611900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2607900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2860200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2835000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2804500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2780500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2684100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>674800</v>
+        <v>640000</v>
       </c>
       <c r="E52" s="3">
-        <v>885500</v>
+        <v>652300</v>
       </c>
       <c r="F52" s="3">
-        <v>901200</v>
+        <v>855900</v>
       </c>
       <c r="G52" s="3">
-        <v>954900</v>
+        <v>871000</v>
       </c>
       <c r="H52" s="3">
-        <v>965900</v>
+        <v>923000</v>
       </c>
       <c r="I52" s="3">
-        <v>954000</v>
+        <v>933600</v>
       </c>
       <c r="J52" s="3">
+        <v>922100</v>
+      </c>
+      <c r="K52" s="3">
         <v>717700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>679500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>564500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>537800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>531200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>420500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>506300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>478900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>483700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>645900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>821600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>801200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>502700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9944100</v>
+        <v>9482400</v>
       </c>
       <c r="E54" s="3">
-        <v>9791100</v>
+        <v>9611400</v>
       </c>
       <c r="F54" s="3">
-        <v>9989100</v>
+        <v>9463500</v>
       </c>
       <c r="G54" s="3">
-        <v>9849300</v>
+        <v>9654900</v>
       </c>
       <c r="H54" s="3">
-        <v>9703200</v>
+        <v>9519800</v>
       </c>
       <c r="I54" s="3">
-        <v>9305500</v>
+        <v>9378600</v>
       </c>
       <c r="J54" s="3">
+        <v>8994100</v>
+      </c>
+      <c r="K54" s="3">
         <v>9332100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9390800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11608000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10662000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10678100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7989100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9733200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9489500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10829400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10724900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10746400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10707500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10428300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>439900</v>
+        <v>601700</v>
       </c>
       <c r="E57" s="3">
-        <v>361400</v>
+        <v>425200</v>
       </c>
       <c r="F57" s="3">
-        <v>435600</v>
+        <v>349300</v>
       </c>
       <c r="G57" s="3">
-        <v>367700</v>
+        <v>421000</v>
       </c>
       <c r="H57" s="3">
-        <v>359300</v>
+        <v>355400</v>
       </c>
       <c r="I57" s="3">
-        <v>318200</v>
+        <v>347300</v>
       </c>
       <c r="J57" s="3">
+        <v>307500</v>
+      </c>
+      <c r="K57" s="3">
         <v>384200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>386200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>325900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>356300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>321300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>452300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>502700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>379100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>560600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>491200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>414000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>481200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>266900</v>
+        <v>293000</v>
       </c>
       <c r="E58" s="3">
-        <v>309000</v>
+        <v>258000</v>
       </c>
       <c r="F58" s="3">
-        <v>389200</v>
+        <v>298600</v>
       </c>
       <c r="G58" s="3">
-        <v>451300</v>
+        <v>376200</v>
       </c>
       <c r="H58" s="3">
-        <v>568500</v>
+        <v>436200</v>
       </c>
       <c r="I58" s="3">
-        <v>581600</v>
+        <v>549500</v>
       </c>
       <c r="J58" s="3">
+        <v>562200</v>
+      </c>
+      <c r="K58" s="3">
         <v>522900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>537000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>538400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>485700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>392000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>442600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>640000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>604400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>607800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1333000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1331300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1273400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1199900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1056600</v>
+        <v>978800</v>
       </c>
       <c r="E59" s="3">
-        <v>1002600</v>
+        <v>1021200</v>
       </c>
       <c r="F59" s="3">
-        <v>965000</v>
+        <v>969100</v>
       </c>
       <c r="G59" s="3">
-        <v>857800</v>
+        <v>932700</v>
       </c>
       <c r="H59" s="3">
-        <v>744300</v>
+        <v>829100</v>
       </c>
       <c r="I59" s="3">
-        <v>532500</v>
+        <v>719400</v>
       </c>
       <c r="J59" s="3">
+        <v>514700</v>
+      </c>
+      <c r="K59" s="3">
         <v>565500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>535000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3446900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3365200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3460000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>598400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>692500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>779200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1012400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1272700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1197100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1230500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1158800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1763400</v>
+        <v>1873500</v>
       </c>
       <c r="E60" s="3">
-        <v>1673000</v>
+        <v>1704400</v>
       </c>
       <c r="F60" s="3">
-        <v>1789800</v>
+        <v>1617000</v>
       </c>
       <c r="G60" s="3">
-        <v>1676800</v>
+        <v>1729900</v>
       </c>
       <c r="H60" s="3">
-        <v>1672100</v>
+        <v>1620700</v>
       </c>
       <c r="I60" s="3">
-        <v>1432400</v>
+        <v>1616200</v>
       </c>
       <c r="J60" s="3">
+        <v>1384400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1471100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1458300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4311200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4207200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4173400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1493400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1835200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1762700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2220800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3166300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3019600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2917900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2839900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2230900</v>
+        <v>1778900</v>
       </c>
       <c r="E61" s="3">
-        <v>2440000</v>
+        <v>2156300</v>
       </c>
       <c r="F61" s="3">
-        <v>2426900</v>
+        <v>2358400</v>
       </c>
       <c r="G61" s="3">
-        <v>2568900</v>
+        <v>2345700</v>
       </c>
       <c r="H61" s="3">
-        <v>2408600</v>
+        <v>2482900</v>
       </c>
       <c r="I61" s="3">
-        <v>2379900</v>
+        <v>2328000</v>
       </c>
       <c r="J61" s="3">
+        <v>2300300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2259300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2368600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1973800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2075500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2243200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2405700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2770300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2594600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3083500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2270500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2413600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2502500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2565700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2284200</v>
+        <v>2211900</v>
       </c>
       <c r="E62" s="3">
-        <v>2372000</v>
+        <v>2207800</v>
       </c>
       <c r="F62" s="3">
-        <v>2544300</v>
+        <v>2292700</v>
       </c>
       <c r="G62" s="3">
-        <v>2407900</v>
+        <v>2459200</v>
       </c>
       <c r="H62" s="3">
-        <v>2505300</v>
+        <v>2327300</v>
       </c>
       <c r="I62" s="3">
-        <v>2568800</v>
+        <v>2421500</v>
       </c>
       <c r="J62" s="3">
+        <v>2482800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2749700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2335300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1983400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1415900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1417800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1356300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1699900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1690400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1851100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1881500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1885300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1879000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1813900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6279500</v>
+        <v>5865200</v>
       </c>
       <c r="E66" s="3">
-        <v>6486000</v>
+        <v>6069300</v>
       </c>
       <c r="F66" s="3">
-        <v>6761900</v>
+        <v>6268900</v>
       </c>
       <c r="G66" s="3">
-        <v>6654500</v>
+        <v>6535700</v>
       </c>
       <c r="H66" s="3">
-        <v>6586900</v>
+        <v>6431800</v>
       </c>
       <c r="I66" s="3">
-        <v>6381900</v>
+        <v>6366500</v>
       </c>
       <c r="J66" s="3">
+        <v>6168300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6358800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6163000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8511100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7939600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8077200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5256200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6306400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6048600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="S66" s="3">
-        <v>7319400</v>
       </c>
       <c r="T66" s="3">
         <v>7319400</v>
       </c>
       <c r="U66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="V66" s="3">
         <v>7300500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7220500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2135700</v>
+        <v>2140100</v>
       </c>
       <c r="E72" s="3">
-        <v>1936900</v>
+        <v>2064200</v>
       </c>
       <c r="F72" s="3">
-        <v>1858200</v>
+        <v>1872100</v>
       </c>
       <c r="G72" s="3">
-        <v>1823800</v>
+        <v>1796000</v>
       </c>
       <c r="H72" s="3">
-        <v>2215300</v>
+        <v>1762800</v>
       </c>
       <c r="I72" s="3">
-        <v>2021700</v>
+        <v>2141200</v>
       </c>
       <c r="J72" s="3">
+        <v>1954000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2070700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2111700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2042500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1667000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1135000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1186700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1469500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1405400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1468700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1446100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1456500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1423600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1290000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3664700</v>
+        <v>3617200</v>
       </c>
       <c r="E76" s="3">
-        <v>3305200</v>
+        <v>3542000</v>
       </c>
       <c r="F76" s="3">
-        <v>3227200</v>
+        <v>3194600</v>
       </c>
       <c r="G76" s="3">
-        <v>3194900</v>
+        <v>3119200</v>
       </c>
       <c r="H76" s="3">
-        <v>3116400</v>
+        <v>3088000</v>
       </c>
       <c r="I76" s="3">
-        <v>2923600</v>
+        <v>3012100</v>
       </c>
       <c r="J76" s="3">
+        <v>2825800</v>
+      </c>
+      <c r="K76" s="3">
         <v>2973300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3227700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3096900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2722400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2600800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2732900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3426800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3441000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3672900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3405500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3427000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3407000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3207700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>359500</v>
+        <v>75200</v>
       </c>
       <c r="E81" s="3">
-        <v>77900</v>
+        <v>347400</v>
       </c>
       <c r="F81" s="3">
-        <v>246100</v>
+        <v>75300</v>
       </c>
       <c r="G81" s="3">
-        <v>100700</v>
+        <v>237900</v>
       </c>
       <c r="H81" s="3">
-        <v>199700</v>
+        <v>103400</v>
       </c>
       <c r="I81" s="3">
-        <v>-10500</v>
+        <v>193100</v>
       </c>
       <c r="J81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K81" s="3">
         <v>104100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-52900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>374500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>141100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>45200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>108500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>154900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-21500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>35400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>87800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-76000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>44600</v>
+        <v>50600</v>
       </c>
       <c r="E83" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>42600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>45600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>43800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>43900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>43300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>43400</v>
+      </c>
+      <c r="L83" s="3">
+        <v>45800</v>
+      </c>
+      <c r="M83" s="3">
         <v>44000</v>
       </c>
-      <c r="F83" s="3">
-        <v>47200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>45300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>45400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>44800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>43400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>45800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>44000</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>41000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>38400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>46300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>49700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>59700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>52800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>53700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>51600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>57800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>398600</v>
+        <v>24500</v>
       </c>
       <c r="E89" s="3">
-        <v>141300</v>
+        <v>385200</v>
       </c>
       <c r="F89" s="3">
-        <v>328000</v>
+        <v>136600</v>
       </c>
       <c r="G89" s="3">
-        <v>485100</v>
+        <v>317100</v>
       </c>
       <c r="H89" s="3">
-        <v>319900</v>
+        <v>468800</v>
       </c>
       <c r="I89" s="3">
-        <v>457100</v>
+        <v>309200</v>
       </c>
       <c r="J89" s="3">
+        <v>441800</v>
+      </c>
+      <c r="K89" s="3">
         <v>164000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>82700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>109100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>145200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>85100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-87100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>56400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>357600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>135400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>244300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-8200</v>
+        <v>-5900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5100</v>
+        <v>-7900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7100</v>
+        <v>-5000</v>
       </c>
       <c r="G91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-74400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-360200</v>
+        <v>142700</v>
       </c>
       <c r="E94" s="3">
-        <v>420400</v>
+        <v>-348100</v>
       </c>
       <c r="F94" s="3">
-        <v>-102500</v>
+        <v>406400</v>
       </c>
       <c r="G94" s="3">
-        <v>-339400</v>
+        <v>-99100</v>
       </c>
       <c r="H94" s="3">
-        <v>-270400</v>
+        <v>-328000</v>
       </c>
       <c r="I94" s="3">
-        <v>-225400</v>
+        <v>-261400</v>
       </c>
       <c r="J94" s="3">
+        <v>-217800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-45200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-127200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>26900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>88300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>116500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>16900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-190400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-42000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-127100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,22 +6017,23 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-129500</v>
+        <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-125100</v>
       </c>
       <c r="F96" s="3">
-        <v>-110400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-106700</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5808,49 +6042,52 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-114900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-13600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-90700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-69500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-69400</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-139700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-162300</v>
+        <v>-494500</v>
       </c>
       <c r="E100" s="3">
-        <v>-256600</v>
+        <v>-156900</v>
       </c>
       <c r="F100" s="3">
-        <v>-177500</v>
+        <v>-248000</v>
       </c>
       <c r="G100" s="3">
-        <v>-62700</v>
+        <v>-171600</v>
       </c>
       <c r="H100" s="3">
-        <v>-17000</v>
+        <v>-60600</v>
       </c>
       <c r="I100" s="3">
-        <v>-183800</v>
+        <v>-16400</v>
       </c>
       <c r="J100" s="3">
+        <v>-177600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-148200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>104800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-136500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-175700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>58900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>80200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-143200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>399100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-166500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-140600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-132600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-290300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-123900</v>
+        <v>-327400</v>
       </c>
       <c r="E102" s="3">
-        <v>305100</v>
+        <v>-119800</v>
       </c>
       <c r="F102" s="3">
-        <v>48000</v>
+        <v>294900</v>
       </c>
       <c r="G102" s="3">
-        <v>83000</v>
+        <v>46400</v>
       </c>
       <c r="H102" s="3">
-        <v>32400</v>
+        <v>80200</v>
       </c>
       <c r="I102" s="3">
-        <v>48000</v>
+        <v>31300</v>
       </c>
       <c r="J102" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-29400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-107500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>102200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>121100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-142000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>114800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>26600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-173100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -666,10 +666,10 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1700300</v>
+        <v>1876900</v>
       </c>
       <c r="E8" s="3">
-        <v>1312800</v>
+        <v>1449200</v>
       </c>
       <c r="F8" s="3">
-        <v>1269400</v>
+        <v>1401200</v>
       </c>
       <c r="G8" s="3">
-        <v>1225500</v>
+        <v>1352700</v>
       </c>
       <c r="H8" s="3">
-        <v>1146300</v>
+        <v>1265400</v>
       </c>
       <c r="I8" s="3">
-        <v>981900</v>
+        <v>1083800</v>
       </c>
       <c r="J8" s="3">
-        <v>1081700</v>
+        <v>1194000</v>
       </c>
       <c r="K8" s="3">
         <v>1198000</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1402600</v>
+        <v>1548300</v>
       </c>
       <c r="E9" s="3">
-        <v>1052800</v>
+        <v>1162100</v>
       </c>
       <c r="F9" s="3">
-        <v>951100</v>
+        <v>1049900</v>
       </c>
       <c r="G9" s="3">
-        <v>1050400</v>
+        <v>1159500</v>
       </c>
       <c r="H9" s="3">
-        <v>877900</v>
+        <v>969100</v>
       </c>
       <c r="I9" s="3">
-        <v>806300</v>
+        <v>890000</v>
       </c>
       <c r="J9" s="3">
-        <v>808100</v>
+        <v>892100</v>
       </c>
       <c r="K9" s="3">
         <v>936700</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>297700</v>
+        <v>328700</v>
       </c>
       <c r="E10" s="3">
-        <v>260100</v>
+        <v>287100</v>
       </c>
       <c r="F10" s="3">
-        <v>318300</v>
+        <v>351300</v>
       </c>
       <c r="G10" s="3">
-        <v>175100</v>
+        <v>193200</v>
       </c>
       <c r="H10" s="3">
-        <v>268400</v>
+        <v>296300</v>
       </c>
       <c r="I10" s="3">
-        <v>175600</v>
+        <v>193900</v>
       </c>
       <c r="J10" s="3">
-        <v>273500</v>
+        <v>302000</v>
       </c>
       <c r="K10" s="3">
         <v>261300</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-48200</v>
+        <v>-53300</v>
       </c>
       <c r="H14" s="3">
-        <v>24300</v>
+        <v>26800</v>
       </c>
       <c r="I14" s="3">
-        <v>-84800</v>
+        <v>-93600</v>
       </c>
       <c r="J14" s="3">
-        <v>108700</v>
+        <v>120000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1409900</v>
+        <v>1556400</v>
       </c>
       <c r="E17" s="3">
-        <v>931300</v>
+        <v>1028000</v>
       </c>
       <c r="F17" s="3">
-        <v>983600</v>
+        <v>1085700</v>
       </c>
       <c r="G17" s="3">
-        <v>975700</v>
+        <v>1077000</v>
       </c>
       <c r="H17" s="3">
-        <v>926800</v>
+        <v>1023000</v>
       </c>
       <c r="I17" s="3">
-        <v>778300</v>
+        <v>859100</v>
       </c>
       <c r="J17" s="3">
-        <v>980700</v>
+        <v>1082600</v>
       </c>
       <c r="K17" s="3">
         <v>1055100</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290400</v>
+        <v>320600</v>
       </c>
       <c r="E18" s="3">
-        <v>381500</v>
+        <v>421200</v>
       </c>
       <c r="F18" s="3">
-        <v>285800</v>
+        <v>315500</v>
       </c>
       <c r="G18" s="3">
-        <v>249800</v>
+        <v>275700</v>
       </c>
       <c r="H18" s="3">
-        <v>219600</v>
+        <v>242400</v>
       </c>
       <c r="I18" s="3">
-        <v>203600</v>
+        <v>224800</v>
       </c>
       <c r="J18" s="3">
-        <v>100900</v>
+        <v>111400</v>
       </c>
       <c r="K18" s="3">
         <v>142900</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-153800</v>
+        <v>-169800</v>
       </c>
       <c r="E20" s="3">
-        <v>170100</v>
+        <v>187800</v>
       </c>
       <c r="F20" s="3">
-        <v>-166600</v>
+        <v>-183900</v>
       </c>
       <c r="G20" s="3">
-        <v>113400</v>
+        <v>125200</v>
       </c>
       <c r="H20" s="3">
-        <v>-32900</v>
+        <v>-36300</v>
       </c>
       <c r="I20" s="3">
-        <v>127900</v>
+        <v>141100</v>
       </c>
       <c r="J20" s="3">
-        <v>-74100</v>
+        <v>-81800</v>
       </c>
       <c r="K20" s="3">
         <v>16400</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>187200</v>
+        <v>206600</v>
       </c>
       <c r="E21" s="3">
-        <v>594800</v>
+        <v>656600</v>
       </c>
       <c r="F21" s="3">
-        <v>161800</v>
+        <v>178600</v>
       </c>
       <c r="G21" s="3">
-        <v>408800</v>
+        <v>451200</v>
       </c>
       <c r="H21" s="3">
-        <v>230500</v>
+        <v>254400</v>
       </c>
       <c r="I21" s="3">
-        <v>375300</v>
+        <v>414300</v>
       </c>
       <c r="J21" s="3">
-        <v>70200</v>
+        <v>77500</v>
       </c>
       <c r="K21" s="3">
         <v>202800</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>52500</v>
+        <v>58000</v>
       </c>
       <c r="E22" s="3">
-        <v>47000</v>
+        <v>51900</v>
       </c>
       <c r="F22" s="3">
-        <v>58200</v>
+        <v>64200</v>
       </c>
       <c r="G22" s="3">
-        <v>50400</v>
+        <v>55600</v>
       </c>
       <c r="H22" s="3">
-        <v>55800</v>
+        <v>61600</v>
       </c>
       <c r="I22" s="3">
-        <v>48500</v>
+        <v>53600</v>
       </c>
       <c r="J22" s="3">
-        <v>55600</v>
+        <v>61400</v>
       </c>
       <c r="K22" s="3">
         <v>55800</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>84100</v>
+        <v>92900</v>
       </c>
       <c r="E23" s="3">
-        <v>504700</v>
+        <v>557100</v>
       </c>
       <c r="F23" s="3">
-        <v>61000</v>
+        <v>67300</v>
       </c>
       <c r="G23" s="3">
-        <v>312800</v>
+        <v>345300</v>
       </c>
       <c r="H23" s="3">
-        <v>130900</v>
+        <v>144500</v>
       </c>
       <c r="I23" s="3">
-        <v>283000</v>
+        <v>312300</v>
       </c>
       <c r="J23" s="3">
-        <v>-28800</v>
+        <v>-31800</v>
       </c>
       <c r="K23" s="3">
         <v>103600</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>8900</v>
+        <v>9800</v>
       </c>
       <c r="E24" s="3">
-        <v>157200</v>
+        <v>173500</v>
       </c>
       <c r="F24" s="3">
-        <v>-14400</v>
+        <v>-15900</v>
       </c>
       <c r="G24" s="3">
-        <v>74900</v>
+        <v>82700</v>
       </c>
       <c r="H24" s="3">
-        <v>27500</v>
+        <v>30300</v>
       </c>
       <c r="I24" s="3">
-        <v>89900</v>
+        <v>99200</v>
       </c>
       <c r="J24" s="3">
-        <v>-18600</v>
+        <v>-20600</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>75200</v>
+        <v>83100</v>
       </c>
       <c r="E26" s="3">
-        <v>347500</v>
+        <v>383600</v>
       </c>
       <c r="F26" s="3">
-        <v>75400</v>
+        <v>83200</v>
       </c>
       <c r="G26" s="3">
-        <v>237900</v>
+        <v>262600</v>
       </c>
       <c r="H26" s="3">
-        <v>103400</v>
+        <v>114200</v>
       </c>
       <c r="I26" s="3">
-        <v>193100</v>
+        <v>213100</v>
       </c>
       <c r="J26" s="3">
-        <v>-10100</v>
+        <v>-11200</v>
       </c>
       <c r="K26" s="3">
         <v>104200</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>75200</v>
+        <v>83000</v>
       </c>
       <c r="E27" s="3">
-        <v>347400</v>
+        <v>383500</v>
       </c>
       <c r="F27" s="3">
-        <v>75300</v>
+        <v>83200</v>
       </c>
       <c r="G27" s="3">
-        <v>237900</v>
+        <v>262600</v>
       </c>
       <c r="H27" s="3">
-        <v>103400</v>
+        <v>114100</v>
       </c>
       <c r="I27" s="3">
-        <v>193100</v>
+        <v>213100</v>
       </c>
       <c r="J27" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="K27" s="3">
         <v>104100</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>153800</v>
+        <v>169800</v>
       </c>
       <c r="E32" s="3">
-        <v>-170100</v>
+        <v>-187800</v>
       </c>
       <c r="F32" s="3">
-        <v>166600</v>
+        <v>183900</v>
       </c>
       <c r="G32" s="3">
-        <v>-113400</v>
+        <v>-125200</v>
       </c>
       <c r="H32" s="3">
-        <v>32900</v>
+        <v>36300</v>
       </c>
       <c r="I32" s="3">
-        <v>-127900</v>
+        <v>-141100</v>
       </c>
       <c r="J32" s="3">
-        <v>74100</v>
+        <v>81800</v>
       </c>
       <c r="K32" s="3">
         <v>-16400</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>75200</v>
+        <v>83000</v>
       </c>
       <c r="E33" s="3">
-        <v>347400</v>
+        <v>383500</v>
       </c>
       <c r="F33" s="3">
-        <v>75300</v>
+        <v>83200</v>
       </c>
       <c r="G33" s="3">
-        <v>237900</v>
+        <v>262600</v>
       </c>
       <c r="H33" s="3">
-        <v>103400</v>
+        <v>114100</v>
       </c>
       <c r="I33" s="3">
-        <v>193100</v>
+        <v>213100</v>
       </c>
       <c r="J33" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="K33" s="3">
         <v>104100</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>75200</v>
+        <v>83000</v>
       </c>
       <c r="E35" s="3">
-        <v>347400</v>
+        <v>383500</v>
       </c>
       <c r="F35" s="3">
-        <v>75300</v>
+        <v>83200</v>
       </c>
       <c r="G35" s="3">
-        <v>237900</v>
+        <v>262600</v>
       </c>
       <c r="H35" s="3">
-        <v>103400</v>
+        <v>114100</v>
       </c>
       <c r="I35" s="3">
-        <v>193100</v>
+        <v>213100</v>
       </c>
       <c r="J35" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="K35" s="3">
         <v>104100</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>147800</v>
+        <v>163100</v>
       </c>
       <c r="E41" s="3">
-        <v>475100</v>
+        <v>524500</v>
       </c>
       <c r="F41" s="3">
-        <v>594900</v>
+        <v>656700</v>
       </c>
       <c r="G41" s="3">
-        <v>300000</v>
+        <v>331100</v>
       </c>
       <c r="H41" s="3">
-        <v>253600</v>
+        <v>280000</v>
       </c>
       <c r="I41" s="3">
-        <v>173400</v>
+        <v>191400</v>
       </c>
       <c r="J41" s="3">
-        <v>142100</v>
+        <v>156800</v>
       </c>
       <c r="K41" s="3">
         <v>99000</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>417500</v>
+        <v>460800</v>
       </c>
       <c r="E42" s="3">
-        <v>619200</v>
+        <v>683500</v>
       </c>
       <c r="F42" s="3">
-        <v>400000</v>
+        <v>441500</v>
       </c>
       <c r="G42" s="3">
-        <v>599900</v>
+        <v>662200</v>
       </c>
       <c r="H42" s="3">
-        <v>658600</v>
+        <v>727000</v>
       </c>
       <c r="I42" s="3">
-        <v>451500</v>
+        <v>498400</v>
       </c>
       <c r="J42" s="3">
-        <v>273900</v>
+        <v>302400</v>
       </c>
       <c r="K42" s="3">
         <v>139000</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1521400</v>
+        <v>1679400</v>
       </c>
       <c r="E43" s="3">
-        <v>1343600</v>
+        <v>1483200</v>
       </c>
       <c r="F43" s="3">
-        <v>1393300</v>
+        <v>1538000</v>
       </c>
       <c r="G43" s="3">
-        <v>1414900</v>
+        <v>1561800</v>
       </c>
       <c r="H43" s="3">
-        <v>1373600</v>
+        <v>1516200</v>
       </c>
       <c r="I43" s="3">
-        <v>1292000</v>
+        <v>1426100</v>
       </c>
       <c r="J43" s="3">
-        <v>1014500</v>
+        <v>1119900</v>
       </c>
       <c r="K43" s="3">
         <v>1195900</v>
@@ -2889,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="J44" s="3">
-        <v>6400</v>
+        <v>7100</v>
       </c>
       <c r="K44" s="3">
         <v>7300</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>280000</v>
+        <v>309000</v>
       </c>
       <c r="E45" s="3">
-        <v>220900</v>
+        <v>243800</v>
       </c>
       <c r="F45" s="3">
-        <v>230000</v>
+        <v>253900</v>
       </c>
       <c r="G45" s="3">
-        <v>444500</v>
+        <v>490700</v>
       </c>
       <c r="H45" s="3">
-        <v>472500</v>
+        <v>521600</v>
       </c>
       <c r="I45" s="3">
-        <v>611200</v>
+        <v>674700</v>
       </c>
       <c r="J45" s="3">
-        <v>433700</v>
+        <v>478800</v>
       </c>
       <c r="K45" s="3">
         <v>549600</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2366600</v>
+        <v>2612400</v>
       </c>
       <c r="E46" s="3">
-        <v>2658800</v>
+        <v>2935000</v>
       </c>
       <c r="F46" s="3">
-        <v>2618200</v>
+        <v>2890100</v>
       </c>
       <c r="G46" s="3">
-        <v>2759200</v>
+        <v>3045800</v>
       </c>
       <c r="H46" s="3">
-        <v>2758400</v>
+        <v>3044800</v>
       </c>
       <c r="I46" s="3">
-        <v>2528100</v>
+        <v>2790700</v>
       </c>
       <c r="J46" s="3">
-        <v>1870700</v>
+        <v>2064900</v>
       </c>
       <c r="K46" s="3">
         <v>1912100</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3695300</v>
+        <v>4079100</v>
       </c>
       <c r="E47" s="3">
-        <v>3567200</v>
+        <v>3937600</v>
       </c>
       <c r="F47" s="3">
-        <v>3423100</v>
+        <v>3778600</v>
       </c>
       <c r="G47" s="3">
-        <v>3448700</v>
+        <v>3806900</v>
       </c>
       <c r="H47" s="3">
-        <v>3263500</v>
+        <v>3602400</v>
       </c>
       <c r="I47" s="3">
-        <v>3345000</v>
+        <v>3692400</v>
       </c>
       <c r="J47" s="3">
-        <v>3629600</v>
+        <v>4006600</v>
       </c>
       <c r="K47" s="3">
         <v>4051500</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>469100</v>
+        <v>517900</v>
       </c>
       <c r="E48" s="3">
-        <v>460800</v>
+        <v>508700</v>
       </c>
       <c r="F48" s="3">
-        <v>463000</v>
+        <v>511100</v>
       </c>
       <c r="G48" s="3">
-        <v>467600</v>
+        <v>516100</v>
       </c>
       <c r="H48" s="3">
-        <v>470400</v>
+        <v>519200</v>
       </c>
       <c r="I48" s="3">
-        <v>475700</v>
+        <v>525100</v>
       </c>
       <c r="J48" s="3">
-        <v>480000</v>
+        <v>529900</v>
       </c>
       <c r="K48" s="3">
         <v>503700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2311300</v>
+        <v>2551300</v>
       </c>
       <c r="E49" s="3">
-        <v>2272300</v>
+        <v>2508300</v>
       </c>
       <c r="F49" s="3">
-        <v>2103400</v>
+        <v>2321800</v>
       </c>
       <c r="G49" s="3">
-        <v>2108300</v>
+        <v>2327300</v>
       </c>
       <c r="H49" s="3">
-        <v>2104600</v>
+        <v>2323200</v>
       </c>
       <c r="I49" s="3">
-        <v>2096200</v>
+        <v>2313900</v>
       </c>
       <c r="J49" s="3">
-        <v>2091700</v>
+        <v>2309000</v>
       </c>
       <c r="K49" s="3">
         <v>2147000</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>640000</v>
+        <v>706500</v>
       </c>
       <c r="E52" s="3">
-        <v>652300</v>
+        <v>720000</v>
       </c>
       <c r="F52" s="3">
-        <v>855900</v>
+        <v>944700</v>
       </c>
       <c r="G52" s="3">
-        <v>871000</v>
+        <v>961500</v>
       </c>
       <c r="H52" s="3">
-        <v>923000</v>
+        <v>1018800</v>
       </c>
       <c r="I52" s="3">
-        <v>933600</v>
+        <v>1030600</v>
       </c>
       <c r="J52" s="3">
-        <v>922100</v>
+        <v>1017800</v>
       </c>
       <c r="K52" s="3">
         <v>717700</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9482400</v>
+        <v>10467200</v>
       </c>
       <c r="E54" s="3">
-        <v>9611400</v>
+        <v>10609600</v>
       </c>
       <c r="F54" s="3">
-        <v>9463500</v>
+        <v>10446400</v>
       </c>
       <c r="G54" s="3">
-        <v>9654900</v>
+        <v>10657600</v>
       </c>
       <c r="H54" s="3">
-        <v>9519800</v>
+        <v>10508500</v>
       </c>
       <c r="I54" s="3">
-        <v>9378600</v>
+        <v>10352600</v>
       </c>
       <c r="J54" s="3">
-        <v>8994100</v>
+        <v>9928200</v>
       </c>
       <c r="K54" s="3">
         <v>9332100</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>601700</v>
+        <v>664200</v>
       </c>
       <c r="E57" s="3">
-        <v>425200</v>
+        <v>469300</v>
       </c>
       <c r="F57" s="3">
-        <v>349300</v>
+        <v>385600</v>
       </c>
       <c r="G57" s="3">
-        <v>421000</v>
+        <v>464700</v>
       </c>
       <c r="H57" s="3">
-        <v>355400</v>
+        <v>392400</v>
       </c>
       <c r="I57" s="3">
-        <v>347300</v>
+        <v>383400</v>
       </c>
       <c r="J57" s="3">
-        <v>307500</v>
+        <v>339500</v>
       </c>
       <c r="K57" s="3">
         <v>384200</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>293000</v>
+        <v>323400</v>
       </c>
       <c r="E58" s="3">
-        <v>258000</v>
+        <v>284800</v>
       </c>
       <c r="F58" s="3">
-        <v>298600</v>
+        <v>329700</v>
       </c>
       <c r="G58" s="3">
-        <v>376200</v>
+        <v>415200</v>
       </c>
       <c r="H58" s="3">
-        <v>436200</v>
+        <v>481500</v>
       </c>
       <c r="I58" s="3">
-        <v>549500</v>
+        <v>606500</v>
       </c>
       <c r="J58" s="3">
-        <v>562200</v>
+        <v>620500</v>
       </c>
       <c r="K58" s="3">
         <v>522900</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>978800</v>
+        <v>1080400</v>
       </c>
       <c r="E59" s="3">
-        <v>1021200</v>
+        <v>1127300</v>
       </c>
       <c r="F59" s="3">
-        <v>969100</v>
+        <v>1069700</v>
       </c>
       <c r="G59" s="3">
-        <v>932700</v>
+        <v>1029600</v>
       </c>
       <c r="H59" s="3">
-        <v>829100</v>
+        <v>915200</v>
       </c>
       <c r="I59" s="3">
-        <v>719400</v>
+        <v>794100</v>
       </c>
       <c r="J59" s="3">
-        <v>514700</v>
+        <v>568200</v>
       </c>
       <c r="K59" s="3">
         <v>565500</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1873500</v>
+        <v>2068000</v>
       </c>
       <c r="E60" s="3">
-        <v>1704400</v>
+        <v>1881400</v>
       </c>
       <c r="F60" s="3">
-        <v>1617000</v>
+        <v>1785000</v>
       </c>
       <c r="G60" s="3">
-        <v>1729900</v>
+        <v>1909600</v>
       </c>
       <c r="H60" s="3">
-        <v>1620700</v>
+        <v>1789100</v>
       </c>
       <c r="I60" s="3">
-        <v>1616200</v>
+        <v>1784000</v>
       </c>
       <c r="J60" s="3">
-        <v>1384400</v>
+        <v>1528200</v>
       </c>
       <c r="K60" s="3">
         <v>1471100</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1778900</v>
+        <v>1963700</v>
       </c>
       <c r="E61" s="3">
-        <v>2156300</v>
+        <v>2380200</v>
       </c>
       <c r="F61" s="3">
-        <v>2358400</v>
+        <v>2603300</v>
       </c>
       <c r="G61" s="3">
-        <v>2345700</v>
+        <v>2589400</v>
       </c>
       <c r="H61" s="3">
-        <v>2482900</v>
+        <v>2740800</v>
       </c>
       <c r="I61" s="3">
-        <v>2328000</v>
+        <v>2569800</v>
       </c>
       <c r="J61" s="3">
-        <v>2300300</v>
+        <v>2539200</v>
       </c>
       <c r="K61" s="3">
         <v>2259300</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2211900</v>
+        <v>2441600</v>
       </c>
       <c r="E62" s="3">
-        <v>2207800</v>
+        <v>2437100</v>
       </c>
       <c r="F62" s="3">
-        <v>2292700</v>
+        <v>2530800</v>
       </c>
       <c r="G62" s="3">
-        <v>2459200</v>
+        <v>2714600</v>
       </c>
       <c r="H62" s="3">
-        <v>2327300</v>
+        <v>2569100</v>
       </c>
       <c r="I62" s="3">
-        <v>2421500</v>
+        <v>2673000</v>
       </c>
       <c r="J62" s="3">
-        <v>2482800</v>
+        <v>2740700</v>
       </c>
       <c r="K62" s="3">
         <v>2749700</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5865200</v>
+        <v>6474300</v>
       </c>
       <c r="E66" s="3">
-        <v>6069300</v>
+        <v>6699700</v>
       </c>
       <c r="F66" s="3">
-        <v>6268900</v>
+        <v>6920000</v>
       </c>
       <c r="G66" s="3">
-        <v>6535700</v>
+        <v>7214400</v>
       </c>
       <c r="H66" s="3">
-        <v>6431800</v>
+        <v>7099800</v>
       </c>
       <c r="I66" s="3">
-        <v>6366500</v>
+        <v>7027700</v>
       </c>
       <c r="J66" s="3">
-        <v>6168300</v>
+        <v>6809000</v>
       </c>
       <c r="K66" s="3">
         <v>6358800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2140100</v>
+        <v>2362300</v>
       </c>
       <c r="E72" s="3">
-        <v>2064200</v>
+        <v>2278600</v>
       </c>
       <c r="F72" s="3">
-        <v>1872100</v>
+        <v>2066500</v>
       </c>
       <c r="G72" s="3">
-        <v>1796000</v>
+        <v>1982500</v>
       </c>
       <c r="H72" s="3">
-        <v>1762800</v>
+        <v>1945800</v>
       </c>
       <c r="I72" s="3">
-        <v>2141200</v>
+        <v>2363600</v>
       </c>
       <c r="J72" s="3">
-        <v>1954000</v>
+        <v>2157000</v>
       </c>
       <c r="K72" s="3">
         <v>2070700</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3617200</v>
+        <v>3992900</v>
       </c>
       <c r="E76" s="3">
-        <v>3542000</v>
+        <v>3909900</v>
       </c>
       <c r="F76" s="3">
-        <v>3194600</v>
+        <v>3526400</v>
       </c>
       <c r="G76" s="3">
+        <v>3443200</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3408700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>3324900</v>
+      </c>
+      <c r="J76" s="3">
         <v>3119200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3088000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>3012100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>2825800</v>
       </c>
       <c r="K76" s="3">
         <v>2973300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>75200</v>
+        <v>83000</v>
       </c>
       <c r="E81" s="3">
-        <v>347400</v>
+        <v>383500</v>
       </c>
       <c r="F81" s="3">
-        <v>75300</v>
+        <v>83200</v>
       </c>
       <c r="G81" s="3">
-        <v>237900</v>
+        <v>262600</v>
       </c>
       <c r="H81" s="3">
-        <v>103400</v>
+        <v>114100</v>
       </c>
       <c r="I81" s="3">
-        <v>193100</v>
+        <v>213100</v>
       </c>
       <c r="J81" s="3">
-        <v>-10200</v>
+        <v>-11300</v>
       </c>
       <c r="K81" s="3">
         <v>104100</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50600</v>
+        <v>55800</v>
       </c>
       <c r="E83" s="3">
-        <v>43200</v>
+        <v>47600</v>
       </c>
       <c r="F83" s="3">
-        <v>42600</v>
+        <v>47000</v>
       </c>
       <c r="G83" s="3">
-        <v>45600</v>
+        <v>50400</v>
       </c>
       <c r="H83" s="3">
-        <v>43800</v>
+        <v>48300</v>
       </c>
       <c r="I83" s="3">
-        <v>43900</v>
+        <v>48400</v>
       </c>
       <c r="J83" s="3">
-        <v>43300</v>
+        <v>47800</v>
       </c>
       <c r="K83" s="3">
         <v>43400</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>24500</v>
+        <v>27000</v>
       </c>
       <c r="E89" s="3">
-        <v>385200</v>
+        <v>425300</v>
       </c>
       <c r="F89" s="3">
-        <v>136600</v>
+        <v>150800</v>
       </c>
       <c r="G89" s="3">
-        <v>317100</v>
+        <v>350000</v>
       </c>
       <c r="H89" s="3">
-        <v>468800</v>
+        <v>517500</v>
       </c>
       <c r="I89" s="3">
-        <v>309200</v>
+        <v>341300</v>
       </c>
       <c r="J89" s="3">
-        <v>441800</v>
+        <v>487700</v>
       </c>
       <c r="K89" s="3">
         <v>164000</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5900</v>
+        <v>-6500</v>
       </c>
       <c r="E91" s="3">
-        <v>-7900</v>
+        <v>-8700</v>
       </c>
       <c r="F91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-4500</v>
       </c>
       <c r="K91" s="3">
         <v>-4700</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>142700</v>
+        <v>157500</v>
       </c>
       <c r="E94" s="3">
-        <v>-348100</v>
+        <v>-384300</v>
       </c>
       <c r="F94" s="3">
-        <v>406400</v>
+        <v>448600</v>
       </c>
       <c r="G94" s="3">
-        <v>-99100</v>
+        <v>-109400</v>
       </c>
       <c r="H94" s="3">
-        <v>-328000</v>
+        <v>-362100</v>
       </c>
       <c r="I94" s="3">
-        <v>-261400</v>
+        <v>-288500</v>
       </c>
       <c r="J94" s="3">
-        <v>-217800</v>
+        <v>-240400</v>
       </c>
       <c r="K94" s="3">
         <v>-45200</v>
@@ -6027,13 +6027,13 @@
         <v>-100</v>
       </c>
       <c r="E96" s="3">
-        <v>-125100</v>
+        <v>-138100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-106700</v>
+        <v>-117800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-494500</v>
+        <v>-545900</v>
       </c>
       <c r="E100" s="3">
-        <v>-156900</v>
+        <v>-173200</v>
       </c>
       <c r="F100" s="3">
-        <v>-248000</v>
+        <v>-273800</v>
       </c>
       <c r="G100" s="3">
-        <v>-171600</v>
+        <v>-189400</v>
       </c>
       <c r="H100" s="3">
-        <v>-60600</v>
+        <v>-66800</v>
       </c>
       <c r="I100" s="3">
-        <v>-16400</v>
+        <v>-18100</v>
       </c>
       <c r="J100" s="3">
-        <v>-177600</v>
+        <v>-196100</v>
       </c>
       <c r="K100" s="3">
         <v>-148200</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-327400</v>
+        <v>-361400</v>
       </c>
       <c r="E102" s="3">
-        <v>-119800</v>
+        <v>-132200</v>
       </c>
       <c r="F102" s="3">
-        <v>294900</v>
+        <v>325500</v>
       </c>
       <c r="G102" s="3">
-        <v>46400</v>
+        <v>51200</v>
       </c>
       <c r="H102" s="3">
-        <v>80200</v>
+        <v>88600</v>
       </c>
       <c r="I102" s="3">
-        <v>31300</v>
+        <v>34600</v>
       </c>
       <c r="J102" s="3">
-        <v>46400</v>
+        <v>51200</v>
       </c>
       <c r="K102" s="3">
         <v>-29400</v>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1876900</v>
+        <v>1880900</v>
       </c>
       <c r="E8" s="3">
-        <v>1449200</v>
+        <v>1855200</v>
       </c>
       <c r="F8" s="3">
-        <v>1401200</v>
+        <v>1432400</v>
       </c>
       <c r="G8" s="3">
-        <v>1352700</v>
+        <v>1385000</v>
       </c>
       <c r="H8" s="3">
-        <v>1265400</v>
+        <v>1337100</v>
       </c>
       <c r="I8" s="3">
-        <v>1083800</v>
+        <v>1250700</v>
       </c>
       <c r="J8" s="3">
+        <v>1071300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1194000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1198000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1138800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1242500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1047100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1028500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1156900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1309200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1152500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1681300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1316700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1334500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1233900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1159200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1548300</v>
+        <v>1527400</v>
       </c>
       <c r="E9" s="3">
-        <v>1162100</v>
+        <v>1530400</v>
       </c>
       <c r="F9" s="3">
-        <v>1049900</v>
+        <v>1148700</v>
       </c>
       <c r="G9" s="3">
-        <v>1159500</v>
+        <v>1037800</v>
       </c>
       <c r="H9" s="3">
-        <v>969100</v>
+        <v>1146100</v>
       </c>
       <c r="I9" s="3">
-        <v>890000</v>
+        <v>957800</v>
       </c>
       <c r="J9" s="3">
+        <v>879700</v>
+      </c>
+      <c r="K9" s="3">
         <v>892100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>936700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1105600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>782300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>746400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>773700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>947700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1048200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>870900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1306100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1203200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1093200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>880800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>925600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>328700</v>
+        <v>353500</v>
       </c>
       <c r="E10" s="3">
-        <v>287100</v>
+        <v>324900</v>
       </c>
       <c r="F10" s="3">
-        <v>351300</v>
+        <v>283800</v>
       </c>
       <c r="G10" s="3">
-        <v>193200</v>
+        <v>347300</v>
       </c>
       <c r="H10" s="3">
-        <v>296300</v>
+        <v>191000</v>
       </c>
       <c r="I10" s="3">
-        <v>193900</v>
+        <v>292900</v>
       </c>
       <c r="J10" s="3">
+        <v>191600</v>
+      </c>
+      <c r="K10" s="3">
         <v>302000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>261300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>33200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>460200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>300700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>254800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>209100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>281600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>375200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>113500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>241200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>353200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>233600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1142,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-53300</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>26800</v>
+        <v>-52600</v>
       </c>
       <c r="I14" s="3">
-        <v>-93600</v>
+        <v>26500</v>
       </c>
       <c r="J14" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="K14" s="3">
         <v>120000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1171,8 +1190,8 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1556400</v>
+        <v>1613800</v>
       </c>
       <c r="E17" s="3">
-        <v>1028000</v>
+        <v>1538400</v>
       </c>
       <c r="F17" s="3">
-        <v>1085700</v>
+        <v>1016100</v>
       </c>
       <c r="G17" s="3">
-        <v>1077000</v>
+        <v>1073200</v>
       </c>
       <c r="H17" s="3">
-        <v>1023000</v>
+        <v>1064600</v>
       </c>
       <c r="I17" s="3">
-        <v>859100</v>
+        <v>1011200</v>
       </c>
       <c r="J17" s="3">
+        <v>849100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1082600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1055100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1205900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>965600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>829200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>912400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1154200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>967100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1343200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1343700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1198500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1003500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1185500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>320600</v>
+        <v>267100</v>
       </c>
       <c r="E18" s="3">
-        <v>421200</v>
+        <v>316900</v>
       </c>
       <c r="F18" s="3">
-        <v>315500</v>
+        <v>416300</v>
       </c>
       <c r="G18" s="3">
-        <v>275700</v>
+        <v>311900</v>
       </c>
       <c r="H18" s="3">
-        <v>242400</v>
+        <v>272500</v>
       </c>
       <c r="I18" s="3">
-        <v>224800</v>
+        <v>239600</v>
       </c>
       <c r="J18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K18" s="3">
         <v>111400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>142900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-67100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>276800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>116200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>125900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>155000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>185400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>338100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>135900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>230400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-26400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-169800</v>
+        <v>-9700</v>
       </c>
       <c r="E20" s="3">
-        <v>187800</v>
+        <v>-167800</v>
       </c>
       <c r="F20" s="3">
-        <v>-183900</v>
+        <v>185600</v>
       </c>
       <c r="G20" s="3">
-        <v>125200</v>
+        <v>-181800</v>
       </c>
       <c r="H20" s="3">
-        <v>-36300</v>
+        <v>123700</v>
       </c>
       <c r="I20" s="3">
-        <v>141100</v>
+        <v>-35800</v>
       </c>
       <c r="J20" s="3">
+        <v>139500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-81800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>391500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>35700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>182300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-89000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>91500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>26000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>206600</v>
+        <v>313100</v>
       </c>
       <c r="E21" s="3">
-        <v>656600</v>
+        <v>204200</v>
       </c>
       <c r="F21" s="3">
-        <v>178600</v>
+        <v>649000</v>
       </c>
       <c r="G21" s="3">
-        <v>451200</v>
+        <v>176500</v>
       </c>
       <c r="H21" s="3">
-        <v>254400</v>
+        <v>446000</v>
       </c>
       <c r="I21" s="3">
-        <v>414300</v>
+        <v>251400</v>
       </c>
       <c r="J21" s="3">
+        <v>409500</v>
+      </c>
+      <c r="K21" s="3">
         <v>77500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>202800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>712300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>294500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>339500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>165900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>112300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>267500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>412400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>117200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>203700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>299700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>57500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>58000</v>
+        <v>51300</v>
       </c>
       <c r="E22" s="3">
-        <v>51900</v>
+        <v>57300</v>
       </c>
       <c r="F22" s="3">
-        <v>64200</v>
+        <v>51300</v>
       </c>
       <c r="G22" s="3">
-        <v>55600</v>
+        <v>63500</v>
       </c>
       <c r="H22" s="3">
-        <v>61600</v>
+        <v>54900</v>
       </c>
       <c r="I22" s="3">
+        <v>60900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>61400</v>
+      </c>
+      <c r="L22" s="3">
+        <v>55800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>59800</v>
+      </c>
+      <c r="N22" s="3">
         <v>53600</v>
       </c>
-      <c r="J22" s="3">
-        <v>61400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>55800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>59800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>53600</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>69200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>85000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>88300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>101600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>118300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>123000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>92900</v>
+        <v>206100</v>
       </c>
       <c r="E23" s="3">
-        <v>557100</v>
+        <v>91800</v>
       </c>
       <c r="F23" s="3">
-        <v>67300</v>
+        <v>550600</v>
       </c>
       <c r="G23" s="3">
-        <v>345300</v>
+        <v>66600</v>
       </c>
       <c r="H23" s="3">
-        <v>144500</v>
+        <v>341300</v>
       </c>
       <c r="I23" s="3">
-        <v>312300</v>
+        <v>142800</v>
       </c>
       <c r="J23" s="3">
+        <v>308700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-31800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>103600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-111000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>614800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>199900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>235400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>64300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>148600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>267700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-23800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>48400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>129800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-123400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9800</v>
+        <v>18700</v>
       </c>
       <c r="E24" s="3">
-        <v>173500</v>
+        <v>9700</v>
       </c>
       <c r="F24" s="3">
-        <v>-15900</v>
+        <v>171500</v>
       </c>
       <c r="G24" s="3">
-        <v>82700</v>
+        <v>-15700</v>
       </c>
       <c r="H24" s="3">
-        <v>30300</v>
+        <v>81800</v>
       </c>
       <c r="I24" s="3">
-        <v>99200</v>
+        <v>30000</v>
       </c>
       <c r="J24" s="3">
+        <v>98000</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-16100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>240300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>72300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>112700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-47400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>83100</v>
+        <v>187500</v>
       </c>
       <c r="E26" s="3">
-        <v>383600</v>
+        <v>82100</v>
       </c>
       <c r="F26" s="3">
-        <v>83200</v>
+        <v>379200</v>
       </c>
       <c r="G26" s="3">
-        <v>262600</v>
+        <v>82300</v>
       </c>
       <c r="H26" s="3">
-        <v>114200</v>
+        <v>259600</v>
       </c>
       <c r="I26" s="3">
-        <v>213100</v>
+        <v>112800</v>
       </c>
       <c r="J26" s="3">
+        <v>210700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>104200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>374500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>141200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>163100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>108500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>155000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-21500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>35400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>87900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-75900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>83000</v>
+        <v>187400</v>
       </c>
       <c r="E27" s="3">
-        <v>383500</v>
+        <v>82000</v>
       </c>
       <c r="F27" s="3">
-        <v>83200</v>
+        <v>379100</v>
       </c>
       <c r="G27" s="3">
-        <v>262600</v>
+        <v>82200</v>
       </c>
       <c r="H27" s="3">
-        <v>114100</v>
+        <v>259500</v>
       </c>
       <c r="I27" s="3">
-        <v>213100</v>
+        <v>112800</v>
       </c>
       <c r="J27" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>104100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-94900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>374500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>141100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>155800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>42600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>108500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>154900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-21500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>35400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>87800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-76000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2117,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2074,11 +2134,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2086,29 +2146,29 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>42000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>58500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>5000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>169800</v>
+        <v>9700</v>
       </c>
       <c r="E32" s="3">
-        <v>-187800</v>
+        <v>167800</v>
       </c>
       <c r="F32" s="3">
-        <v>183900</v>
+        <v>-185600</v>
       </c>
       <c r="G32" s="3">
-        <v>-125200</v>
+        <v>181800</v>
       </c>
       <c r="H32" s="3">
-        <v>36300</v>
+        <v>-123700</v>
       </c>
       <c r="I32" s="3">
-        <v>-141100</v>
+        <v>35800</v>
       </c>
       <c r="J32" s="3">
+        <v>-139500</v>
+      </c>
+      <c r="K32" s="3">
         <v>81800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-391500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-35700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-182300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>89000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-91500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-26000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>83000</v>
+        <v>187400</v>
       </c>
       <c r="E33" s="3">
-        <v>383500</v>
+        <v>82000</v>
       </c>
       <c r="F33" s="3">
-        <v>83200</v>
+        <v>379100</v>
       </c>
       <c r="G33" s="3">
-        <v>262600</v>
+        <v>82200</v>
       </c>
       <c r="H33" s="3">
-        <v>114100</v>
+        <v>259500</v>
       </c>
       <c r="I33" s="3">
-        <v>213100</v>
+        <v>112800</v>
       </c>
       <c r="J33" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>104100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-52900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>374500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>141100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>45200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>108500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>154900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-21500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>35400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>87800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-76000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>83000</v>
+        <v>187400</v>
       </c>
       <c r="E35" s="3">
-        <v>383500</v>
+        <v>82000</v>
       </c>
       <c r="F35" s="3">
-        <v>83200</v>
+        <v>379100</v>
       </c>
       <c r="G35" s="3">
-        <v>262600</v>
+        <v>82200</v>
       </c>
       <c r="H35" s="3">
-        <v>114100</v>
+        <v>259500</v>
       </c>
       <c r="I35" s="3">
-        <v>213100</v>
+        <v>112800</v>
       </c>
       <c r="J35" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>104100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-52900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>374500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>141100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>45200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>108500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>154900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-21500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>35400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>87800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-76000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2746,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>163100</v>
+        <v>160700</v>
       </c>
       <c r="E41" s="3">
-        <v>524500</v>
+        <v>161200</v>
       </c>
       <c r="F41" s="3">
-        <v>656700</v>
+        <v>518400</v>
       </c>
       <c r="G41" s="3">
-        <v>331100</v>
+        <v>649100</v>
       </c>
       <c r="H41" s="3">
-        <v>280000</v>
+        <v>327300</v>
       </c>
       <c r="I41" s="3">
-        <v>191400</v>
+        <v>276700</v>
       </c>
       <c r="J41" s="3">
+        <v>189200</v>
+      </c>
+      <c r="K41" s="3">
         <v>156800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>99000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>141000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>158900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>276300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>219700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>98600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>264100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>149300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>242600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>215900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>246900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>460800</v>
+        <v>335800</v>
       </c>
       <c r="E42" s="3">
-        <v>683500</v>
+        <v>455500</v>
       </c>
       <c r="F42" s="3">
-        <v>441500</v>
+        <v>675600</v>
       </c>
       <c r="G42" s="3">
-        <v>662200</v>
+        <v>436400</v>
       </c>
       <c r="H42" s="3">
-        <v>727000</v>
+        <v>654500</v>
       </c>
       <c r="I42" s="3">
-        <v>498400</v>
+        <v>718600</v>
       </c>
       <c r="J42" s="3">
+        <v>492700</v>
+      </c>
+      <c r="K42" s="3">
         <v>302400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>139000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>164900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>135800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>105200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>141700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>126700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>93200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>127700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>298600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>291600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>381900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>312700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>342800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1679400</v>
+        <v>1610000</v>
       </c>
       <c r="E43" s="3">
-        <v>1483200</v>
+        <v>1660000</v>
       </c>
       <c r="F43" s="3">
-        <v>1538000</v>
+        <v>1466000</v>
       </c>
       <c r="G43" s="3">
-        <v>1561800</v>
+        <v>1520200</v>
       </c>
       <c r="H43" s="3">
-        <v>1516200</v>
+        <v>1543700</v>
       </c>
       <c r="I43" s="3">
-        <v>1426100</v>
+        <v>1498700</v>
       </c>
       <c r="J43" s="3">
+        <v>1409600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1119900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1195900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1112600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>917700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>963100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>956400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1106600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1123800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1085700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1315800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1334900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1255000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1318800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1221900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2888,41 +2983,41 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>7100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>5900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>6400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>8200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>12500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>12300</v>
       </c>
       <c r="V44" s="3">
         <v>12300</v>
@@ -2931,350 +3026,368 @@
         <v>12300</v>
       </c>
       <c r="X44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Y44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>309000</v>
+        <v>415600</v>
       </c>
       <c r="E45" s="3">
-        <v>243800</v>
+        <v>305500</v>
       </c>
       <c r="F45" s="3">
-        <v>253900</v>
+        <v>241000</v>
       </c>
       <c r="G45" s="3">
-        <v>490700</v>
+        <v>251000</v>
       </c>
       <c r="H45" s="3">
-        <v>521600</v>
+        <v>485000</v>
       </c>
       <c r="I45" s="3">
-        <v>674700</v>
+        <v>515600</v>
       </c>
       <c r="J45" s="3">
+        <v>666900</v>
+      </c>
+      <c r="K45" s="3">
         <v>478800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>549600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>516600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3698200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3695400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>242700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>247800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>294200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>225700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>127200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>166100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>231600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2612400</v>
+        <v>2522200</v>
       </c>
       <c r="E46" s="3">
-        <v>2935000</v>
+        <v>2582200</v>
       </c>
       <c r="F46" s="3">
-        <v>2890100</v>
+        <v>2901000</v>
       </c>
       <c r="G46" s="3">
-        <v>3045800</v>
+        <v>2856700</v>
       </c>
       <c r="H46" s="3">
-        <v>3044800</v>
+        <v>3010600</v>
       </c>
       <c r="I46" s="3">
-        <v>2790700</v>
+        <v>3009600</v>
       </c>
       <c r="J46" s="3">
+        <v>2758400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2064900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1912100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1931600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4890200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4915200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4958800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1758000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1692500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1614300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2188800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2014000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2018900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2025900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2055500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4079100</v>
+        <v>3859500</v>
       </c>
       <c r="E47" s="3">
-        <v>3937600</v>
+        <v>4031900</v>
       </c>
       <c r="F47" s="3">
-        <v>3778600</v>
+        <v>3892100</v>
       </c>
       <c r="G47" s="3">
-        <v>3806900</v>
+        <v>3734900</v>
       </c>
       <c r="H47" s="3">
-        <v>3602400</v>
+        <v>3762900</v>
       </c>
       <c r="I47" s="3">
-        <v>3692400</v>
+        <v>3560700</v>
       </c>
       <c r="J47" s="3">
+        <v>3649700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4006600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4051500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4060400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3740300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2784500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2790500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3292800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4357200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4151900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4588500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4512800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4377600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4366800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4249400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>517900</v>
+        <v>515200</v>
       </c>
       <c r="E48" s="3">
-        <v>508700</v>
+        <v>511900</v>
       </c>
       <c r="F48" s="3">
-        <v>511100</v>
+        <v>502800</v>
       </c>
       <c r="G48" s="3">
-        <v>516100</v>
+        <v>505200</v>
       </c>
       <c r="H48" s="3">
-        <v>519200</v>
+        <v>510200</v>
       </c>
       <c r="I48" s="3">
-        <v>525100</v>
+        <v>513200</v>
       </c>
       <c r="J48" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K48" s="3">
         <v>529900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>503700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>536100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>515100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>522600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>474800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>445800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>565300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>636500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>708200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>717100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>723800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>733000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>936500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2551300</v>
+        <v>2523000</v>
       </c>
       <c r="E49" s="3">
-        <v>2508300</v>
+        <v>2521800</v>
       </c>
       <c r="F49" s="3">
-        <v>2321800</v>
+        <v>2479300</v>
       </c>
       <c r="G49" s="3">
-        <v>2327300</v>
+        <v>2295000</v>
       </c>
       <c r="H49" s="3">
-        <v>2323200</v>
+        <v>2300300</v>
       </c>
       <c r="I49" s="3">
-        <v>2313900</v>
+        <v>2296300</v>
       </c>
       <c r="J49" s="3">
+        <v>2287100</v>
+      </c>
+      <c r="K49" s="3">
         <v>2309000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2147000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2183200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1897900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1901900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1922700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2072000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2611900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2607900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2860200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2835000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2804500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2780500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2684100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>706500</v>
+        <v>717600</v>
       </c>
       <c r="E52" s="3">
-        <v>720000</v>
+        <v>698300</v>
       </c>
       <c r="F52" s="3">
-        <v>944700</v>
+        <v>711700</v>
       </c>
       <c r="G52" s="3">
-        <v>961500</v>
+        <v>933800</v>
       </c>
       <c r="H52" s="3">
-        <v>1018800</v>
+        <v>950400</v>
       </c>
       <c r="I52" s="3">
-        <v>1030600</v>
+        <v>1007000</v>
       </c>
       <c r="J52" s="3">
+        <v>1018700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1017800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>717700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>679500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>564500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>537800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>531200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>420500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>506300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>478900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>483700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>645900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>821600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>801200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>502700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10467200</v>
+        <v>10137500</v>
       </c>
       <c r="E54" s="3">
-        <v>10609600</v>
+        <v>10346100</v>
       </c>
       <c r="F54" s="3">
-        <v>10446400</v>
+        <v>10486800</v>
       </c>
       <c r="G54" s="3">
-        <v>10657600</v>
+        <v>10325500</v>
       </c>
       <c r="H54" s="3">
-        <v>10508500</v>
+        <v>10534300</v>
       </c>
       <c r="I54" s="3">
-        <v>10352600</v>
+        <v>10386900</v>
       </c>
       <c r="J54" s="3">
+        <v>10232800</v>
+      </c>
+      <c r="K54" s="3">
         <v>9928200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9332100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9390800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11608000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10662000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10678100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7989100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9733200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9489500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10829400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10724900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10746400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10707500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10428300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>664200</v>
+        <v>522700</v>
       </c>
       <c r="E57" s="3">
-        <v>469300</v>
+        <v>656500</v>
       </c>
       <c r="F57" s="3">
-        <v>385600</v>
+        <v>463900</v>
       </c>
       <c r="G57" s="3">
-        <v>464700</v>
+        <v>381100</v>
       </c>
       <c r="H57" s="3">
-        <v>392400</v>
+        <v>459400</v>
       </c>
       <c r="I57" s="3">
-        <v>383400</v>
+        <v>387800</v>
       </c>
       <c r="J57" s="3">
+        <v>378900</v>
+      </c>
+      <c r="K57" s="3">
         <v>339500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>384200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>386200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>325900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>356300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>321300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>452300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>502700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>379100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>600600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>560600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>491200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>414000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>481200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>323400</v>
+        <v>297400</v>
       </c>
       <c r="E58" s="3">
-        <v>284800</v>
+        <v>319700</v>
       </c>
       <c r="F58" s="3">
-        <v>329700</v>
+        <v>281500</v>
       </c>
       <c r="G58" s="3">
-        <v>415200</v>
+        <v>325800</v>
       </c>
       <c r="H58" s="3">
-        <v>481500</v>
+        <v>410400</v>
       </c>
       <c r="I58" s="3">
-        <v>606500</v>
+        <v>475900</v>
       </c>
       <c r="J58" s="3">
+        <v>599500</v>
+      </c>
+      <c r="K58" s="3">
         <v>620500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>522900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>537000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>538400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>485700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>392000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>442600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>640000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>604400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>607800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1333000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1331300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1273400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1199900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1080400</v>
+        <v>1261700</v>
       </c>
       <c r="E59" s="3">
-        <v>1127300</v>
+        <v>1067900</v>
       </c>
       <c r="F59" s="3">
-        <v>1069700</v>
+        <v>1114200</v>
       </c>
       <c r="G59" s="3">
-        <v>1029600</v>
+        <v>1057300</v>
       </c>
       <c r="H59" s="3">
-        <v>915200</v>
+        <v>1017700</v>
       </c>
       <c r="I59" s="3">
-        <v>794100</v>
+        <v>904600</v>
       </c>
       <c r="J59" s="3">
+        <v>784900</v>
+      </c>
+      <c r="K59" s="3">
         <v>568200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>565500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>535000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3446900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3365200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3460000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>598400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>692500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>779200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1012400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1272700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1197100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1230500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1158800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2068000</v>
+        <v>2081700</v>
       </c>
       <c r="E60" s="3">
-        <v>1881400</v>
+        <v>2044100</v>
       </c>
       <c r="F60" s="3">
-        <v>1785000</v>
+        <v>1859600</v>
       </c>
       <c r="G60" s="3">
-        <v>1909600</v>
+        <v>1764300</v>
       </c>
       <c r="H60" s="3">
-        <v>1789100</v>
+        <v>1887500</v>
       </c>
       <c r="I60" s="3">
-        <v>1784000</v>
+        <v>1768400</v>
       </c>
       <c r="J60" s="3">
+        <v>1763400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1528200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1471100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1458300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4311200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4207200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4173400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1493400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1835200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1762700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2220800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3166300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3019600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2917900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2839900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1963700</v>
+        <v>1963600</v>
       </c>
       <c r="E61" s="3">
-        <v>2380200</v>
+        <v>1941000</v>
       </c>
       <c r="F61" s="3">
-        <v>2603300</v>
+        <v>2352700</v>
       </c>
       <c r="G61" s="3">
-        <v>2589400</v>
+        <v>2573200</v>
       </c>
       <c r="H61" s="3">
-        <v>2740800</v>
+        <v>2559400</v>
       </c>
       <c r="I61" s="3">
-        <v>2569800</v>
+        <v>2709000</v>
       </c>
       <c r="J61" s="3">
+        <v>2540100</v>
+      </c>
+      <c r="K61" s="3">
         <v>2539200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2259300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2368600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1973800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2075500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2243200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2405700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2770300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2594600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3083500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2270500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2413600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2502500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2565700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2441600</v>
+        <v>2301400</v>
       </c>
       <c r="E62" s="3">
-        <v>2437100</v>
+        <v>2413300</v>
       </c>
       <c r="F62" s="3">
-        <v>2530800</v>
+        <v>2408900</v>
       </c>
       <c r="G62" s="3">
-        <v>2714600</v>
+        <v>2501500</v>
       </c>
       <c r="H62" s="3">
-        <v>2569100</v>
+        <v>2683200</v>
       </c>
       <c r="I62" s="3">
-        <v>2673000</v>
+        <v>2539300</v>
       </c>
       <c r="J62" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2740700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2749700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2335300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1983400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1415900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1417800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1356300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1699900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1690400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1851100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1881500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1885300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1879000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1813900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6474300</v>
+        <v>6347800</v>
       </c>
       <c r="E66" s="3">
-        <v>6699700</v>
+        <v>6399400</v>
       </c>
       <c r="F66" s="3">
-        <v>6920000</v>
+        <v>6622200</v>
       </c>
       <c r="G66" s="3">
-        <v>7214400</v>
+        <v>6839900</v>
       </c>
       <c r="H66" s="3">
-        <v>7099800</v>
+        <v>7131000</v>
       </c>
       <c r="I66" s="3">
-        <v>7027700</v>
+        <v>7017600</v>
       </c>
       <c r="J66" s="3">
+        <v>6946300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6809000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6358800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6163000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8511100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7939600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8077200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5256200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6306400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6048600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="T66" s="3">
-        <v>7319400</v>
       </c>
       <c r="U66" s="3">
         <v>7319400</v>
       </c>
       <c r="V66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="W66" s="3">
         <v>7300500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7220500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2362300</v>
+        <v>2132500</v>
       </c>
       <c r="E72" s="3">
-        <v>2278600</v>
+        <v>2335000</v>
       </c>
       <c r="F72" s="3">
-        <v>2066500</v>
+        <v>2252200</v>
       </c>
       <c r="G72" s="3">
-        <v>1982500</v>
+        <v>2042600</v>
       </c>
       <c r="H72" s="3">
-        <v>1945800</v>
+        <v>1959600</v>
       </c>
       <c r="I72" s="3">
-        <v>2363600</v>
+        <v>1923300</v>
       </c>
       <c r="J72" s="3">
+        <v>2336200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2157000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2070700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2111700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2042500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1667000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1135000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1186700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1469500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1405400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1468700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1446100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1456500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1423600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1290000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3992900</v>
+        <v>3789700</v>
       </c>
       <c r="E76" s="3">
-        <v>3909900</v>
+        <v>3946700</v>
       </c>
       <c r="F76" s="3">
-        <v>3526400</v>
+        <v>3864700</v>
       </c>
       <c r="G76" s="3">
-        <v>3443200</v>
+        <v>3485600</v>
       </c>
       <c r="H76" s="3">
-        <v>3408700</v>
+        <v>3403300</v>
       </c>
       <c r="I76" s="3">
-        <v>3324900</v>
+        <v>3369200</v>
       </c>
       <c r="J76" s="3">
+        <v>3286400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3119200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2973300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3227700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3096900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2722400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2600800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2732900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3426800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3441000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3672900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3405500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3427000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3407000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3207700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>83000</v>
+        <v>187400</v>
       </c>
       <c r="E81" s="3">
-        <v>383500</v>
+        <v>82000</v>
       </c>
       <c r="F81" s="3">
-        <v>83200</v>
+        <v>379100</v>
       </c>
       <c r="G81" s="3">
-        <v>262600</v>
+        <v>82200</v>
       </c>
       <c r="H81" s="3">
-        <v>114100</v>
+        <v>259500</v>
       </c>
       <c r="I81" s="3">
-        <v>213100</v>
+        <v>112800</v>
       </c>
       <c r="J81" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>104100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-52900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>374500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>141100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>45200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>108500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>154900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-21500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>35400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>87800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-76000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55800</v>
+        <v>55600</v>
       </c>
       <c r="E83" s="3">
-        <v>47600</v>
+        <v>55200</v>
       </c>
       <c r="F83" s="3">
-        <v>47000</v>
+        <v>47100</v>
       </c>
       <c r="G83" s="3">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="H83" s="3">
-        <v>48300</v>
+        <v>49800</v>
       </c>
       <c r="I83" s="3">
-        <v>48400</v>
+        <v>47700</v>
       </c>
       <c r="J83" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K83" s="3">
         <v>47800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>44000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>40900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>41000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>38400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>46300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>49700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>59700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>52800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>53700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>51600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>57800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>27000</v>
+        <v>121400</v>
       </c>
       <c r="E89" s="3">
-        <v>425300</v>
+        <v>26700</v>
       </c>
       <c r="F89" s="3">
-        <v>150800</v>
+        <v>420300</v>
       </c>
       <c r="G89" s="3">
-        <v>350000</v>
+        <v>149000</v>
       </c>
       <c r="H89" s="3">
-        <v>517500</v>
+        <v>346000</v>
       </c>
       <c r="I89" s="3">
-        <v>341300</v>
+        <v>511500</v>
       </c>
       <c r="J89" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K89" s="3">
         <v>487700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>164000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>82700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>109100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>145200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>85100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-87100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>56400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>357600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>135400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>244300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6500</v>
+        <v>-15100</v>
       </c>
       <c r="E91" s="3">
-        <v>-8700</v>
+        <v>-6400</v>
       </c>
       <c r="F91" s="3">
-        <v>-5500</v>
+        <v>-8600</v>
       </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-5400</v>
       </c>
       <c r="H91" s="3">
-        <v>-6200</v>
+        <v>-7500</v>
       </c>
       <c r="I91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T91" s="3">
         <v>-7500</v>
       </c>
-      <c r="J91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-5900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-74400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>157500</v>
+        <v>47900</v>
       </c>
       <c r="E94" s="3">
-        <v>-384300</v>
+        <v>155700</v>
       </c>
       <c r="F94" s="3">
-        <v>448600</v>
+        <v>-379800</v>
       </c>
       <c r="G94" s="3">
-        <v>-109400</v>
+        <v>443400</v>
       </c>
       <c r="H94" s="3">
-        <v>-362100</v>
+        <v>-108100</v>
       </c>
       <c r="I94" s="3">
-        <v>-288500</v>
+        <v>-357900</v>
       </c>
       <c r="J94" s="3">
+        <v>-285200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-240400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-45200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-127200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>26900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>88300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>116500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>16900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-190400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-42000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-127100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,25 +6250,26 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-139200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-138100</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-136500</v>
       </c>
       <c r="G96" s="3">
-        <v>-117800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-116500</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -6045,49 +6278,52 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-114900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-13600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-90700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-69500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-69400</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-139700</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-545900</v>
+        <v>-169800</v>
       </c>
       <c r="E100" s="3">
-        <v>-173200</v>
+        <v>-539600</v>
       </c>
       <c r="F100" s="3">
-        <v>-273800</v>
+        <v>-171200</v>
       </c>
       <c r="G100" s="3">
-        <v>-189400</v>
+        <v>-270600</v>
       </c>
       <c r="H100" s="3">
-        <v>-66800</v>
+        <v>-187200</v>
       </c>
       <c r="I100" s="3">
-        <v>-18100</v>
+        <v>-66100</v>
       </c>
       <c r="J100" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-196100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-148200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-136500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-175700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>58900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>80200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-143200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>399100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-166500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-140600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-132600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-290300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-361400</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
-        <v>-132200</v>
+        <v>-357200</v>
       </c>
       <c r="F102" s="3">
-        <v>325500</v>
+        <v>-130700</v>
       </c>
       <c r="G102" s="3">
+        <v>321800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>50600</v>
+      </c>
+      <c r="I102" s="3">
+        <v>87500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K102" s="3">
         <v>51200</v>
       </c>
-      <c r="H102" s="3">
-        <v>88600</v>
-      </c>
-      <c r="I102" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J102" s="3">
-        <v>51200</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-29400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-16700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-107500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>102200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>121100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-142000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>114800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-93300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>26600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-39200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-173100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1880900</v>
+        <v>1607400</v>
       </c>
       <c r="E8" s="3">
-        <v>1855200</v>
+        <v>1535700</v>
       </c>
       <c r="F8" s="3">
-        <v>1432400</v>
+        <v>1889800</v>
       </c>
       <c r="G8" s="3">
-        <v>1385000</v>
+        <v>1864000</v>
       </c>
       <c r="H8" s="3">
-        <v>1337100</v>
+        <v>1439200</v>
       </c>
       <c r="I8" s="3">
+        <v>1391600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1343400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1250700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1071300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1194000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1198000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1138800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1242500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1047100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1028500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1156900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1309200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1152500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1681300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1316700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1334500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1233900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1159200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1527400</v>
+        <v>1524400</v>
       </c>
       <c r="E9" s="3">
-        <v>1530400</v>
+        <v>1150600</v>
       </c>
       <c r="F9" s="3">
-        <v>1148700</v>
+        <v>1534700</v>
       </c>
       <c r="G9" s="3">
-        <v>1037800</v>
+        <v>1537600</v>
       </c>
       <c r="H9" s="3">
-        <v>1146100</v>
+        <v>1154100</v>
       </c>
       <c r="I9" s="3">
+        <v>1042700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1151500</v>
+      </c>
+      <c r="K9" s="3">
         <v>957800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>879700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>892100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>936700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1105600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>782300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>746400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>773700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>947700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1048200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>870900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1306100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1203200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1093200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>880800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>925600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>353500</v>
+        <v>82900</v>
       </c>
       <c r="E10" s="3">
-        <v>324900</v>
+        <v>385200</v>
       </c>
       <c r="F10" s="3">
-        <v>283800</v>
+        <v>355200</v>
       </c>
       <c r="G10" s="3">
-        <v>347300</v>
+        <v>326400</v>
       </c>
       <c r="H10" s="3">
-        <v>191000</v>
+        <v>285100</v>
       </c>
       <c r="I10" s="3">
+        <v>348900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K10" s="3">
         <v>292900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>191600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>302000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>261300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>33200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>460200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>300700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>254800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>209100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>261100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>281600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>375200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>113500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>241200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>353200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>233600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,40 +1180,46 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>-52600</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-52900</v>
+      </c>
+      <c r="K14" s="3">
         <v>26500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-92500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>120000</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1193,11 +1233,11 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1613800</v>
+        <v>1594500</v>
       </c>
       <c r="E17" s="3">
-        <v>1538400</v>
+        <v>1216200</v>
       </c>
       <c r="F17" s="3">
-        <v>1016100</v>
+        <v>1621500</v>
       </c>
       <c r="G17" s="3">
-        <v>1073200</v>
+        <v>1545600</v>
       </c>
       <c r="H17" s="3">
-        <v>1064600</v>
+        <v>1020900</v>
       </c>
       <c r="I17" s="3">
+        <v>1078200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1069600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1011200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>849100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1082600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1055100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1205900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>965600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>829200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>912400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1031000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1154200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>967100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1343200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1343700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1198500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1003500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1185500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267100</v>
+        <v>12900</v>
       </c>
       <c r="E18" s="3">
-        <v>316900</v>
+        <v>319500</v>
       </c>
       <c r="F18" s="3">
-        <v>416300</v>
+        <v>268300</v>
       </c>
       <c r="G18" s="3">
-        <v>311900</v>
+        <v>318300</v>
       </c>
       <c r="H18" s="3">
-        <v>272500</v>
+        <v>418300</v>
       </c>
       <c r="I18" s="3">
+        <v>313300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>273800</v>
+      </c>
+      <c r="K18" s="3">
         <v>239600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>222200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>111400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>142900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-67100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>276800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>217900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>116200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>125900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>155000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>185400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>338100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-27000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>135900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>230400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-26400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1547,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>105300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9700</v>
       </c>
-      <c r="E20" s="3">
-        <v>-167800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>185600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-181800</v>
+        <v>-168600</v>
       </c>
       <c r="H20" s="3">
-        <v>123700</v>
+        <v>186500</v>
       </c>
       <c r="I20" s="3">
+        <v>-182700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-35800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>139500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-81800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>391500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>35700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>182300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-89000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>32400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>91500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>17600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>26000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>313100</v>
+        <v>-55100</v>
       </c>
       <c r="E21" s="3">
-        <v>204200</v>
+        <v>480400</v>
       </c>
       <c r="F21" s="3">
-        <v>649000</v>
+        <v>314500</v>
       </c>
       <c r="G21" s="3">
-        <v>176500</v>
+        <v>205200</v>
       </c>
       <c r="H21" s="3">
-        <v>446000</v>
+        <v>652100</v>
       </c>
       <c r="I21" s="3">
+        <v>177300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>448100</v>
+      </c>
+      <c r="K21" s="3">
         <v>251400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>409500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>77500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>202800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>712300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>294500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>339500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>165900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>112300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>267500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>412400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>117200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>203700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>299700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>57500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51300</v>
+        <v>46200</v>
       </c>
       <c r="E22" s="3">
-        <v>57300</v>
+        <v>43800</v>
       </c>
       <c r="F22" s="3">
-        <v>51300</v>
+        <v>51500</v>
       </c>
       <c r="G22" s="3">
-        <v>63500</v>
+        <v>57600</v>
       </c>
       <c r="H22" s="3">
-        <v>54900</v>
+        <v>51500</v>
       </c>
       <c r="I22" s="3">
+        <v>63800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K22" s="3">
         <v>60900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>52900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>61400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>55800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>59800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>53600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>53700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>63100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>63200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>73700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>69200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>85000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>88300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>101600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>118300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>123000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206100</v>
+        <v>-157600</v>
       </c>
       <c r="E23" s="3">
-        <v>91800</v>
+        <v>381000</v>
       </c>
       <c r="F23" s="3">
-        <v>550600</v>
+        <v>207100</v>
       </c>
       <c r="G23" s="3">
-        <v>66600</v>
+        <v>92200</v>
       </c>
       <c r="H23" s="3">
-        <v>341300</v>
+        <v>553200</v>
       </c>
       <c r="I23" s="3">
+        <v>66900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>342900</v>
+      </c>
+      <c r="K23" s="3">
         <v>142800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>308700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-31800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>103600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-111000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>614800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>199900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>235400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>64300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>148600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>267700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-23800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>48400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>129800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-123400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>18700</v>
+        <v>-167400</v>
       </c>
       <c r="E24" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>18800</v>
+      </c>
+      <c r="G24" s="3">
         <v>9700</v>
       </c>
-      <c r="F24" s="3">
-        <v>171500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-15700</v>
-      </c>
       <c r="H24" s="3">
-        <v>81800</v>
+        <v>172300</v>
       </c>
       <c r="I24" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>82100</v>
+      </c>
+      <c r="K24" s="3">
         <v>30000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>98000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-20600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-16100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>240300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>58700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>72300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>21700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>40100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>112700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-2400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>13000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>41900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-47400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187500</v>
+        <v>9800</v>
       </c>
       <c r="E26" s="3">
-        <v>82100</v>
+        <v>284900</v>
       </c>
       <c r="F26" s="3">
-        <v>379200</v>
+        <v>188300</v>
       </c>
       <c r="G26" s="3">
-        <v>82300</v>
+        <v>82500</v>
       </c>
       <c r="H26" s="3">
-        <v>259600</v>
+        <v>381000</v>
       </c>
       <c r="I26" s="3">
+        <v>82700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>260800</v>
+      </c>
+      <c r="K26" s="3">
         <v>112800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>210700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>104200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-94900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>374500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>141200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>163100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>42600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>108500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>155000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-21500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>35400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>87900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>187400</v>
+        <v>9700</v>
       </c>
       <c r="E27" s="3">
-        <v>82000</v>
+        <v>284800</v>
       </c>
       <c r="F27" s="3">
-        <v>379100</v>
+        <v>188300</v>
       </c>
       <c r="G27" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="H27" s="3">
-        <v>259500</v>
+        <v>380900</v>
       </c>
       <c r="I27" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K27" s="3">
         <v>112800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>210600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>104100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-94900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>374500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>141100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>155800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>42600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>108500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>154900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-21500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>35400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>87800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,61 +2236,67 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>42000</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>58500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>2600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>5000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="F32" s="3">
         <v>9700</v>
       </c>
-      <c r="E32" s="3">
-        <v>167800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-185600</v>
-      </c>
       <c r="G32" s="3">
-        <v>181800</v>
+        <v>168600</v>
       </c>
       <c r="H32" s="3">
-        <v>-123700</v>
+        <v>-186500</v>
       </c>
       <c r="I32" s="3">
+        <v>182700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-124300</v>
+      </c>
+      <c r="K32" s="3">
         <v>35800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-139500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>81800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-391500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-35700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>89000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-32400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-91500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-17600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>187400</v>
+        <v>9700</v>
       </c>
       <c r="E33" s="3">
-        <v>82000</v>
+        <v>284800</v>
       </c>
       <c r="F33" s="3">
-        <v>379100</v>
+        <v>188300</v>
       </c>
       <c r="G33" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="H33" s="3">
-        <v>259500</v>
+        <v>380900</v>
       </c>
       <c r="I33" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K33" s="3">
         <v>112800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>210600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>104100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-52900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>374500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>141100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>214200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>45200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>108500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>154900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-21500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>35400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>87800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>187400</v>
+        <v>9700</v>
       </c>
       <c r="E35" s="3">
-        <v>82000</v>
+        <v>284800</v>
       </c>
       <c r="F35" s="3">
-        <v>379100</v>
+        <v>188300</v>
       </c>
       <c r="G35" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="H35" s="3">
-        <v>259500</v>
+        <v>380900</v>
       </c>
       <c r="I35" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K35" s="3">
         <v>112800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>210600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>104100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-52900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>374500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>141100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>214200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>45200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>108500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>154900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-21500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>35400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>87800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,226 +2919,246 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>160700</v>
+        <v>365500</v>
       </c>
       <c r="E41" s="3">
-        <v>161200</v>
+        <v>275800</v>
       </c>
       <c r="F41" s="3">
-        <v>518400</v>
+        <v>161500</v>
       </c>
       <c r="G41" s="3">
-        <v>649100</v>
+        <v>162000</v>
       </c>
       <c r="H41" s="3">
-        <v>327300</v>
+        <v>520900</v>
       </c>
       <c r="I41" s="3">
+        <v>652200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>328900</v>
+      </c>
+      <c r="K41" s="3">
         <v>276700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>189200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>156800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>99000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>130400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>132500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>141000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>158900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>276300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>219700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>98600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>264100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>149300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>242600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>215900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>246900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>335800</v>
+        <v>349800</v>
       </c>
       <c r="E42" s="3">
-        <v>455500</v>
+        <v>190900</v>
       </c>
       <c r="F42" s="3">
-        <v>675600</v>
+        <v>337400</v>
       </c>
       <c r="G42" s="3">
-        <v>436400</v>
+        <v>457600</v>
       </c>
       <c r="H42" s="3">
-        <v>654500</v>
+        <v>678800</v>
       </c>
       <c r="I42" s="3">
+        <v>438500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>657600</v>
+      </c>
+      <c r="K42" s="3">
         <v>718600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>492700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>302400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>139000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>164900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>135800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>105200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>141700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>126700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>93200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>127700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>298600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>291600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>381900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>312700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>342800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1610000</v>
+        <v>1571100</v>
       </c>
       <c r="E43" s="3">
-        <v>1660000</v>
+        <v>1620100</v>
       </c>
       <c r="F43" s="3">
-        <v>1466000</v>
+        <v>1617600</v>
       </c>
       <c r="G43" s="3">
-        <v>1520200</v>
+        <v>1667800</v>
       </c>
       <c r="H43" s="3">
-        <v>1543700</v>
+        <v>1472900</v>
       </c>
       <c r="I43" s="3">
+        <v>1527300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1498700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1409600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1119900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1195900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1112600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>917700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>963100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>956400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1106600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1123800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1085700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1315800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1334900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1255000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1318800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1221900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>6300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -2986,408 +3178,444 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="L44" s="3">
-        <v>7300</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>7100</v>
       </c>
       <c r="N44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="P44" s="3">
         <v>5900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>6400</v>
       </c>
       <c r="Q44" s="3">
         <v>5700</v>
       </c>
       <c r="R44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="T44" s="3">
         <v>7900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>8200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>9800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>12500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>12300</v>
-      </c>
-      <c r="W44" s="3">
-        <v>12300</v>
       </c>
       <c r="X44" s="3">
         <v>12300</v>
       </c>
       <c r="Y44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AA44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>415600</v>
+        <v>437400</v>
       </c>
       <c r="E45" s="3">
-        <v>305500</v>
+        <v>366000</v>
       </c>
       <c r="F45" s="3">
-        <v>241000</v>
+        <v>417600</v>
       </c>
       <c r="G45" s="3">
-        <v>251000</v>
+        <v>306900</v>
       </c>
       <c r="H45" s="3">
-        <v>485000</v>
+        <v>242100</v>
       </c>
       <c r="I45" s="3">
+        <v>252200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>487300</v>
+      </c>
+      <c r="K45" s="3">
         <v>515600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>666900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>478800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>549600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>516600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3698200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3700200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3695400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>242700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>247800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>294200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>225700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>127200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>166100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>231600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2522200</v>
+        <v>2730200</v>
       </c>
       <c r="E46" s="3">
-        <v>2582200</v>
+        <v>2452900</v>
       </c>
       <c r="F46" s="3">
-        <v>2901000</v>
+        <v>2534100</v>
       </c>
       <c r="G46" s="3">
-        <v>2856700</v>
+        <v>2594400</v>
       </c>
       <c r="H46" s="3">
-        <v>3010600</v>
+        <v>2914700</v>
       </c>
       <c r="I46" s="3">
+        <v>2870100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>3024800</v>
+      </c>
+      <c r="K46" s="3">
         <v>3009600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2758400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2064900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1912100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1931600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4890200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4915200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4958800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1758000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1692500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1614300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>2188800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2014000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2018900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2025900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2055500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3859500</v>
+        <v>3809100</v>
       </c>
       <c r="E47" s="3">
-        <v>4031900</v>
+        <v>3822100</v>
       </c>
       <c r="F47" s="3">
-        <v>3892100</v>
+        <v>3877700</v>
       </c>
       <c r="G47" s="3">
-        <v>3734900</v>
+        <v>4050900</v>
       </c>
       <c r="H47" s="3">
-        <v>3762900</v>
+        <v>3910400</v>
       </c>
       <c r="I47" s="3">
+        <v>3752500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3780600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3560700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3649700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>4006600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4051500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4060400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>3740300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2784500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2790500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3292800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4357200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>4151900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4588500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4512800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4377600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>4366800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4249400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>515200</v>
+        <v>503700</v>
       </c>
       <c r="E48" s="3">
-        <v>511900</v>
+        <v>509000</v>
       </c>
       <c r="F48" s="3">
-        <v>502800</v>
+        <v>517600</v>
       </c>
       <c r="G48" s="3">
-        <v>505200</v>
+        <v>514300</v>
       </c>
       <c r="H48" s="3">
-        <v>510200</v>
+        <v>505100</v>
       </c>
       <c r="I48" s="3">
+        <v>507600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>512600</v>
+      </c>
+      <c r="K48" s="3">
         <v>513200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>519000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>529900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>503700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>536100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>515100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>522600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>474800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>445800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>565300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>636500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>708200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>717100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>723800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>733000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>936500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2523000</v>
+        <v>2580300</v>
       </c>
       <c r="E49" s="3">
-        <v>2521800</v>
+        <v>2546400</v>
       </c>
       <c r="F49" s="3">
-        <v>2479300</v>
+        <v>2535000</v>
       </c>
       <c r="G49" s="3">
-        <v>2295000</v>
+        <v>2533700</v>
       </c>
       <c r="H49" s="3">
-        <v>2300300</v>
+        <v>2491000</v>
       </c>
       <c r="I49" s="3">
+        <v>2305800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2311200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2296300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2287100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2309000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2147000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2183200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1897900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1901900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1922700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2072000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2611900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2607900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2860200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2835000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2804500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2780500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2684100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3762,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>717600</v>
+        <v>792200</v>
       </c>
       <c r="E52" s="3">
-        <v>698300</v>
+        <v>663600</v>
       </c>
       <c r="F52" s="3">
-        <v>711700</v>
+        <v>720900</v>
       </c>
       <c r="G52" s="3">
-        <v>933800</v>
+        <v>701600</v>
       </c>
       <c r="H52" s="3">
-        <v>950400</v>
+        <v>715000</v>
       </c>
       <c r="I52" s="3">
+        <v>938200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>954900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1007000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1018700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1017800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>717700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>679500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>564500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>537800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>531200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>420500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>506300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>478900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>483700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>645900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>821600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>801200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>502700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10137500</v>
+        <v>10415400</v>
       </c>
       <c r="E54" s="3">
-        <v>10346100</v>
+        <v>9993900</v>
       </c>
       <c r="F54" s="3">
-        <v>10486800</v>
+        <v>10185400</v>
       </c>
       <c r="G54" s="3">
-        <v>10325500</v>
+        <v>10394900</v>
       </c>
       <c r="H54" s="3">
-        <v>10534300</v>
+        <v>10536300</v>
       </c>
       <c r="I54" s="3">
+        <v>10374300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10584100</v>
+      </c>
+      <c r="K54" s="3">
         <v>10386900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10232800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9928200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>9332100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9390800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11608000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10662000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10678100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>7989100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9733200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9489500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10829400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10724900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10746400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10707500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10428300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +4055,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>522700</v>
+        <v>466900</v>
       </c>
       <c r="E57" s="3">
-        <v>656500</v>
+        <v>438900</v>
       </c>
       <c r="F57" s="3">
-        <v>463900</v>
+        <v>525100</v>
       </c>
       <c r="G57" s="3">
-        <v>381100</v>
+        <v>659600</v>
       </c>
       <c r="H57" s="3">
-        <v>459400</v>
+        <v>466100</v>
       </c>
       <c r="I57" s="3">
+        <v>382900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>461500</v>
+      </c>
+      <c r="K57" s="3">
         <v>387800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>378900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>339500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>384200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>386200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>325900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>356300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>321300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>452300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>502700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>379100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>600600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>560600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>491200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>414000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>481200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>297400</v>
+        <v>204000</v>
       </c>
       <c r="E58" s="3">
-        <v>319700</v>
+        <v>229300</v>
       </c>
       <c r="F58" s="3">
-        <v>281500</v>
+        <v>298800</v>
       </c>
       <c r="G58" s="3">
-        <v>325800</v>
+        <v>321200</v>
       </c>
       <c r="H58" s="3">
-        <v>410400</v>
+        <v>282800</v>
       </c>
       <c r="I58" s="3">
+        <v>327400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>412400</v>
+      </c>
+      <c r="K58" s="3">
         <v>475900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>599500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>620500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>522900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>537000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>538400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>485700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>392000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>442600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>640000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>604400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>607800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1333000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1331300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1273400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1199900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1261700</v>
+        <v>1519500</v>
       </c>
       <c r="E59" s="3">
-        <v>1067900</v>
+        <v>1220800</v>
       </c>
       <c r="F59" s="3">
-        <v>1114200</v>
+        <v>1267700</v>
       </c>
       <c r="G59" s="3">
-        <v>1057300</v>
+        <v>1073000</v>
       </c>
       <c r="H59" s="3">
-        <v>1017700</v>
+        <v>1119500</v>
       </c>
       <c r="I59" s="3">
+        <v>1062300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1022500</v>
+      </c>
+      <c r="K59" s="3">
         <v>904600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>784900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>568200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>565500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>535000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3446900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3365200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3460000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>598400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>692500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>779200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1012400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1272700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1197100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1230500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1158800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2081700</v>
+        <v>2190300</v>
       </c>
       <c r="E60" s="3">
-        <v>2044100</v>
+        <v>1889100</v>
       </c>
       <c r="F60" s="3">
-        <v>1859600</v>
+        <v>2091600</v>
       </c>
       <c r="G60" s="3">
-        <v>1764300</v>
+        <v>2053800</v>
       </c>
       <c r="H60" s="3">
-        <v>1887500</v>
+        <v>1868400</v>
       </c>
       <c r="I60" s="3">
+        <v>1772600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1896400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1768400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1763400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1528200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1471100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1458300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4311200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4207200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4173400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1493400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1835200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1762700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2220800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3166300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3019600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2917900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2839900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1963600</v>
+        <v>2028500</v>
       </c>
       <c r="E61" s="3">
-        <v>1941000</v>
+        <v>1743500</v>
       </c>
       <c r="F61" s="3">
-        <v>2352700</v>
+        <v>1972900</v>
       </c>
       <c r="G61" s="3">
-        <v>2573200</v>
+        <v>1950100</v>
       </c>
       <c r="H61" s="3">
-        <v>2559400</v>
+        <v>2363800</v>
       </c>
       <c r="I61" s="3">
+        <v>2585300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2571500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2709000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2540100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2539200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2259300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2368600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1973800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2075500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2243200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2405700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2770300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2594600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3083500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2270500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2413600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2502500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2565700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2301400</v>
+        <v>2210500</v>
       </c>
       <c r="E62" s="3">
-        <v>2413300</v>
+        <v>2315700</v>
       </c>
       <c r="F62" s="3">
-        <v>2408900</v>
+        <v>2312200</v>
       </c>
       <c r="G62" s="3">
-        <v>2501500</v>
+        <v>2424700</v>
       </c>
       <c r="H62" s="3">
-        <v>2683200</v>
+        <v>2420300</v>
       </c>
       <c r="I62" s="3">
+        <v>2513300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2695900</v>
+      </c>
+      <c r="K62" s="3">
         <v>2539300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2642000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2740700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2749700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2335300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1983400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1415900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1417800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1356300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1699900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1690400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1851100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1881500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1885300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1879000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1813900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6347800</v>
+        <v>6430300</v>
       </c>
       <c r="E66" s="3">
-        <v>6399400</v>
+        <v>5949400</v>
       </c>
       <c r="F66" s="3">
-        <v>6622200</v>
+        <v>6377700</v>
       </c>
       <c r="G66" s="3">
-        <v>6839900</v>
+        <v>6429600</v>
       </c>
       <c r="H66" s="3">
-        <v>7131000</v>
+        <v>6653400</v>
       </c>
       <c r="I66" s="3">
+        <v>6872200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7164700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7017600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6946300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6809000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6358800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6163000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>8511100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7939600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>8077200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5256200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6306400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6048600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>7156500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>7319400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7319400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7300500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7220500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2132500</v>
+        <v>1824200</v>
       </c>
       <c r="E72" s="3">
-        <v>2335000</v>
+        <v>2380000</v>
       </c>
       <c r="F72" s="3">
-        <v>2252200</v>
+        <v>2142500</v>
       </c>
       <c r="G72" s="3">
-        <v>2042600</v>
+        <v>2346000</v>
       </c>
       <c r="H72" s="3">
-        <v>1959600</v>
+        <v>2262900</v>
       </c>
       <c r="I72" s="3">
+        <v>2052300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1968900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1923300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2336200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2157000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>2070700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2111700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2042500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1667000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1135000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1186700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1469500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1405400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1468700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1446100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1456500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1423600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1290000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3789700</v>
+        <v>3985100</v>
       </c>
       <c r="E76" s="3">
-        <v>3946700</v>
+        <v>4044500</v>
       </c>
       <c r="F76" s="3">
-        <v>3864700</v>
+        <v>3807600</v>
       </c>
       <c r="G76" s="3">
-        <v>3485600</v>
+        <v>3965300</v>
       </c>
       <c r="H76" s="3">
-        <v>3403300</v>
+        <v>3882900</v>
       </c>
       <c r="I76" s="3">
+        <v>3502000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3419400</v>
+      </c>
+      <c r="K76" s="3">
         <v>3369200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3286400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3119200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2973300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3227700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3096900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2722400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2600800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2732900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3426800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3441000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3672900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3405500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3427000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3407000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3207700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>187400</v>
+        <v>9700</v>
       </c>
       <c r="E81" s="3">
-        <v>82000</v>
+        <v>284800</v>
       </c>
       <c r="F81" s="3">
-        <v>379100</v>
+        <v>188300</v>
       </c>
       <c r="G81" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="H81" s="3">
-        <v>259500</v>
+        <v>380900</v>
       </c>
       <c r="I81" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>260700</v>
+      </c>
+      <c r="K81" s="3">
         <v>112800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>210600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>104100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-52900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>374500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>141100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>214200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>45200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>108500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>154900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-21500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>35400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>87800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5812,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E83" s="3">
         <v>55600</v>
       </c>
-      <c r="E83" s="3">
-        <v>55200</v>
-      </c>
       <c r="F83" s="3">
-        <v>47100</v>
+        <v>55900</v>
       </c>
       <c r="G83" s="3">
-        <v>46400</v>
+        <v>55400</v>
       </c>
       <c r="H83" s="3">
-        <v>49800</v>
+        <v>47300</v>
       </c>
       <c r="I83" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K83" s="3">
         <v>47700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>47900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>47800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>43400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>45800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>44000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>40900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>41000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>38400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>46300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>49700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>59700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>52800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>53700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>51600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>57800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>121400</v>
+        <v>396700</v>
       </c>
       <c r="E89" s="3">
-        <v>26700</v>
+        <v>191200</v>
       </c>
       <c r="F89" s="3">
-        <v>420300</v>
+        <v>122000</v>
       </c>
       <c r="G89" s="3">
-        <v>149000</v>
+        <v>26800</v>
       </c>
       <c r="H89" s="3">
-        <v>346000</v>
+        <v>422300</v>
       </c>
       <c r="I89" s="3">
+        <v>149700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>347600</v>
+      </c>
+      <c r="K89" s="3">
         <v>511500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>337300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>487700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>164000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>12400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>82700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>109100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>41300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>145200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>85100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-87100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>56400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>357600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>135400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>244300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15100</v>
+        <v>-6800</v>
       </c>
       <c r="E91" s="3">
-        <v>-6400</v>
+        <v>-2400</v>
       </c>
       <c r="F91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-8600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-7500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-4700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-5800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-3200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-74400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47900</v>
+        <v>-285500</v>
       </c>
       <c r="E94" s="3">
-        <v>155700</v>
+        <v>89200</v>
       </c>
       <c r="F94" s="3">
-        <v>-379800</v>
+        <v>48100</v>
       </c>
       <c r="G94" s="3">
-        <v>443400</v>
+        <v>156400</v>
       </c>
       <c r="H94" s="3">
-        <v>-108100</v>
+        <v>-381600</v>
       </c>
       <c r="I94" s="3">
+        <v>445500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-357900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-285200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-240400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-45200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-127200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-57800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>26900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-101800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-44200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>88300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>116500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>16900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-190400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-42000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-127100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6717,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-139200</v>
+        <v>-183100</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-136500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
-        <v>-116500</v>
+        <v>-137200</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-117000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-114900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-13600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-90700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-69500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-69400</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-139700</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-169800</v>
+        <v>-21500</v>
       </c>
       <c r="E100" s="3">
-        <v>-539600</v>
+        <v>-166000</v>
       </c>
       <c r="F100" s="3">
-        <v>-171200</v>
+        <v>-170600</v>
       </c>
       <c r="G100" s="3">
-        <v>-270600</v>
+        <v>-542100</v>
       </c>
       <c r="H100" s="3">
-        <v>-187200</v>
+        <v>-172000</v>
       </c>
       <c r="I100" s="3">
+        <v>-271900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-66100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-17900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-196100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-148200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>104800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-33500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-136500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-175700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>58900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>80200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-143200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>399100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-166500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-140600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-132600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-290300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>89700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
-        <v>-357200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-130700</v>
-      </c>
       <c r="G102" s="3">
-        <v>321800</v>
+        <v>-358900</v>
       </c>
       <c r="H102" s="3">
-        <v>50600</v>
+        <v>-131300</v>
       </c>
       <c r="I102" s="3">
+        <v>323300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K102" s="3">
         <v>87500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>34200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>51200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-29400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-10000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-8500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-107500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>102200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>121100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-142000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>114800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-93300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>26600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-39200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-173100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1607400</v>
+        <v>1536600</v>
       </c>
       <c r="E8" s="3">
-        <v>1535700</v>
+        <v>1468200</v>
       </c>
       <c r="F8" s="3">
-        <v>1889800</v>
+        <v>1806700</v>
       </c>
       <c r="G8" s="3">
-        <v>1864000</v>
+        <v>1782000</v>
       </c>
       <c r="H8" s="3">
-        <v>1439200</v>
+        <v>1375900</v>
       </c>
       <c r="I8" s="3">
-        <v>1391600</v>
+        <v>1330300</v>
       </c>
       <c r="J8" s="3">
-        <v>1343400</v>
+        <v>1284300</v>
       </c>
       <c r="K8" s="3">
         <v>1250700</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1524400</v>
+        <v>1457300</v>
       </c>
       <c r="E9" s="3">
-        <v>1150600</v>
+        <v>1099900</v>
       </c>
       <c r="F9" s="3">
-        <v>1534700</v>
+        <v>1467100</v>
       </c>
       <c r="G9" s="3">
-        <v>1537600</v>
+        <v>1469900</v>
       </c>
       <c r="H9" s="3">
-        <v>1154100</v>
+        <v>1103300</v>
       </c>
       <c r="I9" s="3">
-        <v>1042700</v>
+        <v>996800</v>
       </c>
       <c r="J9" s="3">
-        <v>1151500</v>
+        <v>1100800</v>
       </c>
       <c r="K9" s="3">
         <v>957800</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>82900</v>
+        <v>79300</v>
       </c>
       <c r="E10" s="3">
-        <v>385200</v>
+        <v>368200</v>
       </c>
       <c r="F10" s="3">
-        <v>355200</v>
+        <v>339500</v>
       </c>
       <c r="G10" s="3">
-        <v>326400</v>
+        <v>312000</v>
       </c>
       <c r="H10" s="3">
-        <v>285100</v>
+        <v>272600</v>
       </c>
       <c r="I10" s="3">
-        <v>348900</v>
+        <v>333500</v>
       </c>
       <c r="J10" s="3">
-        <v>191900</v>
+        <v>183500</v>
       </c>
       <c r="K10" s="3">
         <v>292900</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>-52900</v>
+        <v>-50600</v>
       </c>
       <c r="K14" s="3">
         <v>26500</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1594500</v>
+        <v>1524400</v>
       </c>
       <c r="E17" s="3">
-        <v>1216200</v>
+        <v>1162700</v>
       </c>
       <c r="F17" s="3">
-        <v>1621500</v>
+        <v>1550100</v>
       </c>
       <c r="G17" s="3">
-        <v>1545600</v>
+        <v>1477600</v>
       </c>
       <c r="H17" s="3">
-        <v>1020900</v>
+        <v>976000</v>
       </c>
       <c r="I17" s="3">
-        <v>1078200</v>
+        <v>1030800</v>
       </c>
       <c r="J17" s="3">
-        <v>1069600</v>
+        <v>1022500</v>
       </c>
       <c r="K17" s="3">
         <v>1011200</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12900</v>
+        <v>12300</v>
       </c>
       <c r="E18" s="3">
-        <v>319500</v>
+        <v>305500</v>
       </c>
       <c r="F18" s="3">
-        <v>268300</v>
+        <v>256500</v>
       </c>
       <c r="G18" s="3">
-        <v>318300</v>
+        <v>304300</v>
       </c>
       <c r="H18" s="3">
-        <v>418300</v>
+        <v>399900</v>
       </c>
       <c r="I18" s="3">
-        <v>313300</v>
+        <v>299500</v>
       </c>
       <c r="J18" s="3">
-        <v>273800</v>
+        <v>261800</v>
       </c>
       <c r="K18" s="3">
         <v>239600</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-124300</v>
+        <v>-118800</v>
       </c>
       <c r="E20" s="3">
-        <v>105300</v>
+        <v>100600</v>
       </c>
       <c r="F20" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="G20" s="3">
-        <v>-168600</v>
+        <v>-161200</v>
       </c>
       <c r="H20" s="3">
-        <v>186500</v>
+        <v>178300</v>
       </c>
       <c r="I20" s="3">
-        <v>-182700</v>
+        <v>-174600</v>
       </c>
       <c r="J20" s="3">
-        <v>124300</v>
+        <v>118800</v>
       </c>
       <c r="K20" s="3">
         <v>-35800</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-55100</v>
+        <v>-52600</v>
       </c>
       <c r="E21" s="3">
-        <v>480400</v>
+        <v>459200</v>
       </c>
       <c r="F21" s="3">
-        <v>314500</v>
+        <v>300700</v>
       </c>
       <c r="G21" s="3">
-        <v>205200</v>
+        <v>196200</v>
       </c>
       <c r="H21" s="3">
-        <v>652100</v>
+        <v>623400</v>
       </c>
       <c r="I21" s="3">
-        <v>177300</v>
+        <v>169500</v>
       </c>
       <c r="J21" s="3">
-        <v>448100</v>
+        <v>428400</v>
       </c>
       <c r="K21" s="3">
         <v>251400</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46200</v>
+        <v>44100</v>
       </c>
       <c r="E22" s="3">
-        <v>43800</v>
+        <v>41900</v>
       </c>
       <c r="F22" s="3">
-        <v>51500</v>
+        <v>49300</v>
       </c>
       <c r="G22" s="3">
-        <v>57600</v>
+        <v>55000</v>
       </c>
       <c r="H22" s="3">
-        <v>51500</v>
+        <v>49300</v>
       </c>
       <c r="I22" s="3">
-        <v>63800</v>
+        <v>61000</v>
       </c>
       <c r="J22" s="3">
-        <v>55200</v>
+        <v>52800</v>
       </c>
       <c r="K22" s="3">
         <v>60900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-157600</v>
+        <v>-150700</v>
       </c>
       <c r="E23" s="3">
-        <v>381000</v>
+        <v>364300</v>
       </c>
       <c r="F23" s="3">
-        <v>207100</v>
+        <v>198000</v>
       </c>
       <c r="G23" s="3">
-        <v>92200</v>
+        <v>88200</v>
       </c>
       <c r="H23" s="3">
-        <v>553200</v>
+        <v>528900</v>
       </c>
       <c r="I23" s="3">
-        <v>66900</v>
+        <v>63900</v>
       </c>
       <c r="J23" s="3">
-        <v>342900</v>
+        <v>327800</v>
       </c>
       <c r="K23" s="3">
         <v>142800</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-167400</v>
+        <v>-160000</v>
       </c>
       <c r="E24" s="3">
-        <v>96200</v>
+        <v>92000</v>
       </c>
       <c r="F24" s="3">
-        <v>18800</v>
+        <v>17900</v>
       </c>
       <c r="G24" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="H24" s="3">
-        <v>172300</v>
+        <v>164700</v>
       </c>
       <c r="I24" s="3">
-        <v>-15800</v>
+        <v>-15100</v>
       </c>
       <c r="J24" s="3">
-        <v>82100</v>
+        <v>78500</v>
       </c>
       <c r="K24" s="3">
         <v>30000</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="E26" s="3">
-        <v>284900</v>
+        <v>272300</v>
       </c>
       <c r="F26" s="3">
-        <v>188300</v>
+        <v>180100</v>
       </c>
       <c r="G26" s="3">
-        <v>82500</v>
+        <v>78900</v>
       </c>
       <c r="H26" s="3">
-        <v>381000</v>
+        <v>364200</v>
       </c>
       <c r="I26" s="3">
-        <v>82700</v>
+        <v>79000</v>
       </c>
       <c r="J26" s="3">
-        <v>260800</v>
+        <v>249300</v>
       </c>
       <c r="K26" s="3">
         <v>112800</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E27" s="3">
-        <v>284800</v>
+        <v>272300</v>
       </c>
       <c r="F27" s="3">
-        <v>188300</v>
+        <v>180000</v>
       </c>
       <c r="G27" s="3">
-        <v>82400</v>
+        <v>78800</v>
       </c>
       <c r="H27" s="3">
-        <v>380900</v>
+        <v>364100</v>
       </c>
       <c r="I27" s="3">
-        <v>82600</v>
+        <v>79000</v>
       </c>
       <c r="J27" s="3">
-        <v>260700</v>
+        <v>249300</v>
       </c>
       <c r="K27" s="3">
         <v>112800</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>124300</v>
+        <v>118800</v>
       </c>
       <c r="E32" s="3">
-        <v>-105300</v>
+        <v>-100600</v>
       </c>
       <c r="F32" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="G32" s="3">
-        <v>168600</v>
+        <v>161200</v>
       </c>
       <c r="H32" s="3">
-        <v>-186500</v>
+        <v>-178300</v>
       </c>
       <c r="I32" s="3">
-        <v>182700</v>
+        <v>174600</v>
       </c>
       <c r="J32" s="3">
-        <v>-124300</v>
+        <v>-118800</v>
       </c>
       <c r="K32" s="3">
         <v>35800</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E33" s="3">
-        <v>284800</v>
+        <v>272300</v>
       </c>
       <c r="F33" s="3">
-        <v>188300</v>
+        <v>180000</v>
       </c>
       <c r="G33" s="3">
-        <v>82400</v>
+        <v>78800</v>
       </c>
       <c r="H33" s="3">
-        <v>380900</v>
+        <v>364100</v>
       </c>
       <c r="I33" s="3">
-        <v>82600</v>
+        <v>79000</v>
       </c>
       <c r="J33" s="3">
-        <v>260700</v>
+        <v>249300</v>
       </c>
       <c r="K33" s="3">
         <v>112800</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E35" s="3">
-        <v>284800</v>
+        <v>272300</v>
       </c>
       <c r="F35" s="3">
-        <v>188300</v>
+        <v>180000</v>
       </c>
       <c r="G35" s="3">
-        <v>82400</v>
+        <v>78800</v>
       </c>
       <c r="H35" s="3">
-        <v>380900</v>
+        <v>364100</v>
       </c>
       <c r="I35" s="3">
-        <v>82600</v>
+        <v>79000</v>
       </c>
       <c r="J35" s="3">
-        <v>260700</v>
+        <v>249300</v>
       </c>
       <c r="K35" s="3">
         <v>112800</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>365500</v>
+        <v>349400</v>
       </c>
       <c r="E41" s="3">
-        <v>275800</v>
+        <v>263700</v>
       </c>
       <c r="F41" s="3">
-        <v>161500</v>
+        <v>154400</v>
       </c>
       <c r="G41" s="3">
-        <v>162000</v>
+        <v>154900</v>
       </c>
       <c r="H41" s="3">
-        <v>520900</v>
+        <v>498000</v>
       </c>
       <c r="I41" s="3">
-        <v>652200</v>
+        <v>623500</v>
       </c>
       <c r="J41" s="3">
-        <v>328900</v>
+        <v>314400</v>
       </c>
       <c r="K41" s="3">
         <v>276700</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>349800</v>
+        <v>334400</v>
       </c>
       <c r="E42" s="3">
-        <v>190900</v>
+        <v>182500</v>
       </c>
       <c r="F42" s="3">
-        <v>337400</v>
+        <v>322600</v>
       </c>
       <c r="G42" s="3">
-        <v>457600</v>
+        <v>437500</v>
       </c>
       <c r="H42" s="3">
-        <v>678800</v>
+        <v>648900</v>
       </c>
       <c r="I42" s="3">
-        <v>438500</v>
+        <v>419200</v>
       </c>
       <c r="J42" s="3">
-        <v>657600</v>
+        <v>628700</v>
       </c>
       <c r="K42" s="3">
         <v>718600</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1571100</v>
+        <v>1502000</v>
       </c>
       <c r="E43" s="3">
-        <v>1620100</v>
+        <v>1548800</v>
       </c>
       <c r="F43" s="3">
-        <v>1617600</v>
+        <v>1546500</v>
       </c>
       <c r="G43" s="3">
-        <v>1667800</v>
+        <v>1594500</v>
       </c>
       <c r="H43" s="3">
-        <v>1472900</v>
+        <v>1408100</v>
       </c>
       <c r="I43" s="3">
-        <v>1527300</v>
+        <v>1460100</v>
       </c>
       <c r="J43" s="3">
-        <v>1551000</v>
+        <v>1482800</v>
       </c>
       <c r="K43" s="3">
         <v>1498700</v>
@@ -3158,7 +3158,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>8</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>437400</v>
+        <v>418200</v>
       </c>
       <c r="E45" s="3">
-        <v>366000</v>
+        <v>349900</v>
       </c>
       <c r="F45" s="3">
-        <v>417600</v>
+        <v>399200</v>
       </c>
       <c r="G45" s="3">
-        <v>306900</v>
+        <v>293400</v>
       </c>
       <c r="H45" s="3">
-        <v>242100</v>
+        <v>231500</v>
       </c>
       <c r="I45" s="3">
-        <v>252200</v>
+        <v>241100</v>
       </c>
       <c r="J45" s="3">
-        <v>487300</v>
+        <v>465800</v>
       </c>
       <c r="K45" s="3">
         <v>515600</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2730200</v>
+        <v>2610000</v>
       </c>
       <c r="E46" s="3">
-        <v>2452900</v>
+        <v>2344900</v>
       </c>
       <c r="F46" s="3">
-        <v>2534100</v>
+        <v>2422700</v>
       </c>
       <c r="G46" s="3">
-        <v>2594400</v>
+        <v>2480200</v>
       </c>
       <c r="H46" s="3">
-        <v>2914700</v>
+        <v>2786500</v>
       </c>
       <c r="I46" s="3">
-        <v>2870100</v>
+        <v>2743900</v>
       </c>
       <c r="J46" s="3">
-        <v>3024800</v>
+        <v>2891700</v>
       </c>
       <c r="K46" s="3">
         <v>3009600</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3809100</v>
+        <v>3641500</v>
       </c>
       <c r="E47" s="3">
-        <v>3822100</v>
+        <v>3653900</v>
       </c>
       <c r="F47" s="3">
-        <v>3877700</v>
+        <v>3707100</v>
       </c>
       <c r="G47" s="3">
-        <v>4050900</v>
+        <v>3872700</v>
       </c>
       <c r="H47" s="3">
-        <v>3910400</v>
+        <v>3738400</v>
       </c>
       <c r="I47" s="3">
-        <v>3752500</v>
+        <v>3587400</v>
       </c>
       <c r="J47" s="3">
-        <v>3780600</v>
+        <v>3614300</v>
       </c>
       <c r="K47" s="3">
         <v>3560700</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>503700</v>
+        <v>481600</v>
       </c>
       <c r="E48" s="3">
-        <v>509000</v>
+        <v>486600</v>
       </c>
       <c r="F48" s="3">
-        <v>517600</v>
+        <v>494800</v>
       </c>
       <c r="G48" s="3">
-        <v>514300</v>
+        <v>491700</v>
       </c>
       <c r="H48" s="3">
-        <v>505100</v>
+        <v>482900</v>
       </c>
       <c r="I48" s="3">
-        <v>507600</v>
+        <v>485300</v>
       </c>
       <c r="J48" s="3">
-        <v>512600</v>
+        <v>490000</v>
       </c>
       <c r="K48" s="3">
         <v>513200</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2580300</v>
+        <v>2466800</v>
       </c>
       <c r="E49" s="3">
-        <v>2546400</v>
+        <v>2434400</v>
       </c>
       <c r="F49" s="3">
-        <v>2535000</v>
+        <v>2423400</v>
       </c>
       <c r="G49" s="3">
-        <v>2533700</v>
+        <v>2422300</v>
       </c>
       <c r="H49" s="3">
-        <v>2491000</v>
+        <v>2381400</v>
       </c>
       <c r="I49" s="3">
-        <v>2305800</v>
+        <v>2204300</v>
       </c>
       <c r="J49" s="3">
-        <v>2311200</v>
+        <v>2209500</v>
       </c>
       <c r="K49" s="3">
         <v>2296300</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>792200</v>
+        <v>757300</v>
       </c>
       <c r="E52" s="3">
-        <v>663600</v>
+        <v>634400</v>
       </c>
       <c r="F52" s="3">
-        <v>720900</v>
+        <v>689200</v>
       </c>
       <c r="G52" s="3">
-        <v>701600</v>
+        <v>670700</v>
       </c>
       <c r="H52" s="3">
-        <v>715000</v>
+        <v>683600</v>
       </c>
       <c r="I52" s="3">
-        <v>938200</v>
+        <v>897000</v>
       </c>
       <c r="J52" s="3">
-        <v>954900</v>
+        <v>912900</v>
       </c>
       <c r="K52" s="3">
         <v>1007000</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10415400</v>
+        <v>9957200</v>
       </c>
       <c r="E54" s="3">
-        <v>9993900</v>
+        <v>9554200</v>
       </c>
       <c r="F54" s="3">
-        <v>10185400</v>
+        <v>9737300</v>
       </c>
       <c r="G54" s="3">
-        <v>10394900</v>
+        <v>9937600</v>
       </c>
       <c r="H54" s="3">
-        <v>10536300</v>
+        <v>10072800</v>
       </c>
       <c r="I54" s="3">
-        <v>10374300</v>
+        <v>9917800</v>
       </c>
       <c r="J54" s="3">
-        <v>10584100</v>
+        <v>10118400</v>
       </c>
       <c r="K54" s="3">
         <v>10386900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>466900</v>
+        <v>446300</v>
       </c>
       <c r="E57" s="3">
-        <v>438900</v>
+        <v>419600</v>
       </c>
       <c r="F57" s="3">
-        <v>525100</v>
+        <v>502000</v>
       </c>
       <c r="G57" s="3">
-        <v>659600</v>
+        <v>630600</v>
       </c>
       <c r="H57" s="3">
-        <v>466100</v>
+        <v>445600</v>
       </c>
       <c r="I57" s="3">
-        <v>382900</v>
+        <v>366100</v>
       </c>
       <c r="J57" s="3">
-        <v>461500</v>
+        <v>441200</v>
       </c>
       <c r="K57" s="3">
         <v>387800</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>204000</v>
+        <v>195000</v>
       </c>
       <c r="E58" s="3">
-        <v>229300</v>
+        <v>219300</v>
       </c>
       <c r="F58" s="3">
-        <v>298800</v>
+        <v>285600</v>
       </c>
       <c r="G58" s="3">
-        <v>321200</v>
+        <v>307100</v>
       </c>
       <c r="H58" s="3">
-        <v>282800</v>
+        <v>270400</v>
       </c>
       <c r="I58" s="3">
-        <v>327400</v>
+        <v>313000</v>
       </c>
       <c r="J58" s="3">
-        <v>412400</v>
+        <v>394200</v>
       </c>
       <c r="K58" s="3">
         <v>475900</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1519500</v>
+        <v>1452700</v>
       </c>
       <c r="E59" s="3">
-        <v>1220800</v>
+        <v>1167100</v>
       </c>
       <c r="F59" s="3">
-        <v>1267700</v>
+        <v>1211900</v>
       </c>
       <c r="G59" s="3">
-        <v>1073000</v>
+        <v>1025800</v>
       </c>
       <c r="H59" s="3">
-        <v>1119500</v>
+        <v>1070200</v>
       </c>
       <c r="I59" s="3">
-        <v>1062300</v>
+        <v>1015600</v>
       </c>
       <c r="J59" s="3">
-        <v>1022500</v>
+        <v>977500</v>
       </c>
       <c r="K59" s="3">
         <v>904600</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2190300</v>
+        <v>2094000</v>
       </c>
       <c r="E60" s="3">
-        <v>1889100</v>
+        <v>1806000</v>
       </c>
       <c r="F60" s="3">
-        <v>2091600</v>
+        <v>1999500</v>
       </c>
       <c r="G60" s="3">
-        <v>2053800</v>
+        <v>1963400</v>
       </c>
       <c r="H60" s="3">
-        <v>1868400</v>
+        <v>1786200</v>
       </c>
       <c r="I60" s="3">
-        <v>1772600</v>
+        <v>1694700</v>
       </c>
       <c r="J60" s="3">
-        <v>1896400</v>
+        <v>1812900</v>
       </c>
       <c r="K60" s="3">
         <v>1768400</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2028500</v>
+        <v>1939200</v>
       </c>
       <c r="E61" s="3">
-        <v>1743500</v>
+        <v>1666800</v>
       </c>
       <c r="F61" s="3">
-        <v>1972900</v>
+        <v>1886100</v>
       </c>
       <c r="G61" s="3">
-        <v>1950100</v>
+        <v>1864300</v>
       </c>
       <c r="H61" s="3">
-        <v>2363800</v>
+        <v>2259800</v>
       </c>
       <c r="I61" s="3">
-        <v>2585300</v>
+        <v>2471600</v>
       </c>
       <c r="J61" s="3">
-        <v>2571500</v>
+        <v>2458400</v>
       </c>
       <c r="K61" s="3">
         <v>2709000</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2113300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2213800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2210500</v>
       </c>
-      <c r="E62" s="3">
-        <v>2315700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2312200</v>
-      </c>
       <c r="G62" s="3">
-        <v>2424700</v>
+        <v>2318000</v>
       </c>
       <c r="H62" s="3">
-        <v>2420300</v>
+        <v>2313800</v>
       </c>
       <c r="I62" s="3">
-        <v>2513300</v>
+        <v>2402700</v>
       </c>
       <c r="J62" s="3">
-        <v>2695900</v>
+        <v>2577300</v>
       </c>
       <c r="K62" s="3">
         <v>2539300</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6430300</v>
+        <v>6147400</v>
       </c>
       <c r="E66" s="3">
-        <v>5949400</v>
+        <v>5687600</v>
       </c>
       <c r="F66" s="3">
-        <v>6377700</v>
+        <v>6097200</v>
       </c>
       <c r="G66" s="3">
-        <v>6429600</v>
+        <v>6146800</v>
       </c>
       <c r="H66" s="3">
-        <v>6653400</v>
+        <v>6360700</v>
       </c>
       <c r="I66" s="3">
-        <v>6872200</v>
+        <v>6569900</v>
       </c>
       <c r="J66" s="3">
-        <v>7164700</v>
+        <v>6849400</v>
       </c>
       <c r="K66" s="3">
         <v>7017600</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1824200</v>
+        <v>1744000</v>
       </c>
       <c r="E72" s="3">
-        <v>2380000</v>
+        <v>2275300</v>
       </c>
       <c r="F72" s="3">
-        <v>2142500</v>
+        <v>2048300</v>
       </c>
       <c r="G72" s="3">
-        <v>2346000</v>
+        <v>2242800</v>
       </c>
       <c r="H72" s="3">
-        <v>2262900</v>
+        <v>2163300</v>
       </c>
       <c r="I72" s="3">
-        <v>2052300</v>
+        <v>1962000</v>
       </c>
       <c r="J72" s="3">
-        <v>1968900</v>
+        <v>1882200</v>
       </c>
       <c r="K72" s="3">
         <v>1923300</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3985100</v>
+        <v>3809800</v>
       </c>
       <c r="E76" s="3">
-        <v>4044500</v>
+        <v>3866600</v>
       </c>
       <c r="F76" s="3">
-        <v>3807600</v>
+        <v>3640100</v>
       </c>
       <c r="G76" s="3">
-        <v>3965300</v>
+        <v>3790800</v>
       </c>
       <c r="H76" s="3">
-        <v>3882900</v>
+        <v>3712100</v>
       </c>
       <c r="I76" s="3">
-        <v>3502000</v>
+        <v>3348000</v>
       </c>
       <c r="J76" s="3">
-        <v>3419400</v>
+        <v>3269000</v>
       </c>
       <c r="K76" s="3">
         <v>3369200</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E81" s="3">
-        <v>284800</v>
+        <v>272300</v>
       </c>
       <c r="F81" s="3">
-        <v>188300</v>
+        <v>180000</v>
       </c>
       <c r="G81" s="3">
-        <v>82400</v>
+        <v>78800</v>
       </c>
       <c r="H81" s="3">
-        <v>380900</v>
+        <v>364100</v>
       </c>
       <c r="I81" s="3">
-        <v>82600</v>
+        <v>79000</v>
       </c>
       <c r="J81" s="3">
-        <v>260700</v>
+        <v>249300</v>
       </c>
       <c r="K81" s="3">
         <v>112800</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56400</v>
+        <v>53900</v>
       </c>
       <c r="E83" s="3">
-        <v>55600</v>
+        <v>53100</v>
       </c>
       <c r="F83" s="3">
-        <v>55900</v>
+        <v>53400</v>
       </c>
       <c r="G83" s="3">
-        <v>55400</v>
+        <v>53000</v>
       </c>
       <c r="H83" s="3">
-        <v>47300</v>
+        <v>45200</v>
       </c>
       <c r="I83" s="3">
-        <v>46700</v>
+        <v>44600</v>
       </c>
       <c r="J83" s="3">
-        <v>50000</v>
+        <v>47800</v>
       </c>
       <c r="K83" s="3">
         <v>47700</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>396700</v>
+        <v>379300</v>
       </c>
       <c r="E89" s="3">
-        <v>191200</v>
+        <v>182800</v>
       </c>
       <c r="F89" s="3">
-        <v>122000</v>
+        <v>116600</v>
       </c>
       <c r="G89" s="3">
-        <v>26800</v>
+        <v>25700</v>
       </c>
       <c r="H89" s="3">
-        <v>422300</v>
+        <v>403700</v>
       </c>
       <c r="I89" s="3">
-        <v>149700</v>
+        <v>143100</v>
       </c>
       <c r="J89" s="3">
-        <v>347600</v>
+        <v>332300</v>
       </c>
       <c r="K89" s="3">
         <v>511500</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6800</v>
+        <v>-6500</v>
       </c>
       <c r="E91" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F91" s="3">
-        <v>-15200</v>
+        <v>-14500</v>
       </c>
       <c r="G91" s="3">
-        <v>-6500</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="I91" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="J91" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="K91" s="3">
         <v>-6100</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-285500</v>
+        <v>-273000</v>
       </c>
       <c r="E94" s="3">
-        <v>89200</v>
+        <v>85200</v>
       </c>
       <c r="F94" s="3">
-        <v>48100</v>
+        <v>46000</v>
       </c>
       <c r="G94" s="3">
-        <v>156400</v>
+        <v>149500</v>
       </c>
       <c r="H94" s="3">
-        <v>-381600</v>
+        <v>-364800</v>
       </c>
       <c r="I94" s="3">
-        <v>445500</v>
+        <v>425900</v>
       </c>
       <c r="J94" s="3">
-        <v>-108600</v>
+        <v>-103900</v>
       </c>
       <c r="K94" s="3">
         <v>-357900</v>
@@ -6725,25 +6725,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-183100</v>
+        <v>-175100</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-139900</v>
+        <v>-133700</v>
       </c>
       <c r="G96" s="3">
         <v>-100</v>
       </c>
       <c r="H96" s="3">
-        <v>-137200</v>
+        <v>-131100</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-117000</v>
+        <v>-111900</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21500</v>
+        <v>-20500</v>
       </c>
       <c r="E100" s="3">
-        <v>-166000</v>
+        <v>-158700</v>
       </c>
       <c r="F100" s="3">
-        <v>-170600</v>
+        <v>-163100</v>
       </c>
       <c r="G100" s="3">
-        <v>-542100</v>
+        <v>-518300</v>
       </c>
       <c r="H100" s="3">
-        <v>-172000</v>
+        <v>-164400</v>
       </c>
       <c r="I100" s="3">
-        <v>-271900</v>
+        <v>-259900</v>
       </c>
       <c r="J100" s="3">
-        <v>-188100</v>
+        <v>-179800</v>
       </c>
       <c r="K100" s="3">
         <v>-66100</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>89700</v>
+        <v>85800</v>
       </c>
       <c r="E102" s="3">
-        <v>114300</v>
+        <v>109300</v>
       </c>
       <c r="F102" s="3">
         <v>-500</v>
       </c>
       <c r="G102" s="3">
-        <v>-358900</v>
+        <v>-343100</v>
       </c>
       <c r="H102" s="3">
-        <v>-131300</v>
+        <v>-125500</v>
       </c>
       <c r="I102" s="3">
-        <v>323300</v>
+        <v>309100</v>
       </c>
       <c r="J102" s="3">
-        <v>50800</v>
+        <v>48600</v>
       </c>
       <c r="K102" s="3">
         <v>87500</v>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1536600</v>
+        <v>1785900</v>
       </c>
       <c r="E8" s="3">
-        <v>1468200</v>
+        <v>1590400</v>
       </c>
       <c r="F8" s="3">
-        <v>1806700</v>
+        <v>1519500</v>
       </c>
       <c r="G8" s="3">
-        <v>1782000</v>
+        <v>1869800</v>
       </c>
       <c r="H8" s="3">
-        <v>1375900</v>
+        <v>1844300</v>
       </c>
       <c r="I8" s="3">
-        <v>1330300</v>
+        <v>1424000</v>
       </c>
       <c r="J8" s="3">
+        <v>1376800</v>
+      </c>
+      <c r="K8" s="3">
         <v>1284300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1250700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1071300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1194000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1198000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1138800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1242500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1047100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1028500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1156900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1309200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1152500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1681300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1316700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1334500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1233900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1159200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1457300</v>
+        <v>1467300</v>
       </c>
       <c r="E9" s="3">
-        <v>1099900</v>
+        <v>1508300</v>
       </c>
       <c r="F9" s="3">
-        <v>1467100</v>
+        <v>1138400</v>
       </c>
       <c r="G9" s="3">
-        <v>1469900</v>
+        <v>1518400</v>
       </c>
       <c r="H9" s="3">
-        <v>1103300</v>
+        <v>1521300</v>
       </c>
       <c r="I9" s="3">
-        <v>996800</v>
+        <v>1141900</v>
       </c>
       <c r="J9" s="3">
+        <v>1031600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1100800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>957800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>879700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>892100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>936700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1105600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>782300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>746400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>773700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>947700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1048200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>870900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1306100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1203200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1093200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>880800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>925600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>79300</v>
+        <v>318600</v>
       </c>
       <c r="E10" s="3">
-        <v>368200</v>
+        <v>82100</v>
       </c>
       <c r="F10" s="3">
-        <v>339500</v>
+        <v>381100</v>
       </c>
       <c r="G10" s="3">
-        <v>312000</v>
+        <v>351400</v>
       </c>
       <c r="H10" s="3">
-        <v>272600</v>
+        <v>322900</v>
       </c>
       <c r="I10" s="3">
-        <v>333500</v>
+        <v>282100</v>
       </c>
       <c r="J10" s="3">
+        <v>345200</v>
+      </c>
+      <c r="K10" s="3">
         <v>183500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>292900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>191600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>302000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>261300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>33200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>460200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>254800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>209100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>261100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>281600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>375200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>113500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>241200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>353200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>233600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1203,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>8</v>
@@ -1200,8 +1220,8 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1210,19 +1230,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-50600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>26500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-92500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>120000</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1239,8 +1259,8 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1263,31 +1283,34 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1524400</v>
+        <v>1495100</v>
       </c>
       <c r="E17" s="3">
-        <v>1162700</v>
+        <v>1577600</v>
       </c>
       <c r="F17" s="3">
-        <v>1550100</v>
+        <v>1203300</v>
       </c>
       <c r="G17" s="3">
-        <v>1477600</v>
+        <v>1604300</v>
       </c>
       <c r="H17" s="3">
-        <v>976000</v>
+        <v>1529300</v>
       </c>
       <c r="I17" s="3">
-        <v>1030800</v>
+        <v>1010100</v>
       </c>
       <c r="J17" s="3">
+        <v>1066800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1022500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1011200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>849100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1082600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1055100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1205900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>965600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>829200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>912400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1031000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1154200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>967100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1343200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1343700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1198500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1003500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1185500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12300</v>
+        <v>290800</v>
       </c>
       <c r="E18" s="3">
-        <v>305500</v>
+        <v>12700</v>
       </c>
       <c r="F18" s="3">
-        <v>256500</v>
+        <v>316200</v>
       </c>
       <c r="G18" s="3">
-        <v>304300</v>
+        <v>265500</v>
       </c>
       <c r="H18" s="3">
-        <v>399900</v>
+        <v>315000</v>
       </c>
       <c r="I18" s="3">
-        <v>299500</v>
+        <v>413800</v>
       </c>
       <c r="J18" s="3">
+        <v>310000</v>
+      </c>
+      <c r="K18" s="3">
         <v>261800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>239600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>222200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>111400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>142900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-67100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>276800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>217900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>116200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>125900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>155000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>185400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>338100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-27000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>135900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>230400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-118800</v>
+        <v>24100</v>
       </c>
       <c r="E20" s="3">
-        <v>100600</v>
+        <v>-123000</v>
       </c>
       <c r="F20" s="3">
-        <v>-9300</v>
+        <v>104200</v>
       </c>
       <c r="G20" s="3">
-        <v>-161200</v>
+        <v>-9600</v>
       </c>
       <c r="H20" s="3">
-        <v>178300</v>
+        <v>-166800</v>
       </c>
       <c r="I20" s="3">
-        <v>-174600</v>
+        <v>184500</v>
       </c>
       <c r="J20" s="3">
+        <v>-180700</v>
+      </c>
+      <c r="K20" s="3">
         <v>118800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-35800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>139500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-81800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>391500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>35700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>182300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-89000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>91500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>17600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>26000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-52600</v>
+        <v>372500</v>
       </c>
       <c r="E21" s="3">
-        <v>459200</v>
+        <v>-54500</v>
       </c>
       <c r="F21" s="3">
-        <v>300700</v>
+        <v>475300</v>
       </c>
       <c r="G21" s="3">
-        <v>196200</v>
+        <v>311200</v>
       </c>
       <c r="H21" s="3">
-        <v>623400</v>
+        <v>203000</v>
       </c>
       <c r="I21" s="3">
-        <v>169500</v>
+        <v>645200</v>
       </c>
       <c r="J21" s="3">
+        <v>175500</v>
+      </c>
+      <c r="K21" s="3">
         <v>428400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>251400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>409500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>77500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>202800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>712300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>294500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>339500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>165900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>112300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>267500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>412400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>117200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>203700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>299700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>57500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44100</v>
+        <v>45300</v>
       </c>
       <c r="E22" s="3">
-        <v>41900</v>
+        <v>45700</v>
       </c>
       <c r="F22" s="3">
-        <v>49300</v>
+        <v>43300</v>
       </c>
       <c r="G22" s="3">
-        <v>55000</v>
+        <v>51000</v>
       </c>
       <c r="H22" s="3">
-        <v>49300</v>
+        <v>56900</v>
       </c>
       <c r="I22" s="3">
-        <v>61000</v>
+        <v>51000</v>
       </c>
       <c r="J22" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K22" s="3">
         <v>52800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>63200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>73700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>69200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>85000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>88300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>101600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>118300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>123000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-150700</v>
+        <v>269600</v>
       </c>
       <c r="E23" s="3">
-        <v>364300</v>
+        <v>-155900</v>
       </c>
       <c r="F23" s="3">
-        <v>198000</v>
+        <v>377000</v>
       </c>
       <c r="G23" s="3">
-        <v>88200</v>
+        <v>204900</v>
       </c>
       <c r="H23" s="3">
-        <v>528900</v>
+        <v>91200</v>
       </c>
       <c r="I23" s="3">
-        <v>63900</v>
+        <v>547400</v>
       </c>
       <c r="J23" s="3">
+        <v>66200</v>
+      </c>
+      <c r="K23" s="3">
         <v>327800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>308700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-31800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>103600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-111000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>614800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>199900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>235400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>64300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>148600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>267700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-23800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>48400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>129800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-123400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-160000</v>
+        <v>40600</v>
       </c>
       <c r="E24" s="3">
-        <v>92000</v>
+        <v>-165600</v>
       </c>
       <c r="F24" s="3">
-        <v>17900</v>
+        <v>95200</v>
       </c>
       <c r="G24" s="3">
-        <v>9300</v>
+        <v>18600</v>
       </c>
       <c r="H24" s="3">
-        <v>164700</v>
+        <v>9600</v>
       </c>
       <c r="I24" s="3">
-        <v>-15100</v>
+        <v>170500</v>
       </c>
       <c r="J24" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K24" s="3">
         <v>78500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>98000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-16100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>240300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>72300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>21700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>112700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>41900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-47400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9300</v>
+        <v>228900</v>
       </c>
       <c r="E26" s="3">
-        <v>272300</v>
+        <v>9700</v>
       </c>
       <c r="F26" s="3">
-        <v>180100</v>
+        <v>281800</v>
       </c>
       <c r="G26" s="3">
-        <v>78900</v>
+        <v>186300</v>
       </c>
       <c r="H26" s="3">
-        <v>364200</v>
+        <v>81600</v>
       </c>
       <c r="I26" s="3">
-        <v>79000</v>
+        <v>376900</v>
       </c>
       <c r="J26" s="3">
+        <v>81800</v>
+      </c>
+      <c r="K26" s="3">
         <v>249300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>112800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>210700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>104200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-94900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>374500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>141200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>163100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>108500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>155000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-21500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>35400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>87900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-75900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9300</v>
+        <v>228800</v>
       </c>
       <c r="E27" s="3">
-        <v>272300</v>
+        <v>9600</v>
       </c>
       <c r="F27" s="3">
-        <v>180000</v>
+        <v>281800</v>
       </c>
       <c r="G27" s="3">
-        <v>78800</v>
+        <v>186300</v>
       </c>
       <c r="H27" s="3">
-        <v>364100</v>
+        <v>81500</v>
       </c>
       <c r="I27" s="3">
-        <v>79000</v>
+        <v>376800</v>
       </c>
       <c r="J27" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K27" s="3">
         <v>249300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>112800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>210600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>104100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-94900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>374500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>141100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>155800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>42600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>108500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>154900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-21500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>35400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>87800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2253,11 +2314,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -2265,11 +2326,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2277,29 +2338,29 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>42000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>58500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>5000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>118800</v>
+        <v>-24100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100600</v>
+        <v>123000</v>
       </c>
       <c r="F32" s="3">
-        <v>9300</v>
+        <v>-104200</v>
       </c>
       <c r="G32" s="3">
-        <v>161200</v>
+        <v>9600</v>
       </c>
       <c r="H32" s="3">
-        <v>-178300</v>
+        <v>166800</v>
       </c>
       <c r="I32" s="3">
-        <v>174600</v>
+        <v>-184500</v>
       </c>
       <c r="J32" s="3">
+        <v>180700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-118800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>35800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-139500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>81800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-391500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-35700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-182300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>89000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-91500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-17600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9300</v>
+        <v>228800</v>
       </c>
       <c r="E33" s="3">
-        <v>272300</v>
+        <v>9600</v>
       </c>
       <c r="F33" s="3">
-        <v>180000</v>
+        <v>281800</v>
       </c>
       <c r="G33" s="3">
-        <v>78800</v>
+        <v>186300</v>
       </c>
       <c r="H33" s="3">
-        <v>364100</v>
+        <v>81500</v>
       </c>
       <c r="I33" s="3">
-        <v>79000</v>
+        <v>376800</v>
       </c>
       <c r="J33" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K33" s="3">
         <v>249300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>112800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>210600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>104100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-52900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>374500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>141100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>45200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>108500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>154900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-21500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>35400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>87800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9300</v>
+        <v>228800</v>
       </c>
       <c r="E35" s="3">
-        <v>272300</v>
+        <v>9600</v>
       </c>
       <c r="F35" s="3">
-        <v>180000</v>
+        <v>281800</v>
       </c>
       <c r="G35" s="3">
-        <v>78800</v>
+        <v>186300</v>
       </c>
       <c r="H35" s="3">
-        <v>364100</v>
+        <v>81500</v>
       </c>
       <c r="I35" s="3">
-        <v>79000</v>
+        <v>376800</v>
       </c>
       <c r="J35" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K35" s="3">
         <v>249300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>112800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>210600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>104100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-52900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>374500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>141100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>45200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>108500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>154900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-21500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>35400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>87800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,247 +3007,257 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>349400</v>
+        <v>385500</v>
       </c>
       <c r="E41" s="3">
-        <v>263700</v>
+        <v>361700</v>
       </c>
       <c r="F41" s="3">
-        <v>154400</v>
+        <v>272900</v>
       </c>
       <c r="G41" s="3">
-        <v>154900</v>
+        <v>159800</v>
       </c>
       <c r="H41" s="3">
-        <v>498000</v>
+        <v>160300</v>
       </c>
       <c r="I41" s="3">
-        <v>623500</v>
+        <v>515400</v>
       </c>
       <c r="J41" s="3">
+        <v>645300</v>
+      </c>
+      <c r="K41" s="3">
         <v>314400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>276700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>156800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>99000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>141000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>158900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>276300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>219700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>98600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>264100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>149300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>242600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>215900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>246900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>334400</v>
+        <v>538100</v>
       </c>
       <c r="E42" s="3">
-        <v>182500</v>
+        <v>346100</v>
       </c>
       <c r="F42" s="3">
-        <v>322600</v>
+        <v>188900</v>
       </c>
       <c r="G42" s="3">
-        <v>437500</v>
+        <v>333800</v>
       </c>
       <c r="H42" s="3">
-        <v>648900</v>
+        <v>452800</v>
       </c>
       <c r="I42" s="3">
-        <v>419200</v>
+        <v>671600</v>
       </c>
       <c r="J42" s="3">
+        <v>433900</v>
+      </c>
+      <c r="K42" s="3">
         <v>628700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>718600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>492700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>302400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>139000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>164900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>135800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>105200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>141700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>126700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>93200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>127700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>298600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>291600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>381900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>312700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>342800</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1502000</v>
+        <v>1532900</v>
       </c>
       <c r="E43" s="3">
-        <v>1548800</v>
+        <v>1554500</v>
       </c>
       <c r="F43" s="3">
-        <v>1546500</v>
+        <v>1603000</v>
       </c>
       <c r="G43" s="3">
-        <v>1594500</v>
+        <v>1600500</v>
       </c>
       <c r="H43" s="3">
-        <v>1408100</v>
+        <v>1650200</v>
       </c>
       <c r="I43" s="3">
-        <v>1460100</v>
+        <v>1457400</v>
       </c>
       <c r="J43" s="3">
+        <v>1511200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1482800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1498700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1409600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1119900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1195900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1112600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>917700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>963100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>956400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1106600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1123800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1085700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1315800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1334900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1255000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1318800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1221900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>6000</v>
-      </c>
-      <c r="E44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
@@ -3184,41 +3280,41 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3">
         <v>7100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>7300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>7100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>5700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>6400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>7900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>8200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>12500</v>
-      </c>
-      <c r="X44" s="3">
-        <v>12300</v>
       </c>
       <c r="Y44" s="3">
         <v>12300</v>
@@ -3227,395 +3323,413 @@
         <v>12300</v>
       </c>
       <c r="AA44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AB44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>418200</v>
+        <v>391100</v>
       </c>
       <c r="E45" s="3">
-        <v>349900</v>
+        <v>432800</v>
       </c>
       <c r="F45" s="3">
-        <v>399200</v>
+        <v>362200</v>
       </c>
       <c r="G45" s="3">
-        <v>293400</v>
+        <v>413200</v>
       </c>
       <c r="H45" s="3">
-        <v>231500</v>
+        <v>303700</v>
       </c>
       <c r="I45" s="3">
-        <v>241100</v>
+        <v>239600</v>
       </c>
       <c r="J45" s="3">
+        <v>249500</v>
+      </c>
+      <c r="K45" s="3">
         <v>465800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>515600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>666900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>478800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>549600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>516600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3698200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3700200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3695400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>242700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>247800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>294200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>225700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>127200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>166100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>231600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2610000</v>
+        <v>2847500</v>
       </c>
       <c r="E46" s="3">
-        <v>2344900</v>
+        <v>2701300</v>
       </c>
       <c r="F46" s="3">
-        <v>2422700</v>
+        <v>2426900</v>
       </c>
       <c r="G46" s="3">
-        <v>2480200</v>
+        <v>2507300</v>
       </c>
       <c r="H46" s="3">
-        <v>2786500</v>
+        <v>2566900</v>
       </c>
       <c r="I46" s="3">
-        <v>2743900</v>
+        <v>2883900</v>
       </c>
       <c r="J46" s="3">
+        <v>2839800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2891700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3009600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2758400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2064900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1912100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1931600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4890200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4915200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4958800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1758000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1692500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1614300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2188800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2014000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2018900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2025900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2055500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3641500</v>
+        <v>3833300</v>
       </c>
       <c r="E47" s="3">
-        <v>3653900</v>
+        <v>3768800</v>
       </c>
       <c r="F47" s="3">
-        <v>3707100</v>
+        <v>3781700</v>
       </c>
       <c r="G47" s="3">
-        <v>3872700</v>
+        <v>3836700</v>
       </c>
       <c r="H47" s="3">
-        <v>3738400</v>
+        <v>4008100</v>
       </c>
       <c r="I47" s="3">
-        <v>3587400</v>
+        <v>3869100</v>
       </c>
       <c r="J47" s="3">
+        <v>3712800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3614300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3560700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3649700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4006600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4051500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4060400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3740300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2784500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2790500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3292800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4357200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4151900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4588500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4512800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4377600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4366800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4249400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>481600</v>
+        <v>508500</v>
       </c>
       <c r="E48" s="3">
-        <v>486600</v>
+        <v>498400</v>
       </c>
       <c r="F48" s="3">
-        <v>494800</v>
+        <v>503600</v>
       </c>
       <c r="G48" s="3">
-        <v>491700</v>
+        <v>512100</v>
       </c>
       <c r="H48" s="3">
-        <v>482900</v>
+        <v>508900</v>
       </c>
       <c r="I48" s="3">
-        <v>485300</v>
+        <v>499800</v>
       </c>
       <c r="J48" s="3">
+        <v>502200</v>
+      </c>
+      <c r="K48" s="3">
         <v>490000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>513200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>519000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>529900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>503700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>536100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>515100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>522600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>474800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>445800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>565300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>636500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>708200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>717100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>723800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>733000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>936500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2466800</v>
+        <v>2618600</v>
       </c>
       <c r="E49" s="3">
-        <v>2434400</v>
+        <v>2553000</v>
       </c>
       <c r="F49" s="3">
-        <v>2423400</v>
+        <v>2519500</v>
       </c>
       <c r="G49" s="3">
-        <v>2422300</v>
+        <v>2508200</v>
       </c>
       <c r="H49" s="3">
-        <v>2381400</v>
+        <v>2506900</v>
       </c>
       <c r="I49" s="3">
-        <v>2204300</v>
+        <v>2464700</v>
       </c>
       <c r="J49" s="3">
+        <v>2281400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2209500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2296300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2287100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2309000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2147000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2183200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1897900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1901900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1922700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2072000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2611900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2607900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2860200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2835000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2804500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2780500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2684100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>757300</v>
+        <v>747600</v>
       </c>
       <c r="E52" s="3">
-        <v>634400</v>
+        <v>783800</v>
       </c>
       <c r="F52" s="3">
-        <v>689200</v>
+        <v>656600</v>
       </c>
       <c r="G52" s="3">
-        <v>670700</v>
+        <v>713300</v>
       </c>
       <c r="H52" s="3">
-        <v>683600</v>
+        <v>694200</v>
       </c>
       <c r="I52" s="3">
-        <v>897000</v>
+        <v>707500</v>
       </c>
       <c r="J52" s="3">
+        <v>928300</v>
+      </c>
+      <c r="K52" s="3">
         <v>912900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1007000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1018700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1017800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>717700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>679500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>564500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>537800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>531200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>420500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>506300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>478900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>483700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>645900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>821600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>801200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>502700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9957200</v>
+        <v>10555600</v>
       </c>
       <c r="E54" s="3">
-        <v>9554200</v>
+        <v>10305300</v>
       </c>
       <c r="F54" s="3">
-        <v>9737300</v>
+        <v>9888200</v>
       </c>
       <c r="G54" s="3">
-        <v>9937600</v>
+        <v>10077600</v>
       </c>
       <c r="H54" s="3">
-        <v>10072800</v>
+        <v>10285000</v>
       </c>
       <c r="I54" s="3">
-        <v>9917800</v>
+        <v>10424900</v>
       </c>
       <c r="J54" s="3">
+        <v>10264500</v>
+      </c>
+      <c r="K54" s="3">
         <v>10118400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10386900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10232800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9928200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9332100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9390800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11608000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10662000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10678100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7989100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9733200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9489500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10829400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10724900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10746400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10707500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10428300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>446300</v>
+        <v>530700</v>
       </c>
       <c r="E57" s="3">
-        <v>419600</v>
+        <v>461900</v>
       </c>
       <c r="F57" s="3">
-        <v>502000</v>
+        <v>434200</v>
       </c>
       <c r="G57" s="3">
-        <v>630600</v>
+        <v>519600</v>
       </c>
       <c r="H57" s="3">
-        <v>445600</v>
+        <v>652600</v>
       </c>
       <c r="I57" s="3">
-        <v>366100</v>
+        <v>461200</v>
       </c>
       <c r="J57" s="3">
+        <v>378900</v>
+      </c>
+      <c r="K57" s="3">
         <v>441200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>387800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>378900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>339500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>384200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>386200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>325900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>356300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>321300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>452300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>502700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>379100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>600600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>560600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>491200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>414000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>481200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>195000</v>
+        <v>235800</v>
       </c>
       <c r="E58" s="3">
-        <v>219300</v>
+        <v>201800</v>
       </c>
       <c r="F58" s="3">
-        <v>285600</v>
+        <v>226900</v>
       </c>
       <c r="G58" s="3">
-        <v>307100</v>
+        <v>295600</v>
       </c>
       <c r="H58" s="3">
-        <v>270400</v>
+        <v>317800</v>
       </c>
       <c r="I58" s="3">
-        <v>313000</v>
+        <v>279800</v>
       </c>
       <c r="J58" s="3">
+        <v>323900</v>
+      </c>
+      <c r="K58" s="3">
         <v>394200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>475900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>599500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>620500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>522900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>537000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>538400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>485700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>392000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>442600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>640000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>604400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>607800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1333000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1331300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1273400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1199900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1452700</v>
+        <v>1474100</v>
       </c>
       <c r="E59" s="3">
-        <v>1167100</v>
+        <v>1503400</v>
       </c>
       <c r="F59" s="3">
-        <v>1211900</v>
+        <v>1207900</v>
       </c>
       <c r="G59" s="3">
-        <v>1025800</v>
+        <v>1254200</v>
       </c>
       <c r="H59" s="3">
-        <v>1070200</v>
+        <v>1061600</v>
       </c>
       <c r="I59" s="3">
-        <v>1015600</v>
+        <v>1107600</v>
       </c>
       <c r="J59" s="3">
+        <v>1051100</v>
+      </c>
+      <c r="K59" s="3">
         <v>977500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>904600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>784900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>568200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>565500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>535000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3446900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3365200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3460000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>598400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>692500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>779200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1012400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1272700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1197100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1230500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1158800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2094000</v>
+        <v>2240600</v>
       </c>
       <c r="E60" s="3">
-        <v>1806000</v>
+        <v>2167200</v>
       </c>
       <c r="F60" s="3">
-        <v>1999500</v>
+        <v>1869100</v>
       </c>
       <c r="G60" s="3">
-        <v>1963400</v>
+        <v>2069400</v>
       </c>
       <c r="H60" s="3">
-        <v>1786200</v>
+        <v>2032000</v>
       </c>
       <c r="I60" s="3">
-        <v>1694700</v>
+        <v>1848600</v>
       </c>
       <c r="J60" s="3">
+        <v>1753900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1812900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1768400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1763400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1528200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1471100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1458300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4311200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4207200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4173400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1493400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1835200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1762700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2220800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3166300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3019600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2917900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2839900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1939200</v>
+        <v>2012900</v>
       </c>
       <c r="E61" s="3">
-        <v>1666800</v>
+        <v>2007000</v>
       </c>
       <c r="F61" s="3">
-        <v>1886100</v>
+        <v>1725000</v>
       </c>
       <c r="G61" s="3">
-        <v>1864300</v>
+        <v>1952000</v>
       </c>
       <c r="H61" s="3">
-        <v>2259800</v>
+        <v>1929500</v>
       </c>
       <c r="I61" s="3">
-        <v>2471600</v>
+        <v>2338800</v>
       </c>
       <c r="J61" s="3">
+        <v>2558000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2458400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2709000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2540100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2539200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2259300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2368600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1973800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2075500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2243200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2405700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2770300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2594600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3083500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2270500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2413600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2502500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2565700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2113300</v>
+        <v>2220500</v>
       </c>
       <c r="E62" s="3">
-        <v>2213800</v>
+        <v>2187100</v>
       </c>
       <c r="F62" s="3">
-        <v>2210500</v>
+        <v>2291200</v>
       </c>
       <c r="G62" s="3">
-        <v>2318000</v>
+        <v>2287800</v>
       </c>
       <c r="H62" s="3">
-        <v>2313800</v>
+        <v>2399100</v>
       </c>
       <c r="I62" s="3">
-        <v>2402700</v>
+        <v>2394700</v>
       </c>
       <c r="J62" s="3">
+        <v>2486700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2577300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2539300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2642000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2740700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2749700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2335300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1983400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1415900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1417800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1356300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1699900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1690400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1851100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1881500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1885300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1879000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1813900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6147400</v>
+        <v>6475000</v>
       </c>
       <c r="E66" s="3">
-        <v>5687600</v>
+        <v>6362300</v>
       </c>
       <c r="F66" s="3">
-        <v>6097200</v>
+        <v>5886400</v>
       </c>
       <c r="G66" s="3">
-        <v>6146800</v>
+        <v>6310300</v>
       </c>
       <c r="H66" s="3">
-        <v>6360700</v>
+        <v>6361600</v>
       </c>
       <c r="I66" s="3">
-        <v>6569900</v>
+        <v>6583100</v>
       </c>
       <c r="J66" s="3">
+        <v>6799500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6849400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7017600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6946300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6809000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6358800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6163000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8511100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7939600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8077200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5256200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6306400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6048600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="W66" s="3">
-        <v>7319400</v>
       </c>
       <c r="X66" s="3">
         <v>7319400</v>
       </c>
       <c r="Y66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>7300500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7220500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1744000</v>
+        <v>1943100</v>
       </c>
       <c r="E72" s="3">
-        <v>2275300</v>
+        <v>1804900</v>
       </c>
       <c r="F72" s="3">
-        <v>2048300</v>
+        <v>2354900</v>
       </c>
       <c r="G72" s="3">
-        <v>2242800</v>
+        <v>2119900</v>
       </c>
       <c r="H72" s="3">
-        <v>2163300</v>
+        <v>2321200</v>
       </c>
       <c r="I72" s="3">
-        <v>1962000</v>
+        <v>2238900</v>
       </c>
       <c r="J72" s="3">
+        <v>2030600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1882200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1923300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2336200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2157000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2070700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2111700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2042500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1667000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1135000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1186700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1469500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1405400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1468700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1446100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1456500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1423600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1290000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3809800</v>
+        <v>4080500</v>
       </c>
       <c r="E76" s="3">
-        <v>3866600</v>
+        <v>3943000</v>
       </c>
       <c r="F76" s="3">
-        <v>3640100</v>
+        <v>4001700</v>
       </c>
       <c r="G76" s="3">
-        <v>3790800</v>
+        <v>3767300</v>
       </c>
       <c r="H76" s="3">
-        <v>3712100</v>
+        <v>3923400</v>
       </c>
       <c r="I76" s="3">
-        <v>3348000</v>
+        <v>3841800</v>
       </c>
       <c r="J76" s="3">
+        <v>3465000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3269000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3369200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3286400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3119200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2973300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3227700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3096900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2722400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2600800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2732900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3426800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3441000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3672900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3405500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3427000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3407000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3207700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9300</v>
+        <v>228800</v>
       </c>
       <c r="E81" s="3">
-        <v>272300</v>
+        <v>9600</v>
       </c>
       <c r="F81" s="3">
-        <v>180000</v>
+        <v>281800</v>
       </c>
       <c r="G81" s="3">
-        <v>78800</v>
+        <v>186300</v>
       </c>
       <c r="H81" s="3">
-        <v>364100</v>
+        <v>81500</v>
       </c>
       <c r="I81" s="3">
-        <v>79000</v>
+        <v>376800</v>
       </c>
       <c r="J81" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K81" s="3">
         <v>249300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>112800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>210600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>104100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-52900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>374500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>141100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>45200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>108500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>154900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-21500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>35400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>87800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-76000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53900</v>
+        <v>57600</v>
       </c>
       <c r="E83" s="3">
-        <v>53100</v>
+        <v>55800</v>
       </c>
       <c r="F83" s="3">
-        <v>53400</v>
+        <v>55000</v>
       </c>
       <c r="G83" s="3">
-        <v>53000</v>
+        <v>55300</v>
       </c>
       <c r="H83" s="3">
-        <v>45200</v>
+        <v>54900</v>
       </c>
       <c r="I83" s="3">
-        <v>44600</v>
+        <v>46800</v>
       </c>
       <c r="J83" s="3">
+        <v>46200</v>
+      </c>
+      <c r="K83" s="3">
         <v>47800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>47700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>47900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>43400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>45800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>44000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>40900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>41000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>38400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>46300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>49700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>59700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>52800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>53700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>51600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>57800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>379300</v>
+        <v>497000</v>
       </c>
       <c r="E89" s="3">
-        <v>182800</v>
+        <v>392500</v>
       </c>
       <c r="F89" s="3">
-        <v>116600</v>
+        <v>189200</v>
       </c>
       <c r="G89" s="3">
-        <v>25700</v>
+        <v>120700</v>
       </c>
       <c r="H89" s="3">
-        <v>403700</v>
+        <v>26500</v>
       </c>
       <c r="I89" s="3">
-        <v>143100</v>
+        <v>417900</v>
       </c>
       <c r="J89" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K89" s="3">
         <v>332300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>511500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>337300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>487700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>164000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>82700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>109100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>145200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>85100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-87100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>56400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>357600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>135400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>244300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6500</v>
+        <v>-14400</v>
       </c>
       <c r="E91" s="3">
-        <v>-2300</v>
+        <v>-6700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14500</v>
+        <v>-2400</v>
       </c>
       <c r="G91" s="3">
-        <v>-6200</v>
+        <v>-15000</v>
       </c>
       <c r="H91" s="3">
-        <v>-8300</v>
+        <v>-6400</v>
       </c>
       <c r="I91" s="3">
-        <v>-5200</v>
+        <v>-8500</v>
       </c>
       <c r="J91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-74400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-273000</v>
+        <v>-419300</v>
       </c>
       <c r="E94" s="3">
-        <v>85200</v>
+        <v>-282500</v>
       </c>
       <c r="F94" s="3">
-        <v>46000</v>
+        <v>88200</v>
       </c>
       <c r="G94" s="3">
-        <v>149500</v>
+        <v>47600</v>
       </c>
       <c r="H94" s="3">
-        <v>-364800</v>
+        <v>154800</v>
       </c>
       <c r="I94" s="3">
-        <v>425900</v>
+        <v>-377600</v>
       </c>
       <c r="J94" s="3">
+        <v>440800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-103900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-357900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-285200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-240400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-45200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-127200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>26900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>88300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>116500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>16900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-190400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-127100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,35 +6952,36 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-175100</v>
+        <v>-19200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-181200</v>
       </c>
       <c r="F96" s="3">
-        <v>-133700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>-138400</v>
+      </c>
+      <c r="H96" s="3">
         <v>-100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-131100</v>
-      </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-135700</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-111900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6755,49 +6989,52 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-114900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-90700</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-69500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-69400</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-139700</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20500</v>
+        <v>-53900</v>
       </c>
       <c r="E100" s="3">
-        <v>-158700</v>
+        <v>-21200</v>
       </c>
       <c r="F100" s="3">
-        <v>-163100</v>
+        <v>-164300</v>
       </c>
       <c r="G100" s="3">
-        <v>-518300</v>
+        <v>-168800</v>
       </c>
       <c r="H100" s="3">
-        <v>-164400</v>
+        <v>-536400</v>
       </c>
       <c r="I100" s="3">
-        <v>-259900</v>
+        <v>-170100</v>
       </c>
       <c r="J100" s="3">
+        <v>-269000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-179800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-196100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-148200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>104800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-136500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-175700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>58900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>80200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-143200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>399100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-166500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-140600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-132600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-290300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>85800</v>
+        <v>23800</v>
       </c>
       <c r="E102" s="3">
-        <v>109300</v>
+        <v>88800</v>
       </c>
       <c r="F102" s="3">
+        <v>113100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
-        <v>-343100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-125500</v>
+        <v>-355100</v>
       </c>
       <c r="I102" s="3">
-        <v>309100</v>
+        <v>-129900</v>
       </c>
       <c r="J102" s="3">
+        <v>319900</v>
+      </c>
+      <c r="K102" s="3">
         <v>48600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>87500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>34200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-29400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-107500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>102200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>121100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-142000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>114800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-93300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>26600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-39200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-173100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1785900</v>
+        <v>1741500</v>
       </c>
       <c r="E8" s="3">
-        <v>1590400</v>
+        <v>1964300</v>
       </c>
       <c r="F8" s="3">
-        <v>1519500</v>
+        <v>1857600</v>
       </c>
       <c r="G8" s="3">
-        <v>1869800</v>
+        <v>1654200</v>
       </c>
       <c r="H8" s="3">
-        <v>1844300</v>
+        <v>1580500</v>
       </c>
       <c r="I8" s="3">
+        <v>1944900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1918300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1424000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1376800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1284300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1250700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1071300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1194000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1198000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1138800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1242500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1047100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1028500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1156900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1309200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1152500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1681300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1316700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1334500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1233900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1159200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1467300</v>
+        <v>141600</v>
       </c>
       <c r="E9" s="3">
-        <v>1508300</v>
+        <v>1573000</v>
       </c>
       <c r="F9" s="3">
-        <v>1138400</v>
+        <v>1526200</v>
       </c>
       <c r="G9" s="3">
-        <v>1518400</v>
+        <v>1568800</v>
       </c>
       <c r="H9" s="3">
-        <v>1521300</v>
+        <v>1184100</v>
       </c>
       <c r="I9" s="3">
+        <v>1579400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1582400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1141900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1031600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1100800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>957800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>879700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>892100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>936700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1105600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>782300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>746400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>773700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>947700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1048200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>870900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1306100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1203200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1093200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>880800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>925600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>318600</v>
+        <v>1599800</v>
       </c>
       <c r="E10" s="3">
-        <v>82100</v>
+        <v>391300</v>
       </c>
       <c r="F10" s="3">
-        <v>381100</v>
+        <v>331400</v>
       </c>
       <c r="G10" s="3">
-        <v>351400</v>
+        <v>85400</v>
       </c>
       <c r="H10" s="3">
-        <v>322900</v>
+        <v>396400</v>
       </c>
       <c r="I10" s="3">
+        <v>365500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K10" s="3">
         <v>282100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>345200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>183500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>292900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>191600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>302000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>261300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>33200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>460200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>254800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>209100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>261100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>281600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>375200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>113500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>241200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>353200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>233600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,49 +1239,55 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>23800</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-50600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>26500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-92500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>120000</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1262,11 +1301,11 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1286,19 +1325,25 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>200</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
+      <c r="F15" s="3">
+        <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1312,11 +1357,11 @@
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1495100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>1577600</v>
+        <v>1630700</v>
       </c>
       <c r="F17" s="3">
-        <v>1203300</v>
+        <v>1555100</v>
       </c>
       <c r="G17" s="3">
-        <v>1604300</v>
+        <v>1640900</v>
       </c>
       <c r="H17" s="3">
-        <v>1529300</v>
+        <v>1251600</v>
       </c>
       <c r="I17" s="3">
+        <v>1668700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1010100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1066800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1022500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1011200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>849100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1082600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1055100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1205900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>965600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>829200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>912400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1031000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1154200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>967100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1343200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1343700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1198500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1003500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1185500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>290800</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>12700</v>
+        <v>333600</v>
       </c>
       <c r="F18" s="3">
-        <v>316200</v>
+        <v>302400</v>
       </c>
       <c r="G18" s="3">
-        <v>265500</v>
+        <v>13200</v>
       </c>
       <c r="H18" s="3">
-        <v>315000</v>
+        <v>328900</v>
       </c>
       <c r="I18" s="3">
+        <v>276200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>327600</v>
+      </c>
+      <c r="K18" s="3">
         <v>413800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>310000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>261800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>239600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>222200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>111400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>142900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>276800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>217900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>116200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>125900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>155000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>185400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>338100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-27000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>135900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>230400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>24100</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-123000</v>
+        <v>33200</v>
       </c>
       <c r="F20" s="3">
-        <v>104200</v>
+        <v>25100</v>
       </c>
       <c r="G20" s="3">
-        <v>-9600</v>
+        <v>-127900</v>
       </c>
       <c r="H20" s="3">
-        <v>-166800</v>
+        <v>108300</v>
       </c>
       <c r="I20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-173500</v>
+      </c>
+      <c r="K20" s="3">
         <v>184500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-180700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>118800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-35800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>139500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-81800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>16400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>391500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>35700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>182300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-89000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>32400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>14600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>91500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>14000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>17600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>26000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>372500</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>-54500</v>
+        <v>429700</v>
       </c>
       <c r="F21" s="3">
-        <v>475300</v>
+        <v>387400</v>
       </c>
       <c r="G21" s="3">
-        <v>311200</v>
+        <v>-56700</v>
       </c>
       <c r="H21" s="3">
-        <v>203000</v>
+        <v>494400</v>
       </c>
       <c r="I21" s="3">
+        <v>323700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>211200</v>
+      </c>
+      <c r="K21" s="3">
         <v>645200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>175500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>428400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>251400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>409500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>77500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>202800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>712300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>294500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>339500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>165900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>112300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>267500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>412400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>117200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>203700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>299700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>57500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>45300</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>45700</v>
+        <v>47200</v>
       </c>
       <c r="F22" s="3">
-        <v>43300</v>
+        <v>47100</v>
       </c>
       <c r="G22" s="3">
+        <v>47500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K22" s="3">
         <v>51000</v>
       </c>
-      <c r="H22" s="3">
-        <v>56900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>51000</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>63100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>52800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>60900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>52900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>61400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>55800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>59800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>53600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>53700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>63100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>63200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>73700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>69200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>85000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>88300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>101600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>118300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>123000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>269600</v>
+        <v>353100</v>
       </c>
       <c r="E23" s="3">
-        <v>-155900</v>
+        <v>319500</v>
       </c>
       <c r="F23" s="3">
-        <v>377000</v>
+        <v>280400</v>
       </c>
       <c r="G23" s="3">
-        <v>204900</v>
+        <v>-162200</v>
       </c>
       <c r="H23" s="3">
-        <v>91200</v>
+        <v>392100</v>
       </c>
       <c r="I23" s="3">
+        <v>213100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>94900</v>
+      </c>
+      <c r="K23" s="3">
         <v>547400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>66200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>327800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>142800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>308700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-31800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>103600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-111000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>614800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>199900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>235400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>64300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>148600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>267700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>48400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>129800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-123400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40600</v>
+        <v>71500</v>
       </c>
       <c r="E24" s="3">
-        <v>-165600</v>
+        <v>36200</v>
       </c>
       <c r="F24" s="3">
-        <v>95200</v>
+        <v>42300</v>
       </c>
       <c r="G24" s="3">
-        <v>18600</v>
+        <v>-172200</v>
       </c>
       <c r="H24" s="3">
-        <v>9600</v>
+        <v>99000</v>
       </c>
       <c r="I24" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K24" s="3">
         <v>170500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-15600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>78500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>30000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>98000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-20600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>240300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>58700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>72300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>21700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>40100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>112700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>13000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>41900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-47400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>228900</v>
+        <v>281600</v>
       </c>
       <c r="E26" s="3">
-        <v>9700</v>
+        <v>283300</v>
       </c>
       <c r="F26" s="3">
-        <v>281800</v>
+        <v>238100</v>
       </c>
       <c r="G26" s="3">
-        <v>186300</v>
+        <v>10000</v>
       </c>
       <c r="H26" s="3">
-        <v>81600</v>
+        <v>293200</v>
       </c>
       <c r="I26" s="3">
+        <v>193800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>84900</v>
+      </c>
+      <c r="K26" s="3">
         <v>376900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>81800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>249300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>112800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>210700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-11200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>104200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-94900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>374500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>141200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>163100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>42600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-7500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>108500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>155000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>35400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>87900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-75900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>228800</v>
+        <v>281500</v>
       </c>
       <c r="E27" s="3">
-        <v>9600</v>
+        <v>283100</v>
       </c>
       <c r="F27" s="3">
-        <v>281800</v>
+        <v>238000</v>
       </c>
       <c r="G27" s="3">
-        <v>186300</v>
+        <v>10000</v>
       </c>
       <c r="H27" s="3">
-        <v>81500</v>
+        <v>293100</v>
       </c>
       <c r="I27" s="3">
+        <v>193700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K27" s="3">
         <v>376800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>81700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>249300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>112800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>210600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>104100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-94900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>374500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>141100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>155800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>42600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>108500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>154900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>35400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>87800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,70 +2418,76 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>42000</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>58500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>2600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>5000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-24100</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>123000</v>
+        <v>-33200</v>
       </c>
       <c r="F32" s="3">
-        <v>-104200</v>
+        <v>-25100</v>
       </c>
       <c r="G32" s="3">
-        <v>9600</v>
+        <v>127900</v>
       </c>
       <c r="H32" s="3">
-        <v>166800</v>
+        <v>-108300</v>
       </c>
       <c r="I32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-184500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>180700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-118800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>35800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-139500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>81800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-16400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-391500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-35700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-182300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>89000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-32400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-14600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-91500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-14000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-17600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>228800</v>
+        <v>281500</v>
       </c>
       <c r="E33" s="3">
-        <v>9600</v>
+        <v>283100</v>
       </c>
       <c r="F33" s="3">
-        <v>281800</v>
+        <v>238000</v>
       </c>
       <c r="G33" s="3">
-        <v>186300</v>
+        <v>10000</v>
       </c>
       <c r="H33" s="3">
-        <v>81500</v>
+        <v>293100</v>
       </c>
       <c r="I33" s="3">
+        <v>193700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K33" s="3">
         <v>376800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>81700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>249300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>112800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>210600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>104100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>374500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>141100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>214200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>45200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>108500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>154900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>35400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>87800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>228800</v>
+        <v>281500</v>
       </c>
       <c r="E35" s="3">
-        <v>9600</v>
+        <v>283100</v>
       </c>
       <c r="F35" s="3">
-        <v>281800</v>
+        <v>238000</v>
       </c>
       <c r="G35" s="3">
-        <v>186300</v>
+        <v>10000</v>
       </c>
       <c r="H35" s="3">
-        <v>81500</v>
+        <v>293100</v>
       </c>
       <c r="I35" s="3">
+        <v>193700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K35" s="3">
         <v>376800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>81700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>249300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>112800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>210600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>104100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>374500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>141100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>214200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>45200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>108500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>154900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>35400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>87800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,262 +3179,282 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>385500</v>
+        <v>322300</v>
       </c>
       <c r="E41" s="3">
-        <v>361700</v>
+        <v>290100</v>
       </c>
       <c r="F41" s="3">
-        <v>272900</v>
+        <v>400900</v>
       </c>
       <c r="G41" s="3">
-        <v>159800</v>
+        <v>376200</v>
       </c>
       <c r="H41" s="3">
-        <v>160300</v>
+        <v>283800</v>
       </c>
       <c r="I41" s="3">
+        <v>166200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>166700</v>
+      </c>
+      <c r="K41" s="3">
         <v>515400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>645300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>314400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>276700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>189200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>156800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>99000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>130400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>132500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>141000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>158900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>276300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>219700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>98600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>264100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>149300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>242600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>215900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>246900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>538100</v>
+        <v>273300</v>
       </c>
       <c r="E42" s="3">
-        <v>346100</v>
+        <v>351400</v>
       </c>
       <c r="F42" s="3">
-        <v>188900</v>
+        <v>559700</v>
       </c>
       <c r="G42" s="3">
-        <v>333800</v>
+        <v>360000</v>
       </c>
       <c r="H42" s="3">
-        <v>452800</v>
+        <v>196400</v>
       </c>
       <c r="I42" s="3">
+        <v>347200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>471000</v>
+      </c>
+      <c r="K42" s="3">
         <v>671600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>433900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>628700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>718600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>492700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>302400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>139000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>164900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>135800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>105200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>141700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>126700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>93200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>127700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>298600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>291600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>381900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>312700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>342800</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1532900</v>
+        <v>2556700</v>
       </c>
       <c r="E43" s="3">
-        <v>1554500</v>
+        <v>1720600</v>
       </c>
       <c r="F43" s="3">
-        <v>1603000</v>
+        <v>1594400</v>
       </c>
       <c r="G43" s="3">
-        <v>1600500</v>
+        <v>1616800</v>
       </c>
       <c r="H43" s="3">
-        <v>1650200</v>
+        <v>1667300</v>
       </c>
       <c r="I43" s="3">
+        <v>1664800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1716400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1457400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1511200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1482800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1498700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1409600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1119900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1195900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1112600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>917700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>963100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>956400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1106600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1123800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1085700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1315800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1334900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1255000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1318800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1221900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3">
-        <v>6200</v>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
+      <c r="G44" s="3">
+        <v>6500</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
@@ -3283,453 +3474,489 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>7100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>7300</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>7100</v>
       </c>
       <c r="Q44" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>7100</v>
+      </c>
+      <c r="S44" s="3">
         <v>5900</v>
-      </c>
-      <c r="R44" s="3">
-        <v>5700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>6400</v>
       </c>
       <c r="T44" s="3">
         <v>5700</v>
       </c>
       <c r="U44" s="3">
+        <v>6400</v>
+      </c>
+      <c r="V44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W44" s="3">
         <v>7900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>8200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>9800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>12500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>12300</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>12300</v>
       </c>
       <c r="AA44" s="3">
         <v>12300</v>
       </c>
       <c r="AB44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AD44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>391100</v>
+        <v>366500</v>
       </c>
       <c r="E45" s="3">
-        <v>432800</v>
+        <v>349800</v>
       </c>
       <c r="F45" s="3">
-        <v>362200</v>
+        <v>406800</v>
       </c>
       <c r="G45" s="3">
-        <v>413200</v>
+        <v>450200</v>
       </c>
       <c r="H45" s="3">
-        <v>303700</v>
+        <v>376700</v>
       </c>
       <c r="I45" s="3">
+        <v>429800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>315800</v>
+      </c>
+      <c r="K45" s="3">
         <v>239600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>249500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>465800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>515600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>666900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>478800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>549600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>516600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>3698200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3700200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3695400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>242700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>247800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>294200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>300500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>225700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>127200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>166100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>231600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2847500</v>
+        <v>2646000</v>
       </c>
       <c r="E46" s="3">
-        <v>2701300</v>
+        <v>2711900</v>
       </c>
       <c r="F46" s="3">
-        <v>2426900</v>
+        <v>2961800</v>
       </c>
       <c r="G46" s="3">
-        <v>2507300</v>
+        <v>2809700</v>
       </c>
       <c r="H46" s="3">
-        <v>2566900</v>
+        <v>2524300</v>
       </c>
       <c r="I46" s="3">
+        <v>2608000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>2669900</v>
+      </c>
+      <c r="K46" s="3">
         <v>2883900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2839800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2891700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3009600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2758400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2064900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1912100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1931600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4890200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4915200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4958800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1758000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1692500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1614300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2188800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>2014000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2018900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>2025900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2055500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3833300</v>
+        <v>3962900</v>
       </c>
       <c r="E47" s="3">
-        <v>3768800</v>
+        <v>3831300</v>
       </c>
       <c r="F47" s="3">
-        <v>3781700</v>
+        <v>3987100</v>
       </c>
       <c r="G47" s="3">
-        <v>3836700</v>
+        <v>3920000</v>
       </c>
       <c r="H47" s="3">
-        <v>4008100</v>
+        <v>3933400</v>
       </c>
       <c r="I47" s="3">
+        <v>3990700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4168900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3869100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3712800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3614300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3560700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3649700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4006600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4051500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4060400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>3740300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>2784500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>2790500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>3292800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4357200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4151900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>4588500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4512800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>4377600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>4366800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>4249400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>508500</v>
+        <v>561000</v>
       </c>
       <c r="E48" s="3">
-        <v>498400</v>
+        <v>551500</v>
       </c>
       <c r="F48" s="3">
-        <v>503600</v>
+        <v>528900</v>
       </c>
       <c r="G48" s="3">
-        <v>512100</v>
+        <v>518400</v>
       </c>
       <c r="H48" s="3">
-        <v>508900</v>
+        <v>523800</v>
       </c>
       <c r="I48" s="3">
+        <v>532700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>529300</v>
+      </c>
+      <c r="K48" s="3">
         <v>499800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>502200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>490000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>513200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>519000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>529900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>503700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>536100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>515100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>522600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>474800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>445800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>565300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>636500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>708200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>717100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>723800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>733000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>936500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2618600</v>
+        <v>2949300</v>
       </c>
       <c r="E49" s="3">
-        <v>2553000</v>
+        <v>2944800</v>
       </c>
       <c r="F49" s="3">
-        <v>2519500</v>
+        <v>2723700</v>
       </c>
       <c r="G49" s="3">
-        <v>2508200</v>
+        <v>2655500</v>
       </c>
       <c r="H49" s="3">
-        <v>2506900</v>
+        <v>2620600</v>
       </c>
       <c r="I49" s="3">
+        <v>2608800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2607500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2464700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2281400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2209500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2296300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2287100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2309000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2147000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2183200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1897900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1901900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1922700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>2072000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2611900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2607900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2860200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2835000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>2804500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>2780500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2684100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>747600</v>
+        <v>773600</v>
       </c>
       <c r="E52" s="3">
-        <v>783800</v>
+        <v>769800</v>
       </c>
       <c r="F52" s="3">
-        <v>656600</v>
+        <v>777600</v>
       </c>
       <c r="G52" s="3">
-        <v>713300</v>
+        <v>815200</v>
       </c>
       <c r="H52" s="3">
-        <v>694200</v>
+        <v>682900</v>
       </c>
       <c r="I52" s="3">
+        <v>741900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>722000</v>
+      </c>
+      <c r="K52" s="3">
         <v>707500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>928300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>912900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1007000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1018700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1017800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>717700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>679500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>564500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>537800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>531200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>420500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>506300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>478900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>483700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>645900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>821600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>801200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>502700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10555600</v>
+        <v>10892800</v>
       </c>
       <c r="E54" s="3">
-        <v>10305300</v>
+        <v>10809300</v>
       </c>
       <c r="F54" s="3">
-        <v>9888200</v>
+        <v>10979100</v>
       </c>
       <c r="G54" s="3">
-        <v>10077600</v>
+        <v>10718800</v>
       </c>
       <c r="H54" s="3">
         <v>10285000</v>
       </c>
       <c r="I54" s="3">
+        <v>10482000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>10697700</v>
+      </c>
+      <c r="K54" s="3">
         <v>10424900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10264500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10118400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10386900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10232800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9928200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9332100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9390800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11608000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10662000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10678100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7989100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9733200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9489500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10829400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10724900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10746400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>10707500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10428300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>530700</v>
+        <v>493000</v>
       </c>
       <c r="E57" s="3">
-        <v>461900</v>
+        <v>570400</v>
       </c>
       <c r="F57" s="3">
-        <v>434200</v>
+        <v>552000</v>
       </c>
       <c r="G57" s="3">
-        <v>519600</v>
+        <v>480500</v>
       </c>
       <c r="H57" s="3">
-        <v>652600</v>
+        <v>451700</v>
       </c>
       <c r="I57" s="3">
+        <v>540400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>678800</v>
+      </c>
+      <c r="K57" s="3">
         <v>461200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>378900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>441200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>387800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>378900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>339500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>384200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>386200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>325900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>356300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>321300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>452300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>502700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>379100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>600600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>560600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>491200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>414000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>481200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>235800</v>
+        <v>234300</v>
       </c>
       <c r="E58" s="3">
-        <v>201800</v>
+        <v>204000</v>
       </c>
       <c r="F58" s="3">
-        <v>226900</v>
+        <v>245300</v>
       </c>
       <c r="G58" s="3">
-        <v>295600</v>
+        <v>209900</v>
       </c>
       <c r="H58" s="3">
-        <v>317800</v>
+        <v>236000</v>
       </c>
       <c r="I58" s="3">
+        <v>307500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>330500</v>
+      </c>
+      <c r="K58" s="3">
         <v>279800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>323900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>394200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>475900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>599500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>620500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>522900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>537000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>538400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>485700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>392000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>442600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>640000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>604400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>607800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>1333000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>1331300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1273400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>1199900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1474100</v>
+        <v>1492600</v>
       </c>
       <c r="E59" s="3">
-        <v>1503400</v>
+        <v>1482300</v>
       </c>
       <c r="F59" s="3">
-        <v>1207900</v>
+        <v>1533200</v>
       </c>
       <c r="G59" s="3">
-        <v>1254200</v>
+        <v>1563800</v>
       </c>
       <c r="H59" s="3">
-        <v>1061600</v>
+        <v>1256400</v>
       </c>
       <c r="I59" s="3">
+        <v>1304600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1104200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1107600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1051100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>977500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>904600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>784900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>568200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>565500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>535000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3446900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3365200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3460000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>598400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>692500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>779200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1012400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1272700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1197100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1230500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1158800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2240600</v>
+        <v>2219800</v>
       </c>
       <c r="E60" s="3">
-        <v>2167200</v>
+        <v>2256700</v>
       </c>
       <c r="F60" s="3">
-        <v>1869100</v>
+        <v>2330500</v>
       </c>
       <c r="G60" s="3">
-        <v>2069400</v>
+        <v>2254100</v>
       </c>
       <c r="H60" s="3">
-        <v>2032000</v>
+        <v>1944100</v>
       </c>
       <c r="I60" s="3">
+        <v>2152500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2113600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1848600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1753900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1812900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1768400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1763400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1528200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1471100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1458300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4311200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4207200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4173400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1493400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1835200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1762700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2220800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3166300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3019600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2917900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>2839900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2012900</v>
+        <v>1917700</v>
       </c>
       <c r="E61" s="3">
-        <v>2007000</v>
+        <v>1998100</v>
       </c>
       <c r="F61" s="3">
-        <v>1725000</v>
+        <v>2093700</v>
       </c>
       <c r="G61" s="3">
-        <v>1952000</v>
+        <v>2087600</v>
       </c>
       <c r="H61" s="3">
-        <v>1929500</v>
+        <v>1794300</v>
       </c>
       <c r="I61" s="3">
+        <v>2030400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2006900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2338800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2558000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2458400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2709000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2540100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2539200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2259300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2368600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1973800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2075500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2243200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2405700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2770300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2594600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3083500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2270500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2413600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2502500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2565700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2220500</v>
+        <v>2348300</v>
       </c>
       <c r="E62" s="3">
-        <v>2187100</v>
+        <v>2167300</v>
       </c>
       <c r="F62" s="3">
-        <v>2291200</v>
+        <v>2309600</v>
       </c>
       <c r="G62" s="3">
-        <v>2287800</v>
+        <v>2274900</v>
       </c>
       <c r="H62" s="3">
-        <v>2399100</v>
+        <v>2383200</v>
       </c>
       <c r="I62" s="3">
+        <v>2379600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2495300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2394700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2486700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2577300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2539300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2642000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2740700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2749700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2335300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1983400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1415900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1417800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1356300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1699900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1690400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1851100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1881500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1885300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1879000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>1813900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6475000</v>
+        <v>6302700</v>
       </c>
       <c r="E66" s="3">
-        <v>6362300</v>
+        <v>6423300</v>
       </c>
       <c r="F66" s="3">
-        <v>5886400</v>
+        <v>6734900</v>
       </c>
       <c r="G66" s="3">
-        <v>6310300</v>
+        <v>6617600</v>
       </c>
       <c r="H66" s="3">
-        <v>6361600</v>
+        <v>6122600</v>
       </c>
       <c r="I66" s="3">
+        <v>6563500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6616900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6583100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6799500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6849400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7017600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6946300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6809000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6358800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6163000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8511100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7939600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>8077200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5256200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6306400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6048600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7156500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7319400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7319400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7300500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7220500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1943100</v>
+        <v>2290200</v>
       </c>
       <c r="E72" s="3">
-        <v>1804900</v>
+        <v>2093500</v>
       </c>
       <c r="F72" s="3">
-        <v>2354900</v>
+        <v>2021100</v>
       </c>
       <c r="G72" s="3">
-        <v>2119900</v>
+        <v>1877400</v>
       </c>
       <c r="H72" s="3">
-        <v>2321200</v>
+        <v>2449400</v>
       </c>
       <c r="I72" s="3">
+        <v>2204900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2414400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2238900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2030600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1882200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1923300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>2336200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2157000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2070700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>2111700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>2042500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1667000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1135000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1186700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1469500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1405400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1468700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1446100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1456500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1423600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1290000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4080500</v>
+        <v>4590100</v>
       </c>
       <c r="E76" s="3">
-        <v>3943000</v>
+        <v>4386000</v>
       </c>
       <c r="F76" s="3">
-        <v>4001700</v>
+        <v>4244300</v>
       </c>
       <c r="G76" s="3">
-        <v>3767300</v>
+        <v>4101200</v>
       </c>
       <c r="H76" s="3">
-        <v>3923400</v>
+        <v>4162300</v>
       </c>
       <c r="I76" s="3">
+        <v>3918500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4080800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3841800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3465000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3269000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3369200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3286400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3119200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2973300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3227700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3096900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2722400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2600800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>2732900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3426800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3441000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3672900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3405500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3427000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3407000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>3207700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>228800</v>
+        <v>281500</v>
       </c>
       <c r="E81" s="3">
-        <v>9600</v>
+        <v>283100</v>
       </c>
       <c r="F81" s="3">
-        <v>281800</v>
+        <v>238000</v>
       </c>
       <c r="G81" s="3">
-        <v>186300</v>
+        <v>10000</v>
       </c>
       <c r="H81" s="3">
-        <v>81500</v>
+        <v>293100</v>
       </c>
       <c r="I81" s="3">
+        <v>193700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K81" s="3">
         <v>376800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>81700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>249300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>112800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>210600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>104100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-52900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>374500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>141100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>214200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>45200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>108500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>154900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-21500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>35400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>87800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-76000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>57600</v>
+        <v>61000</v>
       </c>
       <c r="E83" s="3">
-        <v>55800</v>
+        <v>62900</v>
       </c>
       <c r="F83" s="3">
-        <v>55000</v>
+        <v>59900</v>
       </c>
       <c r="G83" s="3">
-        <v>55300</v>
+        <v>58000</v>
       </c>
       <c r="H83" s="3">
-        <v>54900</v>
+        <v>57200</v>
       </c>
       <c r="I83" s="3">
+        <v>57500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K83" s="3">
         <v>46800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>46200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>47800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>47700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>47900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>47800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>43400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>45800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>44000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>40900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>41000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>38400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>46300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>49700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>59700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>52800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>53700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>51600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>57800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>497000</v>
+        <v>192800</v>
       </c>
       <c r="E89" s="3">
-        <v>392500</v>
+        <v>209900</v>
       </c>
       <c r="F89" s="3">
-        <v>189200</v>
+        <v>516900</v>
       </c>
       <c r="G89" s="3">
-        <v>120700</v>
+        <v>408300</v>
       </c>
       <c r="H89" s="3">
-        <v>26500</v>
+        <v>196800</v>
       </c>
       <c r="I89" s="3">
+        <v>125500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>27600</v>
+      </c>
+      <c r="K89" s="3">
         <v>417900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>148100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>332300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>511500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>337300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>487700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>164000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>12400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>82700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>109100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>41300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>145200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>85100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-87100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>56400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>357600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>135400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>244300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-14400</v>
+        <v>-120500</v>
       </c>
       <c r="E91" s="3">
-        <v>-6700</v>
+        <v>-107400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2400</v>
+        <v>-110900</v>
       </c>
       <c r="G91" s="3">
-        <v>-15000</v>
+        <v>-47300</v>
       </c>
       <c r="H91" s="3">
-        <v>-6400</v>
+        <v>-27000</v>
       </c>
       <c r="I91" s="3">
+        <v>-105500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-6100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-5000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-4700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-4700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-5900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-2900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-7500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-74400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-419300</v>
+        <v>-71200</v>
       </c>
       <c r="E94" s="3">
-        <v>-282500</v>
+        <v>-7400</v>
       </c>
       <c r="F94" s="3">
-        <v>88200</v>
+        <v>-436200</v>
       </c>
       <c r="G94" s="3">
-        <v>47600</v>
+        <v>-293900</v>
       </c>
       <c r="H94" s="3">
-        <v>154800</v>
+        <v>91800</v>
       </c>
       <c r="I94" s="3">
+        <v>49500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>161000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-377600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>440800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-103900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-357900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-285200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-240400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-45200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-127200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-57800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>26900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-101800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-44200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>88300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>116500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>16900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-190400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-42000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-127100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7418,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-181200</v>
+        <v>-213300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-19900</v>
       </c>
       <c r="G96" s="3">
-        <v>-138400</v>
+        <v>-188400</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-143900</v>
+      </c>
+      <c r="J96" s="3">
         <v>-100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-135700</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-111900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-114900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-13600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-90700</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-69500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-69400</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-139700</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7758,100 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53900</v>
+        <v>-89500</v>
       </c>
       <c r="E100" s="3">
-        <v>-21200</v>
+        <v>-313200</v>
       </c>
       <c r="F100" s="3">
-        <v>-164300</v>
+        <v>-56000</v>
       </c>
       <c r="G100" s="3">
-        <v>-168800</v>
+        <v>-22100</v>
       </c>
       <c r="H100" s="3">
-        <v>-536400</v>
+        <v>-170900</v>
       </c>
       <c r="I100" s="3">
+        <v>-175500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-557900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-170100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-269000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-179800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-66100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-17900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-196100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-148200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>104800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-33500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-136500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-175700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>58900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>80200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-143200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>399100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-166500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-140600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-132600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-290300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>23800</v>
+        <v>32100</v>
       </c>
       <c r="E102" s="3">
-        <v>88800</v>
+        <v>-110800</v>
       </c>
       <c r="F102" s="3">
-        <v>113100</v>
+        <v>24800</v>
       </c>
       <c r="G102" s="3">
+        <v>92300</v>
+      </c>
+      <c r="H102" s="3">
+        <v>117700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-355100</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-369300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-129900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>319900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>48600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>87500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>34200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>51200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-29400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-8500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-16700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-107500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>102200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>121100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-142000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>114800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-93300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>26600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-39200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-173100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1741500</v>
+        <v>1780100</v>
       </c>
       <c r="E8" s="3">
-        <v>1964300</v>
+        <v>1745300</v>
       </c>
       <c r="F8" s="3">
-        <v>1857600</v>
+        <v>1968600</v>
       </c>
       <c r="G8" s="3">
-        <v>1654200</v>
+        <v>1861600</v>
       </c>
       <c r="H8" s="3">
-        <v>1580500</v>
+        <v>1657800</v>
       </c>
       <c r="I8" s="3">
-        <v>1944900</v>
+        <v>1583900</v>
       </c>
       <c r="J8" s="3">
+        <v>1949100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1918300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1424000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1376800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1284300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1250700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1071300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1194000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1198000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1138800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1242500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1047100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1028500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1156900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1309200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1152500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1681300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1316700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1334500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1233900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1159200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>141600</v>
+        <v>1372500</v>
       </c>
       <c r="E9" s="3">
-        <v>1573000</v>
+        <v>1324500</v>
       </c>
       <c r="F9" s="3">
-        <v>1526200</v>
+        <v>1576400</v>
       </c>
       <c r="G9" s="3">
-        <v>1568800</v>
+        <v>1529500</v>
       </c>
       <c r="H9" s="3">
-        <v>1184100</v>
+        <v>1597000</v>
       </c>
       <c r="I9" s="3">
-        <v>1579400</v>
+        <v>1204000</v>
       </c>
       <c r="J9" s="3">
+        <v>1582800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1582400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1141900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1031600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1100800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>957800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>879700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>892100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>936700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1105600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>782300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>746400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>773700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>947700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1048200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>870900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1306100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1203200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1093200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>880800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>925600</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1599800</v>
+        <v>407600</v>
       </c>
       <c r="E10" s="3">
-        <v>391300</v>
+        <v>420800</v>
       </c>
       <c r="F10" s="3">
-        <v>331400</v>
+        <v>392100</v>
       </c>
       <c r="G10" s="3">
-        <v>85400</v>
+        <v>332100</v>
       </c>
       <c r="H10" s="3">
-        <v>396400</v>
+        <v>60700</v>
       </c>
       <c r="I10" s="3">
-        <v>365500</v>
+        <v>379900</v>
       </c>
       <c r="J10" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K10" s="3">
         <v>335900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>282100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>345200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>183500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>292900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>191600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>302000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>261300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>33200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>460200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>254800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>209100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>261100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>281600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>375200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>113500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>241200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>353200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>233600</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,31 +1262,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>9300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>23800</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+      <c r="H14" s="3">
+        <v>17100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1278,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-50600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-92500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>120000</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
@@ -1307,8 +1327,8 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1331,28 +1351,31 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>700</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
+      <c r="H15" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3800</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -1363,8 +1386,8 @@
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1462100</v>
       </c>
       <c r="E17" s="3">
-        <v>1630700</v>
+        <v>1370000</v>
       </c>
       <c r="F17" s="3">
-        <v>1555100</v>
+        <v>1634300</v>
       </c>
       <c r="G17" s="3">
-        <v>1640900</v>
+        <v>1558500</v>
       </c>
       <c r="H17" s="3">
-        <v>1251600</v>
+        <v>1644500</v>
       </c>
       <c r="I17" s="3">
-        <v>1668700</v>
+        <v>1254300</v>
       </c>
       <c r="J17" s="3">
+        <v>1672300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1590700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1010100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1066800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1022500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1011200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>849100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1082600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1055100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1205900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>965600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>829200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>912400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1031000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1154200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>967100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1343200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1343700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1198500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1003500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1185500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>318000</v>
       </c>
       <c r="E18" s="3">
-        <v>333600</v>
+        <v>375300</v>
       </c>
       <c r="F18" s="3">
-        <v>302400</v>
+        <v>334300</v>
       </c>
       <c r="G18" s="3">
-        <v>13200</v>
+        <v>303100</v>
       </c>
       <c r="H18" s="3">
-        <v>328900</v>
+        <v>13300</v>
       </c>
       <c r="I18" s="3">
-        <v>276200</v>
+        <v>329600</v>
       </c>
       <c r="J18" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K18" s="3">
         <v>327600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>413800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>310000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>261800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>239600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>222200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>111400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>142900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-67100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>276800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>217900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>116200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>125900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>155000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>185400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>338100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-27000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>135900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>230400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>55100</v>
       </c>
       <c r="E20" s="3">
-        <v>33200</v>
+        <v>27500</v>
       </c>
       <c r="F20" s="3">
+        <v>33300</v>
+      </c>
+      <c r="G20" s="3">
         <v>25100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-127900</v>
-      </c>
       <c r="H20" s="3">
-        <v>108300</v>
+        <v>-128200</v>
       </c>
       <c r="I20" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-173500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>184500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-180700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>118800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-35800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>139500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-81800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>391500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>35700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>182300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-89000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>32400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>91500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>17600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>26000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>434700</v>
       </c>
       <c r="E21" s="3">
-        <v>429700</v>
+        <v>464000</v>
       </c>
       <c r="F21" s="3">
-        <v>387400</v>
+        <v>430700</v>
       </c>
       <c r="G21" s="3">
-        <v>-56700</v>
+        <v>388300</v>
       </c>
       <c r="H21" s="3">
-        <v>494400</v>
+        <v>-56800</v>
       </c>
       <c r="I21" s="3">
-        <v>323700</v>
+        <v>495500</v>
       </c>
       <c r="J21" s="3">
+        <v>324400</v>
+      </c>
+      <c r="K21" s="3">
         <v>211200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>645200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>175500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>428400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>251400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>409500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>77500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>202800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>712300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>294500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>339500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>165900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>112300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>267500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>412400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>117200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>203700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>299700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>57500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>47100</v>
       </c>
       <c r="E22" s="3">
+        <v>48900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>47300</v>
+      </c>
+      <c r="G22" s="3">
         <v>47200</v>
       </c>
-      <c r="F22" s="3">
-        <v>47100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>47500</v>
-      </c>
       <c r="H22" s="3">
-        <v>45100</v>
+        <v>47600</v>
       </c>
       <c r="I22" s="3">
-        <v>53000</v>
+        <v>45200</v>
       </c>
       <c r="J22" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K22" s="3">
         <v>59200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>55800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>63100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>63200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>73700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>69200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>85000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>88300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>101600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>118300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>123000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>353100</v>
+        <v>326100</v>
       </c>
       <c r="E23" s="3">
-        <v>319500</v>
+        <v>353900</v>
       </c>
       <c r="F23" s="3">
-        <v>280400</v>
+        <v>320200</v>
       </c>
       <c r="G23" s="3">
-        <v>-162200</v>
+        <v>281000</v>
       </c>
       <c r="H23" s="3">
-        <v>392100</v>
+        <v>-162500</v>
       </c>
       <c r="I23" s="3">
-        <v>213100</v>
+        <v>393000</v>
       </c>
       <c r="J23" s="3">
+        <v>213600</v>
+      </c>
+      <c r="K23" s="3">
         <v>94900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>547400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>327800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>142800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>308700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-31800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-111000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>614800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>199900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>235400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>64300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>148600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>267700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-23800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>48400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>129800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-123400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>71500</v>
+        <v>74700</v>
       </c>
       <c r="E24" s="3">
-        <v>36200</v>
+        <v>71700</v>
       </c>
       <c r="F24" s="3">
-        <v>42300</v>
+        <v>36300</v>
       </c>
       <c r="G24" s="3">
-        <v>-172200</v>
+        <v>42400</v>
       </c>
       <c r="H24" s="3">
-        <v>99000</v>
+        <v>-172600</v>
       </c>
       <c r="I24" s="3">
-        <v>19300</v>
+        <v>99200</v>
       </c>
       <c r="J24" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>170500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>78500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>98000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-20600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-16100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>240300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>72300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>112700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>41900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-47400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>281600</v>
+        <v>251400</v>
       </c>
       <c r="E26" s="3">
-        <v>283300</v>
+        <v>282200</v>
       </c>
       <c r="F26" s="3">
-        <v>238100</v>
+        <v>283900</v>
       </c>
       <c r="G26" s="3">
-        <v>10000</v>
+        <v>238600</v>
       </c>
       <c r="H26" s="3">
-        <v>293200</v>
+        <v>10100</v>
       </c>
       <c r="I26" s="3">
-        <v>193800</v>
+        <v>293800</v>
       </c>
       <c r="J26" s="3">
+        <v>194300</v>
+      </c>
+      <c r="K26" s="3">
         <v>84900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>376900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>81800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>249300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>112800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>210700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>104200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-94900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>374500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>141200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>163100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>108500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>155000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>35400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>87900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-75900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>281500</v>
+        <v>251200</v>
       </c>
       <c r="E27" s="3">
-        <v>283100</v>
+        <v>282100</v>
       </c>
       <c r="F27" s="3">
-        <v>238000</v>
+        <v>283700</v>
       </c>
       <c r="G27" s="3">
+        <v>238500</v>
+      </c>
+      <c r="H27" s="3">
         <v>10000</v>
       </c>
-      <c r="H27" s="3">
-        <v>293100</v>
-      </c>
       <c r="I27" s="3">
-        <v>193700</v>
+        <v>293700</v>
       </c>
       <c r="J27" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K27" s="3">
         <v>84800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>376800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>249300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>112800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>210600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>104100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-94900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>374500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>141100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>155800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>42600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>108500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>154900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>35400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>87800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2450,17 +2511,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2468,29 +2529,29 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>42000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>58500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>5000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>-55100</v>
       </c>
       <c r="E32" s="3">
-        <v>-33200</v>
+        <v>-27500</v>
       </c>
       <c r="F32" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-25100</v>
       </c>
-      <c r="G32" s="3">
-        <v>127900</v>
-      </c>
       <c r="H32" s="3">
-        <v>-108300</v>
+        <v>128200</v>
       </c>
       <c r="I32" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>173500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-184500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>180700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-118800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>35800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-139500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>81800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-391500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-35700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-182300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>89000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-32400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-91500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-17600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>281500</v>
+        <v>251200</v>
       </c>
       <c r="E33" s="3">
-        <v>283100</v>
+        <v>282100</v>
       </c>
       <c r="F33" s="3">
-        <v>238000</v>
+        <v>283700</v>
       </c>
       <c r="G33" s="3">
+        <v>238500</v>
+      </c>
+      <c r="H33" s="3">
         <v>10000</v>
       </c>
-      <c r="H33" s="3">
-        <v>293100</v>
-      </c>
       <c r="I33" s="3">
-        <v>193700</v>
+        <v>293700</v>
       </c>
       <c r="J33" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K33" s="3">
         <v>84800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>376800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>249300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>112800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>210600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>104100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-52900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>374500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>141100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>45200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>108500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>154900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>35400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>87800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>281500</v>
+        <v>251200</v>
       </c>
       <c r="E35" s="3">
-        <v>283100</v>
+        <v>282100</v>
       </c>
       <c r="F35" s="3">
-        <v>238000</v>
+        <v>283700</v>
       </c>
       <c r="G35" s="3">
+        <v>238500</v>
+      </c>
+      <c r="H35" s="3">
         <v>10000</v>
       </c>
-      <c r="H35" s="3">
-        <v>293100</v>
-      </c>
       <c r="I35" s="3">
-        <v>193700</v>
+        <v>293700</v>
       </c>
       <c r="J35" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K35" s="3">
         <v>84800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>376800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>249300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>112800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>210600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>104100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-52900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>374500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>141100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>45200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>108500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>154900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>35400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>87800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,266 +3267,276 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>322300</v>
+        <v>440600</v>
       </c>
       <c r="E41" s="3">
-        <v>290100</v>
+        <v>323000</v>
       </c>
       <c r="F41" s="3">
-        <v>400900</v>
+        <v>290800</v>
       </c>
       <c r="G41" s="3">
-        <v>376200</v>
+        <v>401800</v>
       </c>
       <c r="H41" s="3">
-        <v>283800</v>
+        <v>377000</v>
       </c>
       <c r="I41" s="3">
-        <v>166200</v>
+        <v>284500</v>
       </c>
       <c r="J41" s="3">
+        <v>166600</v>
+      </c>
+      <c r="K41" s="3">
         <v>166700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>515400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>645300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>314400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>276700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>189200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>156800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>99000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>132500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>141000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>158900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>276300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>219700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>98600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>264100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>149300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>242600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>215900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>246900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>273300</v>
+        <v>311400</v>
       </c>
       <c r="E42" s="3">
-        <v>351400</v>
+        <v>273900</v>
       </c>
       <c r="F42" s="3">
-        <v>559700</v>
+        <v>352100</v>
       </c>
       <c r="G42" s="3">
-        <v>360000</v>
+        <v>560900</v>
       </c>
       <c r="H42" s="3">
-        <v>196400</v>
+        <v>360800</v>
       </c>
       <c r="I42" s="3">
-        <v>347200</v>
+        <v>196900</v>
       </c>
       <c r="J42" s="3">
+        <v>348000</v>
+      </c>
+      <c r="K42" s="3">
         <v>471000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>671600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>433900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>628700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>718600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>492700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>302400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>139000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>164900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>135800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>105200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>141700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>126700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>93200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>127700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>298600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>291600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>381900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>312700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>342800</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2556700</v>
+        <v>1570600</v>
       </c>
       <c r="E43" s="3">
-        <v>1720600</v>
+        <v>1687600</v>
       </c>
       <c r="F43" s="3">
-        <v>1594400</v>
+        <v>1724400</v>
       </c>
       <c r="G43" s="3">
-        <v>1616800</v>
+        <v>1597900</v>
       </c>
       <c r="H43" s="3">
-        <v>1667300</v>
+        <v>1620400</v>
       </c>
       <c r="I43" s="3">
-        <v>1664800</v>
+        <v>1671000</v>
       </c>
       <c r="J43" s="3">
+        <v>1668400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1716400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1457400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1511200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1482800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1498700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1409600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1119900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1195900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1112600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>917700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>963100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>956400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1106600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1123800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1085700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1315800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1334900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1255000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1318800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1221900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3453,11 +3549,11 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3">
         <v>6500</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -3480,41 +3576,41 @@
       <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="3">
         <v>7100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>7300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>6400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>5700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>7900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>8200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>9800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>12500</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>12300</v>
       </c>
       <c r="AB44" s="3">
         <v>12300</v>
@@ -3523,440 +3619,458 @@
         <v>12300</v>
       </c>
       <c r="AD44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AE44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>366500</v>
+        <v>410400</v>
       </c>
       <c r="E45" s="3">
-        <v>349800</v>
+        <v>367300</v>
       </c>
       <c r="F45" s="3">
-        <v>406800</v>
+        <v>350600</v>
       </c>
       <c r="G45" s="3">
-        <v>450200</v>
+        <v>407700</v>
       </c>
       <c r="H45" s="3">
-        <v>376700</v>
+        <v>451200</v>
       </c>
       <c r="I45" s="3">
-        <v>429800</v>
+        <v>377500</v>
       </c>
       <c r="J45" s="3">
+        <v>430700</v>
+      </c>
+      <c r="K45" s="3">
         <v>315800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>239600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>249500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>465800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>515600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>666900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>478800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>549600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>516600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3698200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3700200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3695400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>242700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>247800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>294200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>300500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>225700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>127200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>166100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>231600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2646000</v>
+        <v>2733000</v>
       </c>
       <c r="E46" s="3">
-        <v>2711900</v>
+        <v>2651800</v>
       </c>
       <c r="F46" s="3">
-        <v>2961800</v>
+        <v>2717800</v>
       </c>
       <c r="G46" s="3">
-        <v>2809700</v>
+        <v>2968300</v>
       </c>
       <c r="H46" s="3">
-        <v>2524300</v>
+        <v>2815800</v>
       </c>
       <c r="I46" s="3">
-        <v>2608000</v>
+        <v>2529800</v>
       </c>
       <c r="J46" s="3">
+        <v>2613700</v>
+      </c>
+      <c r="K46" s="3">
         <v>2669900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2883900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2839800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2891700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3009600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2758400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2064900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1912100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1931600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4890200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4915200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4958800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1758000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1692500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1614300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2188800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2014000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2018900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2025900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2055500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3962900</v>
+        <v>4050100</v>
       </c>
       <c r="E47" s="3">
-        <v>3831300</v>
+        <v>3971500</v>
       </c>
       <c r="F47" s="3">
-        <v>3987100</v>
+        <v>3839600</v>
       </c>
       <c r="G47" s="3">
-        <v>3920000</v>
+        <v>3995800</v>
       </c>
       <c r="H47" s="3">
-        <v>3933400</v>
+        <v>3928600</v>
       </c>
       <c r="I47" s="3">
-        <v>3990700</v>
+        <v>3942000</v>
       </c>
       <c r="J47" s="3">
+        <v>3999400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4168900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3869100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3712800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3614300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3560700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3649700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4006600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4051500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4060400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3740300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2784500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2790500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3292800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4357200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4151900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4588500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4512800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4377600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4366800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4249400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>561000</v>
+        <v>604400</v>
       </c>
       <c r="E48" s="3">
-        <v>551500</v>
+        <v>562200</v>
       </c>
       <c r="F48" s="3">
-        <v>528900</v>
+        <v>552700</v>
       </c>
       <c r="G48" s="3">
-        <v>518400</v>
+        <v>530100</v>
       </c>
       <c r="H48" s="3">
-        <v>523800</v>
+        <v>519500</v>
       </c>
       <c r="I48" s="3">
-        <v>532700</v>
+        <v>524900</v>
       </c>
       <c r="J48" s="3">
+        <v>533800</v>
+      </c>
+      <c r="K48" s="3">
         <v>529300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>499800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>502200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>490000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>513200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>519000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>529900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>503700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>536100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>515100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>522600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>474800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>445800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>565300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>636500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>708200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>717100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>723800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>733000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>936500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2949300</v>
+        <v>2951000</v>
       </c>
       <c r="E49" s="3">
-        <v>2944800</v>
+        <v>2955800</v>
       </c>
       <c r="F49" s="3">
-        <v>2723700</v>
+        <v>2951300</v>
       </c>
       <c r="G49" s="3">
-        <v>2655500</v>
+        <v>2729600</v>
       </c>
       <c r="H49" s="3">
-        <v>2620600</v>
+        <v>2661300</v>
       </c>
       <c r="I49" s="3">
-        <v>2608800</v>
+        <v>2626300</v>
       </c>
       <c r="J49" s="3">
+        <v>2614500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2607500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2464700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2281400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2209500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2296300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2287100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2309000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2147000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2183200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1897900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1901900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1922700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2072000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2611900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2607900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2860200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2835000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2804500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2780500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2684100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>773600</v>
+        <v>670500</v>
       </c>
       <c r="E52" s="3">
-        <v>769800</v>
+        <v>775300</v>
       </c>
       <c r="F52" s="3">
-        <v>777600</v>
+        <v>771500</v>
       </c>
       <c r="G52" s="3">
-        <v>815200</v>
+        <v>779300</v>
       </c>
       <c r="H52" s="3">
-        <v>682900</v>
+        <v>817000</v>
       </c>
       <c r="I52" s="3">
-        <v>741900</v>
+        <v>684400</v>
       </c>
       <c r="J52" s="3">
+        <v>743600</v>
+      </c>
+      <c r="K52" s="3">
         <v>722000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>707500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>928300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>912900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1007000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1018700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1017800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>717700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>679500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>564500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>537800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>531200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>420500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>506300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>478900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>483700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>645900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>821600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>801200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>502700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10892800</v>
+        <v>11009000</v>
       </c>
       <c r="E54" s="3">
-        <v>10809300</v>
+        <v>10916600</v>
       </c>
       <c r="F54" s="3">
-        <v>10979100</v>
+        <v>10832900</v>
       </c>
       <c r="G54" s="3">
-        <v>10718800</v>
+        <v>11003100</v>
       </c>
       <c r="H54" s="3">
-        <v>10285000</v>
+        <v>10742200</v>
       </c>
       <c r="I54" s="3">
-        <v>10482000</v>
+        <v>10307400</v>
       </c>
       <c r="J54" s="3">
+        <v>10504900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10697700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10424900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10264500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10118400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10386900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10232800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9928200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9332100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9390800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11608000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10662000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10678100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7989100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9733200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9489500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10829400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10724900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10746400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10707500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10428300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>493000</v>
+        <v>503200</v>
       </c>
       <c r="E57" s="3">
-        <v>570400</v>
+        <v>494000</v>
       </c>
       <c r="F57" s="3">
-        <v>552000</v>
+        <v>571600</v>
       </c>
       <c r="G57" s="3">
-        <v>480500</v>
+        <v>553200</v>
       </c>
       <c r="H57" s="3">
-        <v>451700</v>
+        <v>481500</v>
       </c>
       <c r="I57" s="3">
-        <v>540400</v>
+        <v>452700</v>
       </c>
       <c r="J57" s="3">
+        <v>541600</v>
+      </c>
+      <c r="K57" s="3">
         <v>678800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>461200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>378900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>441200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>387800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>378900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>339500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>384200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>386200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>325900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>356300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>321300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>452300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>502700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>379100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>560600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>491200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>414000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>481200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>234300</v>
+        <v>207300</v>
       </c>
       <c r="E58" s="3">
-        <v>204000</v>
+        <v>234800</v>
       </c>
       <c r="F58" s="3">
-        <v>245300</v>
+        <v>204500</v>
       </c>
       <c r="G58" s="3">
-        <v>209900</v>
+        <v>245800</v>
       </c>
       <c r="H58" s="3">
-        <v>236000</v>
+        <v>210300</v>
       </c>
       <c r="I58" s="3">
-        <v>307500</v>
+        <v>236500</v>
       </c>
       <c r="J58" s="3">
+        <v>308200</v>
+      </c>
+      <c r="K58" s="3">
         <v>330500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>279800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>323900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>394200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>475900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>599500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>620500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>522900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>537000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>538400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>485700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>392000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>442600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>640000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>604400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>607800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1333000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1331300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1273400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1199900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1492600</v>
+        <v>1333600</v>
       </c>
       <c r="E59" s="3">
-        <v>1482300</v>
+        <v>1495800</v>
       </c>
       <c r="F59" s="3">
-        <v>1533200</v>
+        <v>1485600</v>
       </c>
       <c r="G59" s="3">
-        <v>1563800</v>
+        <v>1536600</v>
       </c>
       <c r="H59" s="3">
-        <v>1256400</v>
+        <v>1567200</v>
       </c>
       <c r="I59" s="3">
-        <v>1304600</v>
+        <v>1259100</v>
       </c>
       <c r="J59" s="3">
+        <v>1307400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1104200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1107600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1051100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>977500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>904600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>784900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>568200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>565500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>535000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3446900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3365200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3460000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>598400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>692500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>779200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1012400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1272700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1197100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1230500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1158800</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2219800</v>
+        <v>2044200</v>
       </c>
       <c r="E60" s="3">
-        <v>2256700</v>
+        <v>2224600</v>
       </c>
       <c r="F60" s="3">
-        <v>2330500</v>
+        <v>2261700</v>
       </c>
       <c r="G60" s="3">
-        <v>2254100</v>
+        <v>2335600</v>
       </c>
       <c r="H60" s="3">
-        <v>1944100</v>
+        <v>2259000</v>
       </c>
       <c r="I60" s="3">
-        <v>2152500</v>
+        <v>1948300</v>
       </c>
       <c r="J60" s="3">
+        <v>2157200</v>
+      </c>
+      <c r="K60" s="3">
         <v>2113600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1848600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1753900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1812900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1768400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1763400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1528200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1471100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1458300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4311200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4207200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4173400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1493400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1835200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1762700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2220800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3166300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3019600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2917900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2839900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1917700</v>
+        <v>2264600</v>
       </c>
       <c r="E61" s="3">
-        <v>1998100</v>
+        <v>1921900</v>
       </c>
       <c r="F61" s="3">
-        <v>2093700</v>
+        <v>2002500</v>
       </c>
       <c r="G61" s="3">
-        <v>2087600</v>
+        <v>2098300</v>
       </c>
       <c r="H61" s="3">
-        <v>1794300</v>
+        <v>2092100</v>
       </c>
       <c r="I61" s="3">
-        <v>2030400</v>
+        <v>1798200</v>
       </c>
       <c r="J61" s="3">
+        <v>2034800</v>
+      </c>
+      <c r="K61" s="3">
         <v>2006900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2338800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2558000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2458400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2709000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2540100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2539200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2259300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2368600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1973800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2075500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2243200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2405700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2770300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2594600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3083500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2270500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2413600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2502500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2565700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2348300</v>
+        <v>1933800</v>
       </c>
       <c r="E62" s="3">
-        <v>2167300</v>
+        <v>2168600</v>
       </c>
       <c r="F62" s="3">
-        <v>2309600</v>
+        <v>2172000</v>
       </c>
       <c r="G62" s="3">
-        <v>2274900</v>
+        <v>2314600</v>
       </c>
       <c r="H62" s="3">
-        <v>2383200</v>
+        <v>2279900</v>
       </c>
       <c r="I62" s="3">
-        <v>2379600</v>
+        <v>2388400</v>
       </c>
       <c r="J62" s="3">
+        <v>2384800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2495300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2394700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2486700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2577300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2539300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2642000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2740700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2749700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2335300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1983400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1415900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1417800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1356300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1699900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1690400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1851100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1881500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1885300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1879000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1813900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6302700</v>
+        <v>6243700</v>
       </c>
       <c r="E66" s="3">
-        <v>6423300</v>
+        <v>6316400</v>
       </c>
       <c r="F66" s="3">
-        <v>6734900</v>
+        <v>6437400</v>
       </c>
       <c r="G66" s="3">
-        <v>6617600</v>
+        <v>6749600</v>
       </c>
       <c r="H66" s="3">
-        <v>6122600</v>
+        <v>6632000</v>
       </c>
       <c r="I66" s="3">
-        <v>6563500</v>
+        <v>6136000</v>
       </c>
       <c r="J66" s="3">
+        <v>6577800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6616900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6583100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6799500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6849400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7017600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6946300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6809000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6358800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6163000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8511100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7939600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8077200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5256200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6306400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6048600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>7319400</v>
       </c>
       <c r="AA66" s="3">
         <v>7319400</v>
       </c>
       <c r="AB66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>7300500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7220500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2290200</v>
+        <v>2459700</v>
       </c>
       <c r="E72" s="3">
-        <v>2093500</v>
+        <v>2295200</v>
       </c>
       <c r="F72" s="3">
-        <v>2021100</v>
+        <v>2098100</v>
       </c>
       <c r="G72" s="3">
-        <v>1877400</v>
+        <v>2025500</v>
       </c>
       <c r="H72" s="3">
-        <v>2449400</v>
+        <v>1881500</v>
       </c>
       <c r="I72" s="3">
-        <v>2204900</v>
+        <v>2454700</v>
       </c>
       <c r="J72" s="3">
+        <v>2209800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2414400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2238900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2030600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1882200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1923300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2336200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2157000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2070700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2111700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2042500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1667000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1135000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1186700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1469500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1405400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1468700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1446100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1456500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1423600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1290000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4590100</v>
+        <v>4765300</v>
       </c>
       <c r="E76" s="3">
-        <v>4386000</v>
+        <v>4600100</v>
       </c>
       <c r="F76" s="3">
-        <v>4244300</v>
+        <v>4395500</v>
       </c>
       <c r="G76" s="3">
-        <v>4101200</v>
+        <v>4253500</v>
       </c>
       <c r="H76" s="3">
-        <v>4162300</v>
+        <v>4110200</v>
       </c>
       <c r="I76" s="3">
-        <v>3918500</v>
+        <v>4171400</v>
       </c>
       <c r="J76" s="3">
+        <v>3927100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4080800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3841800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3465000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3269000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3369200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3286400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3119200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2973300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3227700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3096900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2722400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2600800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2732900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3426800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3441000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3672900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3405500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3427000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3407000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3207700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>281500</v>
+        <v>251200</v>
       </c>
       <c r="E81" s="3">
-        <v>283100</v>
+        <v>282100</v>
       </c>
       <c r="F81" s="3">
-        <v>238000</v>
+        <v>283700</v>
       </c>
       <c r="G81" s="3">
+        <v>238500</v>
+      </c>
+      <c r="H81" s="3">
         <v>10000</v>
       </c>
-      <c r="H81" s="3">
-        <v>293100</v>
-      </c>
       <c r="I81" s="3">
-        <v>193700</v>
+        <v>293700</v>
       </c>
       <c r="J81" s="3">
+        <v>194200</v>
+      </c>
+      <c r="K81" s="3">
         <v>84800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>376800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>249300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>112800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>210600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>104100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-52900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>374500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>141100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>45200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>108500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>154900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-21500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>35400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>87800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-76000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61000</v>
+        <v>61500</v>
       </c>
       <c r="E83" s="3">
-        <v>62900</v>
+        <v>61100</v>
       </c>
       <c r="F83" s="3">
-        <v>59900</v>
+        <v>63100</v>
       </c>
       <c r="G83" s="3">
-        <v>58000</v>
+        <v>60100</v>
       </c>
       <c r="H83" s="3">
-        <v>57200</v>
+        <v>58100</v>
       </c>
       <c r="I83" s="3">
-        <v>57500</v>
+        <v>57300</v>
       </c>
       <c r="J83" s="3">
+        <v>57700</v>
+      </c>
+      <c r="K83" s="3">
         <v>57100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>46800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>47800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>43400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>45800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>44000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>40900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>41000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>38400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>46300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>49700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>59700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>52800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>53700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>51600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>57800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>192800</v>
+        <v>359000</v>
       </c>
       <c r="E89" s="3">
-        <v>209900</v>
+        <v>193200</v>
       </c>
       <c r="F89" s="3">
-        <v>516900</v>
+        <v>210400</v>
       </c>
       <c r="G89" s="3">
-        <v>408300</v>
+        <v>518100</v>
       </c>
       <c r="H89" s="3">
-        <v>196800</v>
+        <v>409200</v>
       </c>
       <c r="I89" s="3">
-        <v>125500</v>
+        <v>197200</v>
       </c>
       <c r="J89" s="3">
+        <v>125800</v>
+      </c>
+      <c r="K89" s="3">
         <v>27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>417900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>332300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>511500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>337300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>487700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>164000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>82700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>109100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>145200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>85100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-87100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>56400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>357600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>135400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>244300</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-280300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-120500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-107400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-110900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-47300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-105500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-5000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-74400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71200</v>
+        <v>-427300</v>
       </c>
       <c r="E94" s="3">
-        <v>-7400</v>
+        <v>-71300</v>
       </c>
       <c r="F94" s="3">
-        <v>-436200</v>
+        <v>-7500</v>
       </c>
       <c r="G94" s="3">
-        <v>-293900</v>
+        <v>-437100</v>
       </c>
       <c r="H94" s="3">
-        <v>91800</v>
+        <v>-294500</v>
       </c>
       <c r="I94" s="3">
-        <v>49500</v>
+        <v>92000</v>
       </c>
       <c r="J94" s="3">
+        <v>49600</v>
+      </c>
+      <c r="K94" s="3">
         <v>161000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-377600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>440800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-357900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-285200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-240400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-127200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>26900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-101800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-44200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>88300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>116500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>16900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-190400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-127100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7429,35 +7663,35 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-213300</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-19900</v>
+        <v>-213800</v>
       </c>
       <c r="G96" s="3">
-        <v>-188400</v>
+        <v>-20000</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-188900</v>
       </c>
       <c r="I96" s="3">
-        <v>-143900</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-144300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-135700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-111900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7465,49 +7699,52 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-114900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-13600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-90700</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-69500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-69400</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-139700</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-89500</v>
+        <v>185900</v>
       </c>
       <c r="E100" s="3">
-        <v>-313200</v>
+        <v>-89700</v>
       </c>
       <c r="F100" s="3">
-        <v>-56000</v>
+        <v>-313900</v>
       </c>
       <c r="G100" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-22100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-170900</v>
-      </c>
       <c r="I100" s="3">
-        <v>-175500</v>
+        <v>-171200</v>
       </c>
       <c r="J100" s="3">
+        <v>-175900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-557900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-170100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-269000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-179800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-66100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-196100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-148200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>104800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-136500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-175700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>58900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>80200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-143200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>399100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-166500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-140600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-132600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-290300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>32100</v>
+        <v>117600</v>
       </c>
       <c r="E102" s="3">
-        <v>-110800</v>
+        <v>32200</v>
       </c>
       <c r="F102" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="G102" s="3">
         <v>24800</v>
       </c>
-      <c r="G102" s="3">
-        <v>92300</v>
-      </c>
       <c r="H102" s="3">
-        <v>117700</v>
+        <v>92500</v>
       </c>
       <c r="I102" s="3">
+        <v>117900</v>
+      </c>
+      <c r="J102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-369300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-129900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>319900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>48600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>34200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>51200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-16700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-107500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>102200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>121100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-142000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>114800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-93300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>26600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-39200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-173100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>47800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CIG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>CIG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1780100</v>
+        <v>1938400</v>
       </c>
       <c r="E8" s="3">
-        <v>1745300</v>
+        <v>1813600</v>
       </c>
       <c r="F8" s="3">
-        <v>1968600</v>
+        <v>1778100</v>
       </c>
       <c r="G8" s="3">
-        <v>1861600</v>
+        <v>2005600</v>
       </c>
       <c r="H8" s="3">
-        <v>1657800</v>
+        <v>1896600</v>
       </c>
       <c r="I8" s="3">
-        <v>1583900</v>
+        <v>1688900</v>
       </c>
       <c r="J8" s="3">
+        <v>1613700</v>
+      </c>
+      <c r="K8" s="3">
         <v>1949100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1918300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1424000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1376800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1284300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1250700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1071300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1194000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1198000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1138800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1242500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1047100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1028500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1156900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1309200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1152500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1681300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1316700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1334500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1233900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1159200</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1214500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1372500</v>
+        <v>1518200</v>
       </c>
       <c r="E9" s="3">
-        <v>1324500</v>
+        <v>1398300</v>
       </c>
       <c r="F9" s="3">
-        <v>1576400</v>
+        <v>1349400</v>
       </c>
       <c r="G9" s="3">
-        <v>1529500</v>
+        <v>1606000</v>
       </c>
       <c r="H9" s="3">
-        <v>1597000</v>
+        <v>1583500</v>
       </c>
       <c r="I9" s="3">
-        <v>1204000</v>
+        <v>1627000</v>
       </c>
       <c r="J9" s="3">
+        <v>1226600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1582800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1582400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1141900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1031600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>957800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>879700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>892100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>936700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1105600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>782300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>746400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>773700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>947700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1048200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>870900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1306100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1203200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1093200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>880800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>925600</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>903400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>407600</v>
+        <v>420100</v>
       </c>
       <c r="E10" s="3">
-        <v>420800</v>
+        <v>415200</v>
       </c>
       <c r="F10" s="3">
-        <v>392100</v>
+        <v>428700</v>
       </c>
       <c r="G10" s="3">
-        <v>332100</v>
+        <v>399500</v>
       </c>
       <c r="H10" s="3">
-        <v>60700</v>
+        <v>313100</v>
       </c>
       <c r="I10" s="3">
-        <v>379900</v>
+        <v>61900</v>
       </c>
       <c r="J10" s="3">
+        <v>387000</v>
+      </c>
+      <c r="K10" s="3">
         <v>366300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>335900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>282100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>345200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>183500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>292900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>191600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>302000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>261300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>33200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>460200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>300700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>254800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>209100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>261100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>281600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>375200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>113500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>241200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>353200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>233600</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,34 +1282,37 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9300</v>
+        <v>-9400</v>
       </c>
       <c r="E14" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>9500</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>17100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
+      <c r="I14" s="3">
+        <v>17400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1301,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-50600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-92500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>120000</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1330,8 +1350,8 @@
       <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1354,31 +1374,34 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3">
-        <v>200</v>
-      </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
         <v>3800</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
+      <c r="J15" s="3">
+        <v>3800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1389,8 +1412,8 @@
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1462100</v>
+        <v>1590000</v>
       </c>
       <c r="E17" s="3">
-        <v>1370000</v>
+        <v>1489600</v>
       </c>
       <c r="F17" s="3">
-        <v>1634300</v>
+        <v>1395700</v>
       </c>
       <c r="G17" s="3">
-        <v>1558500</v>
+        <v>1665000</v>
       </c>
       <c r="H17" s="3">
-        <v>1644500</v>
+        <v>1587800</v>
       </c>
       <c r="I17" s="3">
-        <v>1254300</v>
+        <v>1675400</v>
       </c>
       <c r="J17" s="3">
+        <v>1277900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1672300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1590700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1010100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1066800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1022500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1011200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>849100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1082600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1055100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1205900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>965600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>829200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>912400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1031000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1154200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>967100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1343200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1343700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1198500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1003500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1185500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>968500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>318000</v>
+        <v>348400</v>
       </c>
       <c r="E18" s="3">
-        <v>375300</v>
+        <v>324000</v>
       </c>
       <c r="F18" s="3">
-        <v>334300</v>
+        <v>382300</v>
       </c>
       <c r="G18" s="3">
-        <v>303100</v>
+        <v>340600</v>
       </c>
       <c r="H18" s="3">
-        <v>13300</v>
+        <v>308800</v>
       </c>
       <c r="I18" s="3">
-        <v>329600</v>
+        <v>13500</v>
       </c>
       <c r="J18" s="3">
+        <v>335800</v>
+      </c>
+      <c r="K18" s="3">
         <v>276800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>327600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>413800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>310000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>261800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>239600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>222200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>111400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>142900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-67100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>276800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>217900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>116200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>125900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>155000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>185400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>338100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-27000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>135900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>230400</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-26400</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>246000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>55100</v>
+        <v>13300</v>
       </c>
       <c r="E20" s="3">
-        <v>27500</v>
+        <v>56200</v>
       </c>
       <c r="F20" s="3">
-        <v>33300</v>
+        <v>28100</v>
       </c>
       <c r="G20" s="3">
-        <v>25100</v>
+        <v>33900</v>
       </c>
       <c r="H20" s="3">
-        <v>-128200</v>
+        <v>25600</v>
       </c>
       <c r="I20" s="3">
-        <v>108600</v>
+        <v>-130600</v>
       </c>
       <c r="J20" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-173500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>184500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-180700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>118800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-35800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>139500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-81800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>391500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>35700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>182300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-89000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>32400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>91500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>14000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>17600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>26000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>25300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>434700</v>
+        <v>426500</v>
       </c>
       <c r="E21" s="3">
-        <v>464000</v>
+        <v>442800</v>
       </c>
       <c r="F21" s="3">
-        <v>430700</v>
+        <v>472700</v>
       </c>
       <c r="G21" s="3">
-        <v>388300</v>
+        <v>438700</v>
       </c>
       <c r="H21" s="3">
-        <v>-56800</v>
+        <v>395600</v>
       </c>
       <c r="I21" s="3">
-        <v>495500</v>
+        <v>-57800</v>
       </c>
       <c r="J21" s="3">
+        <v>504800</v>
+      </c>
+      <c r="K21" s="3">
         <v>324400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>645200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>175500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>428400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>251400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>409500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>77500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>202800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>712300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>294500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>339500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>165900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>112300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>267500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>412400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>117200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>203700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>299700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>57500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>321500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>47100</v>
+        <v>57500</v>
       </c>
       <c r="E22" s="3">
-        <v>48900</v>
+        <v>48000</v>
       </c>
       <c r="F22" s="3">
-        <v>47300</v>
+        <v>49800</v>
       </c>
       <c r="G22" s="3">
-        <v>47200</v>
+        <v>48200</v>
       </c>
       <c r="H22" s="3">
-        <v>47600</v>
+        <v>48100</v>
       </c>
       <c r="I22" s="3">
-        <v>45200</v>
+        <v>48500</v>
       </c>
       <c r="J22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="K22" s="3">
         <v>53100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>55800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>63100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>63200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>73700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>69200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>85000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>88300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>101600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>118300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>123000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>130200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>326100</v>
+        <v>304300</v>
       </c>
       <c r="E23" s="3">
-        <v>353900</v>
+        <v>332200</v>
       </c>
       <c r="F23" s="3">
-        <v>320200</v>
+        <v>360500</v>
       </c>
       <c r="G23" s="3">
-        <v>281000</v>
+        <v>326200</v>
       </c>
       <c r="H23" s="3">
-        <v>-162500</v>
+        <v>286300</v>
       </c>
       <c r="I23" s="3">
-        <v>393000</v>
+        <v>-165600</v>
       </c>
       <c r="J23" s="3">
+        <v>400400</v>
+      </c>
+      <c r="K23" s="3">
         <v>213600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>94900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>547400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>327800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>142800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>308700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-31800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-111000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>614800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>199900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>235400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>64300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>148600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>267700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-23800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>48400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>129800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-123400</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>141000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>74700</v>
+        <v>49800</v>
       </c>
       <c r="E24" s="3">
-        <v>71700</v>
+        <v>76100</v>
       </c>
       <c r="F24" s="3">
-        <v>36300</v>
+        <v>73000</v>
       </c>
       <c r="G24" s="3">
-        <v>42400</v>
+        <v>37000</v>
       </c>
       <c r="H24" s="3">
-        <v>-172600</v>
+        <v>43200</v>
       </c>
       <c r="I24" s="3">
-        <v>99200</v>
+        <v>-175800</v>
       </c>
       <c r="J24" s="3">
+        <v>101100</v>
+      </c>
+      <c r="K24" s="3">
         <v>19400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>170500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>98000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-20600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-16100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>240300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>58700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>72300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>112700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>13000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>41900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-47400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>33500</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>251400</v>
+        <v>254400</v>
       </c>
       <c r="E26" s="3">
-        <v>282200</v>
+        <v>256100</v>
       </c>
       <c r="F26" s="3">
-        <v>283900</v>
+        <v>287500</v>
       </c>
       <c r="G26" s="3">
-        <v>238600</v>
+        <v>289200</v>
       </c>
       <c r="H26" s="3">
-        <v>10100</v>
+        <v>243100</v>
       </c>
       <c r="I26" s="3">
-        <v>293800</v>
+        <v>10300</v>
       </c>
       <c r="J26" s="3">
+        <v>299300</v>
+      </c>
+      <c r="K26" s="3">
         <v>194300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>84900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>376900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>249300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>112800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>210700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>104200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-94900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>374500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>141200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>163100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>42600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>108500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>155000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>35400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>87900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-75900</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>251200</v>
+        <v>254300</v>
       </c>
       <c r="E27" s="3">
-        <v>282100</v>
+        <v>255900</v>
       </c>
       <c r="F27" s="3">
-        <v>283700</v>
+        <v>287400</v>
       </c>
       <c r="G27" s="3">
-        <v>238500</v>
+        <v>289100</v>
       </c>
       <c r="H27" s="3">
-        <v>10000</v>
+        <v>243000</v>
       </c>
       <c r="I27" s="3">
-        <v>293700</v>
+        <v>10200</v>
       </c>
       <c r="J27" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K27" s="3">
         <v>194200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>84800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>376800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>249300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>112800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>210600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>104100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-94900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>374500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>141100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>155800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>42600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>108500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>154900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>35400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>87800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-76000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2514,17 +2575,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2532,29 +2593,29 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>42000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>58500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>5000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-55100</v>
+        <v>-13300</v>
       </c>
       <c r="E32" s="3">
-        <v>-27500</v>
+        <v>-56200</v>
       </c>
       <c r="F32" s="3">
-        <v>-33300</v>
+        <v>-28100</v>
       </c>
       <c r="G32" s="3">
-        <v>-25100</v>
+        <v>-33900</v>
       </c>
       <c r="H32" s="3">
-        <v>128200</v>
+        <v>-25600</v>
       </c>
       <c r="I32" s="3">
-        <v>-108600</v>
+        <v>130600</v>
       </c>
       <c r="J32" s="3">
+        <v>-110600</v>
+      </c>
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>173500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-184500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>180700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-118800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>35800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-139500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>81800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-391500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-35700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-182300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>89000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-32400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-91500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-14000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-17600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-26000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-25300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>251200</v>
+        <v>254300</v>
       </c>
       <c r="E33" s="3">
-        <v>282100</v>
+        <v>255900</v>
       </c>
       <c r="F33" s="3">
-        <v>283700</v>
+        <v>287400</v>
       </c>
       <c r="G33" s="3">
-        <v>238500</v>
+        <v>289100</v>
       </c>
       <c r="H33" s="3">
-        <v>10000</v>
+        <v>243000</v>
       </c>
       <c r="I33" s="3">
-        <v>293700</v>
+        <v>10200</v>
       </c>
       <c r="J33" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K33" s="3">
         <v>194200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>84800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>376800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>249300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>210600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>104100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-52900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>374500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>141100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>45200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>108500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>154900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>35400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>87800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-76000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>251200</v>
+        <v>254300</v>
       </c>
       <c r="E35" s="3">
-        <v>282100</v>
+        <v>255900</v>
       </c>
       <c r="F35" s="3">
-        <v>283700</v>
+        <v>287400</v>
       </c>
       <c r="G35" s="3">
-        <v>238500</v>
+        <v>289100</v>
       </c>
       <c r="H35" s="3">
-        <v>10000</v>
+        <v>243000</v>
       </c>
       <c r="I35" s="3">
-        <v>293700</v>
+        <v>10200</v>
       </c>
       <c r="J35" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K35" s="3">
         <v>194200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>84800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>376800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>249300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>210600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>104100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-52900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>374500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>141100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>45200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>108500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>154900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>35400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>87800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-76000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,275 +3354,285 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>440600</v>
+        <v>484400</v>
       </c>
       <c r="E41" s="3">
-        <v>323000</v>
+        <v>448900</v>
       </c>
       <c r="F41" s="3">
-        <v>290800</v>
+        <v>329000</v>
       </c>
       <c r="G41" s="3">
-        <v>401800</v>
+        <v>296200</v>
       </c>
       <c r="H41" s="3">
-        <v>377000</v>
+        <v>409400</v>
       </c>
       <c r="I41" s="3">
-        <v>284500</v>
+        <v>384100</v>
       </c>
       <c r="J41" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K41" s="3">
         <v>166600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>166700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>515400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>645300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>314400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>276700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>189200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>156800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>99000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>132500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>141000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>158900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>276300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>219700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>98600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>264100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>149300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>242600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>215900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>246900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>420000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>311400</v>
+        <v>372700</v>
       </c>
       <c r="E42" s="3">
-        <v>273900</v>
+        <v>317300</v>
       </c>
       <c r="F42" s="3">
-        <v>352100</v>
+        <v>279000</v>
       </c>
       <c r="G42" s="3">
-        <v>560900</v>
+        <v>358700</v>
       </c>
       <c r="H42" s="3">
-        <v>360800</v>
+        <v>571400</v>
       </c>
       <c r="I42" s="3">
-        <v>196900</v>
+        <v>367600</v>
       </c>
       <c r="J42" s="3">
+        <v>200600</v>
+      </c>
+      <c r="K42" s="3">
         <v>348000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>471000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>671600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>433900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>628700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>718600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>492700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>302400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>139000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>164900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>135800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>105200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>141700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>126700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>93200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>127700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>298600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>291600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>381900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>312700</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>342800</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>226300</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1570600</v>
+        <v>1566700</v>
       </c>
       <c r="E43" s="3">
-        <v>1687600</v>
+        <v>1600100</v>
       </c>
       <c r="F43" s="3">
-        <v>1724400</v>
+        <v>1719300</v>
       </c>
       <c r="G43" s="3">
-        <v>1597900</v>
+        <v>1756700</v>
       </c>
       <c r="H43" s="3">
-        <v>1620400</v>
+        <v>1627900</v>
       </c>
       <c r="I43" s="3">
-        <v>1671000</v>
+        <v>1650800</v>
       </c>
       <c r="J43" s="3">
+        <v>1702300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1668400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1716400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1457400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1511200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1482800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1498700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1409600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1119900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1195900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1112600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>917700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>963100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>956400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1106600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1123800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1085700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1315800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1334900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1255000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1318800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1221900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1184900</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3552,11 +3648,11 @@
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H44" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I44" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I44" s="3">
+        <v>6600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -3579,41 +3675,41 @@
       <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R44" s="3">
         <v>7100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>7300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>7100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>5700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>6400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>5700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>7900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>8200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>9800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>12500</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>12300</v>
       </c>
       <c r="AC44" s="3">
         <v>12300</v>
@@ -3622,455 +3718,473 @@
         <v>12300</v>
       </c>
       <c r="AE44" s="3">
+        <v>12300</v>
+      </c>
+      <c r="AF44" s="3">
         <v>9500</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>410400</v>
+        <v>438400</v>
       </c>
       <c r="E45" s="3">
-        <v>367300</v>
+        <v>418100</v>
       </c>
       <c r="F45" s="3">
-        <v>350600</v>
+        <v>374200</v>
       </c>
       <c r="G45" s="3">
-        <v>407700</v>
+        <v>357100</v>
       </c>
       <c r="H45" s="3">
-        <v>451200</v>
+        <v>415300</v>
       </c>
       <c r="I45" s="3">
-        <v>377500</v>
+        <v>459600</v>
       </c>
       <c r="J45" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K45" s="3">
         <v>430700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>315800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>239600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>249500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>465800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>515600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>666900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>478800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>549600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>516600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3698200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3700200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3695400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>242700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>247800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>294200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>300500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>225700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>127200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>166100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>231600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>298800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2733000</v>
+        <v>2862200</v>
       </c>
       <c r="E46" s="3">
-        <v>2651800</v>
+        <v>2784300</v>
       </c>
       <c r="F46" s="3">
-        <v>2717800</v>
+        <v>2701600</v>
       </c>
       <c r="G46" s="3">
-        <v>2968300</v>
+        <v>2768800</v>
       </c>
       <c r="H46" s="3">
-        <v>2815800</v>
+        <v>3024000</v>
       </c>
       <c r="I46" s="3">
-        <v>2529800</v>
+        <v>2868700</v>
       </c>
       <c r="J46" s="3">
+        <v>2577300</v>
+      </c>
+      <c r="K46" s="3">
         <v>2613700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2669900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2883900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2839800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2891700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3009600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2758400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2064900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1912100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1931600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4890200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4915200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4958800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1758000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1692500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1614300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2188800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2014000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2018900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2025900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2055500</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>2139500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4050100</v>
+        <v>4257500</v>
       </c>
       <c r="E47" s="3">
-        <v>3971500</v>
+        <v>4126200</v>
       </c>
       <c r="F47" s="3">
-        <v>3839600</v>
+        <v>4046100</v>
       </c>
       <c r="G47" s="3">
-        <v>3995800</v>
+        <v>3911700</v>
       </c>
       <c r="H47" s="3">
-        <v>3928600</v>
+        <v>4070800</v>
       </c>
       <c r="I47" s="3">
-        <v>3942000</v>
+        <v>4002300</v>
       </c>
       <c r="J47" s="3">
+        <v>4016000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3999400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4168900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3869100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3712800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3614300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3560700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3649700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4006600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4051500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4060400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3740300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2784500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2790500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3292800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4357200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4151900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4588500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4512800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4377600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4366800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>4249400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>4556500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>604400</v>
+        <v>685700</v>
       </c>
       <c r="E48" s="3">
-        <v>562200</v>
+        <v>615700</v>
       </c>
       <c r="F48" s="3">
-        <v>552700</v>
+        <v>572800</v>
       </c>
       <c r="G48" s="3">
-        <v>530100</v>
+        <v>563100</v>
       </c>
       <c r="H48" s="3">
-        <v>519500</v>
+        <v>540000</v>
       </c>
       <c r="I48" s="3">
-        <v>524900</v>
+        <v>529300</v>
       </c>
       <c r="J48" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K48" s="3">
         <v>533800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>529300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>499800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>502200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>490000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>513200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>519000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>529900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>503700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>536100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>515100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>522600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>474800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>445800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>565300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>636500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>708200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>717100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>723800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>733000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>936500</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>942200</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2951000</v>
+        <v>3056600</v>
       </c>
       <c r="E49" s="3">
-        <v>2955800</v>
+        <v>3006400</v>
       </c>
       <c r="F49" s="3">
-        <v>2951300</v>
+        <v>3011300</v>
       </c>
       <c r="G49" s="3">
-        <v>2729600</v>
+        <v>3006700</v>
       </c>
       <c r="H49" s="3">
-        <v>2661300</v>
+        <v>2780900</v>
       </c>
       <c r="I49" s="3">
-        <v>2626300</v>
+        <v>2711200</v>
       </c>
       <c r="J49" s="3">
+        <v>2675600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2614500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2607500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2464700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2281400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2209500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2296300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2287100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2309000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2147000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2183200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1897900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1901900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1922700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2072000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2611900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2607900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2860200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2835000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2804500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2780500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2684100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2644100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>670500</v>
+        <v>687200</v>
       </c>
       <c r="E52" s="3">
-        <v>775300</v>
+        <v>683100</v>
       </c>
       <c r="F52" s="3">
-        <v>771500</v>
+        <v>789800</v>
       </c>
       <c r="G52" s="3">
-        <v>779300</v>
+        <v>786000</v>
       </c>
       <c r="H52" s="3">
-        <v>817000</v>
+        <v>793900</v>
       </c>
       <c r="I52" s="3">
-        <v>684400</v>
+        <v>832300</v>
       </c>
       <c r="J52" s="3">
+        <v>697300</v>
+      </c>
+      <c r="K52" s="3">
         <v>743600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>722000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>707500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>928300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>912900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1007000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1018700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1017800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>717700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>679500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>564500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>537800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>531200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>420500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>506300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>478900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>483700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>645900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>821600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>801200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>502700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>431500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11009000</v>
+        <v>11549300</v>
       </c>
       <c r="E54" s="3">
-        <v>10916600</v>
+        <v>11215700</v>
       </c>
       <c r="F54" s="3">
-        <v>10832900</v>
+        <v>11121600</v>
       </c>
       <c r="G54" s="3">
-        <v>11003100</v>
+        <v>11036300</v>
       </c>
       <c r="H54" s="3">
-        <v>10742200</v>
+        <v>11209700</v>
       </c>
       <c r="I54" s="3">
-        <v>10307400</v>
+        <v>10943900</v>
       </c>
       <c r="J54" s="3">
+        <v>10501000</v>
+      </c>
+      <c r="K54" s="3">
         <v>10504900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10697700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10424900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10264500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10118400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10386900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10232800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9928200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9332100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9390800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11608000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10662000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10678100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7989100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9733200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9489500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10829400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10724900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10746400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10707500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10428300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10714000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>503200</v>
+        <v>572300</v>
       </c>
       <c r="E57" s="3">
-        <v>494000</v>
+        <v>512600</v>
       </c>
       <c r="F57" s="3">
-        <v>571600</v>
+        <v>503300</v>
       </c>
       <c r="G57" s="3">
-        <v>553200</v>
+        <v>582400</v>
       </c>
       <c r="H57" s="3">
-        <v>481500</v>
+        <v>563600</v>
       </c>
       <c r="I57" s="3">
-        <v>452700</v>
+        <v>490500</v>
       </c>
       <c r="J57" s="3">
+        <v>461200</v>
+      </c>
+      <c r="K57" s="3">
         <v>541600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>678800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>461200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>378900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>441200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>387800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>378900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>339500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>384200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>386200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>325900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>356300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>321300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>452300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>502700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>379100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>600600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>560600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>491200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>414000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>481200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>401900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>207300</v>
+        <v>254600</v>
       </c>
       <c r="E58" s="3">
-        <v>234800</v>
+        <v>211200</v>
       </c>
       <c r="F58" s="3">
-        <v>204500</v>
+        <v>239200</v>
       </c>
       <c r="G58" s="3">
-        <v>245800</v>
+        <v>208300</v>
       </c>
       <c r="H58" s="3">
-        <v>210300</v>
+        <v>250500</v>
       </c>
       <c r="I58" s="3">
-        <v>236500</v>
+        <v>214300</v>
       </c>
       <c r="J58" s="3">
+        <v>241000</v>
+      </c>
+      <c r="K58" s="3">
         <v>308200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>330500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>279800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>323900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>394200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>475900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>599500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>620500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>522900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>537000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>538400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>485700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>392000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>442600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>640000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>604400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>607800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1333000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1331300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1273400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1199900</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1471700</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1333600</v>
+        <v>1376600</v>
       </c>
       <c r="E59" s="3">
-        <v>1495800</v>
+        <v>1358700</v>
       </c>
       <c r="F59" s="3">
-        <v>1485600</v>
+        <v>1523900</v>
       </c>
       <c r="G59" s="3">
-        <v>1536600</v>
+        <v>1513500</v>
       </c>
       <c r="H59" s="3">
-        <v>1567200</v>
+        <v>1565400</v>
       </c>
       <c r="I59" s="3">
-        <v>1259100</v>
+        <v>1596600</v>
       </c>
       <c r="J59" s="3">
+        <v>1282800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1307400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1104200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1107600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1051100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>977500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>904600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>784900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>568200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>565500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>535000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3446900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3365200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3460000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>598400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>692500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>779200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1012400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1272700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1197100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1230500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1158800</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1050900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2044200</v>
+        <v>2203500</v>
       </c>
       <c r="E60" s="3">
-        <v>2224600</v>
+        <v>2082500</v>
       </c>
       <c r="F60" s="3">
-        <v>2261700</v>
+        <v>2266400</v>
       </c>
       <c r="G60" s="3">
-        <v>2335600</v>
+        <v>2304100</v>
       </c>
       <c r="H60" s="3">
-        <v>2259000</v>
+        <v>2379500</v>
       </c>
       <c r="I60" s="3">
-        <v>1948300</v>
+        <v>2301500</v>
       </c>
       <c r="J60" s="3">
+        <v>1984900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2157200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2113600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1848600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1753900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1812900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1768400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1763400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1528200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1471100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1458300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4311200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4207200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4173400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1493400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1835200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1762700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2220800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3166300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3019600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2917900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2839900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2924600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2264600</v>
+        <v>2318900</v>
       </c>
       <c r="E61" s="3">
-        <v>1921900</v>
+        <v>2307100</v>
       </c>
       <c r="F61" s="3">
-        <v>2002500</v>
+        <v>1958000</v>
       </c>
       <c r="G61" s="3">
-        <v>2098300</v>
+        <v>2040100</v>
       </c>
       <c r="H61" s="3">
-        <v>2092100</v>
+        <v>2137700</v>
       </c>
       <c r="I61" s="3">
-        <v>1798200</v>
+        <v>2131400</v>
       </c>
       <c r="J61" s="3">
+        <v>1831900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2034800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2006900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2338800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2558000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2458400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2709000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2540100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2539200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2259300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2368600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1973800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2075500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2243200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2405700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2770300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2594600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3083500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2270500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2413600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2502500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2565700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2564300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1933800</v>
+        <v>2002600</v>
       </c>
       <c r="E62" s="3">
-        <v>2168600</v>
+        <v>1970100</v>
       </c>
       <c r="F62" s="3">
-        <v>2172000</v>
+        <v>2209300</v>
       </c>
       <c r="G62" s="3">
-        <v>2314600</v>
+        <v>2212800</v>
       </c>
       <c r="H62" s="3">
-        <v>2279900</v>
+        <v>2358100</v>
       </c>
       <c r="I62" s="3">
-        <v>2388400</v>
+        <v>2322700</v>
       </c>
       <c r="J62" s="3">
+        <v>2433200</v>
+      </c>
+      <c r="K62" s="3">
         <v>2384800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2495300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2394700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2486700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2577300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2539300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2642000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2740700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2749700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2335300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1983400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1415900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1417800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1356300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1699900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1690400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1851100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1881500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1885300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1879000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1813900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1688500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6243700</v>
+        <v>6526200</v>
       </c>
       <c r="E66" s="3">
-        <v>6316400</v>
+        <v>6361000</v>
       </c>
       <c r="F66" s="3">
-        <v>6437400</v>
+        <v>6435000</v>
       </c>
       <c r="G66" s="3">
-        <v>6749600</v>
+        <v>6558300</v>
       </c>
       <c r="H66" s="3">
-        <v>6632000</v>
+        <v>6876300</v>
       </c>
       <c r="I66" s="3">
-        <v>6136000</v>
+        <v>6756600</v>
       </c>
       <c r="J66" s="3">
+        <v>6251200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6577800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6616900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6583100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6799500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6849400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7017600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6946300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6809000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6358800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6163000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8511100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7939600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8077200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5256200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6306400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6048600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7156500</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>7319400</v>
       </c>
       <c r="AB66" s="3">
         <v>7319400</v>
       </c>
       <c r="AC66" s="3">
+        <v>7319400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>7300500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7220500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7178400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2459700</v>
+        <v>2674900</v>
       </c>
       <c r="E72" s="3">
-        <v>2295200</v>
+        <v>2505900</v>
       </c>
       <c r="F72" s="3">
-        <v>2098100</v>
+        <v>2338300</v>
       </c>
       <c r="G72" s="3">
-        <v>2025500</v>
+        <v>2137500</v>
       </c>
       <c r="H72" s="3">
-        <v>1881500</v>
+        <v>2063500</v>
       </c>
       <c r="I72" s="3">
-        <v>2454700</v>
+        <v>1916800</v>
       </c>
       <c r="J72" s="3">
+        <v>2500800</v>
+      </c>
+      <c r="K72" s="3">
         <v>2209800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2414400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2238900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2030600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1882200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1923300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2336200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2157000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2070700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2111700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2042500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1667000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1135000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1186700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1469500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1405400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1468700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1446100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1456500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1423600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1290000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1477300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4765300</v>
+        <v>5023100</v>
       </c>
       <c r="E76" s="3">
-        <v>4600100</v>
+        <v>4854700</v>
       </c>
       <c r="F76" s="3">
-        <v>4395500</v>
+        <v>4686500</v>
       </c>
       <c r="G76" s="3">
-        <v>4253500</v>
+        <v>4478100</v>
       </c>
       <c r="H76" s="3">
-        <v>4110200</v>
+        <v>4333400</v>
       </c>
       <c r="I76" s="3">
-        <v>4171400</v>
+        <v>4187300</v>
       </c>
       <c r="J76" s="3">
+        <v>4249800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3927100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4080800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3841800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3465000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3269000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3369200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3286400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3119200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2973300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3227700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3096900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2722400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2600800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2732900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3426800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3441000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3672900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3405500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3427000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3407000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3207700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3535500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>251200</v>
+        <v>254300</v>
       </c>
       <c r="E81" s="3">
-        <v>282100</v>
+        <v>255900</v>
       </c>
       <c r="F81" s="3">
-        <v>283700</v>
+        <v>287400</v>
       </c>
       <c r="G81" s="3">
-        <v>238500</v>
+        <v>289100</v>
       </c>
       <c r="H81" s="3">
-        <v>10000</v>
+        <v>243000</v>
       </c>
       <c r="I81" s="3">
-        <v>293700</v>
+        <v>10200</v>
       </c>
       <c r="J81" s="3">
+        <v>299200</v>
+      </c>
+      <c r="K81" s="3">
         <v>194200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>84800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>376800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>249300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>210600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>104100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-52900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>374500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>141100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>45200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>108500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>154900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-21500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>35400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>87800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-76000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>107500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61500</v>
+        <v>64800</v>
       </c>
       <c r="E83" s="3">
-        <v>61100</v>
+        <v>62700</v>
       </c>
       <c r="F83" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="G83" s="3">
-        <v>60100</v>
+        <v>64300</v>
       </c>
       <c r="H83" s="3">
-        <v>58100</v>
+        <v>61200</v>
       </c>
       <c r="I83" s="3">
-        <v>57300</v>
+        <v>59200</v>
       </c>
       <c r="J83" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K83" s="3">
         <v>57700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>57100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>46800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>46200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>47800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>47700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>47900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>47800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>43400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>45800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>44000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>40900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>41000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>38400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>46300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>49700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>59700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>52800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>53700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>51600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>57800</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>50200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>359000</v>
+        <v>417600</v>
       </c>
       <c r="E89" s="3">
-        <v>193200</v>
+        <v>365700</v>
       </c>
       <c r="F89" s="3">
-        <v>210400</v>
+        <v>196800</v>
       </c>
       <c r="G89" s="3">
-        <v>518100</v>
+        <v>214300</v>
       </c>
       <c r="H89" s="3">
-        <v>409200</v>
+        <v>527800</v>
       </c>
       <c r="I89" s="3">
-        <v>197200</v>
+        <v>416800</v>
       </c>
       <c r="J89" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K89" s="3">
         <v>125800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>417900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>332300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>511500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>337300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>487700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>164000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>12400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>82700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>109100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>145200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>85100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-87100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>56400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>357600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>135400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>244300</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>28800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-428600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-280300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-120500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-107400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-110900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-47300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-105500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-5000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-5900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-7500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-74400</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-81600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-427300</v>
+        <v>-346500</v>
       </c>
       <c r="E94" s="3">
-        <v>-71300</v>
+        <v>-435300</v>
       </c>
       <c r="F94" s="3">
-        <v>-7500</v>
+        <v>-72700</v>
       </c>
       <c r="G94" s="3">
-        <v>-437100</v>
+        <v>-7600</v>
       </c>
       <c r="H94" s="3">
-        <v>-294500</v>
+        <v>-445300</v>
       </c>
       <c r="I94" s="3">
-        <v>92000</v>
+        <v>-300000</v>
       </c>
       <c r="J94" s="3">
+        <v>93700</v>
+      </c>
+      <c r="K94" s="3">
         <v>49600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>161000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-377600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>440800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-357900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-285200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-240400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-127200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>26900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-101800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>88300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>116500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>16900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-190400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-42000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-127100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-116300</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7666,35 +7900,35 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-213800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-20000</v>
+        <v>-217800</v>
       </c>
       <c r="H96" s="3">
-        <v>-188900</v>
+        <v>-20400</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-192400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-144300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-135700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-111900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7702,49 +7936,52 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-114900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-13600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-90700</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-69500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>500</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-69400</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-139700</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,97 +8253,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>185900</v>
+        <v>-35500</v>
       </c>
       <c r="E100" s="3">
-        <v>-89700</v>
+        <v>189400</v>
       </c>
       <c r="F100" s="3">
-        <v>-313900</v>
+        <v>-91400</v>
       </c>
       <c r="G100" s="3">
-        <v>-56100</v>
+        <v>-319800</v>
       </c>
       <c r="H100" s="3">
-        <v>-22100</v>
+        <v>-57200</v>
       </c>
       <c r="I100" s="3">
-        <v>-171200</v>
+        <v>-22600</v>
       </c>
       <c r="J100" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-175900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-557900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-170100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-269000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-179800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-66100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-196100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-148200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>104800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-136500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-175700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>58900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>80200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-143200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>399100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-166500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-140600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-132600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-290300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>135300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>117600</v>
+        <v>35500</v>
       </c>
       <c r="E102" s="3">
-        <v>32200</v>
+        <v>119800</v>
       </c>
       <c r="F102" s="3">
-        <v>-111000</v>
+        <v>32800</v>
       </c>
       <c r="G102" s="3">
-        <v>24800</v>
+        <v>-113100</v>
       </c>
       <c r="H102" s="3">
-        <v>92500</v>
+        <v>25300</v>
       </c>
       <c r="I102" s="3">
-        <v>117900</v>
+        <v>94300</v>
       </c>
       <c r="J102" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-369300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>319900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>48600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>87500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>34200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>51200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-29400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-16700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-107500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>102200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>121100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-142000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>114800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-93300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>26600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-39200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-173100</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>47800</v>
       </c>
     </row>
